--- a/document/工程表/工程管理(Forest).xlsx
+++ b/document/工程表/工程管理(Forest).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class.DESKTOP-HLMSUMQ\Desktop\team_forest\document\工程表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EE351F-1E81-4453-9B13-C06A03D0D68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD294E77-84DB-4E19-AE4E-5040BAF5CCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="113">
   <si>
     <t>担当</t>
     <rPh sb="0" eb="2">
@@ -665,6 +665,64 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>レンケツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>黒田：カレンダー機能の強化、誕生日が出るように</t>
+    <rPh sb="0" eb="2">
+      <t>クロダ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>タンジョウビ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>永井：css</t>
+    <rPh sb="0" eb="2">
+      <t>ナガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>森岡、黒田：アーキテクチャ図作成</t>
+    <rPh sb="0" eb="2">
+      <t>モリオカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>クロダ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>森岡：画面遷移図大幅に修正</t>
+    <rPh sb="0" eb="2">
+      <t>モリオカ</t>
+    </rPh>
+    <rPh sb="3" eb="8">
+      <t>ガメンセンイズ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オオハバ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1321,7 +1379,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1514,12 +1572,141 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1574,133 +1761,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1989,8 +2050,8 @@
   </sheetPr>
   <dimension ref="B2:BY84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB82" sqref="AB82"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ12" sqref="AJ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2013,155 +2074,155 @@
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="88"/>
-      <c r="F4" s="87" t="s">
+      <c r="E4" s="86"/>
+      <c r="F4" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="88"/>
-      <c r="H4" s="87" t="s">
+      <c r="G4" s="86"/>
+      <c r="H4" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="87" t="s">
+      <c r="I4" s="86"/>
+      <c r="J4" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="88"/>
-      <c r="L4" s="87" t="s">
+      <c r="K4" s="86"/>
+      <c r="L4" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="88"/>
-      <c r="N4" s="87" t="s">
+      <c r="M4" s="86"/>
+      <c r="N4" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="88"/>
-      <c r="P4" s="87" t="s">
+      <c r="O4" s="86"/>
+      <c r="P4" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="87" t="s">
+      <c r="Q4" s="86"/>
+      <c r="R4" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="S4" s="88"/>
-      <c r="T4" s="87" t="s">
+      <c r="S4" s="86"/>
+      <c r="T4" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="U4" s="88"/>
-      <c r="V4" s="87" t="s">
+      <c r="U4" s="86"/>
+      <c r="V4" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="88"/>
-      <c r="X4" s="87" t="s">
+      <c r="W4" s="86"/>
+      <c r="X4" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="87" t="s">
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="87" t="s">
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="87" t="s">
+      <c r="AC4" s="86"/>
+      <c r="AD4" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="87" t="s">
+      <c r="AE4" s="86"/>
+      <c r="AF4" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="AG4" s="88"/>
-      <c r="AH4" s="87" t="s">
+      <c r="AG4" s="86"/>
+      <c r="AH4" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="AI4" s="88"/>
-      <c r="AJ4" s="87" t="s">
+      <c r="AI4" s="86"/>
+      <c r="AJ4" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="AK4" s="88"/>
-      <c r="AL4" s="87" t="s">
+      <c r="AK4" s="86"/>
+      <c r="AL4" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="AM4" s="88"/>
+      <c r="AM4" s="86"/>
     </row>
     <row r="5" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="103" t="s">
+      <c r="D5" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="104"/>
-      <c r="F5" s="103" t="s">
+      <c r="E5" s="76"/>
+      <c r="F5" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="104"/>
-      <c r="H5" s="101" t="s">
+      <c r="G5" s="76"/>
+      <c r="H5" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="102"/>
-      <c r="J5" s="101" t="s">
+      <c r="I5" s="84"/>
+      <c r="J5" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="102"/>
-      <c r="L5" s="101" t="s">
+      <c r="K5" s="84"/>
+      <c r="L5" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="102"/>
-      <c r="N5" s="101" t="s">
+      <c r="M5" s="84"/>
+      <c r="N5" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="102"/>
-      <c r="P5" s="103" t="s">
+      <c r="O5" s="84"/>
+      <c r="P5" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="103" t="s">
+      <c r="Q5" s="76"/>
+      <c r="R5" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="104"/>
-      <c r="T5" s="103" t="s">
+      <c r="S5" s="76"/>
+      <c r="T5" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="U5" s="104"/>
-      <c r="V5" s="103" t="s">
+      <c r="U5" s="76"/>
+      <c r="V5" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="W5" s="104"/>
-      <c r="X5" s="103" t="s">
+      <c r="W5" s="76"/>
+      <c r="X5" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="Y5" s="104"/>
-      <c r="Z5" s="101" t="s">
+      <c r="Y5" s="76"/>
+      <c r="Z5" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="AA5" s="102"/>
-      <c r="AB5" s="101" t="s">
+      <c r="AA5" s="84"/>
+      <c r="AB5" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="AC5" s="102"/>
-      <c r="AD5" s="103" t="s">
+      <c r="AC5" s="84"/>
+      <c r="AD5" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="AE5" s="104"/>
-      <c r="AF5" s="103" t="s">
+      <c r="AE5" s="76"/>
+      <c r="AF5" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="AG5" s="104"/>
-      <c r="AH5" s="103" t="s">
+      <c r="AG5" s="76"/>
+      <c r="AH5" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="AI5" s="104"/>
-      <c r="AJ5" s="103" t="s">
+      <c r="AI5" s="76"/>
+      <c r="AJ5" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="AK5" s="104"/>
-      <c r="AL5" s="103" t="s">
+      <c r="AK5" s="76"/>
+      <c r="AL5" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="AM5" s="104"/>
+      <c r="AM5" s="76"/>
     </row>
     <row r="6" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
@@ -2181,148 +2242,150 @@
       <c r="C8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="115" t="s">
+      <c r="D8" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="116"/>
-      <c r="F8" s="85" t="s">
+      <c r="E8" s="82"/>
+      <c r="F8" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="84" t="s">
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="85" t="s">
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="S8" s="84"/>
-      <c r="T8" s="84"/>
-      <c r="U8" s="84"/>
-      <c r="V8" s="84"/>
-      <c r="W8" s="86"/>
-      <c r="X8" s="84" t="s">
+      <c r="S8" s="77"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="79"/>
+      <c r="X8" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="Y8" s="84"/>
-      <c r="Z8" s="84"/>
-      <c r="AA8" s="84"/>
-      <c r="AB8" s="84"/>
-      <c r="AC8" s="84"/>
-      <c r="AD8" s="115" t="s">
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="77"/>
+      <c r="AA8" s="77"/>
+      <c r="AB8" s="77"/>
+      <c r="AC8" s="77"/>
+      <c r="AD8" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="AE8" s="117"/>
-      <c r="AF8" s="117"/>
-      <c r="AG8" s="117"/>
-      <c r="AH8" s="117"/>
-      <c r="AI8" s="116"/>
-      <c r="AJ8" s="85" t="s">
+      <c r="AE8" s="81"/>
+      <c r="AF8" s="81"/>
+      <c r="AG8" s="81"/>
+      <c r="AH8" s="81"/>
+      <c r="AI8" s="82"/>
+      <c r="AJ8" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="AK8" s="84"/>
-      <c r="AL8" s="84"/>
-      <c r="AM8" s="84"/>
-      <c r="AN8" s="84"/>
-      <c r="AO8" s="86"/>
-      <c r="AP8" s="84" t="s">
+      <c r="AK8" s="77"/>
+      <c r="AL8" s="77"/>
+      <c r="AM8" s="77"/>
+      <c r="AN8" s="77"/>
+      <c r="AO8" s="79"/>
+      <c r="AP8" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="AQ8" s="84"/>
-      <c r="AR8" s="84"/>
-      <c r="AS8" s="84"/>
-      <c r="AT8" s="84"/>
-      <c r="AU8" s="84"/>
-      <c r="AV8" s="84" t="s">
+      <c r="AQ8" s="77"/>
+      <c r="AR8" s="77"/>
+      <c r="AS8" s="77"/>
+      <c r="AT8" s="77"/>
+      <c r="AU8" s="77"/>
+      <c r="AV8" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="AW8" s="84"/>
-      <c r="AX8" s="84"/>
-      <c r="AY8" s="84"/>
-      <c r="AZ8" s="84"/>
-      <c r="BA8" s="84"/>
-      <c r="BB8" s="85" t="s">
+      <c r="AW8" s="77"/>
+      <c r="AX8" s="77"/>
+      <c r="AY8" s="77"/>
+      <c r="AZ8" s="77"/>
+      <c r="BA8" s="77"/>
+      <c r="BB8" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="BC8" s="84"/>
-      <c r="BD8" s="84"/>
-      <c r="BE8" s="84"/>
-      <c r="BF8" s="84"/>
-      <c r="BG8" s="86"/>
-      <c r="BH8" s="84" t="s">
+      <c r="BC8" s="77"/>
+      <c r="BD8" s="77"/>
+      <c r="BE8" s="77"/>
+      <c r="BF8" s="77"/>
+      <c r="BG8" s="79"/>
+      <c r="BH8" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="BI8" s="84"/>
-      <c r="BJ8" s="84"/>
-      <c r="BK8" s="84"/>
-      <c r="BL8" s="84"/>
-      <c r="BM8" s="84"/>
-      <c r="BN8" s="85" t="s">
+      <c r="BI8" s="77"/>
+      <c r="BJ8" s="77"/>
+      <c r="BK8" s="77"/>
+      <c r="BL8" s="77"/>
+      <c r="BM8" s="77"/>
+      <c r="BN8" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="BO8" s="84"/>
-      <c r="BP8" s="84"/>
-      <c r="BQ8" s="84"/>
-      <c r="BR8" s="84"/>
-      <c r="BS8" s="86"/>
-      <c r="BT8" s="85" t="s">
+      <c r="BO8" s="77"/>
+      <c r="BP8" s="77"/>
+      <c r="BQ8" s="77"/>
+      <c r="BR8" s="77"/>
+      <c r="BS8" s="79"/>
+      <c r="BT8" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="BU8" s="84"/>
-      <c r="BV8" s="84"/>
-      <c r="BW8" s="84"/>
-      <c r="BX8" s="84"/>
-      <c r="BY8" s="86"/>
+      <c r="BU8" s="77"/>
+      <c r="BV8" s="77"/>
+      <c r="BW8" s="77"/>
+      <c r="BX8" s="77"/>
+      <c r="BY8" s="79"/>
     </row>
     <row r="9" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="113" t="s">
+      <c r="B9" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="95">
+      <c r="D9" s="91">
         <v>0.5</v>
       </c>
-      <c r="E9" s="96"/>
-      <c r="F9" s="66" t="s">
+      <c r="E9" s="92"/>
+      <c r="F9" s="109" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="72" t="s">
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="72" t="s">
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="S9" s="73"/>
-      <c r="T9" s="73"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="9"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="116"/>
+      <c r="U9" s="116"/>
+      <c r="V9" s="116"/>
+      <c r="W9" s="117"/>
+      <c r="X9" s="115" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y9" s="116"/>
+      <c r="Z9" s="116"/>
+      <c r="AA9" s="116"/>
+      <c r="AB9" s="116"/>
+      <c r="AC9" s="117"/>
       <c r="AD9" s="10"/>
       <c r="AE9" s="11"/>
       <c r="AF9" s="11"/>
@@ -2373,34 +2436,34 @@
       <c r="BY9" s="9"/>
     </row>
     <row r="10" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="109"/>
-      <c r="C10" s="106"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="88"/>
       <c r="D10" s="93"/>
       <c r="E10" s="94"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="75"/>
-      <c r="S10" s="76"/>
-      <c r="T10" s="76"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="77"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="17"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="119"/>
+      <c r="Q10" s="120"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="119"/>
+      <c r="T10" s="119"/>
+      <c r="U10" s="119"/>
+      <c r="V10" s="119"/>
+      <c r="W10" s="120"/>
+      <c r="X10" s="118"/>
+      <c r="Y10" s="119"/>
+      <c r="Z10" s="119"/>
+      <c r="AA10" s="119"/>
+      <c r="AB10" s="119"/>
+      <c r="AC10" s="120"/>
       <c r="AD10" s="18"/>
       <c r="AE10" s="19"/>
       <c r="AF10" s="19"/>
@@ -2451,16 +2514,16 @@
       <c r="BY10" s="17"/>
     </row>
     <row r="11" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="107" t="s">
+      <c r="C11" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="95">
+      <c r="D11" s="91">
         <v>0.7</v>
       </c>
-      <c r="E11" s="96"/>
+      <c r="E11" s="92"/>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
@@ -2535,8 +2598,8 @@
       <c r="BY11" s="22"/>
     </row>
     <row r="12" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="109"/>
-      <c r="C12" s="106"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="88"/>
       <c r="D12" s="93"/>
       <c r="E12" s="94"/>
       <c r="F12" s="25"/>
@@ -2613,24 +2676,24 @@
       <c r="BY12" s="27"/>
     </row>
     <row r="13" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="105" t="s">
+      <c r="C13" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="95">
+      <c r="D13" s="91">
         <v>0.8</v>
       </c>
-      <c r="E13" s="96"/>
-      <c r="F13" s="78" t="s">
+      <c r="E13" s="92"/>
+      <c r="F13" s="121" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="80"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="123"/>
       <c r="L13" s="23"/>
       <c r="M13" s="24"/>
       <c r="N13" s="24"/>
@@ -2643,12 +2706,14 @@
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
       <c r="W13" s="17"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="17"/>
+      <c r="X13" s="121" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y13" s="122"/>
+      <c r="Z13" s="122"/>
+      <c r="AA13" s="122"/>
+      <c r="AB13" s="122"/>
+      <c r="AC13" s="123"/>
       <c r="AD13" s="23"/>
       <c r="AE13" s="24"/>
       <c r="AF13" s="24"/>
@@ -2699,16 +2764,16 @@
       <c r="BY13" s="17"/>
     </row>
     <row r="14" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="109"/>
-      <c r="C14" s="106"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="88"/>
       <c r="D14" s="93"/>
       <c r="E14" s="94"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="77"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="120"/>
       <c r="L14" s="28"/>
       <c r="M14" s="29"/>
       <c r="N14" s="29"/>
@@ -2721,12 +2786,12 @@
       <c r="U14" s="26"/>
       <c r="V14" s="26"/>
       <c r="W14" s="27"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="26"/>
-      <c r="AC14" s="27"/>
+      <c r="X14" s="118"/>
+      <c r="Y14" s="119"/>
+      <c r="Z14" s="119"/>
+      <c r="AA14" s="119"/>
+      <c r="AB14" s="119"/>
+      <c r="AC14" s="120"/>
       <c r="AD14" s="28"/>
       <c r="AE14" s="29"/>
       <c r="AF14" s="29"/>
@@ -2777,24 +2842,24 @@
       <c r="BY14" s="27"/>
     </row>
     <row r="15" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="108" t="s">
+      <c r="B15" s="95" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="107" t="s">
+      <c r="C15" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="91">
+      <c r="D15" s="97">
         <v>0.8</v>
       </c>
-      <c r="E15" s="92"/>
-      <c r="F15" s="78" t="s">
+      <c r="E15" s="100"/>
+      <c r="F15" s="121" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="80"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="123"/>
       <c r="L15" s="18"/>
       <c r="M15" s="19"/>
       <c r="N15" s="19"/>
@@ -2863,16 +2928,16 @@
       <c r="BY15" s="17"/>
     </row>
     <row r="16" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="109"/>
-      <c r="C16" s="106"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="88"/>
       <c r="D16" s="93"/>
       <c r="E16" s="94"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="77"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="120"/>
       <c r="L16" s="18"/>
       <c r="M16" s="19"/>
       <c r="N16" s="19"/>
@@ -2941,16 +3006,16 @@
       <c r="BY16" s="27"/>
     </row>
     <row r="17" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="108" t="s">
+      <c r="B17" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="110" t="s">
+      <c r="C17" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="91">
+      <c r="D17" s="97">
         <v>0</v>
       </c>
-      <c r="E17" s="92"/>
+      <c r="E17" s="100"/>
       <c r="F17" s="16"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
@@ -3025,8 +3090,8 @@
       <c r="BY17" s="17"/>
     </row>
     <row r="18" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="109"/>
-      <c r="C18" s="111"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="102"/>
       <c r="D18" s="93"/>
       <c r="E18" s="94"/>
       <c r="F18" s="25"/>
@@ -3103,42 +3168,44 @@
       <c r="BY18" s="27"/>
     </row>
     <row r="19" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="110" t="s">
+      <c r="C19" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="91">
+      <c r="D19" s="97">
         <v>0.5</v>
       </c>
-      <c r="E19" s="92"/>
+      <c r="E19" s="100"/>
       <c r="F19" s="16"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="17"/>
-      <c r="L19" s="78" t="s">
+      <c r="L19" s="121" t="s">
         <v>97</v>
       </c>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="80"/>
+      <c r="M19" s="122"/>
+      <c r="N19" s="122"/>
+      <c r="O19" s="122"/>
+      <c r="P19" s="122"/>
+      <c r="Q19" s="123"/>
       <c r="R19" s="16"/>
       <c r="S19" s="12"/>
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12"/>
       <c r="W19" s="17"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="12"/>
-      <c r="AC19" s="17"/>
+      <c r="X19" s="121" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y19" s="122"/>
+      <c r="Z19" s="122"/>
+      <c r="AA19" s="122"/>
+      <c r="AB19" s="122"/>
+      <c r="AC19" s="123"/>
       <c r="AD19" s="23"/>
       <c r="AE19" s="24"/>
       <c r="AF19" s="24"/>
@@ -3189,8 +3256,8 @@
       <c r="BY19" s="17"/>
     </row>
     <row r="20" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="109"/>
-      <c r="C20" s="111"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="102"/>
       <c r="D20" s="93"/>
       <c r="E20" s="94"/>
       <c r="F20" s="25"/>
@@ -3199,24 +3266,24 @@
       <c r="I20" s="26"/>
       <c r="J20" s="26"/>
       <c r="K20" s="27"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="77"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="119"/>
+      <c r="N20" s="119"/>
+      <c r="O20" s="119"/>
+      <c r="P20" s="119"/>
+      <c r="Q20" s="120"/>
       <c r="R20" s="25"/>
       <c r="S20" s="26"/>
       <c r="T20" s="26"/>
       <c r="U20" s="26"/>
       <c r="V20" s="26"/>
       <c r="W20" s="27"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
-      <c r="AA20" s="26"/>
-      <c r="AB20" s="26"/>
-      <c r="AC20" s="27"/>
+      <c r="X20" s="118"/>
+      <c r="Y20" s="119"/>
+      <c r="Z20" s="119"/>
+      <c r="AA20" s="119"/>
+      <c r="AB20" s="119"/>
+      <c r="AC20" s="120"/>
       <c r="AD20" s="28"/>
       <c r="AE20" s="29"/>
       <c r="AF20" s="29"/>
@@ -3267,28 +3334,28 @@
       <c r="BY20" s="27"/>
     </row>
     <row r="21" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="108" t="s">
+      <c r="B21" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="112"/>
-      <c r="D21" s="91">
+      <c r="C21" s="89"/>
+      <c r="D21" s="97">
         <v>0.2</v>
       </c>
-      <c r="E21" s="99"/>
+      <c r="E21" s="98"/>
       <c r="F21" s="16"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="17"/>
-      <c r="L21" s="78" t="s">
+      <c r="L21" s="121" t="s">
         <v>100</v>
       </c>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="79"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="80"/>
+      <c r="M21" s="122"/>
+      <c r="N21" s="122"/>
+      <c r="O21" s="122"/>
+      <c r="P21" s="122"/>
+      <c r="Q21" s="123"/>
       <c r="R21" s="16"/>
       <c r="S21" s="12"/>
       <c r="T21" s="12"/>
@@ -3351,22 +3418,22 @@
       <c r="BY21" s="17"/>
     </row>
     <row r="22" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="109"/>
-      <c r="C22" s="106"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="88"/>
       <c r="D22" s="93"/>
-      <c r="E22" s="100"/>
+      <c r="E22" s="99"/>
       <c r="F22" s="25"/>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
       <c r="J22" s="26"/>
       <c r="K22" s="27"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="76"/>
-      <c r="N22" s="76"/>
-      <c r="O22" s="76"/>
-      <c r="P22" s="76"/>
-      <c r="Q22" s="77"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="119"/>
+      <c r="P22" s="119"/>
+      <c r="Q22" s="120"/>
       <c r="R22" s="25"/>
       <c r="S22" s="26"/>
       <c r="T22" s="26"/>
@@ -3429,12 +3496,12 @@
       <c r="BY22" s="27"/>
     </row>
     <row r="23" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="108" t="s">
+      <c r="B23" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="107"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="92"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="100"/>
       <c r="F23" s="16"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
@@ -3509,8 +3576,8 @@
       <c r="BY23" s="17"/>
     </row>
     <row r="24" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="109"/>
-      <c r="C24" s="106"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="88"/>
       <c r="D24" s="93"/>
       <c r="E24" s="94"/>
       <c r="F24" s="25"/>
@@ -3587,12 +3654,12 @@
       <c r="BY24" s="27"/>
     </row>
     <row r="25" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="108" t="s">
+      <c r="B25" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="112"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="99"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="98"/>
       <c r="F25" s="16"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
@@ -3667,10 +3734,10 @@
       <c r="BY25" s="17"/>
     </row>
     <row r="26" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="109"/>
-      <c r="C26" s="106"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="88"/>
       <c r="D26" s="93"/>
-      <c r="E26" s="100"/>
+      <c r="E26" s="99"/>
       <c r="F26" s="25"/>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
@@ -3745,14 +3812,14 @@
       <c r="BY26" s="27"/>
     </row>
     <row r="27" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="108" t="s">
+      <c r="B27" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="107"/>
-      <c r="D27" s="91">
+      <c r="C27" s="87"/>
+      <c r="D27" s="97">
         <v>0</v>
       </c>
-      <c r="E27" s="92"/>
+      <c r="E27" s="100"/>
       <c r="F27" s="16"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
@@ -3827,8 +3894,8 @@
       <c r="BY27" s="17"/>
     </row>
     <row r="28" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="109"/>
-      <c r="C28" s="106"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="88"/>
       <c r="D28" s="93"/>
       <c r="E28" s="94"/>
       <c r="F28" s="25"/>
@@ -3989,8 +4056,8 @@
         <v>11</v>
       </c>
       <c r="C30" s="30"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="98"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="107"/>
       <c r="F30" s="31"/>
       <c r="G30" s="32"/>
       <c r="H30" s="32"/>
@@ -4069,8 +4136,8 @@
         <v>1</v>
       </c>
       <c r="C31" s="36"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="99"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="98"/>
       <c r="F31" s="16"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
@@ -4149,8 +4216,8 @@
         <v>8</v>
       </c>
       <c r="C32" s="37"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="90"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="105"/>
       <c r="F32" s="38"/>
       <c r="G32" s="39"/>
       <c r="H32" s="39"/>
@@ -4163,20 +4230,22 @@
       <c r="O32" s="43"/>
       <c r="P32" s="39"/>
       <c r="Q32" s="39"/>
-      <c r="R32" s="81" t="s">
+      <c r="R32" s="124" t="s">
         <v>101</v>
       </c>
-      <c r="S32" s="82"/>
-      <c r="T32" s="82"/>
-      <c r="U32" s="82"/>
-      <c r="V32" s="82"/>
-      <c r="W32" s="83"/>
-      <c r="X32" s="38"/>
-      <c r="Y32" s="39"/>
-      <c r="Z32" s="39"/>
-      <c r="AA32" s="39"/>
-      <c r="AB32" s="39"/>
-      <c r="AC32" s="40"/>
+      <c r="S32" s="125"/>
+      <c r="T32" s="125"/>
+      <c r="U32" s="125"/>
+      <c r="V32" s="125"/>
+      <c r="W32" s="126"/>
+      <c r="X32" s="124" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y32" s="125"/>
+      <c r="Z32" s="125"/>
+      <c r="AA32" s="125"/>
+      <c r="AB32" s="125"/>
+      <c r="AC32" s="126"/>
       <c r="AD32" s="41"/>
       <c r="AE32" s="42"/>
       <c r="AF32" s="42"/>
@@ -4266,116 +4335,116 @@
       <c r="C34" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="114" t="s">
+      <c r="D34" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="114"/>
-      <c r="F34" s="85" t="s">
+      <c r="E34" s="108"/>
+      <c r="F34" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="86"/>
-      <c r="L34" s="84" t="s">
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="79"/>
+      <c r="L34" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="M34" s="84"/>
-      <c r="N34" s="84"/>
-      <c r="O34" s="84"/>
-      <c r="P34" s="84"/>
-      <c r="Q34" s="84"/>
-      <c r="R34" s="85" t="s">
+      <c r="M34" s="77"/>
+      <c r="N34" s="77"/>
+      <c r="O34" s="77"/>
+      <c r="P34" s="77"/>
+      <c r="Q34" s="77"/>
+      <c r="R34" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="S34" s="84"/>
-      <c r="T34" s="84"/>
-      <c r="U34" s="84"/>
-      <c r="V34" s="84"/>
-      <c r="W34" s="86"/>
-      <c r="X34" s="84" t="s">
+      <c r="S34" s="77"/>
+      <c r="T34" s="77"/>
+      <c r="U34" s="77"/>
+      <c r="V34" s="77"/>
+      <c r="W34" s="79"/>
+      <c r="X34" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="Y34" s="84"/>
-      <c r="Z34" s="84"/>
-      <c r="AA34" s="84"/>
-      <c r="AB34" s="84"/>
-      <c r="AC34" s="84"/>
-      <c r="AD34" s="115" t="s">
+      <c r="Y34" s="77"/>
+      <c r="Z34" s="77"/>
+      <c r="AA34" s="77"/>
+      <c r="AB34" s="77"/>
+      <c r="AC34" s="77"/>
+      <c r="AD34" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="AE34" s="117"/>
-      <c r="AF34" s="117"/>
-      <c r="AG34" s="117"/>
-      <c r="AH34" s="117"/>
-      <c r="AI34" s="116"/>
-      <c r="AJ34" s="85" t="s">
+      <c r="AE34" s="81"/>
+      <c r="AF34" s="81"/>
+      <c r="AG34" s="81"/>
+      <c r="AH34" s="81"/>
+      <c r="AI34" s="82"/>
+      <c r="AJ34" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="AK34" s="84"/>
-      <c r="AL34" s="84"/>
-      <c r="AM34" s="84"/>
-      <c r="AN34" s="84"/>
-      <c r="AO34" s="86"/>
-      <c r="AP34" s="84" t="s">
+      <c r="AK34" s="77"/>
+      <c r="AL34" s="77"/>
+      <c r="AM34" s="77"/>
+      <c r="AN34" s="77"/>
+      <c r="AO34" s="79"/>
+      <c r="AP34" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="AQ34" s="84"/>
-      <c r="AR34" s="84"/>
-      <c r="AS34" s="84"/>
-      <c r="AT34" s="84"/>
-      <c r="AU34" s="84"/>
-      <c r="AV34" s="84" t="s">
+      <c r="AQ34" s="77"/>
+      <c r="AR34" s="77"/>
+      <c r="AS34" s="77"/>
+      <c r="AT34" s="77"/>
+      <c r="AU34" s="77"/>
+      <c r="AV34" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="AW34" s="84"/>
-      <c r="AX34" s="84"/>
-      <c r="AY34" s="84"/>
-      <c r="AZ34" s="84"/>
-      <c r="BA34" s="84"/>
-      <c r="BB34" s="85" t="s">
+      <c r="AW34" s="77"/>
+      <c r="AX34" s="77"/>
+      <c r="AY34" s="77"/>
+      <c r="AZ34" s="77"/>
+      <c r="BA34" s="77"/>
+      <c r="BB34" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="BC34" s="84"/>
-      <c r="BD34" s="84"/>
-      <c r="BE34" s="84"/>
-      <c r="BF34" s="84"/>
-      <c r="BG34" s="86"/>
-      <c r="BH34" s="84" t="s">
+      <c r="BC34" s="77"/>
+      <c r="BD34" s="77"/>
+      <c r="BE34" s="77"/>
+      <c r="BF34" s="77"/>
+      <c r="BG34" s="79"/>
+      <c r="BH34" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="BI34" s="84"/>
-      <c r="BJ34" s="84"/>
-      <c r="BK34" s="84"/>
-      <c r="BL34" s="84"/>
-      <c r="BM34" s="84"/>
-      <c r="BN34" s="85" t="s">
+      <c r="BI34" s="77"/>
+      <c r="BJ34" s="77"/>
+      <c r="BK34" s="77"/>
+      <c r="BL34" s="77"/>
+      <c r="BM34" s="77"/>
+      <c r="BN34" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="BO34" s="84"/>
-      <c r="BP34" s="84"/>
-      <c r="BQ34" s="84"/>
-      <c r="BR34" s="84"/>
-      <c r="BS34" s="86"/>
-      <c r="BT34" s="85" t="s">
+      <c r="BO34" s="77"/>
+      <c r="BP34" s="77"/>
+      <c r="BQ34" s="77"/>
+      <c r="BR34" s="77"/>
+      <c r="BS34" s="79"/>
+      <c r="BT34" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="BU34" s="84"/>
-      <c r="BV34" s="84"/>
-      <c r="BW34" s="84"/>
-      <c r="BX34" s="84"/>
-      <c r="BY34" s="86"/>
+      <c r="BU34" s="77"/>
+      <c r="BV34" s="77"/>
+      <c r="BW34" s="77"/>
+      <c r="BX34" s="77"/>
+      <c r="BY34" s="79"/>
     </row>
     <row r="35" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="52" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="53"/>
-      <c r="D35" s="64">
+      <c r="D35" s="73">
         <v>1</v>
       </c>
-      <c r="E35" s="65"/>
+      <c r="E35" s="74"/>
       <c r="F35" s="53"/>
       <c r="G35" s="53"/>
       <c r="H35" s="53"/>
@@ -4454,10 +4523,10 @@
         <v>45</v>
       </c>
       <c r="C36" s="53"/>
-      <c r="D36" s="64">
+      <c r="D36" s="73">
         <v>1</v>
       </c>
-      <c r="E36" s="65"/>
+      <c r="E36" s="74"/>
       <c r="F36" s="53"/>
       <c r="G36" s="53"/>
       <c r="H36" s="53"/>
@@ -4536,10 +4605,10 @@
         <v>46</v>
       </c>
       <c r="C37" s="53"/>
-      <c r="D37" s="64">
+      <c r="D37" s="73">
         <v>1</v>
       </c>
-      <c r="E37" s="65"/>
+      <c r="E37" s="74"/>
       <c r="F37" s="53"/>
       <c r="G37" s="53"/>
       <c r="H37" s="53"/>
@@ -4618,10 +4687,10 @@
         <v>60</v>
       </c>
       <c r="C38" s="53"/>
-      <c r="D38" s="64">
+      <c r="D38" s="73">
         <v>1</v>
       </c>
-      <c r="E38" s="65"/>
+      <c r="E38" s="74"/>
       <c r="F38" s="53"/>
       <c r="G38" s="53"/>
       <c r="H38" s="53"/>
@@ -4700,10 +4769,10 @@
         <v>61</v>
       </c>
       <c r="C39" s="53"/>
-      <c r="D39" s="64">
+      <c r="D39" s="73">
         <v>1</v>
       </c>
-      <c r="E39" s="65"/>
+      <c r="E39" s="74"/>
       <c r="F39" s="53"/>
       <c r="G39" s="53"/>
       <c r="H39" s="53"/>
@@ -4782,10 +4851,10 @@
         <v>62</v>
       </c>
       <c r="C40" s="53"/>
-      <c r="D40" s="64">
+      <c r="D40" s="73">
         <v>1</v>
       </c>
-      <c r="E40" s="65"/>
+      <c r="E40" s="74"/>
       <c r="F40" s="53"/>
       <c r="G40" s="53"/>
       <c r="H40" s="53"/>
@@ -4864,10 +4933,10 @@
         <v>63</v>
       </c>
       <c r="C41" s="53"/>
-      <c r="D41" s="64">
+      <c r="D41" s="73">
         <v>1</v>
       </c>
-      <c r="E41" s="65"/>
+      <c r="E41" s="74"/>
       <c r="F41" s="53"/>
       <c r="G41" s="53"/>
       <c r="H41" s="53"/>
@@ -4946,10 +5015,10 @@
         <v>64</v>
       </c>
       <c r="C42" s="53"/>
-      <c r="D42" s="64">
+      <c r="D42" s="73">
         <v>1</v>
       </c>
-      <c r="E42" s="65"/>
+      <c r="E42" s="74"/>
       <c r="F42" s="53"/>
       <c r="G42" s="53"/>
       <c r="H42" s="53"/>
@@ -5028,10 +5097,10 @@
         <v>65</v>
       </c>
       <c r="C43" s="53"/>
-      <c r="D43" s="64">
+      <c r="D43" s="73">
         <v>1</v>
       </c>
-      <c r="E43" s="65"/>
+      <c r="E43" s="74"/>
       <c r="F43" s="53"/>
       <c r="G43" s="53"/>
       <c r="H43" s="53"/>
@@ -5110,10 +5179,10 @@
         <v>66</v>
       </c>
       <c r="C44" s="53"/>
-      <c r="D44" s="64">
+      <c r="D44" s="73">
         <v>1</v>
       </c>
-      <c r="E44" s="65"/>
+      <c r="E44" s="74"/>
       <c r="F44" s="53"/>
       <c r="G44" s="53"/>
       <c r="H44" s="53"/>
@@ -5192,10 +5261,10 @@
         <v>67</v>
       </c>
       <c r="C45" s="53"/>
-      <c r="D45" s="64">
+      <c r="D45" s="73">
         <v>1</v>
       </c>
-      <c r="E45" s="65"/>
+      <c r="E45" s="74"/>
       <c r="F45" s="53"/>
       <c r="G45" s="53"/>
       <c r="H45" s="53"/>
@@ -5274,10 +5343,10 @@
         <v>68</v>
       </c>
       <c r="C46" s="53"/>
-      <c r="D46" s="64">
+      <c r="D46" s="73">
         <v>1</v>
       </c>
-      <c r="E46" s="65"/>
+      <c r="E46" s="74"/>
       <c r="F46" s="53"/>
       <c r="G46" s="53"/>
       <c r="H46" s="53"/>
@@ -5356,10 +5425,10 @@
         <v>69</v>
       </c>
       <c r="C47" s="53"/>
-      <c r="D47" s="64">
+      <c r="D47" s="73">
         <v>1</v>
       </c>
-      <c r="E47" s="65"/>
+      <c r="E47" s="74"/>
       <c r="F47" s="53"/>
       <c r="G47" s="53"/>
       <c r="H47" s="53"/>
@@ -5438,10 +5507,10 @@
         <v>70</v>
       </c>
       <c r="C48" s="53"/>
-      <c r="D48" s="64">
+      <c r="D48" s="73">
         <v>1</v>
       </c>
-      <c r="E48" s="65"/>
+      <c r="E48" s="74"/>
       <c r="F48" s="53"/>
       <c r="G48" s="53"/>
       <c r="H48" s="53"/>
@@ -5520,10 +5589,10 @@
         <v>71</v>
       </c>
       <c r="C49" s="53"/>
-      <c r="D49" s="64">
+      <c r="D49" s="73">
         <v>1</v>
       </c>
-      <c r="E49" s="65"/>
+      <c r="E49" s="74"/>
       <c r="F49" s="53"/>
       <c r="G49" s="53"/>
       <c r="H49" s="53"/>
@@ -5602,10 +5671,10 @@
         <v>72</v>
       </c>
       <c r="C50" s="53"/>
-      <c r="D50" s="64">
+      <c r="D50" s="73">
         <v>1</v>
       </c>
-      <c r="E50" s="65"/>
+      <c r="E50" s="74"/>
       <c r="F50" s="53"/>
       <c r="G50" s="53"/>
       <c r="H50" s="53"/>
@@ -5684,10 +5753,10 @@
         <v>73</v>
       </c>
       <c r="C51" s="53"/>
-      <c r="D51" s="64">
+      <c r="D51" s="73">
         <v>1</v>
       </c>
-      <c r="E51" s="65"/>
+      <c r="E51" s="74"/>
       <c r="F51" s="53"/>
       <c r="G51" s="53"/>
       <c r="H51" s="53"/>
@@ -5766,10 +5835,10 @@
         <v>74</v>
       </c>
       <c r="C52" s="53"/>
-      <c r="D52" s="64">
+      <c r="D52" s="73">
         <v>1</v>
       </c>
-      <c r="E52" s="65"/>
+      <c r="E52" s="74"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
       <c r="H52" s="53"/>
@@ -5848,10 +5917,10 @@
         <v>75</v>
       </c>
       <c r="C53" s="53"/>
-      <c r="D53" s="64">
+      <c r="D53" s="73">
         <v>1</v>
       </c>
-      <c r="E53" s="65"/>
+      <c r="E53" s="74"/>
       <c r="F53" s="53"/>
       <c r="G53" s="53"/>
       <c r="H53" s="53"/>
@@ -5930,10 +5999,10 @@
         <v>76</v>
       </c>
       <c r="C54" s="53"/>
-      <c r="D54" s="64">
+      <c r="D54" s="73">
         <v>1</v>
       </c>
-      <c r="E54" s="65"/>
+      <c r="E54" s="74"/>
       <c r="F54" s="53"/>
       <c r="G54" s="53"/>
       <c r="H54" s="53"/>
@@ -6012,10 +6081,10 @@
         <v>77</v>
       </c>
       <c r="C55" s="58"/>
-      <c r="D55" s="64">
+      <c r="D55" s="73">
         <v>1</v>
       </c>
-      <c r="E55" s="65"/>
+      <c r="E55" s="74"/>
       <c r="F55" s="53"/>
       <c r="G55" s="53"/>
       <c r="H55" s="53"/>
@@ -6094,10 +6163,10 @@
         <v>78</v>
       </c>
       <c r="C56" s="53"/>
-      <c r="D56" s="64">
+      <c r="D56" s="73">
         <v>1</v>
       </c>
-      <c r="E56" s="65"/>
+      <c r="E56" s="74"/>
       <c r="F56" s="53"/>
       <c r="G56" s="53"/>
       <c r="H56" s="53"/>
@@ -6176,10 +6245,10 @@
         <v>79</v>
       </c>
       <c r="C57" s="53"/>
-      <c r="D57" s="64">
+      <c r="D57" s="73">
         <v>1</v>
       </c>
-      <c r="E57" s="65"/>
+      <c r="E57" s="74"/>
       <c r="F57" s="53"/>
       <c r="G57" s="53"/>
       <c r="H57" s="53"/>
@@ -6258,10 +6327,10 @@
         <v>80</v>
       </c>
       <c r="C58" s="53"/>
-      <c r="D58" s="64">
+      <c r="D58" s="73">
         <v>1</v>
       </c>
-      <c r="E58" s="65"/>
+      <c r="E58" s="74"/>
       <c r="F58" s="53"/>
       <c r="G58" s="53"/>
       <c r="H58" s="53"/>
@@ -6340,10 +6409,10 @@
         <v>81</v>
       </c>
       <c r="C59" s="53"/>
-      <c r="D59" s="64">
+      <c r="D59" s="73">
         <v>1</v>
       </c>
-      <c r="E59" s="65"/>
+      <c r="E59" s="74"/>
       <c r="F59" s="53"/>
       <c r="G59" s="53"/>
       <c r="H59" s="53"/>
@@ -6422,10 +6491,10 @@
         <v>82</v>
       </c>
       <c r="C60" s="53"/>
-      <c r="D60" s="64">
+      <c r="D60" s="73">
         <v>1</v>
       </c>
-      <c r="E60" s="65"/>
+      <c r="E60" s="74"/>
       <c r="F60" s="53"/>
       <c r="G60" s="53"/>
       <c r="H60" s="53"/>
@@ -6504,10 +6573,10 @@
         <v>83</v>
       </c>
       <c r="C61" s="53"/>
-      <c r="D61" s="64">
+      <c r="D61" s="73">
         <v>1</v>
       </c>
-      <c r="E61" s="65"/>
+      <c r="E61" s="74"/>
       <c r="F61" s="53"/>
       <c r="G61" s="53"/>
       <c r="H61" s="53"/>
@@ -6586,10 +6655,10 @@
         <v>84</v>
       </c>
       <c r="C62" s="53"/>
-      <c r="D62" s="64">
+      <c r="D62" s="73">
         <v>1</v>
       </c>
-      <c r="E62" s="65"/>
+      <c r="E62" s="74"/>
       <c r="F62" s="53"/>
       <c r="G62" s="53"/>
       <c r="H62" s="53"/>
@@ -6666,8 +6735,8 @@
     <row r="63" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="57"/>
       <c r="C63" s="59"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="65"/>
+      <c r="D63" s="73"/>
+      <c r="E63" s="74"/>
       <c r="F63" s="59"/>
       <c r="G63" s="59"/>
       <c r="H63" s="59"/>
@@ -6746,10 +6815,10 @@
         <v>47</v>
       </c>
       <c r="C64" s="59"/>
-      <c r="D64" s="64">
+      <c r="D64" s="73">
         <v>1</v>
       </c>
-      <c r="E64" s="65"/>
+      <c r="E64" s="74"/>
       <c r="F64" s="59"/>
       <c r="G64" s="59"/>
       <c r="H64" s="59"/>
@@ -6828,10 +6897,10 @@
         <v>48</v>
       </c>
       <c r="C65" s="59"/>
-      <c r="D65" s="64">
+      <c r="D65" s="73">
         <v>1</v>
       </c>
-      <c r="E65" s="65"/>
+      <c r="E65" s="74"/>
       <c r="F65" s="59"/>
       <c r="G65" s="59"/>
       <c r="H65" s="59"/>
@@ -6908,8 +6977,8 @@
     <row r="66" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="57"/>
       <c r="C66" s="59"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="65"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="74"/>
       <c r="F66" s="59"/>
       <c r="G66" s="59"/>
       <c r="H66" s="59"/>
@@ -6988,10 +7057,10 @@
         <v>49</v>
       </c>
       <c r="C67" s="59"/>
-      <c r="D67" s="64">
+      <c r="D67" s="73">
         <v>1</v>
       </c>
-      <c r="E67" s="65"/>
+      <c r="E67" s="74"/>
       <c r="F67" s="59"/>
       <c r="G67" s="59"/>
       <c r="H67" s="59"/>
@@ -7070,10 +7139,10 @@
         <v>50</v>
       </c>
       <c r="C68" s="59"/>
-      <c r="D68" s="64">
+      <c r="D68" s="73">
         <v>1</v>
       </c>
-      <c r="E68" s="65"/>
+      <c r="E68" s="74"/>
       <c r="F68" s="59"/>
       <c r="G68" s="59"/>
       <c r="H68" s="59"/>
@@ -7152,10 +7221,10 @@
         <v>51</v>
       </c>
       <c r="C69" s="59"/>
-      <c r="D69" s="64">
+      <c r="D69" s="73">
         <v>1</v>
       </c>
-      <c r="E69" s="65"/>
+      <c r="E69" s="74"/>
       <c r="F69" s="59"/>
       <c r="G69" s="59"/>
       <c r="H69" s="59"/>
@@ -7234,10 +7303,10 @@
         <v>52</v>
       </c>
       <c r="C70" s="59"/>
-      <c r="D70" s="64">
+      <c r="D70" s="73">
         <v>1</v>
       </c>
-      <c r="E70" s="65"/>
+      <c r="E70" s="74"/>
       <c r="F70" s="59"/>
       <c r="G70" s="59"/>
       <c r="H70" s="59"/>
@@ -7316,10 +7385,10 @@
         <v>53</v>
       </c>
       <c r="C71" s="59"/>
-      <c r="D71" s="64">
+      <c r="D71" s="73">
         <v>1</v>
       </c>
-      <c r="E71" s="65"/>
+      <c r="E71" s="74"/>
       <c r="F71" s="59"/>
       <c r="G71" s="59"/>
       <c r="H71" s="59"/>
@@ -7398,10 +7467,10 @@
         <v>54</v>
       </c>
       <c r="C72" s="59"/>
-      <c r="D72" s="64">
+      <c r="D72" s="73">
         <v>1</v>
       </c>
-      <c r="E72" s="65"/>
+      <c r="E72" s="74"/>
       <c r="F72" s="59"/>
       <c r="G72" s="59"/>
       <c r="H72" s="59"/>
@@ -7480,10 +7549,10 @@
         <v>55</v>
       </c>
       <c r="C73" s="59"/>
-      <c r="D73" s="64">
+      <c r="D73" s="73">
         <v>1</v>
       </c>
-      <c r="E73" s="65"/>
+      <c r="E73" s="74"/>
       <c r="F73" s="59"/>
       <c r="G73" s="59"/>
       <c r="H73" s="59"/>
@@ -7562,10 +7631,10 @@
         <v>56</v>
       </c>
       <c r="C74" s="59"/>
-      <c r="D74" s="64">
+      <c r="D74" s="73">
         <v>1</v>
       </c>
-      <c r="E74" s="65"/>
+      <c r="E74" s="74"/>
       <c r="F74" s="59"/>
       <c r="G74" s="59"/>
       <c r="H74" s="59"/>
@@ -7644,10 +7713,10 @@
         <v>57</v>
       </c>
       <c r="C75" s="59"/>
-      <c r="D75" s="64">
+      <c r="D75" s="73">
         <v>1</v>
       </c>
-      <c r="E75" s="65"/>
+      <c r="E75" s="74"/>
       <c r="F75" s="59"/>
       <c r="G75" s="59"/>
       <c r="H75" s="59"/>
@@ -7726,10 +7795,10 @@
         <v>58</v>
       </c>
       <c r="C76" s="59"/>
-      <c r="D76" s="64">
+      <c r="D76" s="73">
         <v>1</v>
       </c>
-      <c r="E76" s="65"/>
+      <c r="E76" s="74"/>
       <c r="F76" s="59"/>
       <c r="G76" s="59"/>
       <c r="H76" s="59"/>
@@ -7808,10 +7877,10 @@
         <v>59</v>
       </c>
       <c r="C77" s="62"/>
-      <c r="D77" s="64">
+      <c r="D77" s="73">
         <v>1</v>
       </c>
-      <c r="E77" s="65"/>
+      <c r="E77" s="74"/>
       <c r="F77" s="62"/>
       <c r="G77" s="62"/>
       <c r="H77" s="62"/>
@@ -7892,8 +7961,8 @@
       <c r="C78" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D78" s="64"/>
-      <c r="E78" s="65"/>
+      <c r="D78" s="73"/>
+      <c r="E78" s="74"/>
       <c r="F78" s="59"/>
       <c r="G78" s="59"/>
       <c r="H78" s="59"/>
@@ -7906,20 +7975,22 @@
       <c r="O78" s="59"/>
       <c r="P78" s="59"/>
       <c r="Q78" s="59"/>
-      <c r="R78" s="118" t="s">
+      <c r="R78" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="S78" s="119"/>
-      <c r="T78" s="119"/>
-      <c r="U78" s="119"/>
-      <c r="V78" s="119"/>
-      <c r="W78" s="120"/>
-      <c r="X78" s="59"/>
-      <c r="Y78" s="59"/>
-      <c r="Z78" s="59"/>
-      <c r="AA78" s="59"/>
-      <c r="AB78" s="59"/>
-      <c r="AC78" s="59"/>
+      <c r="S78" s="65"/>
+      <c r="T78" s="65"/>
+      <c r="U78" s="65"/>
+      <c r="V78" s="65"/>
+      <c r="W78" s="66"/>
+      <c r="X78" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y78" s="65"/>
+      <c r="Z78" s="65"/>
+      <c r="AA78" s="65"/>
+      <c r="AB78" s="65"/>
+      <c r="AC78" s="66"/>
       <c r="AD78" s="59"/>
       <c r="AE78" s="59"/>
       <c r="AF78" s="59"/>
@@ -7976,8 +8047,8 @@
       <c r="C79" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D79" s="64"/>
-      <c r="E79" s="65"/>
+      <c r="D79" s="73"/>
+      <c r="E79" s="74"/>
       <c r="F79" s="59"/>
       <c r="G79" s="59"/>
       <c r="H79" s="59"/>
@@ -7990,18 +8061,18 @@
       <c r="O79" s="59"/>
       <c r="P79" s="59"/>
       <c r="Q79" s="59"/>
-      <c r="R79" s="121"/>
-      <c r="S79" s="122"/>
-      <c r="T79" s="122"/>
-      <c r="U79" s="122"/>
-      <c r="V79" s="122"/>
-      <c r="W79" s="123"/>
-      <c r="X79" s="59"/>
-      <c r="Y79" s="59"/>
-      <c r="Z79" s="59"/>
-      <c r="AA79" s="59"/>
-      <c r="AB79" s="59"/>
-      <c r="AC79" s="59"/>
+      <c r="R79" s="67"/>
+      <c r="S79" s="68"/>
+      <c r="T79" s="68"/>
+      <c r="U79" s="68"/>
+      <c r="V79" s="68"/>
+      <c r="W79" s="69"/>
+      <c r="X79" s="67"/>
+      <c r="Y79" s="127"/>
+      <c r="Z79" s="127"/>
+      <c r="AA79" s="127"/>
+      <c r="AB79" s="127"/>
+      <c r="AC79" s="69"/>
       <c r="AD79" s="59"/>
       <c r="AE79" s="59"/>
       <c r="AF79" s="59"/>
@@ -8058,8 +8129,8 @@
       <c r="C80" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D80" s="64"/>
-      <c r="E80" s="65"/>
+      <c r="D80" s="73"/>
+      <c r="E80" s="74"/>
       <c r="F80" s="59"/>
       <c r="G80" s="59"/>
       <c r="H80" s="59"/>
@@ -8072,18 +8143,18 @@
       <c r="O80" s="59"/>
       <c r="P80" s="59"/>
       <c r="Q80" s="59"/>
-      <c r="R80" s="121"/>
-      <c r="S80" s="122"/>
-      <c r="T80" s="122"/>
-      <c r="U80" s="122"/>
-      <c r="V80" s="122"/>
-      <c r="W80" s="123"/>
-      <c r="X80" s="59"/>
-      <c r="Y80" s="59"/>
-      <c r="Z80" s="59"/>
-      <c r="AA80" s="59"/>
-      <c r="AB80" s="59"/>
-      <c r="AC80" s="59"/>
+      <c r="R80" s="67"/>
+      <c r="S80" s="68"/>
+      <c r="T80" s="68"/>
+      <c r="U80" s="68"/>
+      <c r="V80" s="68"/>
+      <c r="W80" s="69"/>
+      <c r="X80" s="67"/>
+      <c r="Y80" s="127"/>
+      <c r="Z80" s="127"/>
+      <c r="AA80" s="127"/>
+      <c r="AB80" s="127"/>
+      <c r="AC80" s="69"/>
       <c r="AD80" s="59"/>
       <c r="AE80" s="59"/>
       <c r="AF80" s="59"/>
@@ -8140,8 +8211,8 @@
       <c r="C81" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D81" s="64"/>
-      <c r="E81" s="65"/>
+      <c r="D81" s="73"/>
+      <c r="E81" s="74"/>
       <c r="F81" s="59"/>
       <c r="G81" s="59"/>
       <c r="H81" s="59"/>
@@ -8154,18 +8225,18 @@
       <c r="O81" s="59"/>
       <c r="P81" s="59"/>
       <c r="Q81" s="59"/>
-      <c r="R81" s="121"/>
-      <c r="S81" s="122"/>
-      <c r="T81" s="122"/>
-      <c r="U81" s="122"/>
-      <c r="V81" s="122"/>
-      <c r="W81" s="123"/>
-      <c r="X81" s="59"/>
-      <c r="Y81" s="59"/>
-      <c r="Z81" s="59"/>
-      <c r="AA81" s="59"/>
-      <c r="AB81" s="59"/>
-      <c r="AC81" s="59"/>
+      <c r="R81" s="67"/>
+      <c r="S81" s="68"/>
+      <c r="T81" s="68"/>
+      <c r="U81" s="68"/>
+      <c r="V81" s="68"/>
+      <c r="W81" s="69"/>
+      <c r="X81" s="67"/>
+      <c r="Y81" s="127"/>
+      <c r="Z81" s="127"/>
+      <c r="AA81" s="127"/>
+      <c r="AB81" s="127"/>
+      <c r="AC81" s="69"/>
       <c r="AD81" s="59"/>
       <c r="AE81" s="59"/>
       <c r="AF81" s="59"/>
@@ -8222,8 +8293,8 @@
       <c r="C82" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D82" s="64"/>
-      <c r="E82" s="65"/>
+      <c r="D82" s="73"/>
+      <c r="E82" s="74"/>
       <c r="F82" s="59"/>
       <c r="G82" s="59"/>
       <c r="H82" s="59"/>
@@ -8236,18 +8307,18 @@
       <c r="O82" s="59"/>
       <c r="P82" s="59"/>
       <c r="Q82" s="59"/>
-      <c r="R82" s="121"/>
-      <c r="S82" s="122"/>
-      <c r="T82" s="122"/>
-      <c r="U82" s="122"/>
-      <c r="V82" s="122"/>
-      <c r="W82" s="123"/>
-      <c r="X82" s="59"/>
-      <c r="Y82" s="59"/>
-      <c r="Z82" s="59"/>
-      <c r="AA82" s="59"/>
-      <c r="AB82" s="59"/>
-      <c r="AC82" s="59"/>
+      <c r="R82" s="67"/>
+      <c r="S82" s="68"/>
+      <c r="T82" s="68"/>
+      <c r="U82" s="68"/>
+      <c r="V82" s="68"/>
+      <c r="W82" s="69"/>
+      <c r="X82" s="67"/>
+      <c r="Y82" s="127"/>
+      <c r="Z82" s="127"/>
+      <c r="AA82" s="127"/>
+      <c r="AB82" s="127"/>
+      <c r="AC82" s="69"/>
       <c r="AD82" s="59"/>
       <c r="AE82" s="59"/>
       <c r="AF82" s="59"/>
@@ -8304,8 +8375,8 @@
       <c r="C83" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D83" s="64"/>
-      <c r="E83" s="65"/>
+      <c r="D83" s="73"/>
+      <c r="E83" s="74"/>
       <c r="F83" s="59"/>
       <c r="G83" s="59"/>
       <c r="H83" s="59"/>
@@ -8318,18 +8389,18 @@
       <c r="O83" s="59"/>
       <c r="P83" s="59"/>
       <c r="Q83" s="59"/>
-      <c r="R83" s="124"/>
-      <c r="S83" s="125"/>
-      <c r="T83" s="125"/>
-      <c r="U83" s="125"/>
-      <c r="V83" s="125"/>
-      <c r="W83" s="126"/>
-      <c r="X83" s="59"/>
-      <c r="Y83" s="59"/>
-      <c r="Z83" s="59"/>
-      <c r="AA83" s="59"/>
-      <c r="AB83" s="59"/>
-      <c r="AC83" s="59"/>
+      <c r="R83" s="70"/>
+      <c r="S83" s="71"/>
+      <c r="T83" s="71"/>
+      <c r="U83" s="71"/>
+      <c r="V83" s="71"/>
+      <c r="W83" s="72"/>
+      <c r="X83" s="70"/>
+      <c r="Y83" s="71"/>
+      <c r="Z83" s="71"/>
+      <c r="AA83" s="71"/>
+      <c r="AB83" s="71"/>
+      <c r="AC83" s="72"/>
       <c r="AD83" s="59"/>
       <c r="AE83" s="59"/>
       <c r="AF83" s="59"/>
@@ -8382,8 +8453,8 @@
     <row r="84" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="61"/>
       <c r="C84" s="62"/>
-      <c r="D84" s="64"/>
-      <c r="E84" s="65"/>
+      <c r="D84" s="73"/>
+      <c r="E84" s="74"/>
       <c r="F84" s="62"/>
       <c r="G84" s="62"/>
       <c r="H84" s="62"/>
@@ -8465,75 +8536,60 @@
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="154">
-    <mergeCell ref="R78:W83"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="AV8:BA8"/>
-    <mergeCell ref="BB8:BG8"/>
-    <mergeCell ref="AD34:AI34"/>
-    <mergeCell ref="AJ34:AO34"/>
-    <mergeCell ref="AP34:AU34"/>
-    <mergeCell ref="AV34:BA34"/>
-    <mergeCell ref="BB34:BG34"/>
-    <mergeCell ref="AP8:AU8"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="L34:Q34"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:K8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D25:E26"/>
-    <mergeCell ref="D19:E20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C13:C14"/>
+  <mergeCells count="159">
+    <mergeCell ref="X78:AC83"/>
+    <mergeCell ref="X32:AC32"/>
+    <mergeCell ref="X19:AC20"/>
+    <mergeCell ref="X13:AC14"/>
+    <mergeCell ref="X9:AC10"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F9:K10"/>
+    <mergeCell ref="R9:W10"/>
+    <mergeCell ref="L9:Q10"/>
+    <mergeCell ref="L19:Q20"/>
+    <mergeCell ref="F15:K16"/>
+    <mergeCell ref="F13:K14"/>
+    <mergeCell ref="L21:Q22"/>
+    <mergeCell ref="R32:W32"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="BH8:BM8"/>
+    <mergeCell ref="BN8:BS8"/>
+    <mergeCell ref="BT8:BY8"/>
+    <mergeCell ref="BH34:BM34"/>
+    <mergeCell ref="BN34:BS34"/>
+    <mergeCell ref="BT34:BY34"/>
+    <mergeCell ref="R34:W34"/>
+    <mergeCell ref="X34:AC34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="AD8:AI8"/>
+    <mergeCell ref="AJ8:AO8"/>
     <mergeCell ref="AH4:AI4"/>
     <mergeCell ref="AJ4:AK4"/>
     <mergeCell ref="AL4:AM4"/>
@@ -8558,22 +8614,79 @@
     <mergeCell ref="Z5:AA5"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="L34:Q34"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:K8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="AL5:AM5"/>
+    <mergeCell ref="AV8:BA8"/>
+    <mergeCell ref="BB8:BG8"/>
+    <mergeCell ref="AD34:AI34"/>
+    <mergeCell ref="AJ34:AO34"/>
+    <mergeCell ref="AP34:AU34"/>
+    <mergeCell ref="AV34:BA34"/>
+    <mergeCell ref="BB34:BG34"/>
+    <mergeCell ref="AP8:AU8"/>
+    <mergeCell ref="R78:W83"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="N5:O5"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D39:E39"/>
-    <mergeCell ref="BH8:BM8"/>
-    <mergeCell ref="BN8:BS8"/>
-    <mergeCell ref="BT8:BY8"/>
-    <mergeCell ref="BH34:BM34"/>
-    <mergeCell ref="BN34:BS34"/>
-    <mergeCell ref="BT34:BY34"/>
-    <mergeCell ref="R34:W34"/>
-    <mergeCell ref="X34:AC34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="AD8:AI8"/>
-    <mergeCell ref="AJ8:AO8"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="D47:E47"/>
@@ -8583,43 +8696,6 @@
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F9:K10"/>
-    <mergeCell ref="R9:W10"/>
-    <mergeCell ref="L9:Q10"/>
-    <mergeCell ref="L19:Q20"/>
-    <mergeCell ref="F15:K16"/>
-    <mergeCell ref="F13:K14"/>
-    <mergeCell ref="L21:Q22"/>
-    <mergeCell ref="R32:W32"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/工程表/工程管理(Forest).xlsx
+++ b/document/工程表/工程管理(Forest).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class.DESKTOP-HLMSUMQ\Desktop\team_forest\document\工程表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54fd41506f0d43af/デスクトップ/team_forest/document/工程表/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD294E77-84DB-4E19-AE4E-5040BAF5CCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{DD294E77-84DB-4E19-AE4E-5040BAF5CCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BB5089F-CD05-427B-99F8-95ED96E99505}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="116">
   <si>
     <t>担当</t>
     <rPh sb="0" eb="2">
@@ -723,6 +723,36 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>田中:操作説明書修正</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="3" eb="10">
+      <t>ソウサセツメイショシュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>森岡：修正</t>
+    <rPh sb="0" eb="2">
+      <t>モリオカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>永井・森岡</t>
+    <rPh sb="0" eb="2">
+      <t>ナガイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モリオカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1379,7 +1409,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1599,47 +1629,152 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1650,119 +1785,20 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2050,8 +2086,8 @@
   </sheetPr>
   <dimension ref="B2:BY84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ12" sqref="AJ12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD32" sqref="AD32:AI32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2074,155 +2110,155 @@
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="85" t="s">
+      <c r="E4" s="101"/>
+      <c r="F4" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="86"/>
-      <c r="H4" s="85" t="s">
+      <c r="G4" s="101"/>
+      <c r="H4" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="86"/>
-      <c r="J4" s="85" t="s">
+      <c r="I4" s="101"/>
+      <c r="J4" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="86"/>
-      <c r="L4" s="85" t="s">
+      <c r="K4" s="101"/>
+      <c r="L4" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="86"/>
-      <c r="N4" s="85" t="s">
+      <c r="M4" s="101"/>
+      <c r="N4" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="86"/>
-      <c r="P4" s="85" t="s">
+      <c r="O4" s="101"/>
+      <c r="P4" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="85" t="s">
+      <c r="Q4" s="101"/>
+      <c r="R4" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="S4" s="86"/>
-      <c r="T4" s="85" t="s">
+      <c r="S4" s="101"/>
+      <c r="T4" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="U4" s="86"/>
-      <c r="V4" s="85" t="s">
+      <c r="U4" s="101"/>
+      <c r="V4" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="86"/>
-      <c r="X4" s="85" t="s">
+      <c r="W4" s="101"/>
+      <c r="X4" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="Y4" s="86"/>
-      <c r="Z4" s="85" t="s">
+      <c r="Y4" s="101"/>
+      <c r="Z4" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="85" t="s">
+      <c r="AA4" s="101"/>
+      <c r="AB4" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="AC4" s="86"/>
-      <c r="AD4" s="85" t="s">
+      <c r="AC4" s="101"/>
+      <c r="AD4" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="AE4" s="86"/>
-      <c r="AF4" s="85" t="s">
+      <c r="AE4" s="101"/>
+      <c r="AF4" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="AG4" s="86"/>
-      <c r="AH4" s="85" t="s">
+      <c r="AG4" s="101"/>
+      <c r="AH4" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="AI4" s="86"/>
-      <c r="AJ4" s="85" t="s">
+      <c r="AI4" s="101"/>
+      <c r="AJ4" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="AK4" s="86"/>
-      <c r="AL4" s="85" t="s">
+      <c r="AK4" s="101"/>
+      <c r="AL4" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="AM4" s="86"/>
+      <c r="AM4" s="101"/>
     </row>
     <row r="5" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="75" t="s">
+      <c r="E5" s="117"/>
+      <c r="F5" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="76"/>
-      <c r="H5" s="83" t="s">
+      <c r="G5" s="117"/>
+      <c r="H5" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="84"/>
-      <c r="J5" s="83" t="s">
+      <c r="I5" s="115"/>
+      <c r="J5" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="84"/>
-      <c r="L5" s="83" t="s">
+      <c r="K5" s="115"/>
+      <c r="L5" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="83" t="s">
+      <c r="M5" s="115"/>
+      <c r="N5" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="84"/>
-      <c r="P5" s="75" t="s">
+      <c r="O5" s="115"/>
+      <c r="P5" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="75" t="s">
+      <c r="Q5" s="117"/>
+      <c r="R5" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="76"/>
-      <c r="T5" s="75" t="s">
+      <c r="S5" s="117"/>
+      <c r="T5" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="U5" s="76"/>
-      <c r="V5" s="75" t="s">
+      <c r="U5" s="117"/>
+      <c r="V5" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="W5" s="76"/>
-      <c r="X5" s="75" t="s">
+      <c r="W5" s="117"/>
+      <c r="X5" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="Y5" s="76"/>
-      <c r="Z5" s="83" t="s">
+      <c r="Y5" s="117"/>
+      <c r="Z5" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="AA5" s="84"/>
-      <c r="AB5" s="83" t="s">
+      <c r="AA5" s="115"/>
+      <c r="AB5" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="AC5" s="84"/>
-      <c r="AD5" s="75" t="s">
+      <c r="AC5" s="115"/>
+      <c r="AD5" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="AE5" s="76"/>
-      <c r="AF5" s="75" t="s">
+      <c r="AE5" s="117"/>
+      <c r="AF5" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="AG5" s="76"/>
-      <c r="AH5" s="75" t="s">
+      <c r="AG5" s="117"/>
+      <c r="AH5" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="AI5" s="76"/>
-      <c r="AJ5" s="75" t="s">
+      <c r="AI5" s="117"/>
+      <c r="AJ5" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="AK5" s="76"/>
-      <c r="AL5" s="75" t="s">
+      <c r="AK5" s="117"/>
+      <c r="AL5" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="AM5" s="76"/>
+      <c r="AM5" s="117"/>
     </row>
     <row r="6" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
@@ -2242,156 +2278,158 @@
       <c r="C8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="80" t="s">
+      <c r="D8" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="82"/>
-      <c r="F8" s="78" t="s">
+      <c r="E8" s="99"/>
+      <c r="F8" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="77" t="s">
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="77"/>
-      <c r="Q8" s="77"/>
-      <c r="R8" s="78" t="s">
+      <c r="M8" s="93"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="93"/>
+      <c r="R8" s="94" t="s">
         <v>88</v>
       </c>
-      <c r="S8" s="77"/>
-      <c r="T8" s="77"/>
-      <c r="U8" s="77"/>
-      <c r="V8" s="77"/>
-      <c r="W8" s="79"/>
-      <c r="X8" s="77" t="s">
+      <c r="S8" s="93"/>
+      <c r="T8" s="93"/>
+      <c r="U8" s="93"/>
+      <c r="V8" s="93"/>
+      <c r="W8" s="95"/>
+      <c r="X8" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="Y8" s="77"/>
-      <c r="Z8" s="77"/>
-      <c r="AA8" s="77"/>
-      <c r="AB8" s="77"/>
-      <c r="AC8" s="77"/>
-      <c r="AD8" s="80" t="s">
+      <c r="Y8" s="93"/>
+      <c r="Z8" s="93"/>
+      <c r="AA8" s="93"/>
+      <c r="AB8" s="93"/>
+      <c r="AC8" s="93"/>
+      <c r="AD8" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="AE8" s="81"/>
-      <c r="AF8" s="81"/>
-      <c r="AG8" s="81"/>
-      <c r="AH8" s="81"/>
-      <c r="AI8" s="82"/>
-      <c r="AJ8" s="78" t="s">
+      <c r="AE8" s="98"/>
+      <c r="AF8" s="98"/>
+      <c r="AG8" s="98"/>
+      <c r="AH8" s="98"/>
+      <c r="AI8" s="99"/>
+      <c r="AJ8" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="AK8" s="77"/>
-      <c r="AL8" s="77"/>
-      <c r="AM8" s="77"/>
-      <c r="AN8" s="77"/>
-      <c r="AO8" s="79"/>
-      <c r="AP8" s="77" t="s">
+      <c r="AK8" s="93"/>
+      <c r="AL8" s="93"/>
+      <c r="AM8" s="93"/>
+      <c r="AN8" s="93"/>
+      <c r="AO8" s="95"/>
+      <c r="AP8" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="AQ8" s="77"/>
-      <c r="AR8" s="77"/>
-      <c r="AS8" s="77"/>
-      <c r="AT8" s="77"/>
-      <c r="AU8" s="77"/>
-      <c r="AV8" s="77" t="s">
+      <c r="AQ8" s="93"/>
+      <c r="AR8" s="93"/>
+      <c r="AS8" s="93"/>
+      <c r="AT8" s="93"/>
+      <c r="AU8" s="93"/>
+      <c r="AV8" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="AW8" s="77"/>
-      <c r="AX8" s="77"/>
-      <c r="AY8" s="77"/>
-      <c r="AZ8" s="77"/>
-      <c r="BA8" s="77"/>
-      <c r="BB8" s="78" t="s">
+      <c r="AW8" s="93"/>
+      <c r="AX8" s="93"/>
+      <c r="AY8" s="93"/>
+      <c r="AZ8" s="93"/>
+      <c r="BA8" s="93"/>
+      <c r="BB8" s="94" t="s">
         <v>92</v>
       </c>
-      <c r="BC8" s="77"/>
-      <c r="BD8" s="77"/>
-      <c r="BE8" s="77"/>
-      <c r="BF8" s="77"/>
-      <c r="BG8" s="79"/>
-      <c r="BH8" s="77" t="s">
+      <c r="BC8" s="93"/>
+      <c r="BD8" s="93"/>
+      <c r="BE8" s="93"/>
+      <c r="BF8" s="93"/>
+      <c r="BG8" s="95"/>
+      <c r="BH8" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="BI8" s="77"/>
-      <c r="BJ8" s="77"/>
-      <c r="BK8" s="77"/>
-      <c r="BL8" s="77"/>
-      <c r="BM8" s="77"/>
-      <c r="BN8" s="78" t="s">
+      <c r="BI8" s="93"/>
+      <c r="BJ8" s="93"/>
+      <c r="BK8" s="93"/>
+      <c r="BL8" s="93"/>
+      <c r="BM8" s="93"/>
+      <c r="BN8" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="BO8" s="77"/>
-      <c r="BP8" s="77"/>
-      <c r="BQ8" s="77"/>
-      <c r="BR8" s="77"/>
-      <c r="BS8" s="79"/>
-      <c r="BT8" s="78" t="s">
+      <c r="BO8" s="93"/>
+      <c r="BP8" s="93"/>
+      <c r="BQ8" s="93"/>
+      <c r="BR8" s="93"/>
+      <c r="BS8" s="95"/>
+      <c r="BT8" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="BU8" s="77"/>
-      <c r="BV8" s="77"/>
-      <c r="BW8" s="77"/>
-      <c r="BX8" s="77"/>
-      <c r="BY8" s="79"/>
+      <c r="BU8" s="93"/>
+      <c r="BV8" s="93"/>
+      <c r="BW8" s="93"/>
+      <c r="BX8" s="93"/>
+      <c r="BY8" s="95"/>
     </row>
     <row r="9" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="90" t="s">
+      <c r="C9" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="91">
+      <c r="D9" s="108">
         <v>0.5</v>
       </c>
-      <c r="E9" s="92"/>
-      <c r="F9" s="109" t="s">
+      <c r="E9" s="109"/>
+      <c r="F9" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="115" t="s">
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="115" t="s">
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="116"/>
-      <c r="V9" s="116"/>
-      <c r="W9" s="117"/>
-      <c r="X9" s="115" t="s">
+      <c r="S9" s="83"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="83"/>
+      <c r="W9" s="84"/>
+      <c r="X9" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="Y9" s="116"/>
-      <c r="Z9" s="116"/>
-      <c r="AA9" s="116"/>
-      <c r="AB9" s="116"/>
-      <c r="AC9" s="117"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="11"/>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="8"/>
-      <c r="AI9" s="8"/>
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="83"/>
+      <c r="AB9" s="83"/>
+      <c r="AC9" s="84"/>
+      <c r="AD9" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE9" s="83"/>
+      <c r="AF9" s="83"/>
+      <c r="AG9" s="83"/>
+      <c r="AH9" s="83"/>
+      <c r="AI9" s="84"/>
       <c r="AJ9" s="7"/>
       <c r="AK9" s="8"/>
       <c r="AL9" s="8"/>
@@ -2436,40 +2474,40 @@
       <c r="BY9" s="9"/>
     </row>
     <row r="10" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="96"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="118"/>
-      <c r="M10" s="119"/>
-      <c r="N10" s="119"/>
-      <c r="O10" s="119"/>
-      <c r="P10" s="119"/>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="118"/>
-      <c r="S10" s="119"/>
-      <c r="T10" s="119"/>
-      <c r="U10" s="119"/>
-      <c r="V10" s="119"/>
-      <c r="W10" s="120"/>
-      <c r="X10" s="118"/>
-      <c r="Y10" s="119"/>
-      <c r="Z10" s="119"/>
-      <c r="AA10" s="119"/>
-      <c r="AB10" s="119"/>
-      <c r="AC10" s="120"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="12"/>
-      <c r="AI10" s="12"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="80"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="80"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="80"/>
+      <c r="T10" s="80"/>
+      <c r="U10" s="80"/>
+      <c r="V10" s="80"/>
+      <c r="W10" s="81"/>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="80"/>
+      <c r="Z10" s="80"/>
+      <c r="AA10" s="80"/>
+      <c r="AB10" s="80"/>
+      <c r="AC10" s="81"/>
+      <c r="AD10" s="79"/>
+      <c r="AE10" s="80"/>
+      <c r="AF10" s="80"/>
+      <c r="AG10" s="80"/>
+      <c r="AH10" s="80"/>
+      <c r="AI10" s="81"/>
       <c r="AJ10" s="16"/>
       <c r="AK10" s="12"/>
       <c r="AL10" s="12"/>
@@ -2514,16 +2552,16 @@
       <c r="BY10" s="17"/>
     </row>
     <row r="11" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="91">
+      <c r="D11" s="108">
         <v>0.7</v>
       </c>
-      <c r="E11" s="92"/>
+      <c r="E11" s="109"/>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
@@ -2598,10 +2636,10 @@
       <c r="BY11" s="22"/>
     </row>
     <row r="12" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="96"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="94"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="107"/>
       <c r="F12" s="25"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
@@ -2676,24 +2714,24 @@
       <c r="BY12" s="27"/>
     </row>
     <row r="13" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="95" t="s">
+      <c r="B13" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="90" t="s">
+      <c r="C13" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="91">
+      <c r="D13" s="108">
         <v>0.8</v>
       </c>
-      <c r="E13" s="92"/>
-      <c r="F13" s="121" t="s">
+      <c r="E13" s="109"/>
+      <c r="F13" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="123"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="78"/>
       <c r="L13" s="23"/>
       <c r="M13" s="24"/>
       <c r="N13" s="24"/>
@@ -2706,14 +2744,14 @@
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
       <c r="W13" s="17"/>
-      <c r="X13" s="121" t="s">
+      <c r="X13" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="Y13" s="122"/>
-      <c r="Z13" s="122"/>
-      <c r="AA13" s="122"/>
-      <c r="AB13" s="122"/>
-      <c r="AC13" s="123"/>
+      <c r="Y13" s="77"/>
+      <c r="Z13" s="77"/>
+      <c r="AA13" s="77"/>
+      <c r="AB13" s="77"/>
+      <c r="AC13" s="78"/>
       <c r="AD13" s="23"/>
       <c r="AE13" s="24"/>
       <c r="AF13" s="24"/>
@@ -2764,16 +2802,16 @@
       <c r="BY13" s="17"/>
     </row>
     <row r="14" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="96"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="119"/>
-      <c r="K14" s="120"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="81"/>
       <c r="L14" s="28"/>
       <c r="M14" s="29"/>
       <c r="N14" s="29"/>
@@ -2786,12 +2824,12 @@
       <c r="U14" s="26"/>
       <c r="V14" s="26"/>
       <c r="W14" s="27"/>
-      <c r="X14" s="118"/>
-      <c r="Y14" s="119"/>
-      <c r="Z14" s="119"/>
-      <c r="AA14" s="119"/>
-      <c r="AB14" s="119"/>
-      <c r="AC14" s="120"/>
+      <c r="X14" s="79"/>
+      <c r="Y14" s="80"/>
+      <c r="Z14" s="80"/>
+      <c r="AA14" s="80"/>
+      <c r="AB14" s="80"/>
+      <c r="AC14" s="81"/>
       <c r="AD14" s="28"/>
       <c r="AE14" s="29"/>
       <c r="AF14" s="29"/>
@@ -2842,24 +2880,24 @@
       <c r="BY14" s="27"/>
     </row>
     <row r="15" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="118" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="87" t="s">
+      <c r="C15" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="97">
+      <c r="D15" s="104">
         <v>0.8</v>
       </c>
-      <c r="E15" s="100"/>
-      <c r="F15" s="121" t="s">
+      <c r="E15" s="105"/>
+      <c r="F15" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="122"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="122"/>
-      <c r="K15" s="123"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="78"/>
       <c r="L15" s="18"/>
       <c r="M15" s="19"/>
       <c r="N15" s="19"/>
@@ -2928,16 +2966,16 @@
       <c r="BY15" s="17"/>
     </row>
     <row r="16" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="96"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="119"/>
-      <c r="K16" s="120"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="81"/>
       <c r="L16" s="18"/>
       <c r="M16" s="19"/>
       <c r="N16" s="19"/>
@@ -3006,16 +3044,16 @@
       <c r="BY16" s="27"/>
     </row>
     <row r="17" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="101" t="s">
+      <c r="C17" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="97">
+      <c r="D17" s="104">
         <v>0</v>
       </c>
-      <c r="E17" s="100"/>
+      <c r="E17" s="105"/>
       <c r="F17" s="16"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
@@ -3090,10 +3128,10 @@
       <c r="BY17" s="17"/>
     </row>
     <row r="18" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="96"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="94"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="107"/>
       <c r="F18" s="25"/>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
@@ -3168,50 +3206,52 @@
       <c r="BY18" s="27"/>
     </row>
     <row r="19" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="95" t="s">
+      <c r="B19" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="101" t="s">
+      <c r="C19" s="120" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="97">
+      <c r="D19" s="104">
         <v>0.5</v>
       </c>
-      <c r="E19" s="100"/>
+      <c r="E19" s="105"/>
       <c r="F19" s="16"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="17"/>
-      <c r="L19" s="121" t="s">
+      <c r="L19" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="M19" s="122"/>
-      <c r="N19" s="122"/>
-      <c r="O19" s="122"/>
-      <c r="P19" s="122"/>
-      <c r="Q19" s="123"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="78"/>
       <c r="R19" s="16"/>
       <c r="S19" s="12"/>
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12"/>
       <c r="W19" s="17"/>
-      <c r="X19" s="121" t="s">
+      <c r="X19" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="Y19" s="122"/>
-      <c r="Z19" s="122"/>
-      <c r="AA19" s="122"/>
-      <c r="AB19" s="122"/>
-      <c r="AC19" s="123"/>
-      <c r="AD19" s="23"/>
-      <c r="AE19" s="24"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="21"/>
-      <c r="AH19" s="21"/>
-      <c r="AI19" s="22"/>
+      <c r="Y19" s="77"/>
+      <c r="Z19" s="77"/>
+      <c r="AA19" s="77"/>
+      <c r="AB19" s="77"/>
+      <c r="AC19" s="78"/>
+      <c r="AD19" s="76" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE19" s="77"/>
+      <c r="AF19" s="77"/>
+      <c r="AG19" s="77"/>
+      <c r="AH19" s="77"/>
+      <c r="AI19" s="78"/>
       <c r="AJ19" s="16"/>
       <c r="AK19" s="12"/>
       <c r="AL19" s="12"/>
@@ -3256,40 +3296,40 @@
       <c r="BY19" s="17"/>
     </row>
     <row r="20" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="96"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="94"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="107"/>
       <c r="F20" s="25"/>
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
       <c r="J20" s="26"/>
       <c r="K20" s="27"/>
-      <c r="L20" s="118"/>
-      <c r="M20" s="119"/>
-      <c r="N20" s="119"/>
-      <c r="O20" s="119"/>
-      <c r="P20" s="119"/>
-      <c r="Q20" s="120"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="80"/>
+      <c r="Q20" s="81"/>
       <c r="R20" s="25"/>
       <c r="S20" s="26"/>
       <c r="T20" s="26"/>
       <c r="U20" s="26"/>
       <c r="V20" s="26"/>
       <c r="W20" s="27"/>
-      <c r="X20" s="118"/>
-      <c r="Y20" s="119"/>
-      <c r="Z20" s="119"/>
-      <c r="AA20" s="119"/>
-      <c r="AB20" s="119"/>
-      <c r="AC20" s="120"/>
-      <c r="AD20" s="28"/>
-      <c r="AE20" s="29"/>
-      <c r="AF20" s="29"/>
-      <c r="AG20" s="26"/>
-      <c r="AH20" s="26"/>
-      <c r="AI20" s="27"/>
+      <c r="X20" s="79"/>
+      <c r="Y20" s="80"/>
+      <c r="Z20" s="80"/>
+      <c r="AA20" s="80"/>
+      <c r="AB20" s="80"/>
+      <c r="AC20" s="81"/>
+      <c r="AD20" s="79"/>
+      <c r="AE20" s="80"/>
+      <c r="AF20" s="80"/>
+      <c r="AG20" s="80"/>
+      <c r="AH20" s="80"/>
+      <c r="AI20" s="81"/>
       <c r="AJ20" s="25"/>
       <c r="AK20" s="26"/>
       <c r="AL20" s="26"/>
@@ -3334,28 +3374,28 @@
       <c r="BY20" s="27"/>
     </row>
     <row r="21" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="95" t="s">
+      <c r="B21" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="89"/>
-      <c r="D21" s="97">
+      <c r="C21" s="124"/>
+      <c r="D21" s="104">
         <v>0.2</v>
       </c>
-      <c r="E21" s="98"/>
+      <c r="E21" s="112"/>
       <c r="F21" s="16"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="17"/>
-      <c r="L21" s="121" t="s">
+      <c r="L21" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="M21" s="122"/>
-      <c r="N21" s="122"/>
-      <c r="O21" s="122"/>
-      <c r="P21" s="122"/>
-      <c r="Q21" s="123"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="78"/>
       <c r="R21" s="16"/>
       <c r="S21" s="12"/>
       <c r="T21" s="12"/>
@@ -3418,22 +3458,22 @@
       <c r="BY21" s="17"/>
     </row>
     <row r="22" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="96"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="99"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="113"/>
       <c r="F22" s="25"/>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
       <c r="J22" s="26"/>
       <c r="K22" s="27"/>
-      <c r="L22" s="118"/>
-      <c r="M22" s="119"/>
-      <c r="N22" s="119"/>
-      <c r="O22" s="119"/>
-      <c r="P22" s="119"/>
-      <c r="Q22" s="120"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="80"/>
+      <c r="Q22" s="81"/>
       <c r="R22" s="25"/>
       <c r="S22" s="26"/>
       <c r="T22" s="26"/>
@@ -3496,12 +3536,12 @@
       <c r="BY22" s="27"/>
     </row>
     <row r="23" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="95" t="s">
+      <c r="B23" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="87"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="100"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="105"/>
       <c r="F23" s="16"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
@@ -3576,10 +3616,10 @@
       <c r="BY23" s="17"/>
     </row>
     <row r="24" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="96"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="94"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="107"/>
       <c r="F24" s="25"/>
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
@@ -3654,12 +3694,12 @@
       <c r="BY24" s="27"/>
     </row>
     <row r="25" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="95" t="s">
+      <c r="B25" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="89"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="98"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="112"/>
       <c r="F25" s="16"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
@@ -3734,10 +3774,10 @@
       <c r="BY25" s="17"/>
     </row>
     <row r="26" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="96"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="99"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="113"/>
       <c r="F26" s="25"/>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
@@ -3812,14 +3852,14 @@
       <c r="BY26" s="27"/>
     </row>
     <row r="27" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="95" t="s">
+      <c r="B27" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="87"/>
-      <c r="D27" s="97">
+      <c r="C27" s="122"/>
+      <c r="D27" s="104">
         <v>0</v>
       </c>
-      <c r="E27" s="100"/>
+      <c r="E27" s="105"/>
       <c r="F27" s="16"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
@@ -3894,10 +3934,10 @@
       <c r="BY27" s="17"/>
     </row>
     <row r="28" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="96"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="94"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="107"/>
       <c r="F28" s="25"/>
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
@@ -4056,8 +4096,8 @@
         <v>11</v>
       </c>
       <c r="C30" s="30"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="107"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="111"/>
       <c r="F30" s="31"/>
       <c r="G30" s="32"/>
       <c r="H30" s="32"/>
@@ -4136,8 +4176,8 @@
         <v>1</v>
       </c>
       <c r="C31" s="36"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="98"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="112"/>
       <c r="F31" s="16"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
@@ -4216,8 +4256,8 @@
         <v>8</v>
       </c>
       <c r="C32" s="37"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="105"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="103"/>
       <c r="F32" s="38"/>
       <c r="G32" s="39"/>
       <c r="H32" s="39"/>
@@ -4230,28 +4270,30 @@
       <c r="O32" s="43"/>
       <c r="P32" s="39"/>
       <c r="Q32" s="39"/>
-      <c r="R32" s="124" t="s">
+      <c r="R32" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="S32" s="125"/>
-      <c r="T32" s="125"/>
-      <c r="U32" s="125"/>
-      <c r="V32" s="125"/>
-      <c r="W32" s="126"/>
-      <c r="X32" s="124" t="s">
+      <c r="S32" s="74"/>
+      <c r="T32" s="74"/>
+      <c r="U32" s="74"/>
+      <c r="V32" s="74"/>
+      <c r="W32" s="75"/>
+      <c r="X32" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="Y32" s="125"/>
-      <c r="Z32" s="125"/>
-      <c r="AA32" s="125"/>
-      <c r="AB32" s="125"/>
-      <c r="AC32" s="126"/>
-      <c r="AD32" s="41"/>
-      <c r="AE32" s="42"/>
-      <c r="AF32" s="42"/>
-      <c r="AG32" s="43"/>
-      <c r="AH32" s="39"/>
-      <c r="AI32" s="39"/>
+      <c r="Y32" s="74"/>
+      <c r="Z32" s="74"/>
+      <c r="AA32" s="74"/>
+      <c r="AB32" s="74"/>
+      <c r="AC32" s="75"/>
+      <c r="AD32" s="127" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE32" s="128"/>
+      <c r="AF32" s="128"/>
+      <c r="AG32" s="128"/>
+      <c r="AH32" s="128"/>
+      <c r="AI32" s="129"/>
       <c r="AJ32" s="38"/>
       <c r="AK32" s="39"/>
       <c r="AL32" s="39"/>
@@ -4335,116 +4377,116 @@
       <c r="C34" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="108" t="s">
+      <c r="D34" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="108"/>
-      <c r="F34" s="78" t="s">
+      <c r="E34" s="96"/>
+      <c r="F34" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="77" t="s">
+      <c r="G34" s="93"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="95"/>
+      <c r="L34" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="M34" s="77"/>
-      <c r="N34" s="77"/>
-      <c r="O34" s="77"/>
-      <c r="P34" s="77"/>
-      <c r="Q34" s="77"/>
-      <c r="R34" s="78" t="s">
+      <c r="M34" s="93"/>
+      <c r="N34" s="93"/>
+      <c r="O34" s="93"/>
+      <c r="P34" s="93"/>
+      <c r="Q34" s="93"/>
+      <c r="R34" s="94" t="s">
         <v>88</v>
       </c>
-      <c r="S34" s="77"/>
-      <c r="T34" s="77"/>
-      <c r="U34" s="77"/>
-      <c r="V34" s="77"/>
-      <c r="W34" s="79"/>
-      <c r="X34" s="77" t="s">
+      <c r="S34" s="93"/>
+      <c r="T34" s="93"/>
+      <c r="U34" s="93"/>
+      <c r="V34" s="93"/>
+      <c r="W34" s="95"/>
+      <c r="X34" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="Y34" s="77"/>
-      <c r="Z34" s="77"/>
-      <c r="AA34" s="77"/>
-      <c r="AB34" s="77"/>
-      <c r="AC34" s="77"/>
-      <c r="AD34" s="80" t="s">
+      <c r="Y34" s="93"/>
+      <c r="Z34" s="93"/>
+      <c r="AA34" s="93"/>
+      <c r="AB34" s="93"/>
+      <c r="AC34" s="93"/>
+      <c r="AD34" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="AE34" s="81"/>
-      <c r="AF34" s="81"/>
-      <c r="AG34" s="81"/>
-      <c r="AH34" s="81"/>
-      <c r="AI34" s="82"/>
-      <c r="AJ34" s="78" t="s">
+      <c r="AE34" s="98"/>
+      <c r="AF34" s="98"/>
+      <c r="AG34" s="98"/>
+      <c r="AH34" s="98"/>
+      <c r="AI34" s="99"/>
+      <c r="AJ34" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="AK34" s="77"/>
-      <c r="AL34" s="77"/>
-      <c r="AM34" s="77"/>
-      <c r="AN34" s="77"/>
-      <c r="AO34" s="79"/>
-      <c r="AP34" s="77" t="s">
+      <c r="AK34" s="93"/>
+      <c r="AL34" s="93"/>
+      <c r="AM34" s="93"/>
+      <c r="AN34" s="93"/>
+      <c r="AO34" s="95"/>
+      <c r="AP34" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="AQ34" s="77"/>
-      <c r="AR34" s="77"/>
-      <c r="AS34" s="77"/>
-      <c r="AT34" s="77"/>
-      <c r="AU34" s="77"/>
-      <c r="AV34" s="77" t="s">
+      <c r="AQ34" s="93"/>
+      <c r="AR34" s="93"/>
+      <c r="AS34" s="93"/>
+      <c r="AT34" s="93"/>
+      <c r="AU34" s="93"/>
+      <c r="AV34" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="AW34" s="77"/>
-      <c r="AX34" s="77"/>
-      <c r="AY34" s="77"/>
-      <c r="AZ34" s="77"/>
-      <c r="BA34" s="77"/>
-      <c r="BB34" s="78" t="s">
+      <c r="AW34" s="93"/>
+      <c r="AX34" s="93"/>
+      <c r="AY34" s="93"/>
+      <c r="AZ34" s="93"/>
+      <c r="BA34" s="93"/>
+      <c r="BB34" s="94" t="s">
         <v>92</v>
       </c>
-      <c r="BC34" s="77"/>
-      <c r="BD34" s="77"/>
-      <c r="BE34" s="77"/>
-      <c r="BF34" s="77"/>
-      <c r="BG34" s="79"/>
-      <c r="BH34" s="77" t="s">
+      <c r="BC34" s="93"/>
+      <c r="BD34" s="93"/>
+      <c r="BE34" s="93"/>
+      <c r="BF34" s="93"/>
+      <c r="BG34" s="95"/>
+      <c r="BH34" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="BI34" s="77"/>
-      <c r="BJ34" s="77"/>
-      <c r="BK34" s="77"/>
-      <c r="BL34" s="77"/>
-      <c r="BM34" s="77"/>
-      <c r="BN34" s="78" t="s">
+      <c r="BI34" s="93"/>
+      <c r="BJ34" s="93"/>
+      <c r="BK34" s="93"/>
+      <c r="BL34" s="93"/>
+      <c r="BM34" s="93"/>
+      <c r="BN34" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="BO34" s="77"/>
-      <c r="BP34" s="77"/>
-      <c r="BQ34" s="77"/>
-      <c r="BR34" s="77"/>
-      <c r="BS34" s="79"/>
-      <c r="BT34" s="78" t="s">
+      <c r="BO34" s="93"/>
+      <c r="BP34" s="93"/>
+      <c r="BQ34" s="93"/>
+      <c r="BR34" s="93"/>
+      <c r="BS34" s="95"/>
+      <c r="BT34" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="BU34" s="77"/>
-      <c r="BV34" s="77"/>
-      <c r="BW34" s="77"/>
-      <c r="BX34" s="77"/>
-      <c r="BY34" s="79"/>
+      <c r="BU34" s="93"/>
+      <c r="BV34" s="93"/>
+      <c r="BW34" s="93"/>
+      <c r="BX34" s="93"/>
+      <c r="BY34" s="95"/>
     </row>
     <row r="35" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="52" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="53"/>
-      <c r="D35" s="73">
+      <c r="D35" s="85">
         <v>1</v>
       </c>
-      <c r="E35" s="74"/>
+      <c r="E35" s="86"/>
       <c r="F35" s="53"/>
       <c r="G35" s="53"/>
       <c r="H35" s="53"/>
@@ -4523,10 +4565,10 @@
         <v>45</v>
       </c>
       <c r="C36" s="53"/>
-      <c r="D36" s="73">
+      <c r="D36" s="85">
         <v>1</v>
       </c>
-      <c r="E36" s="74"/>
+      <c r="E36" s="86"/>
       <c r="F36" s="53"/>
       <c r="G36" s="53"/>
       <c r="H36" s="53"/>
@@ -4605,10 +4647,10 @@
         <v>46</v>
       </c>
       <c r="C37" s="53"/>
-      <c r="D37" s="73">
+      <c r="D37" s="85">
         <v>1</v>
       </c>
-      <c r="E37" s="74"/>
+      <c r="E37" s="86"/>
       <c r="F37" s="53"/>
       <c r="G37" s="53"/>
       <c r="H37" s="53"/>
@@ -4687,10 +4729,10 @@
         <v>60</v>
       </c>
       <c r="C38" s="53"/>
-      <c r="D38" s="73">
+      <c r="D38" s="85">
         <v>1</v>
       </c>
-      <c r="E38" s="74"/>
+      <c r="E38" s="86"/>
       <c r="F38" s="53"/>
       <c r="G38" s="53"/>
       <c r="H38" s="53"/>
@@ -4769,10 +4811,10 @@
         <v>61</v>
       </c>
       <c r="C39" s="53"/>
-      <c r="D39" s="73">
+      <c r="D39" s="85">
         <v>1</v>
       </c>
-      <c r="E39" s="74"/>
+      <c r="E39" s="86"/>
       <c r="F39" s="53"/>
       <c r="G39" s="53"/>
       <c r="H39" s="53"/>
@@ -4851,10 +4893,10 @@
         <v>62</v>
       </c>
       <c r="C40" s="53"/>
-      <c r="D40" s="73">
+      <c r="D40" s="85">
         <v>1</v>
       </c>
-      <c r="E40" s="74"/>
+      <c r="E40" s="86"/>
       <c r="F40" s="53"/>
       <c r="G40" s="53"/>
       <c r="H40" s="53"/>
@@ -4933,10 +4975,10 @@
         <v>63</v>
       </c>
       <c r="C41" s="53"/>
-      <c r="D41" s="73">
+      <c r="D41" s="85">
         <v>1</v>
       </c>
-      <c r="E41" s="74"/>
+      <c r="E41" s="86"/>
       <c r="F41" s="53"/>
       <c r="G41" s="53"/>
       <c r="H41" s="53"/>
@@ -5015,10 +5057,10 @@
         <v>64</v>
       </c>
       <c r="C42" s="53"/>
-      <c r="D42" s="73">
+      <c r="D42" s="85">
         <v>1</v>
       </c>
-      <c r="E42" s="74"/>
+      <c r="E42" s="86"/>
       <c r="F42" s="53"/>
       <c r="G42" s="53"/>
       <c r="H42" s="53"/>
@@ -5097,10 +5139,10 @@
         <v>65</v>
       </c>
       <c r="C43" s="53"/>
-      <c r="D43" s="73">
+      <c r="D43" s="85">
         <v>1</v>
       </c>
-      <c r="E43" s="74"/>
+      <c r="E43" s="86"/>
       <c r="F43" s="53"/>
       <c r="G43" s="53"/>
       <c r="H43" s="53"/>
@@ -5179,10 +5221,10 @@
         <v>66</v>
       </c>
       <c r="C44" s="53"/>
-      <c r="D44" s="73">
+      <c r="D44" s="85">
         <v>1</v>
       </c>
-      <c r="E44" s="74"/>
+      <c r="E44" s="86"/>
       <c r="F44" s="53"/>
       <c r="G44" s="53"/>
       <c r="H44" s="53"/>
@@ -5261,10 +5303,10 @@
         <v>67</v>
       </c>
       <c r="C45" s="53"/>
-      <c r="D45" s="73">
+      <c r="D45" s="85">
         <v>1</v>
       </c>
-      <c r="E45" s="74"/>
+      <c r="E45" s="86"/>
       <c r="F45" s="53"/>
       <c r="G45" s="53"/>
       <c r="H45" s="53"/>
@@ -5343,10 +5385,10 @@
         <v>68</v>
       </c>
       <c r="C46" s="53"/>
-      <c r="D46" s="73">
+      <c r="D46" s="85">
         <v>1</v>
       </c>
-      <c r="E46" s="74"/>
+      <c r="E46" s="86"/>
       <c r="F46" s="53"/>
       <c r="G46" s="53"/>
       <c r="H46" s="53"/>
@@ -5425,10 +5467,10 @@
         <v>69</v>
       </c>
       <c r="C47" s="53"/>
-      <c r="D47" s="73">
+      <c r="D47" s="85">
         <v>1</v>
       </c>
-      <c r="E47" s="74"/>
+      <c r="E47" s="86"/>
       <c r="F47" s="53"/>
       <c r="G47" s="53"/>
       <c r="H47" s="53"/>
@@ -5507,10 +5549,10 @@
         <v>70</v>
       </c>
       <c r="C48" s="53"/>
-      <c r="D48" s="73">
+      <c r="D48" s="85">
         <v>1</v>
       </c>
-      <c r="E48" s="74"/>
+      <c r="E48" s="86"/>
       <c r="F48" s="53"/>
       <c r="G48" s="53"/>
       <c r="H48" s="53"/>
@@ -5589,10 +5631,10 @@
         <v>71</v>
       </c>
       <c r="C49" s="53"/>
-      <c r="D49" s="73">
+      <c r="D49" s="85">
         <v>1</v>
       </c>
-      <c r="E49" s="74"/>
+      <c r="E49" s="86"/>
       <c r="F49" s="53"/>
       <c r="G49" s="53"/>
       <c r="H49" s="53"/>
@@ -5671,10 +5713,10 @@
         <v>72</v>
       </c>
       <c r="C50" s="53"/>
-      <c r="D50" s="73">
+      <c r="D50" s="85">
         <v>1</v>
       </c>
-      <c r="E50" s="74"/>
+      <c r="E50" s="86"/>
       <c r="F50" s="53"/>
       <c r="G50" s="53"/>
       <c r="H50" s="53"/>
@@ -5753,10 +5795,10 @@
         <v>73</v>
       </c>
       <c r="C51" s="53"/>
-      <c r="D51" s="73">
+      <c r="D51" s="85">
         <v>1</v>
       </c>
-      <c r="E51" s="74"/>
+      <c r="E51" s="86"/>
       <c r="F51" s="53"/>
       <c r="G51" s="53"/>
       <c r="H51" s="53"/>
@@ -5835,10 +5877,10 @@
         <v>74</v>
       </c>
       <c r="C52" s="53"/>
-      <c r="D52" s="73">
+      <c r="D52" s="85">
         <v>1</v>
       </c>
-      <c r="E52" s="74"/>
+      <c r="E52" s="86"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
       <c r="H52" s="53"/>
@@ -5917,10 +5959,10 @@
         <v>75</v>
       </c>
       <c r="C53" s="53"/>
-      <c r="D53" s="73">
+      <c r="D53" s="85">
         <v>1</v>
       </c>
-      <c r="E53" s="74"/>
+      <c r="E53" s="86"/>
       <c r="F53" s="53"/>
       <c r="G53" s="53"/>
       <c r="H53" s="53"/>
@@ -5999,10 +6041,10 @@
         <v>76</v>
       </c>
       <c r="C54" s="53"/>
-      <c r="D54" s="73">
+      <c r="D54" s="85">
         <v>1</v>
       </c>
-      <c r="E54" s="74"/>
+      <c r="E54" s="86"/>
       <c r="F54" s="53"/>
       <c r="G54" s="53"/>
       <c r="H54" s="53"/>
@@ -6081,10 +6123,10 @@
         <v>77</v>
       </c>
       <c r="C55" s="58"/>
-      <c r="D55" s="73">
+      <c r="D55" s="85">
         <v>1</v>
       </c>
-      <c r="E55" s="74"/>
+      <c r="E55" s="86"/>
       <c r="F55" s="53"/>
       <c r="G55" s="53"/>
       <c r="H55" s="53"/>
@@ -6163,10 +6205,10 @@
         <v>78</v>
       </c>
       <c r="C56" s="53"/>
-      <c r="D56" s="73">
+      <c r="D56" s="85">
         <v>1</v>
       </c>
-      <c r="E56" s="74"/>
+      <c r="E56" s="86"/>
       <c r="F56" s="53"/>
       <c r="G56" s="53"/>
       <c r="H56" s="53"/>
@@ -6245,10 +6287,10 @@
         <v>79</v>
       </c>
       <c r="C57" s="53"/>
-      <c r="D57" s="73">
+      <c r="D57" s="85">
         <v>1</v>
       </c>
-      <c r="E57" s="74"/>
+      <c r="E57" s="86"/>
       <c r="F57" s="53"/>
       <c r="G57" s="53"/>
       <c r="H57" s="53"/>
@@ -6327,10 +6369,10 @@
         <v>80</v>
       </c>
       <c r="C58" s="53"/>
-      <c r="D58" s="73">
+      <c r="D58" s="85">
         <v>1</v>
       </c>
-      <c r="E58" s="74"/>
+      <c r="E58" s="86"/>
       <c r="F58" s="53"/>
       <c r="G58" s="53"/>
       <c r="H58" s="53"/>
@@ -6409,10 +6451,10 @@
         <v>81</v>
       </c>
       <c r="C59" s="53"/>
-      <c r="D59" s="73">
+      <c r="D59" s="85">
         <v>1</v>
       </c>
-      <c r="E59" s="74"/>
+      <c r="E59" s="86"/>
       <c r="F59" s="53"/>
       <c r="G59" s="53"/>
       <c r="H59" s="53"/>
@@ -6491,10 +6533,10 @@
         <v>82</v>
       </c>
       <c r="C60" s="53"/>
-      <c r="D60" s="73">
+      <c r="D60" s="85">
         <v>1</v>
       </c>
-      <c r="E60" s="74"/>
+      <c r="E60" s="86"/>
       <c r="F60" s="53"/>
       <c r="G60" s="53"/>
       <c r="H60" s="53"/>
@@ -6573,10 +6615,10 @@
         <v>83</v>
       </c>
       <c r="C61" s="53"/>
-      <c r="D61" s="73">
+      <c r="D61" s="85">
         <v>1</v>
       </c>
-      <c r="E61" s="74"/>
+      <c r="E61" s="86"/>
       <c r="F61" s="53"/>
       <c r="G61" s="53"/>
       <c r="H61" s="53"/>
@@ -6655,10 +6697,10 @@
         <v>84</v>
       </c>
       <c r="C62" s="53"/>
-      <c r="D62" s="73">
+      <c r="D62" s="85">
         <v>1</v>
       </c>
-      <c r="E62" s="74"/>
+      <c r="E62" s="86"/>
       <c r="F62" s="53"/>
       <c r="G62" s="53"/>
       <c r="H62" s="53"/>
@@ -6735,8 +6777,8 @@
     <row r="63" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="57"/>
       <c r="C63" s="59"/>
-      <c r="D63" s="73"/>
-      <c r="E63" s="74"/>
+      <c r="D63" s="85"/>
+      <c r="E63" s="86"/>
       <c r="F63" s="59"/>
       <c r="G63" s="59"/>
       <c r="H63" s="59"/>
@@ -6815,10 +6857,10 @@
         <v>47</v>
       </c>
       <c r="C64" s="59"/>
-      <c r="D64" s="73">
+      <c r="D64" s="85">
         <v>1</v>
       </c>
-      <c r="E64" s="74"/>
+      <c r="E64" s="86"/>
       <c r="F64" s="59"/>
       <c r="G64" s="59"/>
       <c r="H64" s="59"/>
@@ -6897,10 +6939,10 @@
         <v>48</v>
       </c>
       <c r="C65" s="59"/>
-      <c r="D65" s="73">
+      <c r="D65" s="85">
         <v>1</v>
       </c>
-      <c r="E65" s="74"/>
+      <c r="E65" s="86"/>
       <c r="F65" s="59"/>
       <c r="G65" s="59"/>
       <c r="H65" s="59"/>
@@ -6977,8 +7019,8 @@
     <row r="66" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="57"/>
       <c r="C66" s="59"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="74"/>
+      <c r="D66" s="85"/>
+      <c r="E66" s="86"/>
       <c r="F66" s="59"/>
       <c r="G66" s="59"/>
       <c r="H66" s="59"/>
@@ -7057,10 +7099,10 @@
         <v>49</v>
       </c>
       <c r="C67" s="59"/>
-      <c r="D67" s="73">
+      <c r="D67" s="85">
         <v>1</v>
       </c>
-      <c r="E67" s="74"/>
+      <c r="E67" s="86"/>
       <c r="F67" s="59"/>
       <c r="G67" s="59"/>
       <c r="H67" s="59"/>
@@ -7139,10 +7181,10 @@
         <v>50</v>
       </c>
       <c r="C68" s="59"/>
-      <c r="D68" s="73">
+      <c r="D68" s="85">
         <v>1</v>
       </c>
-      <c r="E68" s="74"/>
+      <c r="E68" s="86"/>
       <c r="F68" s="59"/>
       <c r="G68" s="59"/>
       <c r="H68" s="59"/>
@@ -7221,10 +7263,10 @@
         <v>51</v>
       </c>
       <c r="C69" s="59"/>
-      <c r="D69" s="73">
+      <c r="D69" s="85">
         <v>1</v>
       </c>
-      <c r="E69" s="74"/>
+      <c r="E69" s="86"/>
       <c r="F69" s="59"/>
       <c r="G69" s="59"/>
       <c r="H69" s="59"/>
@@ -7303,10 +7345,10 @@
         <v>52</v>
       </c>
       <c r="C70" s="59"/>
-      <c r="D70" s="73">
+      <c r="D70" s="85">
         <v>1</v>
       </c>
-      <c r="E70" s="74"/>
+      <c r="E70" s="86"/>
       <c r="F70" s="59"/>
       <c r="G70" s="59"/>
       <c r="H70" s="59"/>
@@ -7385,10 +7427,10 @@
         <v>53</v>
       </c>
       <c r="C71" s="59"/>
-      <c r="D71" s="73">
+      <c r="D71" s="85">
         <v>1</v>
       </c>
-      <c r="E71" s="74"/>
+      <c r="E71" s="86"/>
       <c r="F71" s="59"/>
       <c r="G71" s="59"/>
       <c r="H71" s="59"/>
@@ -7467,10 +7509,10 @@
         <v>54</v>
       </c>
       <c r="C72" s="59"/>
-      <c r="D72" s="73">
+      <c r="D72" s="85">
         <v>1</v>
       </c>
-      <c r="E72" s="74"/>
+      <c r="E72" s="86"/>
       <c r="F72" s="59"/>
       <c r="G72" s="59"/>
       <c r="H72" s="59"/>
@@ -7549,10 +7591,10 @@
         <v>55</v>
       </c>
       <c r="C73" s="59"/>
-      <c r="D73" s="73">
+      <c r="D73" s="85">
         <v>1</v>
       </c>
-      <c r="E73" s="74"/>
+      <c r="E73" s="86"/>
       <c r="F73" s="59"/>
       <c r="G73" s="59"/>
       <c r="H73" s="59"/>
@@ -7631,10 +7673,10 @@
         <v>56</v>
       </c>
       <c r="C74" s="59"/>
-      <c r="D74" s="73">
+      <c r="D74" s="85">
         <v>1</v>
       </c>
-      <c r="E74" s="74"/>
+      <c r="E74" s="86"/>
       <c r="F74" s="59"/>
       <c r="G74" s="59"/>
       <c r="H74" s="59"/>
@@ -7713,10 +7755,10 @@
         <v>57</v>
       </c>
       <c r="C75" s="59"/>
-      <c r="D75" s="73">
+      <c r="D75" s="85">
         <v>1</v>
       </c>
-      <c r="E75" s="74"/>
+      <c r="E75" s="86"/>
       <c r="F75" s="59"/>
       <c r="G75" s="59"/>
       <c r="H75" s="59"/>
@@ -7795,10 +7837,10 @@
         <v>58</v>
       </c>
       <c r="C76" s="59"/>
-      <c r="D76" s="73">
+      <c r="D76" s="85">
         <v>1</v>
       </c>
-      <c r="E76" s="74"/>
+      <c r="E76" s="86"/>
       <c r="F76" s="59"/>
       <c r="G76" s="59"/>
       <c r="H76" s="59"/>
@@ -7877,10 +7919,10 @@
         <v>59</v>
       </c>
       <c r="C77" s="62"/>
-      <c r="D77" s="73">
+      <c r="D77" s="85">
         <v>1</v>
       </c>
-      <c r="E77" s="74"/>
+      <c r="E77" s="86"/>
       <c r="F77" s="62"/>
       <c r="G77" s="62"/>
       <c r="H77" s="62"/>
@@ -7961,8 +8003,8 @@
       <c r="C78" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D78" s="73"/>
-      <c r="E78" s="74"/>
+      <c r="D78" s="85"/>
+      <c r="E78" s="86"/>
       <c r="F78" s="59"/>
       <c r="G78" s="59"/>
       <c r="H78" s="59"/>
@@ -8047,8 +8089,8 @@
       <c r="C79" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D79" s="73"/>
-      <c r="E79" s="74"/>
+      <c r="D79" s="85"/>
+      <c r="E79" s="86"/>
       <c r="F79" s="59"/>
       <c r="G79" s="59"/>
       <c r="H79" s="59"/>
@@ -8068,10 +8110,10 @@
       <c r="V79" s="68"/>
       <c r="W79" s="69"/>
       <c r="X79" s="67"/>
-      <c r="Y79" s="127"/>
-      <c r="Z79" s="127"/>
-      <c r="AA79" s="127"/>
-      <c r="AB79" s="127"/>
+      <c r="Y79" s="68"/>
+      <c r="Z79" s="68"/>
+      <c r="AA79" s="68"/>
+      <c r="AB79" s="68"/>
       <c r="AC79" s="69"/>
       <c r="AD79" s="59"/>
       <c r="AE79" s="59"/>
@@ -8129,8 +8171,8 @@
       <c r="C80" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D80" s="73"/>
-      <c r="E80" s="74"/>
+      <c r="D80" s="85"/>
+      <c r="E80" s="86"/>
       <c r="F80" s="59"/>
       <c r="G80" s="59"/>
       <c r="H80" s="59"/>
@@ -8150,10 +8192,10 @@
       <c r="V80" s="68"/>
       <c r="W80" s="69"/>
       <c r="X80" s="67"/>
-      <c r="Y80" s="127"/>
-      <c r="Z80" s="127"/>
-      <c r="AA80" s="127"/>
-      <c r="AB80" s="127"/>
+      <c r="Y80" s="68"/>
+      <c r="Z80" s="68"/>
+      <c r="AA80" s="68"/>
+      <c r="AB80" s="68"/>
       <c r="AC80" s="69"/>
       <c r="AD80" s="59"/>
       <c r="AE80" s="59"/>
@@ -8211,8 +8253,8 @@
       <c r="C81" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D81" s="73"/>
-      <c r="E81" s="74"/>
+      <c r="D81" s="85"/>
+      <c r="E81" s="86"/>
       <c r="F81" s="59"/>
       <c r="G81" s="59"/>
       <c r="H81" s="59"/>
@@ -8232,10 +8274,10 @@
       <c r="V81" s="68"/>
       <c r="W81" s="69"/>
       <c r="X81" s="67"/>
-      <c r="Y81" s="127"/>
-      <c r="Z81" s="127"/>
-      <c r="AA81" s="127"/>
-      <c r="AB81" s="127"/>
+      <c r="Y81" s="68"/>
+      <c r="Z81" s="68"/>
+      <c r="AA81" s="68"/>
+      <c r="AB81" s="68"/>
       <c r="AC81" s="69"/>
       <c r="AD81" s="59"/>
       <c r="AE81" s="59"/>
@@ -8293,8 +8335,8 @@
       <c r="C82" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D82" s="73"/>
-      <c r="E82" s="74"/>
+      <c r="D82" s="85"/>
+      <c r="E82" s="86"/>
       <c r="F82" s="59"/>
       <c r="G82" s="59"/>
       <c r="H82" s="59"/>
@@ -8314,10 +8356,10 @@
       <c r="V82" s="68"/>
       <c r="W82" s="69"/>
       <c r="X82" s="67"/>
-      <c r="Y82" s="127"/>
-      <c r="Z82" s="127"/>
-      <c r="AA82" s="127"/>
-      <c r="AB82" s="127"/>
+      <c r="Y82" s="68"/>
+      <c r="Z82" s="68"/>
+      <c r="AA82" s="68"/>
+      <c r="AB82" s="68"/>
       <c r="AC82" s="69"/>
       <c r="AD82" s="59"/>
       <c r="AE82" s="59"/>
@@ -8375,8 +8417,8 @@
       <c r="C83" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D83" s="73"/>
-      <c r="E83" s="74"/>
+      <c r="D83" s="85"/>
+      <c r="E83" s="86"/>
       <c r="F83" s="59"/>
       <c r="G83" s="59"/>
       <c r="H83" s="59"/>
@@ -8453,8 +8495,8 @@
     <row r="84" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="61"/>
       <c r="C84" s="62"/>
-      <c r="D84" s="73"/>
-      <c r="E84" s="74"/>
+      <c r="D84" s="85"/>
+      <c r="E84" s="86"/>
       <c r="F84" s="62"/>
       <c r="G84" s="62"/>
       <c r="H84" s="62"/>
@@ -8536,7 +8578,145 @@
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="159">
+  <mergeCells count="162">
+    <mergeCell ref="R78:W83"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="AL5:AM5"/>
+    <mergeCell ref="AV8:BA8"/>
+    <mergeCell ref="BB8:BG8"/>
+    <mergeCell ref="AD34:AI34"/>
+    <mergeCell ref="AJ34:AO34"/>
+    <mergeCell ref="AP34:AU34"/>
+    <mergeCell ref="AV34:BA34"/>
+    <mergeCell ref="BB34:BG34"/>
+    <mergeCell ref="AP8:AU8"/>
+    <mergeCell ref="AD19:AI20"/>
+    <mergeCell ref="AD9:AI10"/>
+    <mergeCell ref="AD32:AI32"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="D27:E28"/>
+    <mergeCell ref="D23:E24"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="BH8:BM8"/>
+    <mergeCell ref="BN8:BS8"/>
+    <mergeCell ref="BT8:BY8"/>
+    <mergeCell ref="BH34:BM34"/>
+    <mergeCell ref="BN34:BS34"/>
+    <mergeCell ref="BT34:BY34"/>
+    <mergeCell ref="R34:W34"/>
+    <mergeCell ref="X34:AC34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="AD8:AI8"/>
+    <mergeCell ref="AJ8:AO8"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="L34:Q34"/>
+    <mergeCell ref="F8:K8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
     <mergeCell ref="X78:AC83"/>
     <mergeCell ref="X32:AC32"/>
     <mergeCell ref="X19:AC20"/>
@@ -8561,141 +8741,6 @@
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="BH8:BM8"/>
-    <mergeCell ref="BN8:BS8"/>
-    <mergeCell ref="BT8:BY8"/>
-    <mergeCell ref="BH34:BM34"/>
-    <mergeCell ref="BN34:BS34"/>
-    <mergeCell ref="BT34:BY34"/>
-    <mergeCell ref="R34:W34"/>
-    <mergeCell ref="X34:AC34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="AD8:AI8"/>
-    <mergeCell ref="AJ8:AO8"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="D27:E28"/>
-    <mergeCell ref="D23:E24"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D25:E26"/>
-    <mergeCell ref="D19:E20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="L34:Q34"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:K8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="AV8:BA8"/>
-    <mergeCell ref="BB8:BG8"/>
-    <mergeCell ref="AD34:AI34"/>
-    <mergeCell ref="AJ34:AO34"/>
-    <mergeCell ref="AP34:AU34"/>
-    <mergeCell ref="AV34:BA34"/>
-    <mergeCell ref="BB34:BG34"/>
-    <mergeCell ref="AP8:AU8"/>
-    <mergeCell ref="R78:W83"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/工程表/工程管理(Forest).xlsx
+++ b/document/工程表/工程管理(Forest).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54fd41506f0d43af/デスクトップ/team_forest/document/工程表/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{DD294E77-84DB-4E19-AE4E-5040BAF5CCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CFB67B4-C4B1-4164-9735-9D9F433C8097}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{DD294E77-84DB-4E19-AE4E-5040BAF5CCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09114B33-5D7C-4838-9487-12064DF0FEE0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="124">
   <si>
     <t>担当</t>
     <rPh sb="0" eb="2">
@@ -807,6 +807,23 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>クロダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>永井・黒田</t>
+    <rPh sb="0" eb="2">
+      <t>ナガイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>クロダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>森岡</t>
+    <rPh sb="0" eb="2">
+      <t>モリオカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1670,6 +1687,111 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1697,41 +1819,170 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1739,48 +1990,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1789,198 +1998,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2001,6 +2018,10 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -2272,8 +2293,8 @@
   </sheetPr>
   <dimension ref="B2:BY84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AS25" sqref="AS25"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AP19" sqref="AP19:AU20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2296,162 +2317,162 @@
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="89" t="s">
+      <c r="D4" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="90"/>
-      <c r="F4" s="89" t="s">
+      <c r="E4" s="140"/>
+      <c r="F4" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="90"/>
-      <c r="H4" s="89" t="s">
+      <c r="G4" s="140"/>
+      <c r="H4" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="90"/>
-      <c r="J4" s="89" t="s">
+      <c r="I4" s="140"/>
+      <c r="J4" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="90"/>
-      <c r="L4" s="89" t="s">
+      <c r="K4" s="140"/>
+      <c r="L4" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="90"/>
-      <c r="N4" s="89" t="s">
+      <c r="M4" s="140"/>
+      <c r="N4" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="90"/>
-      <c r="P4" s="89" t="s">
+      <c r="O4" s="140"/>
+      <c r="P4" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="89" t="s">
+      <c r="Q4" s="140"/>
+      <c r="R4" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="S4" s="90"/>
-      <c r="T4" s="89" t="s">
+      <c r="S4" s="140"/>
+      <c r="T4" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="U4" s="90"/>
-      <c r="V4" s="89" t="s">
+      <c r="U4" s="140"/>
+      <c r="V4" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="90"/>
-      <c r="X4" s="89" t="s">
+      <c r="W4" s="140"/>
+      <c r="X4" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="89" t="s">
+      <c r="Y4" s="140"/>
+      <c r="Z4" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="89" t="s">
+      <c r="AA4" s="140"/>
+      <c r="AB4" s="139" t="s">
         <v>27</v>
       </c>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="89" t="s">
+      <c r="AC4" s="140"/>
+      <c r="AD4" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="89" t="s">
+      <c r="AE4" s="140"/>
+      <c r="AF4" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="AG4" s="90"/>
-      <c r="AH4" s="89" t="s">
+      <c r="AG4" s="140"/>
+      <c r="AH4" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="AI4" s="90"/>
-      <c r="AJ4" s="89" t="s">
+      <c r="AI4" s="140"/>
+      <c r="AJ4" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="AK4" s="90"/>
-      <c r="AL4" s="89" t="s">
+      <c r="AK4" s="140"/>
+      <c r="AL4" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="AM4" s="90"/>
+      <c r="AM4" s="140"/>
     </row>
     <row r="5" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="73" t="s">
+      <c r="E5" s="156"/>
+      <c r="F5" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="74"/>
-      <c r="H5" s="75" t="s">
+      <c r="G5" s="156"/>
+      <c r="H5" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="76"/>
-      <c r="J5" s="75" t="s">
+      <c r="I5" s="154"/>
+      <c r="J5" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="76"/>
-      <c r="L5" s="75" t="s">
+      <c r="K5" s="154"/>
+      <c r="L5" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="75" t="s">
+      <c r="M5" s="154"/>
+      <c r="N5" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="76"/>
-      <c r="P5" s="73" t="s">
+      <c r="O5" s="154"/>
+      <c r="P5" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="73" t="s">
+      <c r="Q5" s="156"/>
+      <c r="R5" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="74"/>
-      <c r="T5" s="73" t="s">
+      <c r="S5" s="156"/>
+      <c r="T5" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="U5" s="74"/>
-      <c r="V5" s="73" t="s">
+      <c r="U5" s="156"/>
+      <c r="V5" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="W5" s="74"/>
-      <c r="X5" s="73" t="s">
+      <c r="W5" s="156"/>
+      <c r="X5" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="Y5" s="74"/>
-      <c r="Z5" s="75" t="s">
+      <c r="Y5" s="156"/>
+      <c r="Z5" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="AA5" s="76"/>
-      <c r="AB5" s="75" t="s">
+      <c r="AA5" s="154"/>
+      <c r="AB5" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="AC5" s="76"/>
-      <c r="AD5" s="73" t="s">
+      <c r="AC5" s="154"/>
+      <c r="AD5" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="AE5" s="74"/>
-      <c r="AF5" s="73" t="s">
+      <c r="AE5" s="156"/>
+      <c r="AF5" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="AG5" s="74"/>
-      <c r="AH5" s="73" t="s">
+      <c r="AG5" s="156"/>
+      <c r="AH5" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="AI5" s="74"/>
-      <c r="AJ5" s="73" t="s">
+      <c r="AI5" s="156"/>
+      <c r="AJ5" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="AK5" s="74"/>
-      <c r="AL5" s="73" t="s">
+      <c r="AK5" s="156"/>
+      <c r="AL5" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="AM5" s="74"/>
-      <c r="AP5" s="107"/>
-      <c r="AQ5" s="107"/>
+      <c r="AM5" s="156"/>
+      <c r="AP5" s="62"/>
+      <c r="AQ5" s="62"/>
       <c r="AR5" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AW5" s="134"/>
-      <c r="AX5" s="134"/>
+      <c r="AW5" s="79"/>
+      <c r="AX5" s="79"/>
       <c r="AY5" s="1" t="s">
         <v>118</v>
       </c>
@@ -2474,188 +2495,188 @@
       <c r="C8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="80" t="s">
+      <c r="D8" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="82"/>
-      <c r="F8" s="78" t="s">
+      <c r="E8" s="132"/>
+      <c r="F8" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="77" t="s">
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="128"/>
+      <c r="L8" s="126" t="s">
         <v>87</v>
       </c>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="77"/>
-      <c r="Q8" s="77"/>
-      <c r="R8" s="78" t="s">
+      <c r="M8" s="126"/>
+      <c r="N8" s="126"/>
+      <c r="O8" s="126"/>
+      <c r="P8" s="126"/>
+      <c r="Q8" s="126"/>
+      <c r="R8" s="127" t="s">
         <v>88</v>
       </c>
-      <c r="S8" s="77"/>
-      <c r="T8" s="77"/>
-      <c r="U8" s="77"/>
-      <c r="V8" s="77"/>
-      <c r="W8" s="79"/>
-      <c r="X8" s="77" t="s">
+      <c r="S8" s="126"/>
+      <c r="T8" s="126"/>
+      <c r="U8" s="126"/>
+      <c r="V8" s="126"/>
+      <c r="W8" s="128"/>
+      <c r="X8" s="126" t="s">
         <v>89</v>
       </c>
-      <c r="Y8" s="77"/>
-      <c r="Z8" s="77"/>
-      <c r="AA8" s="77"/>
-      <c r="AB8" s="77"/>
-      <c r="AC8" s="77"/>
-      <c r="AD8" s="80" t="s">
+      <c r="Y8" s="126"/>
+      <c r="Z8" s="126"/>
+      <c r="AA8" s="126"/>
+      <c r="AB8" s="126"/>
+      <c r="AC8" s="126"/>
+      <c r="AD8" s="130" t="s">
         <v>90</v>
       </c>
-      <c r="AE8" s="81"/>
-      <c r="AF8" s="81"/>
-      <c r="AG8" s="81"/>
-      <c r="AH8" s="81"/>
-      <c r="AI8" s="82"/>
-      <c r="AJ8" s="78" t="s">
+      <c r="AE8" s="131"/>
+      <c r="AF8" s="131"/>
+      <c r="AG8" s="131"/>
+      <c r="AH8" s="131"/>
+      <c r="AI8" s="132"/>
+      <c r="AJ8" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="AK8" s="77"/>
-      <c r="AL8" s="77"/>
-      <c r="AM8" s="77"/>
-      <c r="AN8" s="77"/>
-      <c r="AO8" s="79"/>
-      <c r="AP8" s="77" t="s">
+      <c r="AK8" s="126"/>
+      <c r="AL8" s="126"/>
+      <c r="AM8" s="126"/>
+      <c r="AN8" s="126"/>
+      <c r="AO8" s="128"/>
+      <c r="AP8" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="AQ8" s="77"/>
-      <c r="AR8" s="77"/>
-      <c r="AS8" s="77"/>
-      <c r="AT8" s="77"/>
-      <c r="AU8" s="77"/>
-      <c r="AV8" s="77" t="s">
+      <c r="AQ8" s="126"/>
+      <c r="AR8" s="126"/>
+      <c r="AS8" s="126"/>
+      <c r="AT8" s="126"/>
+      <c r="AU8" s="126"/>
+      <c r="AV8" s="126" t="s">
         <v>91</v>
       </c>
-      <c r="AW8" s="77"/>
-      <c r="AX8" s="77"/>
-      <c r="AY8" s="77"/>
-      <c r="AZ8" s="77"/>
-      <c r="BA8" s="77"/>
-      <c r="BB8" s="78" t="s">
+      <c r="AW8" s="126"/>
+      <c r="AX8" s="126"/>
+      <c r="AY8" s="126"/>
+      <c r="AZ8" s="126"/>
+      <c r="BA8" s="126"/>
+      <c r="BB8" s="127" t="s">
         <v>92</v>
       </c>
-      <c r="BC8" s="77"/>
-      <c r="BD8" s="77"/>
-      <c r="BE8" s="77"/>
-      <c r="BF8" s="77"/>
-      <c r="BG8" s="79"/>
-      <c r="BH8" s="77" t="s">
+      <c r="BC8" s="126"/>
+      <c r="BD8" s="126"/>
+      <c r="BE8" s="126"/>
+      <c r="BF8" s="126"/>
+      <c r="BG8" s="128"/>
+      <c r="BH8" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="BI8" s="77"/>
-      <c r="BJ8" s="77"/>
-      <c r="BK8" s="77"/>
-      <c r="BL8" s="77"/>
-      <c r="BM8" s="77"/>
-      <c r="BN8" s="78" t="s">
+      <c r="BI8" s="126"/>
+      <c r="BJ8" s="126"/>
+      <c r="BK8" s="126"/>
+      <c r="BL8" s="126"/>
+      <c r="BM8" s="126"/>
+      <c r="BN8" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="BO8" s="77"/>
-      <c r="BP8" s="77"/>
-      <c r="BQ8" s="77"/>
-      <c r="BR8" s="77"/>
-      <c r="BS8" s="79"/>
-      <c r="BT8" s="78" t="s">
+      <c r="BO8" s="126"/>
+      <c r="BP8" s="126"/>
+      <c r="BQ8" s="126"/>
+      <c r="BR8" s="126"/>
+      <c r="BS8" s="128"/>
+      <c r="BT8" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="BU8" s="77"/>
-      <c r="BV8" s="77"/>
-      <c r="BW8" s="77"/>
-      <c r="BX8" s="77"/>
-      <c r="BY8" s="79"/>
+      <c r="BU8" s="126"/>
+      <c r="BV8" s="126"/>
+      <c r="BW8" s="126"/>
+      <c r="BX8" s="126"/>
+      <c r="BY8" s="128"/>
     </row>
     <row r="9" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="85">
+      <c r="D9" s="147">
         <v>0.5</v>
       </c>
-      <c r="E9" s="86"/>
-      <c r="F9" s="108" t="s">
+      <c r="E9" s="148"/>
+      <c r="F9" s="120" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="111" t="s">
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="M9" s="112"/>
-      <c r="N9" s="112"/>
-      <c r="O9" s="112"/>
-      <c r="P9" s="112"/>
-      <c r="Q9" s="113"/>
-      <c r="R9" s="111" t="s">
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="S9" s="112"/>
-      <c r="T9" s="112"/>
-      <c r="U9" s="112"/>
-      <c r="V9" s="112"/>
-      <c r="W9" s="113"/>
-      <c r="X9" s="111" t="s">
+      <c r="S9" s="116"/>
+      <c r="T9" s="116"/>
+      <c r="U9" s="116"/>
+      <c r="V9" s="116"/>
+      <c r="W9" s="117"/>
+      <c r="X9" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="Y9" s="112"/>
-      <c r="Z9" s="112"/>
-      <c r="AA9" s="112"/>
-      <c r="AB9" s="112"/>
-      <c r="AC9" s="113"/>
-      <c r="AD9" s="111" t="s">
+      <c r="Y9" s="116"/>
+      <c r="Z9" s="116"/>
+      <c r="AA9" s="116"/>
+      <c r="AB9" s="116"/>
+      <c r="AC9" s="117"/>
+      <c r="AD9" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="AE9" s="112"/>
-      <c r="AF9" s="112"/>
-      <c r="AG9" s="112"/>
-      <c r="AH9" s="112"/>
-      <c r="AI9" s="113"/>
-      <c r="AJ9" s="114"/>
-      <c r="AK9" s="115"/>
-      <c r="AL9" s="115"/>
-      <c r="AM9" s="115"/>
-      <c r="AN9" s="115"/>
-      <c r="AO9" s="116"/>
-      <c r="AP9" s="114"/>
-      <c r="AQ9" s="115"/>
-      <c r="AR9" s="115"/>
-      <c r="AS9" s="115"/>
-      <c r="AT9" s="115"/>
-      <c r="AU9" s="116"/>
-      <c r="AV9" s="117"/>
-      <c r="AW9" s="118"/>
-      <c r="AX9" s="118"/>
-      <c r="AY9" s="115"/>
-      <c r="AZ9" s="115"/>
-      <c r="BA9" s="115"/>
-      <c r="BB9" s="114"/>
-      <c r="BC9" s="115"/>
-      <c r="BD9" s="115"/>
-      <c r="BE9" s="115"/>
-      <c r="BF9" s="115"/>
-      <c r="BG9" s="116"/>
-      <c r="BH9" s="117"/>
-      <c r="BI9" s="118"/>
-      <c r="BJ9" s="118"/>
-      <c r="BK9" s="115"/>
-      <c r="BL9" s="115"/>
-      <c r="BM9" s="115"/>
+      <c r="AE9" s="116"/>
+      <c r="AF9" s="116"/>
+      <c r="AG9" s="116"/>
+      <c r="AH9" s="116"/>
+      <c r="AI9" s="117"/>
+      <c r="AJ9" s="65"/>
+      <c r="AK9" s="66"/>
+      <c r="AL9" s="66"/>
+      <c r="AM9" s="66"/>
+      <c r="AN9" s="66"/>
+      <c r="AO9" s="67"/>
+      <c r="AP9" s="65"/>
+      <c r="AQ9" s="66"/>
+      <c r="AR9" s="66"/>
+      <c r="AS9" s="66"/>
+      <c r="AT9" s="66"/>
+      <c r="AU9" s="67"/>
+      <c r="AV9" s="64"/>
+      <c r="AW9" s="63"/>
+      <c r="AX9" s="63"/>
+      <c r="AY9" s="66"/>
+      <c r="AZ9" s="66"/>
+      <c r="BA9" s="66"/>
+      <c r="BB9" s="65"/>
+      <c r="BC9" s="66"/>
+      <c r="BD9" s="66"/>
+      <c r="BE9" s="66"/>
+      <c r="BF9" s="66"/>
+      <c r="BG9" s="67"/>
+      <c r="BH9" s="64"/>
+      <c r="BI9" s="63"/>
+      <c r="BJ9" s="63"/>
+      <c r="BK9" s="66"/>
+      <c r="BL9" s="66"/>
+      <c r="BM9" s="66"/>
       <c r="BN9" s="7"/>
       <c r="BO9" s="8"/>
       <c r="BP9" s="8"/>
@@ -2670,70 +2691,70 @@
       <c r="BY9" s="9"/>
     </row>
     <row r="10" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="92"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="122"/>
-      <c r="M10" s="123"/>
-      <c r="N10" s="123"/>
-      <c r="O10" s="123"/>
-      <c r="P10" s="123"/>
-      <c r="Q10" s="124"/>
-      <c r="R10" s="122"/>
-      <c r="S10" s="123"/>
-      <c r="T10" s="123"/>
-      <c r="U10" s="123"/>
-      <c r="V10" s="123"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="122"/>
-      <c r="Y10" s="123"/>
-      <c r="Z10" s="123"/>
-      <c r="AA10" s="123"/>
-      <c r="AB10" s="123"/>
-      <c r="AC10" s="124"/>
-      <c r="AD10" s="122"/>
-      <c r="AE10" s="123"/>
-      <c r="AF10" s="123"/>
-      <c r="AG10" s="123"/>
-      <c r="AH10" s="123"/>
-      <c r="AI10" s="124"/>
-      <c r="AJ10" s="125"/>
-      <c r="AK10" s="107"/>
-      <c r="AL10" s="107"/>
-      <c r="AM10" s="107"/>
-      <c r="AN10" s="107"/>
-      <c r="AO10" s="126"/>
-      <c r="AP10" s="125"/>
-      <c r="AQ10" s="107"/>
-      <c r="AR10" s="107"/>
-      <c r="AS10" s="107"/>
-      <c r="AT10" s="107"/>
-      <c r="AU10" s="126"/>
-      <c r="AV10" s="127"/>
-      <c r="AW10" s="128"/>
-      <c r="AX10" s="128"/>
-      <c r="AY10" s="107"/>
-      <c r="AZ10" s="107"/>
-      <c r="BA10" s="107"/>
-      <c r="BB10" s="125"/>
-      <c r="BC10" s="107"/>
-      <c r="BD10" s="107"/>
-      <c r="BE10" s="107"/>
-      <c r="BF10" s="107"/>
-      <c r="BG10" s="126"/>
-      <c r="BH10" s="127"/>
-      <c r="BI10" s="128"/>
-      <c r="BJ10" s="128"/>
-      <c r="BK10" s="107"/>
-      <c r="BL10" s="107"/>
-      <c r="BM10" s="107"/>
+      <c r="B10" s="158"/>
+      <c r="C10" s="162"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="112"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="113"/>
+      <c r="O10" s="113"/>
+      <c r="P10" s="113"/>
+      <c r="Q10" s="114"/>
+      <c r="R10" s="112"/>
+      <c r="S10" s="113"/>
+      <c r="T10" s="113"/>
+      <c r="U10" s="113"/>
+      <c r="V10" s="113"/>
+      <c r="W10" s="114"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="113"/>
+      <c r="Z10" s="113"/>
+      <c r="AA10" s="113"/>
+      <c r="AB10" s="113"/>
+      <c r="AC10" s="114"/>
+      <c r="AD10" s="112"/>
+      <c r="AE10" s="113"/>
+      <c r="AF10" s="113"/>
+      <c r="AG10" s="113"/>
+      <c r="AH10" s="113"/>
+      <c r="AI10" s="114"/>
+      <c r="AJ10" s="70"/>
+      <c r="AK10" s="62"/>
+      <c r="AL10" s="62"/>
+      <c r="AM10" s="62"/>
+      <c r="AN10" s="62"/>
+      <c r="AO10" s="71"/>
+      <c r="AP10" s="70"/>
+      <c r="AQ10" s="62"/>
+      <c r="AR10" s="62"/>
+      <c r="AS10" s="62"/>
+      <c r="AT10" s="62"/>
+      <c r="AU10" s="71"/>
+      <c r="AV10" s="72"/>
+      <c r="AW10" s="73"/>
+      <c r="AX10" s="73"/>
+      <c r="AY10" s="62"/>
+      <c r="AZ10" s="62"/>
+      <c r="BA10" s="62"/>
+      <c r="BB10" s="70"/>
+      <c r="BC10" s="62"/>
+      <c r="BD10" s="62"/>
+      <c r="BE10" s="62"/>
+      <c r="BF10" s="62"/>
+      <c r="BG10" s="71"/>
+      <c r="BH10" s="72"/>
+      <c r="BI10" s="73"/>
+      <c r="BJ10" s="73"/>
+      <c r="BK10" s="62"/>
+      <c r="BL10" s="62"/>
+      <c r="BM10" s="62"/>
       <c r="BN10" s="14"/>
       <c r="BO10" s="10"/>
       <c r="BP10" s="10"/>
@@ -2748,34 +2769,34 @@
       <c r="BY10" s="15"/>
     </row>
     <row r="11" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="161" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="85">
+      <c r="D11" s="147">
         <v>0.7</v>
       </c>
-      <c r="E11" s="86"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="140"/>
-      <c r="K11" s="141"/>
-      <c r="L11" s="138"/>
-      <c r="M11" s="139"/>
-      <c r="N11" s="139"/>
-      <c r="O11" s="140"/>
-      <c r="P11" s="140"/>
-      <c r="Q11" s="141"/>
-      <c r="R11" s="162"/>
-      <c r="S11" s="140"/>
-      <c r="T11" s="140"/>
-      <c r="U11" s="140"/>
-      <c r="V11" s="140"/>
-      <c r="W11" s="141"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="96"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="83"/>
       <c r="X11" s="18"/>
       <c r="Y11" s="19"/>
       <c r="Z11" s="19"/>
@@ -2832,28 +2853,28 @@
       <c r="BY11" s="20"/>
     </row>
     <row r="12" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="92"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="144"/>
-      <c r="I12" s="144"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="145"/>
-      <c r="L12" s="142"/>
-      <c r="M12" s="143"/>
-      <c r="N12" s="143"/>
-      <c r="O12" s="144"/>
-      <c r="P12" s="144"/>
-      <c r="Q12" s="145"/>
-      <c r="R12" s="146"/>
-      <c r="S12" s="144"/>
-      <c r="T12" s="144"/>
-      <c r="U12" s="144"/>
-      <c r="V12" s="144"/>
-      <c r="W12" s="145"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="162"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="84"/>
+      <c r="P12" s="84"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="84"/>
+      <c r="T12" s="84"/>
+      <c r="U12" s="84"/>
+      <c r="V12" s="84"/>
+      <c r="W12" s="85"/>
       <c r="X12" s="23"/>
       <c r="Y12" s="24"/>
       <c r="Z12" s="24"/>
@@ -2910,74 +2931,74 @@
       <c r="BY12" s="25"/>
     </row>
     <row r="13" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="157" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="101" t="s">
+      <c r="C13" s="165" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="85">
+      <c r="D13" s="147">
         <v>0.8</v>
       </c>
-      <c r="E13" s="86"/>
-      <c r="F13" s="135" t="s">
+      <c r="E13" s="148"/>
+      <c r="F13" s="109" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="136"/>
-      <c r="H13" s="136"/>
-      <c r="I13" s="136"/>
-      <c r="J13" s="136"/>
-      <c r="K13" s="137"/>
-      <c r="L13" s="138"/>
-      <c r="M13" s="139"/>
-      <c r="N13" s="139"/>
-      <c r="O13" s="140"/>
-      <c r="P13" s="140"/>
-      <c r="Q13" s="141"/>
-      <c r="R13" s="125"/>
-      <c r="S13" s="107"/>
-      <c r="T13" s="107"/>
-      <c r="U13" s="107"/>
-      <c r="V13" s="107"/>
-      <c r="W13" s="126"/>
-      <c r="X13" s="135" t="s">
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="62"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="Y13" s="136"/>
-      <c r="Z13" s="136"/>
-      <c r="AA13" s="136"/>
-      <c r="AB13" s="136"/>
-      <c r="AC13" s="137"/>
-      <c r="AD13" s="138"/>
-      <c r="AE13" s="139"/>
-      <c r="AF13" s="139"/>
-      <c r="AG13" s="140"/>
-      <c r="AH13" s="140"/>
-      <c r="AI13" s="141"/>
-      <c r="AJ13" s="125"/>
-      <c r="AK13" s="107"/>
-      <c r="AL13" s="107"/>
-      <c r="AM13" s="107"/>
-      <c r="AN13" s="107"/>
-      <c r="AO13" s="126"/>
-      <c r="AP13" s="125"/>
-      <c r="AQ13" s="107"/>
-      <c r="AR13" s="107"/>
-      <c r="AS13" s="107"/>
-      <c r="AT13" s="107"/>
-      <c r="AU13" s="126"/>
-      <c r="AV13" s="138"/>
-      <c r="AW13" s="139"/>
-      <c r="AX13" s="139"/>
-      <c r="AY13" s="140"/>
-      <c r="AZ13" s="140"/>
-      <c r="BA13" s="141"/>
-      <c r="BB13" s="125"/>
-      <c r="BC13" s="107"/>
-      <c r="BD13" s="107"/>
-      <c r="BE13" s="107"/>
-      <c r="BF13" s="107"/>
-      <c r="BG13" s="126"/>
+      <c r="Y13" s="110"/>
+      <c r="Z13" s="110"/>
+      <c r="AA13" s="110"/>
+      <c r="AB13" s="110"/>
+      <c r="AC13" s="111"/>
+      <c r="AD13" s="80"/>
+      <c r="AE13" s="81"/>
+      <c r="AF13" s="81"/>
+      <c r="AG13" s="82"/>
+      <c r="AH13" s="82"/>
+      <c r="AI13" s="83"/>
+      <c r="AJ13" s="70"/>
+      <c r="AK13" s="62"/>
+      <c r="AL13" s="62"/>
+      <c r="AM13" s="62"/>
+      <c r="AN13" s="62"/>
+      <c r="AO13" s="71"/>
+      <c r="AP13" s="70"/>
+      <c r="AQ13" s="62"/>
+      <c r="AR13" s="62"/>
+      <c r="AS13" s="62"/>
+      <c r="AT13" s="62"/>
+      <c r="AU13" s="71"/>
+      <c r="AV13" s="80"/>
+      <c r="AW13" s="81"/>
+      <c r="AX13" s="81"/>
+      <c r="AY13" s="82"/>
+      <c r="AZ13" s="82"/>
+      <c r="BA13" s="83"/>
+      <c r="BB13" s="70"/>
+      <c r="BC13" s="62"/>
+      <c r="BD13" s="62"/>
+      <c r="BE13" s="62"/>
+      <c r="BF13" s="62"/>
+      <c r="BG13" s="71"/>
       <c r="BH13" s="21"/>
       <c r="BI13" s="22"/>
       <c r="BJ13" s="22"/>
@@ -2998,64 +3019,64 @@
       <c r="BY13" s="15"/>
     </row>
     <row r="14" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="92"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="142"/>
-      <c r="M14" s="143"/>
-      <c r="N14" s="143"/>
-      <c r="O14" s="144"/>
-      <c r="P14" s="144"/>
-      <c r="Q14" s="145"/>
-      <c r="R14" s="146"/>
-      <c r="S14" s="144"/>
-      <c r="T14" s="144"/>
-      <c r="U14" s="144"/>
-      <c r="V14" s="144"/>
-      <c r="W14" s="145"/>
-      <c r="X14" s="122"/>
-      <c r="Y14" s="123"/>
-      <c r="Z14" s="123"/>
-      <c r="AA14" s="123"/>
-      <c r="AB14" s="123"/>
-      <c r="AC14" s="124"/>
-      <c r="AD14" s="142"/>
-      <c r="AE14" s="143"/>
-      <c r="AF14" s="143"/>
-      <c r="AG14" s="144"/>
-      <c r="AH14" s="144"/>
-      <c r="AI14" s="145"/>
-      <c r="AJ14" s="146"/>
-      <c r="AK14" s="144"/>
-      <c r="AL14" s="144"/>
-      <c r="AM14" s="144"/>
-      <c r="AN14" s="144"/>
-      <c r="AO14" s="145"/>
-      <c r="AP14" s="146"/>
-      <c r="AQ14" s="144"/>
-      <c r="AR14" s="144"/>
-      <c r="AS14" s="144"/>
-      <c r="AT14" s="144"/>
-      <c r="AU14" s="145"/>
-      <c r="AV14" s="142"/>
-      <c r="AW14" s="143"/>
-      <c r="AX14" s="143"/>
-      <c r="AY14" s="144"/>
-      <c r="AZ14" s="144"/>
-      <c r="BA14" s="145"/>
-      <c r="BB14" s="146"/>
-      <c r="BC14" s="144"/>
-      <c r="BD14" s="144"/>
-      <c r="BE14" s="144"/>
-      <c r="BF14" s="144"/>
-      <c r="BG14" s="145"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="162"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="86"/>
+      <c r="S14" s="84"/>
+      <c r="T14" s="84"/>
+      <c r="U14" s="84"/>
+      <c r="V14" s="84"/>
+      <c r="W14" s="85"/>
+      <c r="X14" s="112"/>
+      <c r="Y14" s="113"/>
+      <c r="Z14" s="113"/>
+      <c r="AA14" s="113"/>
+      <c r="AB14" s="113"/>
+      <c r="AC14" s="114"/>
+      <c r="AD14" s="68"/>
+      <c r="AE14" s="69"/>
+      <c r="AF14" s="69"/>
+      <c r="AG14" s="84"/>
+      <c r="AH14" s="84"/>
+      <c r="AI14" s="85"/>
+      <c r="AJ14" s="86"/>
+      <c r="AK14" s="84"/>
+      <c r="AL14" s="84"/>
+      <c r="AM14" s="84"/>
+      <c r="AN14" s="84"/>
+      <c r="AO14" s="85"/>
+      <c r="AP14" s="86"/>
+      <c r="AQ14" s="84"/>
+      <c r="AR14" s="84"/>
+      <c r="AS14" s="84"/>
+      <c r="AT14" s="84"/>
+      <c r="AU14" s="85"/>
+      <c r="AV14" s="68"/>
+      <c r="AW14" s="69"/>
+      <c r="AX14" s="69"/>
+      <c r="AY14" s="84"/>
+      <c r="AZ14" s="84"/>
+      <c r="BA14" s="85"/>
+      <c r="BB14" s="86"/>
+      <c r="BC14" s="84"/>
+      <c r="BD14" s="84"/>
+      <c r="BE14" s="84"/>
+      <c r="BF14" s="84"/>
+      <c r="BG14" s="85"/>
       <c r="BH14" s="26"/>
       <c r="BI14" s="27"/>
       <c r="BJ14" s="27"/>
@@ -3076,25 +3097,25 @@
       <c r="BY14" s="25"/>
     </row>
     <row r="15" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="157" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="83" t="s">
+      <c r="C15" s="161" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="93">
+      <c r="D15" s="143">
         <v>0.8</v>
       </c>
-      <c r="E15" s="96"/>
-      <c r="F15" s="135" t="s">
+      <c r="E15" s="144"/>
+      <c r="F15" s="109" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="136"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="136"/>
-      <c r="J15" s="136"/>
-      <c r="K15" s="137"/>
-      <c r="L15" s="147"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="87"/>
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
       <c r="O15" s="10"/>
@@ -3162,17 +3183,17 @@
       <c r="BY15" s="15"/>
     </row>
     <row r="16" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="92"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="147"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="162"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="87"/>
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
       <c r="O16" s="10"/>
@@ -3240,16 +3261,16 @@
       <c r="BY16" s="25"/>
     </row>
     <row r="17" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="97" t="s">
+      <c r="C17" s="159" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="93">
+      <c r="D17" s="143">
         <v>0</v>
       </c>
-      <c r="E17" s="96"/>
+      <c r="E17" s="144"/>
       <c r="F17" s="14"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -3292,18 +3313,18 @@
       <c r="AS17" s="10"/>
       <c r="AT17" s="10"/>
       <c r="AU17" s="15"/>
-      <c r="AV17" s="138"/>
-      <c r="AW17" s="139"/>
-      <c r="AX17" s="139"/>
-      <c r="AY17" s="140"/>
-      <c r="AZ17" s="140"/>
-      <c r="BA17" s="141"/>
-      <c r="BB17" s="125"/>
-      <c r="BC17" s="107"/>
-      <c r="BD17" s="107"/>
-      <c r="BE17" s="107"/>
-      <c r="BF17" s="107"/>
-      <c r="BG17" s="126"/>
+      <c r="AV17" s="80"/>
+      <c r="AW17" s="81"/>
+      <c r="AX17" s="81"/>
+      <c r="AY17" s="82"/>
+      <c r="AZ17" s="82"/>
+      <c r="BA17" s="83"/>
+      <c r="BB17" s="70"/>
+      <c r="BC17" s="62"/>
+      <c r="BD17" s="62"/>
+      <c r="BE17" s="62"/>
+      <c r="BF17" s="62"/>
+      <c r="BG17" s="71"/>
       <c r="BH17" s="21"/>
       <c r="BI17" s="22"/>
       <c r="BJ17" s="22"/>
@@ -3324,10 +3345,10 @@
       <c r="BY17" s="15"/>
     </row>
     <row r="18" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="92"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="88"/>
+      <c r="B18" s="158"/>
+      <c r="C18" s="160"/>
+      <c r="D18" s="145"/>
+      <c r="E18" s="146"/>
       <c r="F18" s="23"/>
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
@@ -3370,18 +3391,18 @@
       <c r="AS18" s="24"/>
       <c r="AT18" s="24"/>
       <c r="AU18" s="25"/>
-      <c r="AV18" s="142"/>
-      <c r="AW18" s="143"/>
-      <c r="AX18" s="143"/>
-      <c r="AY18" s="144"/>
-      <c r="AZ18" s="144"/>
-      <c r="BA18" s="145"/>
-      <c r="BB18" s="146"/>
-      <c r="BC18" s="144"/>
-      <c r="BD18" s="144"/>
-      <c r="BE18" s="144"/>
-      <c r="BF18" s="144"/>
-      <c r="BG18" s="145"/>
+      <c r="AV18" s="68"/>
+      <c r="AW18" s="69"/>
+      <c r="AX18" s="69"/>
+      <c r="AY18" s="84"/>
+      <c r="AZ18" s="84"/>
+      <c r="BA18" s="85"/>
+      <c r="BB18" s="86"/>
+      <c r="BC18" s="84"/>
+      <c r="BD18" s="84"/>
+      <c r="BE18" s="84"/>
+      <c r="BF18" s="84"/>
+      <c r="BG18" s="85"/>
       <c r="BH18" s="26"/>
       <c r="BI18" s="27"/>
       <c r="BJ18" s="27"/>
@@ -3402,70 +3423,72 @@
       <c r="BY18" s="25"/>
     </row>
     <row r="19" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="97" t="s">
+      <c r="C19" s="159" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="93">
+      <c r="D19" s="143">
         <v>0.5</v>
       </c>
-      <c r="E19" s="96"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="126"/>
-      <c r="L19" s="135" t="s">
+      <c r="E19" s="144"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="M19" s="136"/>
-      <c r="N19" s="136"/>
-      <c r="O19" s="136"/>
-      <c r="P19" s="136"/>
-      <c r="Q19" s="137"/>
-      <c r="R19" s="125"/>
-      <c r="S19" s="107"/>
-      <c r="T19" s="107"/>
-      <c r="U19" s="107"/>
-      <c r="V19" s="107"/>
-      <c r="W19" s="126"/>
-      <c r="X19" s="135" t="s">
+      <c r="M19" s="110"/>
+      <c r="N19" s="110"/>
+      <c r="O19" s="110"/>
+      <c r="P19" s="110"/>
+      <c r="Q19" s="111"/>
+      <c r="R19" s="70"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="62"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="71"/>
+      <c r="X19" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="Y19" s="136"/>
-      <c r="Z19" s="136"/>
-      <c r="AA19" s="136"/>
-      <c r="AB19" s="136"/>
-      <c r="AC19" s="137"/>
-      <c r="AD19" s="135" t="s">
+      <c r="Y19" s="110"/>
+      <c r="Z19" s="110"/>
+      <c r="AA19" s="110"/>
+      <c r="AB19" s="110"/>
+      <c r="AC19" s="111"/>
+      <c r="AD19" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="AE19" s="136"/>
-      <c r="AF19" s="136"/>
-      <c r="AG19" s="136"/>
-      <c r="AH19" s="136"/>
-      <c r="AI19" s="137"/>
-      <c r="AJ19" s="125"/>
-      <c r="AK19" s="107"/>
-      <c r="AL19" s="107"/>
-      <c r="AM19" s="107"/>
-      <c r="AN19" s="107"/>
-      <c r="AO19" s="126"/>
-      <c r="AP19" s="125"/>
-      <c r="AQ19" s="107"/>
-      <c r="AR19" s="107"/>
-      <c r="AS19" s="107"/>
-      <c r="AT19" s="107"/>
-      <c r="AU19" s="126"/>
-      <c r="AV19" s="138"/>
-      <c r="AW19" s="139"/>
-      <c r="AX19" s="139"/>
-      <c r="AY19" s="140"/>
-      <c r="AZ19" s="140"/>
-      <c r="BA19" s="141"/>
+      <c r="AE19" s="110"/>
+      <c r="AF19" s="110"/>
+      <c r="AG19" s="110"/>
+      <c r="AH19" s="110"/>
+      <c r="AI19" s="111"/>
+      <c r="AJ19" s="70"/>
+      <c r="AK19" s="62"/>
+      <c r="AL19" s="62"/>
+      <c r="AM19" s="62"/>
+      <c r="AN19" s="62"/>
+      <c r="AO19" s="71"/>
+      <c r="AP19" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ19" s="110"/>
+      <c r="AR19" s="110"/>
+      <c r="AS19" s="110"/>
+      <c r="AT19" s="110"/>
+      <c r="AU19" s="111"/>
+      <c r="AV19" s="80"/>
+      <c r="AW19" s="81"/>
+      <c r="AX19" s="81"/>
+      <c r="AY19" s="82"/>
+      <c r="AZ19" s="82"/>
+      <c r="BA19" s="83"/>
       <c r="BB19" s="14"/>
       <c r="BC19" s="10"/>
       <c r="BD19" s="10"/>
@@ -3492,58 +3515,58 @@
       <c r="BY19" s="15"/>
     </row>
     <row r="20" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="92"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="144"/>
-      <c r="J20" s="144"/>
-      <c r="K20" s="145"/>
-      <c r="L20" s="122"/>
-      <c r="M20" s="123"/>
-      <c r="N20" s="123"/>
-      <c r="O20" s="123"/>
-      <c r="P20" s="123"/>
-      <c r="Q20" s="124"/>
-      <c r="R20" s="146"/>
-      <c r="S20" s="144"/>
-      <c r="T20" s="144"/>
-      <c r="U20" s="144"/>
-      <c r="V20" s="144"/>
-      <c r="W20" s="145"/>
-      <c r="X20" s="122"/>
-      <c r="Y20" s="123"/>
-      <c r="Z20" s="123"/>
-      <c r="AA20" s="123"/>
-      <c r="AB20" s="123"/>
-      <c r="AC20" s="124"/>
-      <c r="AD20" s="122"/>
-      <c r="AE20" s="123"/>
-      <c r="AF20" s="123"/>
-      <c r="AG20" s="123"/>
-      <c r="AH20" s="123"/>
-      <c r="AI20" s="124"/>
-      <c r="AJ20" s="146"/>
-      <c r="AK20" s="144"/>
-      <c r="AL20" s="144"/>
-      <c r="AM20" s="144"/>
-      <c r="AN20" s="144"/>
-      <c r="AO20" s="145"/>
-      <c r="AP20" s="146"/>
-      <c r="AQ20" s="144"/>
-      <c r="AR20" s="144"/>
-      <c r="AS20" s="144"/>
-      <c r="AT20" s="144"/>
-      <c r="AU20" s="145"/>
-      <c r="AV20" s="142"/>
-      <c r="AW20" s="143"/>
-      <c r="AX20" s="143"/>
-      <c r="AY20" s="144"/>
-      <c r="AZ20" s="144"/>
-      <c r="BA20" s="145"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="160"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="112"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="113"/>
+      <c r="O20" s="113"/>
+      <c r="P20" s="113"/>
+      <c r="Q20" s="114"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="84"/>
+      <c r="T20" s="84"/>
+      <c r="U20" s="84"/>
+      <c r="V20" s="84"/>
+      <c r="W20" s="85"/>
+      <c r="X20" s="112"/>
+      <c r="Y20" s="113"/>
+      <c r="Z20" s="113"/>
+      <c r="AA20" s="113"/>
+      <c r="AB20" s="113"/>
+      <c r="AC20" s="114"/>
+      <c r="AD20" s="112"/>
+      <c r="AE20" s="113"/>
+      <c r="AF20" s="113"/>
+      <c r="AG20" s="113"/>
+      <c r="AH20" s="113"/>
+      <c r="AI20" s="114"/>
+      <c r="AJ20" s="86"/>
+      <c r="AK20" s="84"/>
+      <c r="AL20" s="84"/>
+      <c r="AM20" s="84"/>
+      <c r="AN20" s="84"/>
+      <c r="AO20" s="85"/>
+      <c r="AP20" s="112"/>
+      <c r="AQ20" s="113"/>
+      <c r="AR20" s="113"/>
+      <c r="AS20" s="113"/>
+      <c r="AT20" s="113"/>
+      <c r="AU20" s="114"/>
+      <c r="AV20" s="68"/>
+      <c r="AW20" s="69"/>
+      <c r="AX20" s="69"/>
+      <c r="AY20" s="84"/>
+      <c r="AZ20" s="84"/>
+      <c r="BA20" s="85"/>
       <c r="BB20" s="23"/>
       <c r="BC20" s="24"/>
       <c r="BD20" s="24"/>
@@ -3570,29 +3593,29 @@
       <c r="BY20" s="25"/>
     </row>
     <row r="21" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="99"/>
-      <c r="D21" s="93">
+      <c r="C21" s="163"/>
+      <c r="D21" s="143">
         <v>0.2</v>
       </c>
-      <c r="E21" s="94"/>
+      <c r="E21" s="151"/>
       <c r="F21" s="14"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="15"/>
-      <c r="L21" s="135" t="s">
+      <c r="L21" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="M21" s="136"/>
-      <c r="N21" s="136"/>
-      <c r="O21" s="136"/>
-      <c r="P21" s="136"/>
-      <c r="Q21" s="137"/>
-      <c r="R21" s="160"/>
+      <c r="M21" s="110"/>
+      <c r="N21" s="110"/>
+      <c r="O21" s="110"/>
+      <c r="P21" s="110"/>
+      <c r="Q21" s="111"/>
+      <c r="R21" s="94"/>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
@@ -3654,23 +3677,23 @@
       <c r="BY21" s="15"/>
     </row>
     <row r="22" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="92"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="95"/>
+      <c r="B22" s="158"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="145"/>
+      <c r="E22" s="152"/>
       <c r="F22" s="23"/>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="25"/>
-      <c r="L22" s="122"/>
-      <c r="M22" s="123"/>
-      <c r="N22" s="123"/>
-      <c r="O22" s="123"/>
-      <c r="P22" s="123"/>
-      <c r="Q22" s="124"/>
-      <c r="R22" s="161"/>
+      <c r="L22" s="112"/>
+      <c r="M22" s="113"/>
+      <c r="N22" s="113"/>
+      <c r="O22" s="113"/>
+      <c r="P22" s="113"/>
+      <c r="Q22" s="114"/>
+      <c r="R22" s="95"/>
       <c r="S22" s="24"/>
       <c r="T22" s="24"/>
       <c r="U22" s="24"/>
@@ -3732,12 +3755,12 @@
       <c r="BY22" s="25"/>
     </row>
     <row r="23" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="91" t="s">
+      <c r="B23" s="157" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="83"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="96"/>
+      <c r="C23" s="161"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="144"/>
       <c r="F23" s="14"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
@@ -3756,44 +3779,44 @@
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
       <c r="W23" s="15"/>
-      <c r="X23" s="125"/>
-      <c r="Y23" s="107"/>
-      <c r="Z23" s="107"/>
-      <c r="AA23" s="107"/>
-      <c r="AB23" s="107"/>
-      <c r="AC23" s="126"/>
-      <c r="AD23" s="138"/>
-      <c r="AE23" s="139"/>
-      <c r="AF23" s="139"/>
-      <c r="AG23" s="140"/>
-      <c r="AH23" s="140"/>
-      <c r="AI23" s="141"/>
-      <c r="AJ23" s="135" t="s">
+      <c r="X23" s="70"/>
+      <c r="Y23" s="62"/>
+      <c r="Z23" s="62"/>
+      <c r="AA23" s="62"/>
+      <c r="AB23" s="62"/>
+      <c r="AC23" s="71"/>
+      <c r="AD23" s="80"/>
+      <c r="AE23" s="81"/>
+      <c r="AF23" s="81"/>
+      <c r="AG23" s="82"/>
+      <c r="AH23" s="82"/>
+      <c r="AI23" s="83"/>
+      <c r="AJ23" s="109" t="s">
         <v>119</v>
       </c>
-      <c r="AK23" s="136"/>
-      <c r="AL23" s="136"/>
-      <c r="AM23" s="136"/>
-      <c r="AN23" s="136"/>
-      <c r="AO23" s="137"/>
-      <c r="AP23" s="125"/>
-      <c r="AQ23" s="107"/>
-      <c r="AR23" s="107"/>
-      <c r="AS23" s="107"/>
-      <c r="AT23" s="107"/>
-      <c r="AU23" s="126"/>
-      <c r="AV23" s="138"/>
-      <c r="AW23" s="139"/>
-      <c r="AX23" s="139"/>
-      <c r="AY23" s="140"/>
-      <c r="AZ23" s="140"/>
-      <c r="BA23" s="141"/>
-      <c r="BB23" s="125"/>
-      <c r="BC23" s="107"/>
-      <c r="BD23" s="107"/>
-      <c r="BE23" s="107"/>
-      <c r="BF23" s="107"/>
-      <c r="BG23" s="126"/>
+      <c r="AK23" s="110"/>
+      <c r="AL23" s="110"/>
+      <c r="AM23" s="110"/>
+      <c r="AN23" s="110"/>
+      <c r="AO23" s="111"/>
+      <c r="AP23" s="70"/>
+      <c r="AQ23" s="62"/>
+      <c r="AR23" s="62"/>
+      <c r="AS23" s="62"/>
+      <c r="AT23" s="62"/>
+      <c r="AU23" s="71"/>
+      <c r="AV23" s="80"/>
+      <c r="AW23" s="81"/>
+      <c r="AX23" s="81"/>
+      <c r="AY23" s="82"/>
+      <c r="AZ23" s="82"/>
+      <c r="BA23" s="83"/>
+      <c r="BB23" s="70"/>
+      <c r="BC23" s="62"/>
+      <c r="BD23" s="62"/>
+      <c r="BE23" s="62"/>
+      <c r="BF23" s="62"/>
+      <c r="BG23" s="71"/>
       <c r="BH23" s="21"/>
       <c r="BI23" s="22"/>
       <c r="BJ23" s="22"/>
@@ -3814,10 +3837,10 @@
       <c r="BY23" s="15"/>
     </row>
     <row r="24" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="92"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="88"/>
+      <c r="B24" s="158"/>
+      <c r="C24" s="162"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="146"/>
       <c r="F24" s="23"/>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
@@ -3836,42 +3859,42 @@
       <c r="U24" s="24"/>
       <c r="V24" s="24"/>
       <c r="W24" s="25"/>
-      <c r="X24" s="146"/>
-      <c r="Y24" s="144"/>
-      <c r="Z24" s="144"/>
-      <c r="AA24" s="144"/>
-      <c r="AB24" s="144"/>
-      <c r="AC24" s="145"/>
-      <c r="AD24" s="142"/>
-      <c r="AE24" s="143"/>
-      <c r="AF24" s="143"/>
-      <c r="AG24" s="144"/>
-      <c r="AH24" s="144"/>
-      <c r="AI24" s="145"/>
-      <c r="AJ24" s="122"/>
-      <c r="AK24" s="123"/>
-      <c r="AL24" s="123"/>
-      <c r="AM24" s="123"/>
-      <c r="AN24" s="123"/>
-      <c r="AO24" s="124"/>
-      <c r="AP24" s="146"/>
-      <c r="AQ24" s="144"/>
-      <c r="AR24" s="144"/>
-      <c r="AS24" s="144"/>
-      <c r="AT24" s="144"/>
-      <c r="AU24" s="145"/>
-      <c r="AV24" s="142"/>
-      <c r="AW24" s="143"/>
-      <c r="AX24" s="143"/>
-      <c r="AY24" s="144"/>
-      <c r="AZ24" s="144"/>
-      <c r="BA24" s="145"/>
-      <c r="BB24" s="146"/>
-      <c r="BC24" s="144"/>
-      <c r="BD24" s="144"/>
-      <c r="BE24" s="144"/>
-      <c r="BF24" s="144"/>
-      <c r="BG24" s="145"/>
+      <c r="X24" s="86"/>
+      <c r="Y24" s="84"/>
+      <c r="Z24" s="84"/>
+      <c r="AA24" s="84"/>
+      <c r="AB24" s="84"/>
+      <c r="AC24" s="85"/>
+      <c r="AD24" s="68"/>
+      <c r="AE24" s="69"/>
+      <c r="AF24" s="69"/>
+      <c r="AG24" s="84"/>
+      <c r="AH24" s="84"/>
+      <c r="AI24" s="85"/>
+      <c r="AJ24" s="112"/>
+      <c r="AK24" s="113"/>
+      <c r="AL24" s="113"/>
+      <c r="AM24" s="113"/>
+      <c r="AN24" s="113"/>
+      <c r="AO24" s="114"/>
+      <c r="AP24" s="86"/>
+      <c r="AQ24" s="84"/>
+      <c r="AR24" s="84"/>
+      <c r="AS24" s="84"/>
+      <c r="AT24" s="84"/>
+      <c r="AU24" s="85"/>
+      <c r="AV24" s="68"/>
+      <c r="AW24" s="69"/>
+      <c r="AX24" s="69"/>
+      <c r="AY24" s="84"/>
+      <c r="AZ24" s="84"/>
+      <c r="BA24" s="85"/>
+      <c r="BB24" s="86"/>
+      <c r="BC24" s="84"/>
+      <c r="BD24" s="84"/>
+      <c r="BE24" s="84"/>
+      <c r="BF24" s="84"/>
+      <c r="BG24" s="85"/>
       <c r="BH24" s="26"/>
       <c r="BI24" s="27"/>
       <c r="BJ24" s="27"/>
@@ -3892,12 +3915,12 @@
       <c r="BY24" s="25"/>
     </row>
     <row r="25" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="91" t="s">
+      <c r="B25" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="99"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="94"/>
+      <c r="C25" s="163"/>
+      <c r="D25" s="143"/>
+      <c r="E25" s="151"/>
       <c r="F25" s="14"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -3922,50 +3945,50 @@
       <c r="AA25" s="10"/>
       <c r="AB25" s="10"/>
       <c r="AC25" s="15"/>
-      <c r="AD25" s="138"/>
-      <c r="AE25" s="139"/>
-      <c r="AF25" s="139"/>
-      <c r="AG25" s="140"/>
-      <c r="AH25" s="140"/>
-      <c r="AI25" s="141"/>
-      <c r="AJ25" s="163" t="s">
+      <c r="AD25" s="80"/>
+      <c r="AE25" s="81"/>
+      <c r="AF25" s="81"/>
+      <c r="AG25" s="82"/>
+      <c r="AH25" s="82"/>
+      <c r="AI25" s="83"/>
+      <c r="AJ25" s="136" t="s">
         <v>120</v>
       </c>
-      <c r="AK25" s="164"/>
-      <c r="AL25" s="164"/>
-      <c r="AM25" s="164"/>
-      <c r="AN25" s="164"/>
-      <c r="AO25" s="165"/>
-      <c r="AP25" s="125"/>
-      <c r="AQ25" s="107"/>
-      <c r="AR25" s="107"/>
-      <c r="AS25" s="107"/>
-      <c r="AT25" s="107"/>
-      <c r="AU25" s="126"/>
-      <c r="AV25" s="138"/>
-      <c r="AW25" s="139"/>
-      <c r="AX25" s="139"/>
-      <c r="AY25" s="140"/>
-      <c r="AZ25" s="140"/>
-      <c r="BA25" s="141"/>
-      <c r="BB25" s="125"/>
-      <c r="BC25" s="107"/>
-      <c r="BD25" s="107"/>
-      <c r="BE25" s="107"/>
-      <c r="BF25" s="107"/>
-      <c r="BG25" s="126"/>
-      <c r="BH25" s="138"/>
-      <c r="BI25" s="139"/>
-      <c r="BJ25" s="139"/>
-      <c r="BK25" s="140"/>
-      <c r="BL25" s="140"/>
-      <c r="BM25" s="141"/>
-      <c r="BN25" s="125"/>
-      <c r="BO25" s="107"/>
-      <c r="BP25" s="107"/>
-      <c r="BQ25" s="107"/>
-      <c r="BR25" s="107"/>
-      <c r="BS25" s="126"/>
+      <c r="AK25" s="137"/>
+      <c r="AL25" s="137"/>
+      <c r="AM25" s="137"/>
+      <c r="AN25" s="137"/>
+      <c r="AO25" s="138"/>
+      <c r="AP25" s="70"/>
+      <c r="AQ25" s="62"/>
+      <c r="AR25" s="62"/>
+      <c r="AS25" s="62"/>
+      <c r="AT25" s="62"/>
+      <c r="AU25" s="71"/>
+      <c r="AV25" s="80"/>
+      <c r="AW25" s="81"/>
+      <c r="AX25" s="81"/>
+      <c r="AY25" s="82"/>
+      <c r="AZ25" s="82"/>
+      <c r="BA25" s="83"/>
+      <c r="BB25" s="70"/>
+      <c r="BC25" s="62"/>
+      <c r="BD25" s="62"/>
+      <c r="BE25" s="62"/>
+      <c r="BF25" s="62"/>
+      <c r="BG25" s="71"/>
+      <c r="BH25" s="80"/>
+      <c r="BI25" s="81"/>
+      <c r="BJ25" s="81"/>
+      <c r="BK25" s="82"/>
+      <c r="BL25" s="82"/>
+      <c r="BM25" s="83"/>
+      <c r="BN25" s="70"/>
+      <c r="BO25" s="62"/>
+      <c r="BP25" s="62"/>
+      <c r="BQ25" s="62"/>
+      <c r="BR25" s="62"/>
+      <c r="BS25" s="71"/>
       <c r="BT25" s="14"/>
       <c r="BU25" s="10"/>
       <c r="BV25" s="10"/>
@@ -3974,10 +3997,10 @@
       <c r="BY25" s="15"/>
     </row>
     <row r="26" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="92"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="95"/>
+      <c r="B26" s="158"/>
+      <c r="C26" s="162"/>
+      <c r="D26" s="145"/>
+      <c r="E26" s="152"/>
       <c r="F26" s="23"/>
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
@@ -4002,48 +4025,48 @@
       <c r="AA26" s="24"/>
       <c r="AB26" s="24"/>
       <c r="AC26" s="25"/>
-      <c r="AD26" s="142"/>
-      <c r="AE26" s="143"/>
-      <c r="AF26" s="143"/>
-      <c r="AG26" s="144"/>
-      <c r="AH26" s="144"/>
-      <c r="AI26" s="145"/>
-      <c r="AJ26" s="119"/>
-      <c r="AK26" s="120"/>
-      <c r="AL26" s="120"/>
-      <c r="AM26" s="120"/>
-      <c r="AN26" s="120"/>
-      <c r="AO26" s="121"/>
-      <c r="AP26" s="146"/>
-      <c r="AQ26" s="144"/>
-      <c r="AR26" s="144"/>
-      <c r="AS26" s="144"/>
-      <c r="AT26" s="144"/>
-      <c r="AU26" s="145"/>
-      <c r="AV26" s="142"/>
-      <c r="AW26" s="143"/>
-      <c r="AX26" s="143"/>
-      <c r="AY26" s="144"/>
-      <c r="AZ26" s="144"/>
-      <c r="BA26" s="145"/>
-      <c r="BB26" s="146"/>
-      <c r="BC26" s="144"/>
-      <c r="BD26" s="144"/>
-      <c r="BE26" s="144"/>
-      <c r="BF26" s="144"/>
-      <c r="BG26" s="145"/>
-      <c r="BH26" s="142"/>
-      <c r="BI26" s="143"/>
-      <c r="BJ26" s="143"/>
-      <c r="BK26" s="144"/>
-      <c r="BL26" s="144"/>
-      <c r="BM26" s="145"/>
-      <c r="BN26" s="146"/>
-      <c r="BO26" s="144"/>
-      <c r="BP26" s="144"/>
-      <c r="BQ26" s="144"/>
-      <c r="BR26" s="144"/>
-      <c r="BS26" s="145"/>
+      <c r="AD26" s="68"/>
+      <c r="AE26" s="69"/>
+      <c r="AF26" s="69"/>
+      <c r="AG26" s="84"/>
+      <c r="AH26" s="84"/>
+      <c r="AI26" s="85"/>
+      <c r="AJ26" s="123"/>
+      <c r="AK26" s="124"/>
+      <c r="AL26" s="124"/>
+      <c r="AM26" s="124"/>
+      <c r="AN26" s="124"/>
+      <c r="AO26" s="125"/>
+      <c r="AP26" s="86"/>
+      <c r="AQ26" s="84"/>
+      <c r="AR26" s="84"/>
+      <c r="AS26" s="84"/>
+      <c r="AT26" s="84"/>
+      <c r="AU26" s="85"/>
+      <c r="AV26" s="68"/>
+      <c r="AW26" s="69"/>
+      <c r="AX26" s="69"/>
+      <c r="AY26" s="84"/>
+      <c r="AZ26" s="84"/>
+      <c r="BA26" s="85"/>
+      <c r="BB26" s="86"/>
+      <c r="BC26" s="84"/>
+      <c r="BD26" s="84"/>
+      <c r="BE26" s="84"/>
+      <c r="BF26" s="84"/>
+      <c r="BG26" s="85"/>
+      <c r="BH26" s="68"/>
+      <c r="BI26" s="69"/>
+      <c r="BJ26" s="69"/>
+      <c r="BK26" s="84"/>
+      <c r="BL26" s="84"/>
+      <c r="BM26" s="85"/>
+      <c r="BN26" s="86"/>
+      <c r="BO26" s="84"/>
+      <c r="BP26" s="84"/>
+      <c r="BQ26" s="84"/>
+      <c r="BR26" s="84"/>
+      <c r="BS26" s="85"/>
       <c r="BT26" s="23"/>
       <c r="BU26" s="24"/>
       <c r="BV26" s="24"/>
@@ -4052,14 +4075,14 @@
       <c r="BY26" s="25"/>
     </row>
     <row r="27" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="91" t="s">
+      <c r="B27" s="157" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="83"/>
-      <c r="D27" s="93">
+      <c r="C27" s="161"/>
+      <c r="D27" s="143">
         <v>0</v>
       </c>
-      <c r="E27" s="96"/>
+      <c r="E27" s="144"/>
       <c r="F27" s="14"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
@@ -4090,38 +4113,40 @@
       <c r="AG27" s="19"/>
       <c r="AH27" s="19"/>
       <c r="AI27" s="20"/>
-      <c r="AJ27" s="135" t="s">
+      <c r="AJ27" s="109" t="s">
         <v>121</v>
       </c>
-      <c r="AK27" s="136"/>
-      <c r="AL27" s="136"/>
-      <c r="AM27" s="136"/>
-      <c r="AN27" s="136"/>
-      <c r="AO27" s="137"/>
-      <c r="AP27" s="125"/>
-      <c r="AQ27" s="107"/>
-      <c r="AR27" s="107"/>
-      <c r="AS27" s="107"/>
-      <c r="AT27" s="107"/>
-      <c r="AU27" s="126"/>
-      <c r="AV27" s="138"/>
-      <c r="AW27" s="139"/>
-      <c r="AX27" s="139"/>
-      <c r="AY27" s="140"/>
-      <c r="AZ27" s="140"/>
-      <c r="BA27" s="141"/>
-      <c r="BB27" s="125"/>
-      <c r="BC27" s="107"/>
-      <c r="BD27" s="107"/>
-      <c r="BE27" s="107"/>
-      <c r="BF27" s="107"/>
-      <c r="BG27" s="126"/>
-      <c r="BH27" s="138"/>
-      <c r="BI27" s="139"/>
-      <c r="BJ27" s="139"/>
-      <c r="BK27" s="140"/>
-      <c r="BL27" s="140"/>
-      <c r="BM27" s="141"/>
+      <c r="AK27" s="110"/>
+      <c r="AL27" s="110"/>
+      <c r="AM27" s="110"/>
+      <c r="AN27" s="110"/>
+      <c r="AO27" s="111"/>
+      <c r="AP27" s="109" t="s">
+        <v>123</v>
+      </c>
+      <c r="AQ27" s="110"/>
+      <c r="AR27" s="110"/>
+      <c r="AS27" s="110"/>
+      <c r="AT27" s="110"/>
+      <c r="AU27" s="111"/>
+      <c r="AV27" s="80"/>
+      <c r="AW27" s="81"/>
+      <c r="AX27" s="81"/>
+      <c r="AY27" s="82"/>
+      <c r="AZ27" s="82"/>
+      <c r="BA27" s="83"/>
+      <c r="BB27" s="70"/>
+      <c r="BC27" s="62"/>
+      <c r="BD27" s="62"/>
+      <c r="BE27" s="62"/>
+      <c r="BF27" s="62"/>
+      <c r="BG27" s="71"/>
+      <c r="BH27" s="80"/>
+      <c r="BI27" s="81"/>
+      <c r="BJ27" s="81"/>
+      <c r="BK27" s="82"/>
+      <c r="BL27" s="82"/>
+      <c r="BM27" s="83"/>
       <c r="BN27" s="14"/>
       <c r="BO27" s="10"/>
       <c r="BP27" s="10"/>
@@ -4136,10 +4161,10 @@
       <c r="BY27" s="15"/>
     </row>
     <row r="28" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="92"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="88"/>
+      <c r="B28" s="158"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="145"/>
+      <c r="E28" s="146"/>
       <c r="F28" s="23"/>
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
@@ -4170,36 +4195,36 @@
       <c r="AG28" s="24"/>
       <c r="AH28" s="24"/>
       <c r="AI28" s="25"/>
-      <c r="AJ28" s="122"/>
-      <c r="AK28" s="123"/>
-      <c r="AL28" s="123"/>
-      <c r="AM28" s="123"/>
-      <c r="AN28" s="123"/>
-      <c r="AO28" s="124"/>
-      <c r="AP28" s="146"/>
-      <c r="AQ28" s="144"/>
-      <c r="AR28" s="144"/>
-      <c r="AS28" s="144"/>
-      <c r="AT28" s="144"/>
-      <c r="AU28" s="145"/>
-      <c r="AV28" s="142"/>
-      <c r="AW28" s="143"/>
-      <c r="AX28" s="143"/>
-      <c r="AY28" s="144"/>
-      <c r="AZ28" s="144"/>
-      <c r="BA28" s="145"/>
-      <c r="BB28" s="146"/>
-      <c r="BC28" s="144"/>
-      <c r="BD28" s="144"/>
-      <c r="BE28" s="144"/>
-      <c r="BF28" s="144"/>
-      <c r="BG28" s="145"/>
-      <c r="BH28" s="142"/>
-      <c r="BI28" s="143"/>
-      <c r="BJ28" s="143"/>
-      <c r="BK28" s="144"/>
-      <c r="BL28" s="144"/>
-      <c r="BM28" s="145"/>
+      <c r="AJ28" s="112"/>
+      <c r="AK28" s="113"/>
+      <c r="AL28" s="113"/>
+      <c r="AM28" s="113"/>
+      <c r="AN28" s="113"/>
+      <c r="AO28" s="114"/>
+      <c r="AP28" s="112"/>
+      <c r="AQ28" s="113"/>
+      <c r="AR28" s="113"/>
+      <c r="AS28" s="113"/>
+      <c r="AT28" s="113"/>
+      <c r="AU28" s="114"/>
+      <c r="AV28" s="68"/>
+      <c r="AW28" s="69"/>
+      <c r="AX28" s="69"/>
+      <c r="AY28" s="84"/>
+      <c r="AZ28" s="84"/>
+      <c r="BA28" s="85"/>
+      <c r="BB28" s="86"/>
+      <c r="BC28" s="84"/>
+      <c r="BD28" s="84"/>
+      <c r="BE28" s="84"/>
+      <c r="BF28" s="84"/>
+      <c r="BG28" s="85"/>
+      <c r="BH28" s="68"/>
+      <c r="BI28" s="69"/>
+      <c r="BJ28" s="69"/>
+      <c r="BK28" s="84"/>
+      <c r="BL28" s="84"/>
+      <c r="BM28" s="85"/>
       <c r="BN28" s="23"/>
       <c r="BO28" s="24"/>
       <c r="BP28" s="24"/>
@@ -4250,42 +4275,42 @@
       <c r="AG29" s="24"/>
       <c r="AH29" s="24"/>
       <c r="AI29" s="24"/>
-      <c r="AJ29" s="146"/>
-      <c r="AK29" s="144"/>
-      <c r="AL29" s="144"/>
-      <c r="AM29" s="144"/>
-      <c r="AN29" s="144"/>
-      <c r="AO29" s="145"/>
-      <c r="AP29" s="146"/>
-      <c r="AQ29" s="144"/>
-      <c r="AR29" s="144"/>
-      <c r="AS29" s="144"/>
-      <c r="AT29" s="144"/>
-      <c r="AU29" s="145"/>
-      <c r="AV29" s="142"/>
-      <c r="AW29" s="143"/>
-      <c r="AX29" s="143"/>
-      <c r="AY29" s="144"/>
-      <c r="AZ29" s="144"/>
-      <c r="BA29" s="144"/>
-      <c r="BB29" s="146"/>
-      <c r="BC29" s="144"/>
-      <c r="BD29" s="144"/>
-      <c r="BE29" s="144"/>
-      <c r="BF29" s="144"/>
-      <c r="BG29" s="145"/>
-      <c r="BH29" s="142"/>
-      <c r="BI29" s="143"/>
-      <c r="BJ29" s="143"/>
-      <c r="BK29" s="144"/>
-      <c r="BL29" s="144"/>
-      <c r="BM29" s="144"/>
-      <c r="BN29" s="146"/>
-      <c r="BO29" s="144"/>
-      <c r="BP29" s="144"/>
-      <c r="BQ29" s="144"/>
-      <c r="BR29" s="144"/>
-      <c r="BS29" s="145"/>
+      <c r="AJ29" s="86"/>
+      <c r="AK29" s="84"/>
+      <c r="AL29" s="84"/>
+      <c r="AM29" s="84"/>
+      <c r="AN29" s="84"/>
+      <c r="AO29" s="85"/>
+      <c r="AP29" s="86"/>
+      <c r="AQ29" s="84"/>
+      <c r="AR29" s="84"/>
+      <c r="AS29" s="84"/>
+      <c r="AT29" s="84"/>
+      <c r="AU29" s="85"/>
+      <c r="AV29" s="68"/>
+      <c r="AW29" s="69"/>
+      <c r="AX29" s="69"/>
+      <c r="AY29" s="84"/>
+      <c r="AZ29" s="84"/>
+      <c r="BA29" s="84"/>
+      <c r="BB29" s="86"/>
+      <c r="BC29" s="84"/>
+      <c r="BD29" s="84"/>
+      <c r="BE29" s="84"/>
+      <c r="BF29" s="84"/>
+      <c r="BG29" s="85"/>
+      <c r="BH29" s="68"/>
+      <c r="BI29" s="69"/>
+      <c r="BJ29" s="69"/>
+      <c r="BK29" s="84"/>
+      <c r="BL29" s="84"/>
+      <c r="BM29" s="84"/>
+      <c r="BN29" s="86"/>
+      <c r="BO29" s="84"/>
+      <c r="BP29" s="84"/>
+      <c r="BQ29" s="84"/>
+      <c r="BR29" s="84"/>
+      <c r="BS29" s="85"/>
       <c r="BT29" s="23"/>
       <c r="BU29" s="24"/>
       <c r="BV29" s="24"/>
@@ -4298,8 +4323,8 @@
         <v>11</v>
       </c>
       <c r="C30" s="28"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="105"/>
+      <c r="D30" s="149"/>
+      <c r="E30" s="150"/>
       <c r="F30" s="29"/>
       <c r="G30" s="30"/>
       <c r="H30" s="30"/>
@@ -4348,38 +4373,38 @@
       <c r="AY30" s="30"/>
       <c r="AZ30" s="30"/>
       <c r="BA30" s="30"/>
-      <c r="BB30" s="129"/>
-      <c r="BC30" s="130"/>
-      <c r="BD30" s="130"/>
-      <c r="BE30" s="130"/>
-      <c r="BF30" s="130"/>
-      <c r="BG30" s="131"/>
-      <c r="BH30" s="132"/>
-      <c r="BI30" s="133"/>
-      <c r="BJ30" s="133"/>
-      <c r="BK30" s="130"/>
-      <c r="BL30" s="130"/>
-      <c r="BM30" s="130"/>
-      <c r="BN30" s="129"/>
-      <c r="BO30" s="130"/>
-      <c r="BP30" s="130"/>
-      <c r="BQ30" s="130"/>
-      <c r="BR30" s="130"/>
-      <c r="BS30" s="131"/>
-      <c r="BT30" s="129"/>
-      <c r="BU30" s="130"/>
-      <c r="BV30" s="130"/>
-      <c r="BW30" s="130"/>
-      <c r="BX30" s="130"/>
-      <c r="BY30" s="131"/>
+      <c r="BB30" s="74"/>
+      <c r="BC30" s="75"/>
+      <c r="BD30" s="75"/>
+      <c r="BE30" s="75"/>
+      <c r="BF30" s="75"/>
+      <c r="BG30" s="76"/>
+      <c r="BH30" s="77"/>
+      <c r="BI30" s="78"/>
+      <c r="BJ30" s="78"/>
+      <c r="BK30" s="75"/>
+      <c r="BL30" s="75"/>
+      <c r="BM30" s="75"/>
+      <c r="BN30" s="74"/>
+      <c r="BO30" s="75"/>
+      <c r="BP30" s="75"/>
+      <c r="BQ30" s="75"/>
+      <c r="BR30" s="75"/>
+      <c r="BS30" s="76"/>
+      <c r="BT30" s="74"/>
+      <c r="BU30" s="75"/>
+      <c r="BV30" s="75"/>
+      <c r="BW30" s="75"/>
+      <c r="BX30" s="75"/>
+      <c r="BY30" s="76"/>
     </row>
     <row r="31" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="46" t="s">
         <v>1</v>
       </c>
       <c r="C31" s="34"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="94"/>
+      <c r="D31" s="143"/>
+      <c r="E31" s="151"/>
       <c r="F31" s="14"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
@@ -4458,8 +4483,8 @@
         <v>8</v>
       </c>
       <c r="C32" s="35"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="103"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="142"/>
       <c r="F32" s="36"/>
       <c r="G32" s="37"/>
       <c r="H32" s="37"/>
@@ -4472,68 +4497,70 @@
       <c r="O32" s="41"/>
       <c r="P32" s="37"/>
       <c r="Q32" s="37"/>
-      <c r="R32" s="148" t="s">
+      <c r="R32" s="106" t="s">
         <v>101</v>
       </c>
-      <c r="S32" s="149"/>
-      <c r="T32" s="149"/>
-      <c r="U32" s="149"/>
-      <c r="V32" s="149"/>
-      <c r="W32" s="150"/>
-      <c r="X32" s="148" t="s">
+      <c r="S32" s="107"/>
+      <c r="T32" s="107"/>
+      <c r="U32" s="107"/>
+      <c r="V32" s="107"/>
+      <c r="W32" s="108"/>
+      <c r="X32" s="106" t="s">
         <v>110</v>
       </c>
-      <c r="Y32" s="149"/>
-      <c r="Z32" s="149"/>
-      <c r="AA32" s="149"/>
-      <c r="AB32" s="149"/>
-      <c r="AC32" s="150"/>
-      <c r="AD32" s="151" t="s">
+      <c r="Y32" s="107"/>
+      <c r="Z32" s="107"/>
+      <c r="AA32" s="107"/>
+      <c r="AB32" s="107"/>
+      <c r="AC32" s="108"/>
+      <c r="AD32" s="133" t="s">
         <v>115</v>
       </c>
-      <c r="AE32" s="152"/>
-      <c r="AF32" s="152"/>
-      <c r="AG32" s="152"/>
-      <c r="AH32" s="152"/>
-      <c r="AI32" s="153"/>
-      <c r="AJ32" s="151" t="s">
+      <c r="AE32" s="134"/>
+      <c r="AF32" s="134"/>
+      <c r="AG32" s="134"/>
+      <c r="AH32" s="134"/>
+      <c r="AI32" s="135"/>
+      <c r="AJ32" s="133" t="s">
         <v>116</v>
       </c>
-      <c r="AK32" s="152"/>
-      <c r="AL32" s="152"/>
-      <c r="AM32" s="152"/>
-      <c r="AN32" s="152"/>
-      <c r="AO32" s="153"/>
-      <c r="AP32" s="154"/>
-      <c r="AQ32" s="155"/>
-      <c r="AR32" s="155"/>
-      <c r="AS32" s="155"/>
-      <c r="AT32" s="155"/>
-      <c r="AU32" s="156"/>
-      <c r="AV32" s="157"/>
-      <c r="AW32" s="158"/>
-      <c r="AX32" s="158"/>
-      <c r="AY32" s="159"/>
-      <c r="AZ32" s="155"/>
-      <c r="BA32" s="155"/>
-      <c r="BB32" s="154"/>
-      <c r="BC32" s="155"/>
-      <c r="BD32" s="155"/>
-      <c r="BE32" s="155"/>
-      <c r="BF32" s="155"/>
-      <c r="BG32" s="156"/>
-      <c r="BH32" s="157"/>
-      <c r="BI32" s="158"/>
-      <c r="BJ32" s="158"/>
-      <c r="BK32" s="159"/>
-      <c r="BL32" s="155"/>
-      <c r="BM32" s="155"/>
-      <c r="BN32" s="154"/>
-      <c r="BO32" s="155"/>
-      <c r="BP32" s="155"/>
-      <c r="BQ32" s="155"/>
-      <c r="BR32" s="155"/>
-      <c r="BS32" s="156"/>
+      <c r="AK32" s="134"/>
+      <c r="AL32" s="134"/>
+      <c r="AM32" s="134"/>
+      <c r="AN32" s="134"/>
+      <c r="AO32" s="135"/>
+      <c r="AP32" s="106" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ32" s="107"/>
+      <c r="AR32" s="107"/>
+      <c r="AS32" s="107"/>
+      <c r="AT32" s="107"/>
+      <c r="AU32" s="108"/>
+      <c r="AV32" s="91"/>
+      <c r="AW32" s="92"/>
+      <c r="AX32" s="92"/>
+      <c r="AY32" s="93"/>
+      <c r="AZ32" s="89"/>
+      <c r="BA32" s="89"/>
+      <c r="BB32" s="88"/>
+      <c r="BC32" s="89"/>
+      <c r="BD32" s="89"/>
+      <c r="BE32" s="89"/>
+      <c r="BF32" s="89"/>
+      <c r="BG32" s="90"/>
+      <c r="BH32" s="91"/>
+      <c r="BI32" s="92"/>
+      <c r="BJ32" s="92"/>
+      <c r="BK32" s="93"/>
+      <c r="BL32" s="89"/>
+      <c r="BM32" s="89"/>
+      <c r="BN32" s="88"/>
+      <c r="BO32" s="89"/>
+      <c r="BP32" s="89"/>
+      <c r="BQ32" s="89"/>
+      <c r="BR32" s="89"/>
+      <c r="BS32" s="90"/>
       <c r="BT32" s="36"/>
       <c r="BU32" s="37"/>
       <c r="BV32" s="37"/>
@@ -4581,116 +4608,116 @@
       <c r="C34" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="106" t="s">
+      <c r="D34" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="106"/>
-      <c r="F34" s="78" t="s">
+      <c r="E34" s="129"/>
+      <c r="F34" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="77" t="s">
+      <c r="G34" s="126"/>
+      <c r="H34" s="126"/>
+      <c r="I34" s="126"/>
+      <c r="J34" s="126"/>
+      <c r="K34" s="128"/>
+      <c r="L34" s="126" t="s">
         <v>87</v>
       </c>
-      <c r="M34" s="77"/>
-      <c r="N34" s="77"/>
-      <c r="O34" s="77"/>
-      <c r="P34" s="77"/>
-      <c r="Q34" s="77"/>
-      <c r="R34" s="78" t="s">
+      <c r="M34" s="126"/>
+      <c r="N34" s="126"/>
+      <c r="O34" s="126"/>
+      <c r="P34" s="126"/>
+      <c r="Q34" s="126"/>
+      <c r="R34" s="127" t="s">
         <v>88</v>
       </c>
-      <c r="S34" s="77"/>
-      <c r="T34" s="77"/>
-      <c r="U34" s="77"/>
-      <c r="V34" s="77"/>
-      <c r="W34" s="79"/>
-      <c r="X34" s="77" t="s">
+      <c r="S34" s="126"/>
+      <c r="T34" s="126"/>
+      <c r="U34" s="126"/>
+      <c r="V34" s="126"/>
+      <c r="W34" s="128"/>
+      <c r="X34" s="126" t="s">
         <v>89</v>
       </c>
-      <c r="Y34" s="77"/>
-      <c r="Z34" s="77"/>
-      <c r="AA34" s="77"/>
-      <c r="AB34" s="77"/>
-      <c r="AC34" s="77"/>
-      <c r="AD34" s="80" t="s">
+      <c r="Y34" s="126"/>
+      <c r="Z34" s="126"/>
+      <c r="AA34" s="126"/>
+      <c r="AB34" s="126"/>
+      <c r="AC34" s="126"/>
+      <c r="AD34" s="130" t="s">
         <v>90</v>
       </c>
-      <c r="AE34" s="81"/>
-      <c r="AF34" s="81"/>
-      <c r="AG34" s="81"/>
-      <c r="AH34" s="81"/>
-      <c r="AI34" s="82"/>
-      <c r="AJ34" s="78" t="s">
+      <c r="AE34" s="131"/>
+      <c r="AF34" s="131"/>
+      <c r="AG34" s="131"/>
+      <c r="AH34" s="131"/>
+      <c r="AI34" s="132"/>
+      <c r="AJ34" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="AK34" s="77"/>
-      <c r="AL34" s="77"/>
-      <c r="AM34" s="77"/>
-      <c r="AN34" s="77"/>
-      <c r="AO34" s="79"/>
-      <c r="AP34" s="77" t="s">
+      <c r="AK34" s="126"/>
+      <c r="AL34" s="126"/>
+      <c r="AM34" s="126"/>
+      <c r="AN34" s="126"/>
+      <c r="AO34" s="128"/>
+      <c r="AP34" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="AQ34" s="77"/>
-      <c r="AR34" s="77"/>
-      <c r="AS34" s="77"/>
-      <c r="AT34" s="77"/>
-      <c r="AU34" s="77"/>
-      <c r="AV34" s="77" t="s">
+      <c r="AQ34" s="126"/>
+      <c r="AR34" s="126"/>
+      <c r="AS34" s="126"/>
+      <c r="AT34" s="126"/>
+      <c r="AU34" s="126"/>
+      <c r="AV34" s="126" t="s">
         <v>91</v>
       </c>
-      <c r="AW34" s="77"/>
-      <c r="AX34" s="77"/>
-      <c r="AY34" s="77"/>
-      <c r="AZ34" s="77"/>
-      <c r="BA34" s="77"/>
-      <c r="BB34" s="78" t="s">
+      <c r="AW34" s="126"/>
+      <c r="AX34" s="126"/>
+      <c r="AY34" s="126"/>
+      <c r="AZ34" s="126"/>
+      <c r="BA34" s="126"/>
+      <c r="BB34" s="127" t="s">
         <v>92</v>
       </c>
-      <c r="BC34" s="77"/>
-      <c r="BD34" s="77"/>
-      <c r="BE34" s="77"/>
-      <c r="BF34" s="77"/>
-      <c r="BG34" s="79"/>
-      <c r="BH34" s="77" t="s">
+      <c r="BC34" s="126"/>
+      <c r="BD34" s="126"/>
+      <c r="BE34" s="126"/>
+      <c r="BF34" s="126"/>
+      <c r="BG34" s="128"/>
+      <c r="BH34" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="BI34" s="77"/>
-      <c r="BJ34" s="77"/>
-      <c r="BK34" s="77"/>
-      <c r="BL34" s="77"/>
-      <c r="BM34" s="77"/>
-      <c r="BN34" s="78" t="s">
+      <c r="BI34" s="126"/>
+      <c r="BJ34" s="126"/>
+      <c r="BK34" s="126"/>
+      <c r="BL34" s="126"/>
+      <c r="BM34" s="126"/>
+      <c r="BN34" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="BO34" s="77"/>
-      <c r="BP34" s="77"/>
-      <c r="BQ34" s="77"/>
-      <c r="BR34" s="77"/>
-      <c r="BS34" s="79"/>
-      <c r="BT34" s="78" t="s">
+      <c r="BO34" s="126"/>
+      <c r="BP34" s="126"/>
+      <c r="BQ34" s="126"/>
+      <c r="BR34" s="126"/>
+      <c r="BS34" s="128"/>
+      <c r="BT34" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="BU34" s="77"/>
-      <c r="BV34" s="77"/>
-      <c r="BW34" s="77"/>
-      <c r="BX34" s="77"/>
-      <c r="BY34" s="79"/>
+      <c r="BU34" s="126"/>
+      <c r="BV34" s="126"/>
+      <c r="BW34" s="126"/>
+      <c r="BX34" s="126"/>
+      <c r="BY34" s="128"/>
     </row>
     <row r="35" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="50" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="51"/>
-      <c r="D35" s="71">
+      <c r="D35" s="118">
         <v>1</v>
       </c>
-      <c r="E35" s="72"/>
+      <c r="E35" s="119"/>
       <c r="F35" s="51"/>
       <c r="G35" s="51"/>
       <c r="H35" s="51"/>
@@ -4769,10 +4796,10 @@
         <v>45</v>
       </c>
       <c r="C36" s="51"/>
-      <c r="D36" s="71">
+      <c r="D36" s="118">
         <v>1</v>
       </c>
-      <c r="E36" s="72"/>
+      <c r="E36" s="119"/>
       <c r="F36" s="51"/>
       <c r="G36" s="51"/>
       <c r="H36" s="51"/>
@@ -4851,10 +4878,10 @@
         <v>46</v>
       </c>
       <c r="C37" s="51"/>
-      <c r="D37" s="71">
+      <c r="D37" s="118">
         <v>1</v>
       </c>
-      <c r="E37" s="72"/>
+      <c r="E37" s="119"/>
       <c r="F37" s="51"/>
       <c r="G37" s="51"/>
       <c r="H37" s="51"/>
@@ -4933,10 +4960,10 @@
         <v>60</v>
       </c>
       <c r="C38" s="51"/>
-      <c r="D38" s="71">
+      <c r="D38" s="118">
         <v>1</v>
       </c>
-      <c r="E38" s="72"/>
+      <c r="E38" s="119"/>
       <c r="F38" s="51"/>
       <c r="G38" s="51"/>
       <c r="H38" s="51"/>
@@ -5015,10 +5042,10 @@
         <v>61</v>
       </c>
       <c r="C39" s="51"/>
-      <c r="D39" s="71">
+      <c r="D39" s="118">
         <v>1</v>
       </c>
-      <c r="E39" s="72"/>
+      <c r="E39" s="119"/>
       <c r="F39" s="51"/>
       <c r="G39" s="51"/>
       <c r="H39" s="51"/>
@@ -5097,10 +5124,10 @@
         <v>62</v>
       </c>
       <c r="C40" s="51"/>
-      <c r="D40" s="71">
+      <c r="D40" s="118">
         <v>1</v>
       </c>
-      <c r="E40" s="72"/>
+      <c r="E40" s="119"/>
       <c r="F40" s="51"/>
       <c r="G40" s="51"/>
       <c r="H40" s="51"/>
@@ -5179,10 +5206,10 @@
         <v>63</v>
       </c>
       <c r="C41" s="51"/>
-      <c r="D41" s="71">
+      <c r="D41" s="118">
         <v>1</v>
       </c>
-      <c r="E41" s="72"/>
+      <c r="E41" s="119"/>
       <c r="F41" s="51"/>
       <c r="G41" s="51"/>
       <c r="H41" s="51"/>
@@ -5261,10 +5288,10 @@
         <v>64</v>
       </c>
       <c r="C42" s="51"/>
-      <c r="D42" s="71">
+      <c r="D42" s="118">
         <v>1</v>
       </c>
-      <c r="E42" s="72"/>
+      <c r="E42" s="119"/>
       <c r="F42" s="51"/>
       <c r="G42" s="51"/>
       <c r="H42" s="51"/>
@@ -5343,10 +5370,10 @@
         <v>65</v>
       </c>
       <c r="C43" s="51"/>
-      <c r="D43" s="71">
+      <c r="D43" s="118">
         <v>1</v>
       </c>
-      <c r="E43" s="72"/>
+      <c r="E43" s="119"/>
       <c r="F43" s="51"/>
       <c r="G43" s="51"/>
       <c r="H43" s="51"/>
@@ -5425,10 +5452,10 @@
         <v>66</v>
       </c>
       <c r="C44" s="51"/>
-      <c r="D44" s="71">
+      <c r="D44" s="118">
         <v>1</v>
       </c>
-      <c r="E44" s="72"/>
+      <c r="E44" s="119"/>
       <c r="F44" s="51"/>
       <c r="G44" s="51"/>
       <c r="H44" s="51"/>
@@ -5507,10 +5534,10 @@
         <v>67</v>
       </c>
       <c r="C45" s="51"/>
-      <c r="D45" s="71">
+      <c r="D45" s="118">
         <v>1</v>
       </c>
-      <c r="E45" s="72"/>
+      <c r="E45" s="119"/>
       <c r="F45" s="51"/>
       <c r="G45" s="51"/>
       <c r="H45" s="51"/>
@@ -5589,10 +5616,10 @@
         <v>68</v>
       </c>
       <c r="C46" s="51"/>
-      <c r="D46" s="71">
+      <c r="D46" s="118">
         <v>1</v>
       </c>
-      <c r="E46" s="72"/>
+      <c r="E46" s="119"/>
       <c r="F46" s="51"/>
       <c r="G46" s="51"/>
       <c r="H46" s="51"/>
@@ -5671,10 +5698,10 @@
         <v>69</v>
       </c>
       <c r="C47" s="51"/>
-      <c r="D47" s="71">
+      <c r="D47" s="118">
         <v>1</v>
       </c>
-      <c r="E47" s="72"/>
+      <c r="E47" s="119"/>
       <c r="F47" s="51"/>
       <c r="G47" s="51"/>
       <c r="H47" s="51"/>
@@ -5753,10 +5780,10 @@
         <v>70</v>
       </c>
       <c r="C48" s="51"/>
-      <c r="D48" s="71">
+      <c r="D48" s="118">
         <v>1</v>
       </c>
-      <c r="E48" s="72"/>
+      <c r="E48" s="119"/>
       <c r="F48" s="51"/>
       <c r="G48" s="51"/>
       <c r="H48" s="51"/>
@@ -5835,10 +5862,10 @@
         <v>71</v>
       </c>
       <c r="C49" s="51"/>
-      <c r="D49" s="71">
+      <c r="D49" s="118">
         <v>1</v>
       </c>
-      <c r="E49" s="72"/>
+      <c r="E49" s="119"/>
       <c r="F49" s="51"/>
       <c r="G49" s="51"/>
       <c r="H49" s="51"/>
@@ -5917,10 +5944,10 @@
         <v>72</v>
       </c>
       <c r="C50" s="51"/>
-      <c r="D50" s="71">
+      <c r="D50" s="118">
         <v>1</v>
       </c>
-      <c r="E50" s="72"/>
+      <c r="E50" s="119"/>
       <c r="F50" s="51"/>
       <c r="G50" s="51"/>
       <c r="H50" s="51"/>
@@ -5999,10 +6026,10 @@
         <v>73</v>
       </c>
       <c r="C51" s="51"/>
-      <c r="D51" s="71">
+      <c r="D51" s="118">
         <v>1</v>
       </c>
-      <c r="E51" s="72"/>
+      <c r="E51" s="119"/>
       <c r="F51" s="51"/>
       <c r="G51" s="51"/>
       <c r="H51" s="51"/>
@@ -6081,10 +6108,10 @@
         <v>74</v>
       </c>
       <c r="C52" s="51"/>
-      <c r="D52" s="71">
+      <c r="D52" s="118">
         <v>1</v>
       </c>
-      <c r="E52" s="72"/>
+      <c r="E52" s="119"/>
       <c r="F52" s="51"/>
       <c r="G52" s="51"/>
       <c r="H52" s="51"/>
@@ -6163,10 +6190,10 @@
         <v>75</v>
       </c>
       <c r="C53" s="51"/>
-      <c r="D53" s="71">
+      <c r="D53" s="118">
         <v>1</v>
       </c>
-      <c r="E53" s="72"/>
+      <c r="E53" s="119"/>
       <c r="F53" s="51"/>
       <c r="G53" s="51"/>
       <c r="H53" s="51"/>
@@ -6245,10 +6272,10 @@
         <v>76</v>
       </c>
       <c r="C54" s="51"/>
-      <c r="D54" s="71">
+      <c r="D54" s="118">
         <v>1</v>
       </c>
-      <c r="E54" s="72"/>
+      <c r="E54" s="119"/>
       <c r="F54" s="51"/>
       <c r="G54" s="51"/>
       <c r="H54" s="51"/>
@@ -6327,10 +6354,10 @@
         <v>77</v>
       </c>
       <c r="C55" s="56"/>
-      <c r="D55" s="71">
+      <c r="D55" s="118">
         <v>1</v>
       </c>
-      <c r="E55" s="72"/>
+      <c r="E55" s="119"/>
       <c r="F55" s="51"/>
       <c r="G55" s="51"/>
       <c r="H55" s="51"/>
@@ -6409,10 +6436,10 @@
         <v>78</v>
       </c>
       <c r="C56" s="51"/>
-      <c r="D56" s="71">
+      <c r="D56" s="118">
         <v>1</v>
       </c>
-      <c r="E56" s="72"/>
+      <c r="E56" s="119"/>
       <c r="F56" s="51"/>
       <c r="G56" s="51"/>
       <c r="H56" s="51"/>
@@ -6491,10 +6518,10 @@
         <v>79</v>
       </c>
       <c r="C57" s="51"/>
-      <c r="D57" s="71">
+      <c r="D57" s="118">
         <v>1</v>
       </c>
-      <c r="E57" s="72"/>
+      <c r="E57" s="119"/>
       <c r="F57" s="51"/>
       <c r="G57" s="51"/>
       <c r="H57" s="51"/>
@@ -6573,10 +6600,10 @@
         <v>80</v>
       </c>
       <c r="C58" s="51"/>
-      <c r="D58" s="71">
+      <c r="D58" s="118">
         <v>1</v>
       </c>
-      <c r="E58" s="72"/>
+      <c r="E58" s="119"/>
       <c r="F58" s="51"/>
       <c r="G58" s="51"/>
       <c r="H58" s="51"/>
@@ -6655,10 +6682,10 @@
         <v>81</v>
       </c>
       <c r="C59" s="51"/>
-      <c r="D59" s="71">
+      <c r="D59" s="118">
         <v>1</v>
       </c>
-      <c r="E59" s="72"/>
+      <c r="E59" s="119"/>
       <c r="F59" s="51"/>
       <c r="G59" s="51"/>
       <c r="H59" s="51"/>
@@ -6737,10 +6764,10 @@
         <v>82</v>
       </c>
       <c r="C60" s="51"/>
-      <c r="D60" s="71">
+      <c r="D60" s="118">
         <v>1</v>
       </c>
-      <c r="E60" s="72"/>
+      <c r="E60" s="119"/>
       <c r="F60" s="51"/>
       <c r="G60" s="51"/>
       <c r="H60" s="51"/>
@@ -6819,10 +6846,10 @@
         <v>83</v>
       </c>
       <c r="C61" s="51"/>
-      <c r="D61" s="71">
+      <c r="D61" s="118">
         <v>1</v>
       </c>
-      <c r="E61" s="72"/>
+      <c r="E61" s="119"/>
       <c r="F61" s="51"/>
       <c r="G61" s="51"/>
       <c r="H61" s="51"/>
@@ -6901,10 +6928,10 @@
         <v>84</v>
       </c>
       <c r="C62" s="51"/>
-      <c r="D62" s="71">
+      <c r="D62" s="118">
         <v>1</v>
       </c>
-      <c r="E62" s="72"/>
+      <c r="E62" s="119"/>
       <c r="F62" s="51"/>
       <c r="G62" s="51"/>
       <c r="H62" s="51"/>
@@ -6981,8 +7008,8 @@
     <row r="63" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="55"/>
       <c r="C63" s="57"/>
-      <c r="D63" s="71"/>
-      <c r="E63" s="72"/>
+      <c r="D63" s="118"/>
+      <c r="E63" s="119"/>
       <c r="F63" s="57"/>
       <c r="G63" s="57"/>
       <c r="H63" s="57"/>
@@ -7061,10 +7088,10 @@
         <v>47</v>
       </c>
       <c r="C64" s="57"/>
-      <c r="D64" s="71">
+      <c r="D64" s="118">
         <v>1</v>
       </c>
-      <c r="E64" s="72"/>
+      <c r="E64" s="119"/>
       <c r="F64" s="57"/>
       <c r="G64" s="57"/>
       <c r="H64" s="57"/>
@@ -7143,10 +7170,10 @@
         <v>48</v>
       </c>
       <c r="C65" s="57"/>
-      <c r="D65" s="71">
+      <c r="D65" s="118">
         <v>1</v>
       </c>
-      <c r="E65" s="72"/>
+      <c r="E65" s="119"/>
       <c r="F65" s="57"/>
       <c r="G65" s="57"/>
       <c r="H65" s="57"/>
@@ -7223,8 +7250,8 @@
     <row r="66" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="55"/>
       <c r="C66" s="57"/>
-      <c r="D66" s="71"/>
-      <c r="E66" s="72"/>
+      <c r="D66" s="118"/>
+      <c r="E66" s="119"/>
       <c r="F66" s="57"/>
       <c r="G66" s="57"/>
       <c r="H66" s="57"/>
@@ -7303,10 +7330,10 @@
         <v>49</v>
       </c>
       <c r="C67" s="57"/>
-      <c r="D67" s="71">
+      <c r="D67" s="118">
         <v>1</v>
       </c>
-      <c r="E67" s="72"/>
+      <c r="E67" s="119"/>
       <c r="F67" s="57"/>
       <c r="G67" s="57"/>
       <c r="H67" s="57"/>
@@ -7385,10 +7412,10 @@
         <v>50</v>
       </c>
       <c r="C68" s="57"/>
-      <c r="D68" s="71">
+      <c r="D68" s="118">
         <v>1</v>
       </c>
-      <c r="E68" s="72"/>
+      <c r="E68" s="119"/>
       <c r="F68" s="57"/>
       <c r="G68" s="57"/>
       <c r="H68" s="57"/>
@@ -7467,10 +7494,10 @@
         <v>51</v>
       </c>
       <c r="C69" s="57"/>
-      <c r="D69" s="71">
+      <c r="D69" s="118">
         <v>1</v>
       </c>
-      <c r="E69" s="72"/>
+      <c r="E69" s="119"/>
       <c r="F69" s="57"/>
       <c r="G69" s="57"/>
       <c r="H69" s="57"/>
@@ -7549,10 +7576,10 @@
         <v>52</v>
       </c>
       <c r="C70" s="57"/>
-      <c r="D70" s="71">
+      <c r="D70" s="118">
         <v>1</v>
       </c>
-      <c r="E70" s="72"/>
+      <c r="E70" s="119"/>
       <c r="F70" s="57"/>
       <c r="G70" s="57"/>
       <c r="H70" s="57"/>
@@ -7631,10 +7658,10 @@
         <v>53</v>
       </c>
       <c r="C71" s="57"/>
-      <c r="D71" s="71">
+      <c r="D71" s="118">
         <v>1</v>
       </c>
-      <c r="E71" s="72"/>
+      <c r="E71" s="119"/>
       <c r="F71" s="57"/>
       <c r="G71" s="57"/>
       <c r="H71" s="57"/>
@@ -7713,10 +7740,10 @@
         <v>54</v>
       </c>
       <c r="C72" s="57"/>
-      <c r="D72" s="71">
+      <c r="D72" s="118">
         <v>1</v>
       </c>
-      <c r="E72" s="72"/>
+      <c r="E72" s="119"/>
       <c r="F72" s="57"/>
       <c r="G72" s="57"/>
       <c r="H72" s="57"/>
@@ -7795,10 +7822,10 @@
         <v>55</v>
       </c>
       <c r="C73" s="57"/>
-      <c r="D73" s="71">
+      <c r="D73" s="118">
         <v>1</v>
       </c>
-      <c r="E73" s="72"/>
+      <c r="E73" s="119"/>
       <c r="F73" s="57"/>
       <c r="G73" s="57"/>
       <c r="H73" s="57"/>
@@ -7877,10 +7904,10 @@
         <v>56</v>
       </c>
       <c r="C74" s="57"/>
-      <c r="D74" s="71">
+      <c r="D74" s="118">
         <v>1</v>
       </c>
-      <c r="E74" s="72"/>
+      <c r="E74" s="119"/>
       <c r="F74" s="57"/>
       <c r="G74" s="57"/>
       <c r="H74" s="57"/>
@@ -7959,10 +7986,10 @@
         <v>57</v>
       </c>
       <c r="C75" s="57"/>
-      <c r="D75" s="71">
+      <c r="D75" s="118">
         <v>1</v>
       </c>
-      <c r="E75" s="72"/>
+      <c r="E75" s="119"/>
       <c r="F75" s="57"/>
       <c r="G75" s="57"/>
       <c r="H75" s="57"/>
@@ -8041,10 +8068,10 @@
         <v>58</v>
       </c>
       <c r="C76" s="57"/>
-      <c r="D76" s="71">
+      <c r="D76" s="118">
         <v>1</v>
       </c>
-      <c r="E76" s="72"/>
+      <c r="E76" s="119"/>
       <c r="F76" s="57"/>
       <c r="G76" s="57"/>
       <c r="H76" s="57"/>
@@ -8123,10 +8150,10 @@
         <v>59</v>
       </c>
       <c r="C77" s="60"/>
-      <c r="D77" s="71">
+      <c r="D77" s="118">
         <v>1</v>
       </c>
-      <c r="E77" s="72"/>
+      <c r="E77" s="119"/>
       <c r="F77" s="60"/>
       <c r="G77" s="60"/>
       <c r="H77" s="60"/>
@@ -8207,10 +8234,10 @@
       <c r="C78" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D78" s="71">
+      <c r="D78" s="118">
         <v>1</v>
       </c>
-      <c r="E78" s="72"/>
+      <c r="E78" s="119"/>
       <c r="F78" s="57"/>
       <c r="G78" s="57"/>
       <c r="H78" s="57"/>
@@ -8223,22 +8250,22 @@
       <c r="O78" s="57"/>
       <c r="P78" s="57"/>
       <c r="Q78" s="57"/>
-      <c r="R78" s="62" t="s">
+      <c r="R78" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="S78" s="63"/>
-      <c r="T78" s="63"/>
-      <c r="U78" s="63"/>
-      <c r="V78" s="63"/>
-      <c r="W78" s="64"/>
-      <c r="X78" s="62" t="s">
+      <c r="S78" s="98"/>
+      <c r="T78" s="98"/>
+      <c r="U78" s="98"/>
+      <c r="V78" s="98"/>
+      <c r="W78" s="99"/>
+      <c r="X78" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="Y78" s="63"/>
-      <c r="Z78" s="63"/>
-      <c r="AA78" s="63"/>
-      <c r="AB78" s="63"/>
-      <c r="AC78" s="64"/>
+      <c r="Y78" s="98"/>
+      <c r="Z78" s="98"/>
+      <c r="AA78" s="98"/>
+      <c r="AB78" s="98"/>
+      <c r="AC78" s="99"/>
       <c r="AD78" s="57"/>
       <c r="AE78" s="57"/>
       <c r="AF78" s="57"/>
@@ -8295,10 +8322,10 @@
       <c r="C79" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D79" s="71">
+      <c r="D79" s="118">
         <v>1</v>
       </c>
-      <c r="E79" s="72"/>
+      <c r="E79" s="119"/>
       <c r="F79" s="57"/>
       <c r="G79" s="57"/>
       <c r="H79" s="57"/>
@@ -8311,18 +8338,18 @@
       <c r="O79" s="57"/>
       <c r="P79" s="57"/>
       <c r="Q79" s="57"/>
-      <c r="R79" s="65"/>
-      <c r="S79" s="66"/>
-      <c r="T79" s="66"/>
-      <c r="U79" s="66"/>
-      <c r="V79" s="66"/>
-      <c r="W79" s="67"/>
-      <c r="X79" s="65"/>
-      <c r="Y79" s="66"/>
-      <c r="Z79" s="66"/>
-      <c r="AA79" s="66"/>
-      <c r="AB79" s="66"/>
-      <c r="AC79" s="67"/>
+      <c r="R79" s="100"/>
+      <c r="S79" s="101"/>
+      <c r="T79" s="101"/>
+      <c r="U79" s="101"/>
+      <c r="V79" s="101"/>
+      <c r="W79" s="102"/>
+      <c r="X79" s="100"/>
+      <c r="Y79" s="101"/>
+      <c r="Z79" s="101"/>
+      <c r="AA79" s="101"/>
+      <c r="AB79" s="101"/>
+      <c r="AC79" s="102"/>
       <c r="AD79" s="57"/>
       <c r="AE79" s="57"/>
       <c r="AF79" s="57"/>
@@ -8379,10 +8406,10 @@
       <c r="C80" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D80" s="71">
+      <c r="D80" s="118">
         <v>1</v>
       </c>
-      <c r="E80" s="72"/>
+      <c r="E80" s="119"/>
       <c r="F80" s="57"/>
       <c r="G80" s="57"/>
       <c r="H80" s="57"/>
@@ -8395,18 +8422,18 @@
       <c r="O80" s="57"/>
       <c r="P80" s="57"/>
       <c r="Q80" s="57"/>
-      <c r="R80" s="65"/>
-      <c r="S80" s="66"/>
-      <c r="T80" s="66"/>
-      <c r="U80" s="66"/>
-      <c r="V80" s="66"/>
-      <c r="W80" s="67"/>
-      <c r="X80" s="65"/>
-      <c r="Y80" s="66"/>
-      <c r="Z80" s="66"/>
-      <c r="AA80" s="66"/>
-      <c r="AB80" s="66"/>
-      <c r="AC80" s="67"/>
+      <c r="R80" s="100"/>
+      <c r="S80" s="101"/>
+      <c r="T80" s="101"/>
+      <c r="U80" s="101"/>
+      <c r="V80" s="101"/>
+      <c r="W80" s="102"/>
+      <c r="X80" s="100"/>
+      <c r="Y80" s="101"/>
+      <c r="Z80" s="101"/>
+      <c r="AA80" s="101"/>
+      <c r="AB80" s="101"/>
+      <c r="AC80" s="102"/>
       <c r="AD80" s="57"/>
       <c r="AE80" s="57"/>
       <c r="AF80" s="57"/>
@@ -8463,10 +8490,10 @@
       <c r="C81" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D81" s="71">
+      <c r="D81" s="118">
         <v>1</v>
       </c>
-      <c r="E81" s="72"/>
+      <c r="E81" s="119"/>
       <c r="F81" s="57"/>
       <c r="G81" s="57"/>
       <c r="H81" s="57"/>
@@ -8479,18 +8506,18 @@
       <c r="O81" s="57"/>
       <c r="P81" s="57"/>
       <c r="Q81" s="57"/>
-      <c r="R81" s="65"/>
-      <c r="S81" s="66"/>
-      <c r="T81" s="66"/>
-      <c r="U81" s="66"/>
-      <c r="V81" s="66"/>
-      <c r="W81" s="67"/>
-      <c r="X81" s="65"/>
-      <c r="Y81" s="66"/>
-      <c r="Z81" s="66"/>
-      <c r="AA81" s="66"/>
-      <c r="AB81" s="66"/>
-      <c r="AC81" s="67"/>
+      <c r="R81" s="100"/>
+      <c r="S81" s="101"/>
+      <c r="T81" s="101"/>
+      <c r="U81" s="101"/>
+      <c r="V81" s="101"/>
+      <c r="W81" s="102"/>
+      <c r="X81" s="100"/>
+      <c r="Y81" s="101"/>
+      <c r="Z81" s="101"/>
+      <c r="AA81" s="101"/>
+      <c r="AB81" s="101"/>
+      <c r="AC81" s="102"/>
       <c r="AD81" s="57"/>
       <c r="AE81" s="57"/>
       <c r="AF81" s="57"/>
@@ -8547,10 +8574,10 @@
       <c r="C82" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D82" s="71">
+      <c r="D82" s="118">
         <v>1</v>
       </c>
-      <c r="E82" s="72"/>
+      <c r="E82" s="119"/>
       <c r="F82" s="57"/>
       <c r="G82" s="57"/>
       <c r="H82" s="57"/>
@@ -8563,18 +8590,18 @@
       <c r="O82" s="57"/>
       <c r="P82" s="57"/>
       <c r="Q82" s="57"/>
-      <c r="R82" s="65"/>
-      <c r="S82" s="66"/>
-      <c r="T82" s="66"/>
-      <c r="U82" s="66"/>
-      <c r="V82" s="66"/>
-      <c r="W82" s="67"/>
-      <c r="X82" s="65"/>
-      <c r="Y82" s="66"/>
-      <c r="Z82" s="66"/>
-      <c r="AA82" s="66"/>
-      <c r="AB82" s="66"/>
-      <c r="AC82" s="67"/>
+      <c r="R82" s="100"/>
+      <c r="S82" s="101"/>
+      <c r="T82" s="101"/>
+      <c r="U82" s="101"/>
+      <c r="V82" s="101"/>
+      <c r="W82" s="102"/>
+      <c r="X82" s="100"/>
+      <c r="Y82" s="101"/>
+      <c r="Z82" s="101"/>
+      <c r="AA82" s="101"/>
+      <c r="AB82" s="101"/>
+      <c r="AC82" s="102"/>
       <c r="AD82" s="57"/>
       <c r="AE82" s="57"/>
       <c r="AF82" s="57"/>
@@ -8631,10 +8658,10 @@
       <c r="C83" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D83" s="71">
+      <c r="D83" s="118">
         <v>1</v>
       </c>
-      <c r="E83" s="72"/>
+      <c r="E83" s="119"/>
       <c r="F83" s="57"/>
       <c r="G83" s="57"/>
       <c r="H83" s="57"/>
@@ -8647,18 +8674,18 @@
       <c r="O83" s="57"/>
       <c r="P83" s="57"/>
       <c r="Q83" s="57"/>
-      <c r="R83" s="68"/>
-      <c r="S83" s="69"/>
-      <c r="T83" s="69"/>
-      <c r="U83" s="69"/>
-      <c r="V83" s="69"/>
-      <c r="W83" s="70"/>
-      <c r="X83" s="68"/>
-      <c r="Y83" s="69"/>
-      <c r="Z83" s="69"/>
-      <c r="AA83" s="69"/>
-      <c r="AB83" s="69"/>
-      <c r="AC83" s="70"/>
+      <c r="R83" s="103"/>
+      <c r="S83" s="104"/>
+      <c r="T83" s="104"/>
+      <c r="U83" s="104"/>
+      <c r="V83" s="104"/>
+      <c r="W83" s="105"/>
+      <c r="X83" s="103"/>
+      <c r="Y83" s="104"/>
+      <c r="Z83" s="104"/>
+      <c r="AA83" s="104"/>
+      <c r="AB83" s="104"/>
+      <c r="AC83" s="105"/>
       <c r="AD83" s="57"/>
       <c r="AE83" s="57"/>
       <c r="AF83" s="57"/>
@@ -8711,8 +8738,8 @@
     <row r="84" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="59"/>
       <c r="C84" s="60"/>
-      <c r="D84" s="71"/>
-      <c r="E84" s="72"/>
+      <c r="D84" s="118"/>
+      <c r="E84" s="119"/>
       <c r="F84" s="60"/>
       <c r="G84" s="60"/>
       <c r="H84" s="60"/>
@@ -8794,7 +8821,152 @@
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="166">
+  <mergeCells count="169">
+    <mergeCell ref="R78:W83"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="AL5:AM5"/>
+    <mergeCell ref="AV8:BA8"/>
+    <mergeCell ref="BB8:BG8"/>
+    <mergeCell ref="AD34:AI34"/>
+    <mergeCell ref="AJ34:AO34"/>
+    <mergeCell ref="AP34:AU34"/>
+    <mergeCell ref="AV34:BA34"/>
+    <mergeCell ref="BB34:BG34"/>
+    <mergeCell ref="AP8:AU8"/>
+    <mergeCell ref="AD19:AI20"/>
+    <mergeCell ref="AD9:AI10"/>
+    <mergeCell ref="AD32:AI32"/>
+    <mergeCell ref="AP32:AU32"/>
+    <mergeCell ref="AP27:AU28"/>
+    <mergeCell ref="AP19:AU20"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="D27:E28"/>
+    <mergeCell ref="D23:E24"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="BH8:BM8"/>
+    <mergeCell ref="BN8:BS8"/>
+    <mergeCell ref="BT8:BY8"/>
+    <mergeCell ref="BH34:BM34"/>
+    <mergeCell ref="BN34:BS34"/>
+    <mergeCell ref="BT34:BY34"/>
+    <mergeCell ref="R34:W34"/>
+    <mergeCell ref="X34:AC34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="AD8:AI8"/>
+    <mergeCell ref="AJ8:AO8"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="L34:Q34"/>
+    <mergeCell ref="F8:K8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="AJ32:AO32"/>
+    <mergeCell ref="AJ23:AO24"/>
+    <mergeCell ref="AJ25:AO26"/>
+    <mergeCell ref="AJ27:AO28"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
     <mergeCell ref="X78:AC83"/>
     <mergeCell ref="X32:AC32"/>
     <mergeCell ref="X19:AC20"/>
@@ -8819,148 +8991,6 @@
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="BH8:BM8"/>
-    <mergeCell ref="BN8:BS8"/>
-    <mergeCell ref="BT8:BY8"/>
-    <mergeCell ref="BH34:BM34"/>
-    <mergeCell ref="BN34:BS34"/>
-    <mergeCell ref="BT34:BY34"/>
-    <mergeCell ref="R34:W34"/>
-    <mergeCell ref="X34:AC34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="AD8:AI8"/>
-    <mergeCell ref="AJ8:AO8"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="L34:Q34"/>
-    <mergeCell ref="F8:K8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="AJ32:AO32"/>
-    <mergeCell ref="AJ23:AO24"/>
-    <mergeCell ref="AJ25:AO26"/>
-    <mergeCell ref="AJ27:AO28"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="D27:E28"/>
-    <mergeCell ref="D23:E24"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D25:E26"/>
-    <mergeCell ref="D19:E20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="AV8:BA8"/>
-    <mergeCell ref="BB8:BG8"/>
-    <mergeCell ref="AD34:AI34"/>
-    <mergeCell ref="AJ34:AO34"/>
-    <mergeCell ref="AP34:AU34"/>
-    <mergeCell ref="AV34:BA34"/>
-    <mergeCell ref="BB34:BG34"/>
-    <mergeCell ref="AP8:AU8"/>
-    <mergeCell ref="AD19:AI20"/>
-    <mergeCell ref="AD9:AI10"/>
-    <mergeCell ref="AD32:AI32"/>
-    <mergeCell ref="R78:W83"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/工程表/工程管理(Forest).xlsx
+++ b/document/工程表/工程管理(Forest).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54fd41506f0d43af/デスクトップ/team_forest/document/工程表/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{DD294E77-84DB-4E19-AE4E-5040BAF5CCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09114B33-5D7C-4838-9487-12064DF0FEE0}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{DD294E77-84DB-4E19-AE4E-5040BAF5CCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B06F4620-9F44-4BFD-8589-7A985CD7DD28}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="124">
   <si>
     <t>担当</t>
     <rPh sb="0" eb="2">
@@ -1500,7 +1500,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1819,6 +1819,78 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1828,37 +1900,94 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1870,134 +1999,11 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2022,6 +2028,10 @@
 </file>
 
 <file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -2293,8 +2303,8 @@
   </sheetPr>
   <dimension ref="B2:BY84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AP19" sqref="AP19:AU20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL15" sqref="AL15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2394,78 +2404,78 @@
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="155" t="s">
+      <c r="D5" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="156"/>
-      <c r="F5" s="155" t="s">
+      <c r="E5" s="109"/>
+      <c r="F5" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="156"/>
-      <c r="H5" s="153" t="s">
+      <c r="G5" s="109"/>
+      <c r="H5" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="154"/>
-      <c r="J5" s="153" t="s">
+      <c r="I5" s="111"/>
+      <c r="J5" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="154"/>
-      <c r="L5" s="153" t="s">
+      <c r="K5" s="111"/>
+      <c r="L5" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="154"/>
-      <c r="N5" s="153" t="s">
+      <c r="M5" s="111"/>
+      <c r="N5" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="154"/>
-      <c r="P5" s="155" t="s">
+      <c r="O5" s="111"/>
+      <c r="P5" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="156"/>
-      <c r="R5" s="155" t="s">
+      <c r="Q5" s="109"/>
+      <c r="R5" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="156"/>
-      <c r="T5" s="155" t="s">
+      <c r="S5" s="109"/>
+      <c r="T5" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="U5" s="156"/>
-      <c r="V5" s="155" t="s">
+      <c r="U5" s="109"/>
+      <c r="V5" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="W5" s="156"/>
-      <c r="X5" s="155" t="s">
+      <c r="W5" s="109"/>
+      <c r="X5" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="Y5" s="156"/>
-      <c r="Z5" s="153" t="s">
+      <c r="Y5" s="109"/>
+      <c r="Z5" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="AA5" s="154"/>
-      <c r="AB5" s="153" t="s">
+      <c r="AA5" s="111"/>
+      <c r="AB5" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="AC5" s="154"/>
-      <c r="AD5" s="155" t="s">
+      <c r="AC5" s="111"/>
+      <c r="AD5" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="AE5" s="156"/>
-      <c r="AF5" s="155" t="s">
+      <c r="AE5" s="109"/>
+      <c r="AF5" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="AG5" s="156"/>
-      <c r="AH5" s="155" t="s">
+      <c r="AG5" s="109"/>
+      <c r="AH5" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="AI5" s="156"/>
-      <c r="AJ5" s="155" t="s">
+      <c r="AI5" s="109"/>
+      <c r="AJ5" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="AK5" s="156"/>
-      <c r="AL5" s="155" t="s">
+      <c r="AK5" s="109"/>
+      <c r="AL5" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="AM5" s="156"/>
+      <c r="AM5" s="109"/>
       <c r="AP5" s="62"/>
       <c r="AQ5" s="62"/>
       <c r="AR5" s="1" t="s">
@@ -2495,158 +2505,158 @@
       <c r="C8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="130" t="s">
+      <c r="D8" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="132"/>
-      <c r="F8" s="127" t="s">
+      <c r="E8" s="117"/>
+      <c r="F8" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="126" t="s">
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="M8" s="126"/>
-      <c r="N8" s="126"/>
-      <c r="O8" s="126"/>
-      <c r="P8" s="126"/>
-      <c r="Q8" s="126"/>
-      <c r="R8" s="127" t="s">
+      <c r="M8" s="112"/>
+      <c r="N8" s="112"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="112"/>
+      <c r="Q8" s="112"/>
+      <c r="R8" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="S8" s="126"/>
-      <c r="T8" s="126"/>
-      <c r="U8" s="126"/>
-      <c r="V8" s="126"/>
-      <c r="W8" s="128"/>
-      <c r="X8" s="126" t="s">
+      <c r="S8" s="112"/>
+      <c r="T8" s="112"/>
+      <c r="U8" s="112"/>
+      <c r="V8" s="112"/>
+      <c r="W8" s="114"/>
+      <c r="X8" s="112" t="s">
         <v>89</v>
       </c>
-      <c r="Y8" s="126"/>
-      <c r="Z8" s="126"/>
-      <c r="AA8" s="126"/>
-      <c r="AB8" s="126"/>
-      <c r="AC8" s="126"/>
-      <c r="AD8" s="130" t="s">
+      <c r="Y8" s="112"/>
+      <c r="Z8" s="112"/>
+      <c r="AA8" s="112"/>
+      <c r="AB8" s="112"/>
+      <c r="AC8" s="112"/>
+      <c r="AD8" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="AE8" s="131"/>
-      <c r="AF8" s="131"/>
-      <c r="AG8" s="131"/>
-      <c r="AH8" s="131"/>
-      <c r="AI8" s="132"/>
-      <c r="AJ8" s="127" t="s">
+      <c r="AE8" s="116"/>
+      <c r="AF8" s="116"/>
+      <c r="AG8" s="116"/>
+      <c r="AH8" s="116"/>
+      <c r="AI8" s="117"/>
+      <c r="AJ8" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="AK8" s="126"/>
-      <c r="AL8" s="126"/>
-      <c r="AM8" s="126"/>
-      <c r="AN8" s="126"/>
-      <c r="AO8" s="128"/>
-      <c r="AP8" s="126" t="s">
+      <c r="AK8" s="112"/>
+      <c r="AL8" s="112"/>
+      <c r="AM8" s="112"/>
+      <c r="AN8" s="112"/>
+      <c r="AO8" s="114"/>
+      <c r="AP8" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="AQ8" s="126"/>
-      <c r="AR8" s="126"/>
-      <c r="AS8" s="126"/>
-      <c r="AT8" s="126"/>
-      <c r="AU8" s="126"/>
-      <c r="AV8" s="126" t="s">
+      <c r="AQ8" s="112"/>
+      <c r="AR8" s="112"/>
+      <c r="AS8" s="112"/>
+      <c r="AT8" s="112"/>
+      <c r="AU8" s="112"/>
+      <c r="AV8" s="112" t="s">
         <v>91</v>
       </c>
-      <c r="AW8" s="126"/>
-      <c r="AX8" s="126"/>
-      <c r="AY8" s="126"/>
-      <c r="AZ8" s="126"/>
-      <c r="BA8" s="126"/>
-      <c r="BB8" s="127" t="s">
+      <c r="AW8" s="112"/>
+      <c r="AX8" s="112"/>
+      <c r="AY8" s="112"/>
+      <c r="AZ8" s="112"/>
+      <c r="BA8" s="112"/>
+      <c r="BB8" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="BC8" s="126"/>
-      <c r="BD8" s="126"/>
-      <c r="BE8" s="126"/>
-      <c r="BF8" s="126"/>
-      <c r="BG8" s="128"/>
-      <c r="BH8" s="126" t="s">
+      <c r="BC8" s="112"/>
+      <c r="BD8" s="112"/>
+      <c r="BE8" s="112"/>
+      <c r="BF8" s="112"/>
+      <c r="BG8" s="114"/>
+      <c r="BH8" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="BI8" s="126"/>
-      <c r="BJ8" s="126"/>
-      <c r="BK8" s="126"/>
-      <c r="BL8" s="126"/>
-      <c r="BM8" s="126"/>
-      <c r="BN8" s="127" t="s">
+      <c r="BI8" s="112"/>
+      <c r="BJ8" s="112"/>
+      <c r="BK8" s="112"/>
+      <c r="BL8" s="112"/>
+      <c r="BM8" s="112"/>
+      <c r="BN8" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="BO8" s="126"/>
-      <c r="BP8" s="126"/>
-      <c r="BQ8" s="126"/>
-      <c r="BR8" s="126"/>
-      <c r="BS8" s="128"/>
-      <c r="BT8" s="127" t="s">
+      <c r="BO8" s="112"/>
+      <c r="BP8" s="112"/>
+      <c r="BQ8" s="112"/>
+      <c r="BR8" s="112"/>
+      <c r="BS8" s="114"/>
+      <c r="BT8" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="BU8" s="126"/>
-      <c r="BV8" s="126"/>
-      <c r="BW8" s="126"/>
-      <c r="BX8" s="126"/>
-      <c r="BY8" s="128"/>
+      <c r="BU8" s="112"/>
+      <c r="BV8" s="112"/>
+      <c r="BW8" s="112"/>
+      <c r="BX8" s="112"/>
+      <c r="BY8" s="114"/>
     </row>
     <row r="9" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="164" t="s">
+      <c r="B9" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="165" t="s">
+      <c r="C9" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="147">
+      <c r="D9" s="135">
         <v>0.5</v>
       </c>
-      <c r="E9" s="148"/>
-      <c r="F9" s="120" t="s">
+      <c r="E9" s="136"/>
+      <c r="F9" s="163" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="121"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="115" t="s">
+      <c r="G9" s="164"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="165"/>
+      <c r="L9" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="115" t="s">
+      <c r="M9" s="125"/>
+      <c r="N9" s="125"/>
+      <c r="O9" s="125"/>
+      <c r="P9" s="125"/>
+      <c r="Q9" s="126"/>
+      <c r="R9" s="124" t="s">
         <v>94</v>
       </c>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="116"/>
-      <c r="V9" s="116"/>
-      <c r="W9" s="117"/>
-      <c r="X9" s="115" t="s">
+      <c r="S9" s="125"/>
+      <c r="T9" s="125"/>
+      <c r="U9" s="125"/>
+      <c r="V9" s="125"/>
+      <c r="W9" s="126"/>
+      <c r="X9" s="124" t="s">
         <v>112</v>
       </c>
-      <c r="Y9" s="116"/>
-      <c r="Z9" s="116"/>
-      <c r="AA9" s="116"/>
-      <c r="AB9" s="116"/>
-      <c r="AC9" s="117"/>
-      <c r="AD9" s="115" t="s">
+      <c r="Y9" s="125"/>
+      <c r="Z9" s="125"/>
+      <c r="AA9" s="125"/>
+      <c r="AB9" s="125"/>
+      <c r="AC9" s="126"/>
+      <c r="AD9" s="124" t="s">
         <v>114</v>
       </c>
-      <c r="AE9" s="116"/>
-      <c r="AF9" s="116"/>
-      <c r="AG9" s="116"/>
-      <c r="AH9" s="116"/>
-      <c r="AI9" s="117"/>
+      <c r="AE9" s="125"/>
+      <c r="AF9" s="125"/>
+      <c r="AG9" s="125"/>
+      <c r="AH9" s="125"/>
+      <c r="AI9" s="126"/>
       <c r="AJ9" s="65"/>
       <c r="AK9" s="66"/>
       <c r="AL9" s="66"/>
@@ -2691,40 +2701,40 @@
       <c r="BY9" s="9"/>
     </row>
     <row r="10" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="158"/>
-      <c r="C10" s="162"/>
-      <c r="D10" s="145"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="112"/>
-      <c r="M10" s="113"/>
-      <c r="N10" s="113"/>
-      <c r="O10" s="113"/>
-      <c r="P10" s="113"/>
-      <c r="Q10" s="114"/>
-      <c r="R10" s="112"/>
-      <c r="S10" s="113"/>
-      <c r="T10" s="113"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="114"/>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="113"/>
-      <c r="Z10" s="113"/>
-      <c r="AA10" s="113"/>
-      <c r="AB10" s="113"/>
-      <c r="AC10" s="114"/>
-      <c r="AD10" s="112"/>
-      <c r="AE10" s="113"/>
-      <c r="AF10" s="113"/>
-      <c r="AG10" s="113"/>
-      <c r="AH10" s="113"/>
-      <c r="AI10" s="114"/>
+      <c r="B10" s="142"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="161"/>
+      <c r="K10" s="162"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="122"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="122"/>
+      <c r="P10" s="122"/>
+      <c r="Q10" s="123"/>
+      <c r="R10" s="121"/>
+      <c r="S10" s="122"/>
+      <c r="T10" s="122"/>
+      <c r="U10" s="122"/>
+      <c r="V10" s="122"/>
+      <c r="W10" s="123"/>
+      <c r="X10" s="121"/>
+      <c r="Y10" s="122"/>
+      <c r="Z10" s="122"/>
+      <c r="AA10" s="122"/>
+      <c r="AB10" s="122"/>
+      <c r="AC10" s="123"/>
+      <c r="AD10" s="121"/>
+      <c r="AE10" s="122"/>
+      <c r="AF10" s="122"/>
+      <c r="AG10" s="122"/>
+      <c r="AH10" s="122"/>
+      <c r="AI10" s="123"/>
       <c r="AJ10" s="70"/>
       <c r="AK10" s="62"/>
       <c r="AL10" s="62"/>
@@ -2769,16 +2779,16 @@
       <c r="BY10" s="15"/>
     </row>
     <row r="11" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="157" t="s">
+      <c r="B11" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="161" t="s">
+      <c r="C11" s="133" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="147">
+      <c r="D11" s="135">
         <v>0.7</v>
       </c>
-      <c r="E11" s="148"/>
+      <c r="E11" s="136"/>
       <c r="F11" s="96"/>
       <c r="G11" s="82"/>
       <c r="H11" s="82"/>
@@ -2853,10 +2863,10 @@
       <c r="BY11" s="20"/>
     </row>
     <row r="12" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="158"/>
-      <c r="C12" s="162"/>
-      <c r="D12" s="145"/>
-      <c r="E12" s="146"/>
+      <c r="B12" s="142"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="138"/>
       <c r="F12" s="86"/>
       <c r="G12" s="84"/>
       <c r="H12" s="84"/>
@@ -2931,24 +2941,24 @@
       <c r="BY12" s="25"/>
     </row>
     <row r="13" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="157" t="s">
+      <c r="B13" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="165" t="s">
+      <c r="C13" s="151" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="147">
+      <c r="D13" s="135">
         <v>0.8</v>
       </c>
-      <c r="E13" s="148"/>
-      <c r="F13" s="109" t="s">
+      <c r="E13" s="136"/>
+      <c r="F13" s="118" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="111"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="120"/>
       <c r="L13" s="80"/>
       <c r="M13" s="81"/>
       <c r="N13" s="81"/>
@@ -2961,14 +2971,14 @@
       <c r="U13" s="62"/>
       <c r="V13" s="62"/>
       <c r="W13" s="71"/>
-      <c r="X13" s="109" t="s">
+      <c r="X13" s="118" t="s">
         <v>111</v>
       </c>
-      <c r="Y13" s="110"/>
-      <c r="Z13" s="110"/>
-      <c r="AA13" s="110"/>
-      <c r="AB13" s="110"/>
-      <c r="AC13" s="111"/>
+      <c r="Y13" s="119"/>
+      <c r="Z13" s="119"/>
+      <c r="AA13" s="119"/>
+      <c r="AB13" s="119"/>
+      <c r="AC13" s="120"/>
       <c r="AD13" s="80"/>
       <c r="AE13" s="81"/>
       <c r="AF13" s="81"/>
@@ -3019,16 +3029,16 @@
       <c r="BY13" s="15"/>
     </row>
     <row r="14" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="158"/>
-      <c r="C14" s="162"/>
-      <c r="D14" s="145"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="114"/>
+      <c r="B14" s="142"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="123"/>
       <c r="L14" s="68"/>
       <c r="M14" s="69"/>
       <c r="N14" s="69"/>
@@ -3041,12 +3051,12 @@
       <c r="U14" s="84"/>
       <c r="V14" s="84"/>
       <c r="W14" s="85"/>
-      <c r="X14" s="112"/>
-      <c r="Y14" s="113"/>
-      <c r="Z14" s="113"/>
-      <c r="AA14" s="113"/>
-      <c r="AB14" s="113"/>
-      <c r="AC14" s="114"/>
+      <c r="X14" s="121"/>
+      <c r="Y14" s="122"/>
+      <c r="Z14" s="122"/>
+      <c r="AA14" s="122"/>
+      <c r="AB14" s="122"/>
+      <c r="AC14" s="123"/>
       <c r="AD14" s="68"/>
       <c r="AE14" s="69"/>
       <c r="AF14" s="69"/>
@@ -3097,24 +3107,24 @@
       <c r="BY14" s="25"/>
     </row>
     <row r="15" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="157" t="s">
+      <c r="B15" s="141" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="161" t="s">
+      <c r="C15" s="133" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="143">
         <v>0.8</v>
       </c>
-      <c r="E15" s="144"/>
-      <c r="F15" s="109" t="s">
+      <c r="E15" s="146"/>
+      <c r="F15" s="118" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="111"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="119"/>
+      <c r="K15" s="120"/>
       <c r="L15" s="87"/>
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
@@ -3183,16 +3193,16 @@
       <c r="BY15" s="15"/>
     </row>
     <row r="16" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="158"/>
-      <c r="C16" s="162"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="113"/>
-      <c r="K16" s="114"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="123"/>
       <c r="L16" s="87"/>
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
@@ -3261,16 +3271,16 @@
       <c r="BY16" s="25"/>
     </row>
     <row r="17" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="157" t="s">
+      <c r="B17" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="159" t="s">
+      <c r="C17" s="147" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="143">
         <v>0</v>
       </c>
-      <c r="E17" s="144"/>
+      <c r="E17" s="146"/>
       <c r="F17" s="14"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -3313,12 +3323,14 @@
       <c r="AS17" s="10"/>
       <c r="AT17" s="10"/>
       <c r="AU17" s="15"/>
-      <c r="AV17" s="80"/>
-      <c r="AW17" s="81"/>
-      <c r="AX17" s="81"/>
-      <c r="AY17" s="82"/>
-      <c r="AZ17" s="82"/>
-      <c r="BA17" s="83"/>
+      <c r="AV17" s="157" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW17" s="158"/>
+      <c r="AX17" s="158"/>
+      <c r="AY17" s="158"/>
+      <c r="AZ17" s="158"/>
+      <c r="BA17" s="166"/>
       <c r="BB17" s="70"/>
       <c r="BC17" s="62"/>
       <c r="BD17" s="62"/>
@@ -3345,10 +3357,10 @@
       <c r="BY17" s="15"/>
     </row>
     <row r="18" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="158"/>
-      <c r="C18" s="160"/>
-      <c r="D18" s="145"/>
-      <c r="E18" s="146"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="138"/>
       <c r="F18" s="23"/>
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
@@ -3391,12 +3403,12 @@
       <c r="AS18" s="24"/>
       <c r="AT18" s="24"/>
       <c r="AU18" s="25"/>
-      <c r="AV18" s="68"/>
-      <c r="AW18" s="69"/>
-      <c r="AX18" s="69"/>
-      <c r="AY18" s="84"/>
-      <c r="AZ18" s="84"/>
-      <c r="BA18" s="85"/>
+      <c r="AV18" s="160"/>
+      <c r="AW18" s="161"/>
+      <c r="AX18" s="161"/>
+      <c r="AY18" s="161"/>
+      <c r="AZ18" s="161"/>
+      <c r="BA18" s="167"/>
       <c r="BB18" s="86"/>
       <c r="BC18" s="84"/>
       <c r="BD18" s="84"/>
@@ -3423,66 +3435,66 @@
       <c r="BY18" s="25"/>
     </row>
     <row r="19" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="157" t="s">
+      <c r="B19" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="159" t="s">
+      <c r="C19" s="147" t="s">
         <v>93</v>
       </c>
       <c r="D19" s="143">
         <v>0.5</v>
       </c>
-      <c r="E19" s="144"/>
+      <c r="E19" s="146"/>
       <c r="F19" s="70"/>
       <c r="G19" s="62"/>
       <c r="H19" s="62"/>
       <c r="I19" s="62"/>
       <c r="J19" s="62"/>
       <c r="K19" s="71"/>
-      <c r="L19" s="109" t="s">
+      <c r="L19" s="118" t="s">
         <v>97</v>
       </c>
-      <c r="M19" s="110"/>
-      <c r="N19" s="110"/>
-      <c r="O19" s="110"/>
-      <c r="P19" s="110"/>
-      <c r="Q19" s="111"/>
+      <c r="M19" s="119"/>
+      <c r="N19" s="119"/>
+      <c r="O19" s="119"/>
+      <c r="P19" s="119"/>
+      <c r="Q19" s="120"/>
       <c r="R19" s="70"/>
       <c r="S19" s="62"/>
       <c r="T19" s="62"/>
       <c r="U19" s="62"/>
       <c r="V19" s="62"/>
       <c r="W19" s="71"/>
-      <c r="X19" s="109" t="s">
+      <c r="X19" s="118" t="s">
         <v>97</v>
       </c>
-      <c r="Y19" s="110"/>
-      <c r="Z19" s="110"/>
-      <c r="AA19" s="110"/>
-      <c r="AB19" s="110"/>
-      <c r="AC19" s="111"/>
-      <c r="AD19" s="109" t="s">
+      <c r="Y19" s="119"/>
+      <c r="Z19" s="119"/>
+      <c r="AA19" s="119"/>
+      <c r="AB19" s="119"/>
+      <c r="AC19" s="120"/>
+      <c r="AD19" s="118" t="s">
         <v>113</v>
       </c>
-      <c r="AE19" s="110"/>
-      <c r="AF19" s="110"/>
-      <c r="AG19" s="110"/>
-      <c r="AH19" s="110"/>
-      <c r="AI19" s="111"/>
+      <c r="AE19" s="119"/>
+      <c r="AF19" s="119"/>
+      <c r="AG19" s="119"/>
+      <c r="AH19" s="119"/>
+      <c r="AI19" s="120"/>
       <c r="AJ19" s="70"/>
       <c r="AK19" s="62"/>
       <c r="AL19" s="62"/>
       <c r="AM19" s="62"/>
       <c r="AN19" s="62"/>
       <c r="AO19" s="71"/>
-      <c r="AP19" s="109" t="s">
+      <c r="AP19" s="118" t="s">
         <v>93</v>
       </c>
-      <c r="AQ19" s="110"/>
-      <c r="AR19" s="110"/>
-      <c r="AS19" s="110"/>
-      <c r="AT19" s="110"/>
-      <c r="AU19" s="111"/>
+      <c r="AQ19" s="119"/>
+      <c r="AR19" s="119"/>
+      <c r="AS19" s="119"/>
+      <c r="AT19" s="119"/>
+      <c r="AU19" s="120"/>
       <c r="AV19" s="80"/>
       <c r="AW19" s="81"/>
       <c r="AX19" s="81"/>
@@ -3515,52 +3527,52 @@
       <c r="BY19" s="15"/>
     </row>
     <row r="20" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="158"/>
-      <c r="C20" s="160"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="138"/>
       <c r="F20" s="86"/>
       <c r="G20" s="84"/>
       <c r="H20" s="84"/>
       <c r="I20" s="84"/>
       <c r="J20" s="84"/>
       <c r="K20" s="85"/>
-      <c r="L20" s="112"/>
-      <c r="M20" s="113"/>
-      <c r="N20" s="113"/>
-      <c r="O20" s="113"/>
-      <c r="P20" s="113"/>
-      <c r="Q20" s="114"/>
+      <c r="L20" s="121"/>
+      <c r="M20" s="122"/>
+      <c r="N20" s="122"/>
+      <c r="O20" s="122"/>
+      <c r="P20" s="122"/>
+      <c r="Q20" s="123"/>
       <c r="R20" s="86"/>
       <c r="S20" s="84"/>
       <c r="T20" s="84"/>
       <c r="U20" s="84"/>
       <c r="V20" s="84"/>
       <c r="W20" s="85"/>
-      <c r="X20" s="112"/>
-      <c r="Y20" s="113"/>
-      <c r="Z20" s="113"/>
-      <c r="AA20" s="113"/>
-      <c r="AB20" s="113"/>
-      <c r="AC20" s="114"/>
-      <c r="AD20" s="112"/>
-      <c r="AE20" s="113"/>
-      <c r="AF20" s="113"/>
-      <c r="AG20" s="113"/>
-      <c r="AH20" s="113"/>
-      <c r="AI20" s="114"/>
+      <c r="X20" s="121"/>
+      <c r="Y20" s="122"/>
+      <c r="Z20" s="122"/>
+      <c r="AA20" s="122"/>
+      <c r="AB20" s="122"/>
+      <c r="AC20" s="123"/>
+      <c r="AD20" s="121"/>
+      <c r="AE20" s="122"/>
+      <c r="AF20" s="122"/>
+      <c r="AG20" s="122"/>
+      <c r="AH20" s="122"/>
+      <c r="AI20" s="123"/>
       <c r="AJ20" s="86"/>
       <c r="AK20" s="84"/>
       <c r="AL20" s="84"/>
       <c r="AM20" s="84"/>
       <c r="AN20" s="84"/>
       <c r="AO20" s="85"/>
-      <c r="AP20" s="112"/>
-      <c r="AQ20" s="113"/>
-      <c r="AR20" s="113"/>
-      <c r="AS20" s="113"/>
-      <c r="AT20" s="113"/>
-      <c r="AU20" s="114"/>
+      <c r="AP20" s="121"/>
+      <c r="AQ20" s="122"/>
+      <c r="AR20" s="122"/>
+      <c r="AS20" s="122"/>
+      <c r="AT20" s="122"/>
+      <c r="AU20" s="123"/>
       <c r="AV20" s="68"/>
       <c r="AW20" s="69"/>
       <c r="AX20" s="69"/>
@@ -3593,28 +3605,28 @@
       <c r="BY20" s="25"/>
     </row>
     <row r="21" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="157" t="s">
+      <c r="B21" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="163"/>
+      <c r="C21" s="149"/>
       <c r="D21" s="143">
         <v>0.2</v>
       </c>
-      <c r="E21" s="151"/>
+      <c r="E21" s="144"/>
       <c r="F21" s="14"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="15"/>
-      <c r="L21" s="109" t="s">
+      <c r="L21" s="118" t="s">
         <v>100</v>
       </c>
-      <c r="M21" s="110"/>
-      <c r="N21" s="110"/>
-      <c r="O21" s="110"/>
-      <c r="P21" s="110"/>
-      <c r="Q21" s="111"/>
+      <c r="M21" s="119"/>
+      <c r="N21" s="119"/>
+      <c r="O21" s="119"/>
+      <c r="P21" s="119"/>
+      <c r="Q21" s="120"/>
       <c r="R21" s="94"/>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
@@ -3677,22 +3689,22 @@
       <c r="BY21" s="15"/>
     </row>
     <row r="22" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="158"/>
-      <c r="C22" s="162"/>
-      <c r="D22" s="145"/>
-      <c r="E22" s="152"/>
+      <c r="B22" s="142"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="145"/>
       <c r="F22" s="23"/>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="25"/>
-      <c r="L22" s="112"/>
-      <c r="M22" s="113"/>
-      <c r="N22" s="113"/>
-      <c r="O22" s="113"/>
-      <c r="P22" s="113"/>
-      <c r="Q22" s="114"/>
+      <c r="L22" s="121"/>
+      <c r="M22" s="122"/>
+      <c r="N22" s="122"/>
+      <c r="O22" s="122"/>
+      <c r="P22" s="122"/>
+      <c r="Q22" s="123"/>
       <c r="R22" s="95"/>
       <c r="S22" s="24"/>
       <c r="T22" s="24"/>
@@ -3755,12 +3767,12 @@
       <c r="BY22" s="25"/>
     </row>
     <row r="23" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="157" t="s">
+      <c r="B23" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="161"/>
+      <c r="C23" s="133"/>
       <c r="D23" s="143"/>
-      <c r="E23" s="144"/>
+      <c r="E23" s="146"/>
       <c r="F23" s="14"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
@@ -3791,14 +3803,14 @@
       <c r="AG23" s="82"/>
       <c r="AH23" s="82"/>
       <c r="AI23" s="83"/>
-      <c r="AJ23" s="109" t="s">
+      <c r="AJ23" s="118" t="s">
         <v>119</v>
       </c>
-      <c r="AK23" s="110"/>
-      <c r="AL23" s="110"/>
-      <c r="AM23" s="110"/>
-      <c r="AN23" s="110"/>
-      <c r="AO23" s="111"/>
+      <c r="AK23" s="119"/>
+      <c r="AL23" s="119"/>
+      <c r="AM23" s="119"/>
+      <c r="AN23" s="119"/>
+      <c r="AO23" s="120"/>
       <c r="AP23" s="70"/>
       <c r="AQ23" s="62"/>
       <c r="AR23" s="62"/>
@@ -3837,10 +3849,10 @@
       <c r="BY23" s="15"/>
     </row>
     <row r="24" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="158"/>
-      <c r="C24" s="162"/>
-      <c r="D24" s="145"/>
-      <c r="E24" s="146"/>
+      <c r="B24" s="142"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="137"/>
+      <c r="E24" s="138"/>
       <c r="F24" s="23"/>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
@@ -3871,12 +3883,12 @@
       <c r="AG24" s="84"/>
       <c r="AH24" s="84"/>
       <c r="AI24" s="85"/>
-      <c r="AJ24" s="112"/>
-      <c r="AK24" s="113"/>
-      <c r="AL24" s="113"/>
-      <c r="AM24" s="113"/>
-      <c r="AN24" s="113"/>
-      <c r="AO24" s="114"/>
+      <c r="AJ24" s="121"/>
+      <c r="AK24" s="122"/>
+      <c r="AL24" s="122"/>
+      <c r="AM24" s="122"/>
+      <c r="AN24" s="122"/>
+      <c r="AO24" s="123"/>
       <c r="AP24" s="86"/>
       <c r="AQ24" s="84"/>
       <c r="AR24" s="84"/>
@@ -3915,12 +3927,12 @@
       <c r="BY24" s="25"/>
     </row>
     <row r="25" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="157" t="s">
+      <c r="B25" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="163"/>
+      <c r="C25" s="149"/>
       <c r="D25" s="143"/>
-      <c r="E25" s="151"/>
+      <c r="E25" s="144"/>
       <c r="F25" s="14"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -3951,14 +3963,14 @@
       <c r="AG25" s="82"/>
       <c r="AH25" s="82"/>
       <c r="AI25" s="83"/>
-      <c r="AJ25" s="136" t="s">
+      <c r="AJ25" s="157" t="s">
         <v>120</v>
       </c>
-      <c r="AK25" s="137"/>
-      <c r="AL25" s="137"/>
-      <c r="AM25" s="137"/>
-      <c r="AN25" s="137"/>
-      <c r="AO25" s="138"/>
+      <c r="AK25" s="158"/>
+      <c r="AL25" s="158"/>
+      <c r="AM25" s="158"/>
+      <c r="AN25" s="158"/>
+      <c r="AO25" s="159"/>
       <c r="AP25" s="70"/>
       <c r="AQ25" s="62"/>
       <c r="AR25" s="62"/>
@@ -3997,10 +4009,10 @@
       <c r="BY25" s="15"/>
     </row>
     <row r="26" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="158"/>
-      <c r="C26" s="162"/>
-      <c r="D26" s="145"/>
-      <c r="E26" s="152"/>
+      <c r="B26" s="142"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="145"/>
       <c r="F26" s="23"/>
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
@@ -4031,12 +4043,12 @@
       <c r="AG26" s="84"/>
       <c r="AH26" s="84"/>
       <c r="AI26" s="85"/>
-      <c r="AJ26" s="123"/>
-      <c r="AK26" s="124"/>
-      <c r="AL26" s="124"/>
-      <c r="AM26" s="124"/>
-      <c r="AN26" s="124"/>
-      <c r="AO26" s="125"/>
+      <c r="AJ26" s="160"/>
+      <c r="AK26" s="161"/>
+      <c r="AL26" s="161"/>
+      <c r="AM26" s="161"/>
+      <c r="AN26" s="161"/>
+      <c r="AO26" s="162"/>
       <c r="AP26" s="86"/>
       <c r="AQ26" s="84"/>
       <c r="AR26" s="84"/>
@@ -4075,14 +4087,14 @@
       <c r="BY26" s="25"/>
     </row>
     <row r="27" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="157" t="s">
+      <c r="B27" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="161"/>
+      <c r="C27" s="133"/>
       <c r="D27" s="143">
         <v>0</v>
       </c>
-      <c r="E27" s="144"/>
+      <c r="E27" s="146"/>
       <c r="F27" s="14"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
@@ -4113,22 +4125,22 @@
       <c r="AG27" s="19"/>
       <c r="AH27" s="19"/>
       <c r="AI27" s="20"/>
-      <c r="AJ27" s="109" t="s">
+      <c r="AJ27" s="118" t="s">
         <v>121</v>
       </c>
-      <c r="AK27" s="110"/>
-      <c r="AL27" s="110"/>
-      <c r="AM27" s="110"/>
-      <c r="AN27" s="110"/>
-      <c r="AO27" s="111"/>
-      <c r="AP27" s="109" t="s">
+      <c r="AK27" s="119"/>
+      <c r="AL27" s="119"/>
+      <c r="AM27" s="119"/>
+      <c r="AN27" s="119"/>
+      <c r="AO27" s="120"/>
+      <c r="AP27" s="118" t="s">
         <v>123</v>
       </c>
-      <c r="AQ27" s="110"/>
-      <c r="AR27" s="110"/>
-      <c r="AS27" s="110"/>
-      <c r="AT27" s="110"/>
-      <c r="AU27" s="111"/>
+      <c r="AQ27" s="119"/>
+      <c r="AR27" s="119"/>
+      <c r="AS27" s="119"/>
+      <c r="AT27" s="119"/>
+      <c r="AU27" s="120"/>
       <c r="AV27" s="80"/>
       <c r="AW27" s="81"/>
       <c r="AX27" s="81"/>
@@ -4161,10 +4173,10 @@
       <c r="BY27" s="15"/>
     </row>
     <row r="28" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="158"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="145"/>
-      <c r="E28" s="146"/>
+      <c r="B28" s="142"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="138"/>
       <c r="F28" s="23"/>
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
@@ -4195,18 +4207,18 @@
       <c r="AG28" s="24"/>
       <c r="AH28" s="24"/>
       <c r="AI28" s="25"/>
-      <c r="AJ28" s="112"/>
-      <c r="AK28" s="113"/>
-      <c r="AL28" s="113"/>
-      <c r="AM28" s="113"/>
-      <c r="AN28" s="113"/>
-      <c r="AO28" s="114"/>
-      <c r="AP28" s="112"/>
-      <c r="AQ28" s="113"/>
-      <c r="AR28" s="113"/>
-      <c r="AS28" s="113"/>
-      <c r="AT28" s="113"/>
-      <c r="AU28" s="114"/>
+      <c r="AJ28" s="121"/>
+      <c r="AK28" s="122"/>
+      <c r="AL28" s="122"/>
+      <c r="AM28" s="122"/>
+      <c r="AN28" s="122"/>
+      <c r="AO28" s="123"/>
+      <c r="AP28" s="121"/>
+      <c r="AQ28" s="122"/>
+      <c r="AR28" s="122"/>
+      <c r="AS28" s="122"/>
+      <c r="AT28" s="122"/>
+      <c r="AU28" s="123"/>
       <c r="AV28" s="68"/>
       <c r="AW28" s="69"/>
       <c r="AX28" s="69"/>
@@ -4323,8 +4335,8 @@
         <v>11</v>
       </c>
       <c r="C30" s="28"/>
-      <c r="D30" s="149"/>
-      <c r="E30" s="150"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="155"/>
       <c r="F30" s="29"/>
       <c r="G30" s="30"/>
       <c r="H30" s="30"/>
@@ -4404,7 +4416,7 @@
       </c>
       <c r="C31" s="34"/>
       <c r="D31" s="143"/>
-      <c r="E31" s="151"/>
+      <c r="E31" s="144"/>
       <c r="F31" s="14"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
@@ -4483,8 +4495,8 @@
         <v>8</v>
       </c>
       <c r="C32" s="35"/>
-      <c r="D32" s="141"/>
-      <c r="E32" s="142"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="153"/>
       <c r="F32" s="36"/>
       <c r="G32" s="37"/>
       <c r="H32" s="37"/>
@@ -4497,46 +4509,46 @@
       <c r="O32" s="41"/>
       <c r="P32" s="37"/>
       <c r="Q32" s="37"/>
-      <c r="R32" s="106" t="s">
+      <c r="R32" s="130" t="s">
         <v>101</v>
       </c>
-      <c r="S32" s="107"/>
-      <c r="T32" s="107"/>
-      <c r="U32" s="107"/>
-      <c r="V32" s="107"/>
-      <c r="W32" s="108"/>
-      <c r="X32" s="106" t="s">
+      <c r="S32" s="131"/>
+      <c r="T32" s="131"/>
+      <c r="U32" s="131"/>
+      <c r="V32" s="131"/>
+      <c r="W32" s="132"/>
+      <c r="X32" s="130" t="s">
         <v>110</v>
       </c>
-      <c r="Y32" s="107"/>
-      <c r="Z32" s="107"/>
-      <c r="AA32" s="107"/>
-      <c r="AB32" s="107"/>
-      <c r="AC32" s="108"/>
-      <c r="AD32" s="133" t="s">
+      <c r="Y32" s="131"/>
+      <c r="Z32" s="131"/>
+      <c r="AA32" s="131"/>
+      <c r="AB32" s="131"/>
+      <c r="AC32" s="132"/>
+      <c r="AD32" s="127" t="s">
         <v>115</v>
       </c>
-      <c r="AE32" s="134"/>
-      <c r="AF32" s="134"/>
-      <c r="AG32" s="134"/>
-      <c r="AH32" s="134"/>
-      <c r="AI32" s="135"/>
-      <c r="AJ32" s="133" t="s">
+      <c r="AE32" s="128"/>
+      <c r="AF32" s="128"/>
+      <c r="AG32" s="128"/>
+      <c r="AH32" s="128"/>
+      <c r="AI32" s="129"/>
+      <c r="AJ32" s="127" t="s">
         <v>116</v>
       </c>
-      <c r="AK32" s="134"/>
-      <c r="AL32" s="134"/>
-      <c r="AM32" s="134"/>
-      <c r="AN32" s="134"/>
-      <c r="AO32" s="135"/>
-      <c r="AP32" s="106" t="s">
+      <c r="AK32" s="128"/>
+      <c r="AL32" s="128"/>
+      <c r="AM32" s="128"/>
+      <c r="AN32" s="128"/>
+      <c r="AO32" s="129"/>
+      <c r="AP32" s="130" t="s">
         <v>122</v>
       </c>
-      <c r="AQ32" s="107"/>
-      <c r="AR32" s="107"/>
-      <c r="AS32" s="107"/>
-      <c r="AT32" s="107"/>
-      <c r="AU32" s="108"/>
+      <c r="AQ32" s="131"/>
+      <c r="AR32" s="131"/>
+      <c r="AS32" s="131"/>
+      <c r="AT32" s="131"/>
+      <c r="AU32" s="132"/>
       <c r="AV32" s="91"/>
       <c r="AW32" s="92"/>
       <c r="AX32" s="92"/>
@@ -4608,116 +4620,116 @@
       <c r="C34" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="129" t="s">
+      <c r="D34" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="129"/>
-      <c r="F34" s="127" t="s">
+      <c r="E34" s="156"/>
+      <c r="F34" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="126"/>
-      <c r="H34" s="126"/>
-      <c r="I34" s="126"/>
-      <c r="J34" s="126"/>
-      <c r="K34" s="128"/>
-      <c r="L34" s="126" t="s">
+      <c r="G34" s="112"/>
+      <c r="H34" s="112"/>
+      <c r="I34" s="112"/>
+      <c r="J34" s="112"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="M34" s="126"/>
-      <c r="N34" s="126"/>
-      <c r="O34" s="126"/>
-      <c r="P34" s="126"/>
-      <c r="Q34" s="126"/>
-      <c r="R34" s="127" t="s">
+      <c r="M34" s="112"/>
+      <c r="N34" s="112"/>
+      <c r="O34" s="112"/>
+      <c r="P34" s="112"/>
+      <c r="Q34" s="112"/>
+      <c r="R34" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="S34" s="126"/>
-      <c r="T34" s="126"/>
-      <c r="U34" s="126"/>
-      <c r="V34" s="126"/>
-      <c r="W34" s="128"/>
-      <c r="X34" s="126" t="s">
+      <c r="S34" s="112"/>
+      <c r="T34" s="112"/>
+      <c r="U34" s="112"/>
+      <c r="V34" s="112"/>
+      <c r="W34" s="114"/>
+      <c r="X34" s="112" t="s">
         <v>89</v>
       </c>
-      <c r="Y34" s="126"/>
-      <c r="Z34" s="126"/>
-      <c r="AA34" s="126"/>
-      <c r="AB34" s="126"/>
-      <c r="AC34" s="126"/>
-      <c r="AD34" s="130" t="s">
+      <c r="Y34" s="112"/>
+      <c r="Z34" s="112"/>
+      <c r="AA34" s="112"/>
+      <c r="AB34" s="112"/>
+      <c r="AC34" s="112"/>
+      <c r="AD34" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="AE34" s="131"/>
-      <c r="AF34" s="131"/>
-      <c r="AG34" s="131"/>
-      <c r="AH34" s="131"/>
-      <c r="AI34" s="132"/>
-      <c r="AJ34" s="127" t="s">
+      <c r="AE34" s="116"/>
+      <c r="AF34" s="116"/>
+      <c r="AG34" s="116"/>
+      <c r="AH34" s="116"/>
+      <c r="AI34" s="117"/>
+      <c r="AJ34" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="AK34" s="126"/>
-      <c r="AL34" s="126"/>
-      <c r="AM34" s="126"/>
-      <c r="AN34" s="126"/>
-      <c r="AO34" s="128"/>
-      <c r="AP34" s="126" t="s">
+      <c r="AK34" s="112"/>
+      <c r="AL34" s="112"/>
+      <c r="AM34" s="112"/>
+      <c r="AN34" s="112"/>
+      <c r="AO34" s="114"/>
+      <c r="AP34" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="AQ34" s="126"/>
-      <c r="AR34" s="126"/>
-      <c r="AS34" s="126"/>
-      <c r="AT34" s="126"/>
-      <c r="AU34" s="126"/>
-      <c r="AV34" s="126" t="s">
+      <c r="AQ34" s="112"/>
+      <c r="AR34" s="112"/>
+      <c r="AS34" s="112"/>
+      <c r="AT34" s="112"/>
+      <c r="AU34" s="112"/>
+      <c r="AV34" s="112" t="s">
         <v>91</v>
       </c>
-      <c r="AW34" s="126"/>
-      <c r="AX34" s="126"/>
-      <c r="AY34" s="126"/>
-      <c r="AZ34" s="126"/>
-      <c r="BA34" s="126"/>
-      <c r="BB34" s="127" t="s">
+      <c r="AW34" s="112"/>
+      <c r="AX34" s="112"/>
+      <c r="AY34" s="112"/>
+      <c r="AZ34" s="112"/>
+      <c r="BA34" s="112"/>
+      <c r="BB34" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="BC34" s="126"/>
-      <c r="BD34" s="126"/>
-      <c r="BE34" s="126"/>
-      <c r="BF34" s="126"/>
-      <c r="BG34" s="128"/>
-      <c r="BH34" s="126" t="s">
+      <c r="BC34" s="112"/>
+      <c r="BD34" s="112"/>
+      <c r="BE34" s="112"/>
+      <c r="BF34" s="112"/>
+      <c r="BG34" s="114"/>
+      <c r="BH34" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="BI34" s="126"/>
-      <c r="BJ34" s="126"/>
-      <c r="BK34" s="126"/>
-      <c r="BL34" s="126"/>
-      <c r="BM34" s="126"/>
-      <c r="BN34" s="127" t="s">
+      <c r="BI34" s="112"/>
+      <c r="BJ34" s="112"/>
+      <c r="BK34" s="112"/>
+      <c r="BL34" s="112"/>
+      <c r="BM34" s="112"/>
+      <c r="BN34" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="BO34" s="126"/>
-      <c r="BP34" s="126"/>
-      <c r="BQ34" s="126"/>
-      <c r="BR34" s="126"/>
-      <c r="BS34" s="128"/>
-      <c r="BT34" s="127" t="s">
+      <c r="BO34" s="112"/>
+      <c r="BP34" s="112"/>
+      <c r="BQ34" s="112"/>
+      <c r="BR34" s="112"/>
+      <c r="BS34" s="114"/>
+      <c r="BT34" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="BU34" s="126"/>
-      <c r="BV34" s="126"/>
-      <c r="BW34" s="126"/>
-      <c r="BX34" s="126"/>
-      <c r="BY34" s="128"/>
+      <c r="BU34" s="112"/>
+      <c r="BV34" s="112"/>
+      <c r="BW34" s="112"/>
+      <c r="BX34" s="112"/>
+      <c r="BY34" s="114"/>
     </row>
     <row r="35" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="50" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="51"/>
-      <c r="D35" s="118">
+      <c r="D35" s="106">
         <v>1</v>
       </c>
-      <c r="E35" s="119"/>
+      <c r="E35" s="107"/>
       <c r="F35" s="51"/>
       <c r="G35" s="51"/>
       <c r="H35" s="51"/>
@@ -4796,10 +4808,10 @@
         <v>45</v>
       </c>
       <c r="C36" s="51"/>
-      <c r="D36" s="118">
+      <c r="D36" s="106">
         <v>1</v>
       </c>
-      <c r="E36" s="119"/>
+      <c r="E36" s="107"/>
       <c r="F36" s="51"/>
       <c r="G36" s="51"/>
       <c r="H36" s="51"/>
@@ -4878,10 +4890,10 @@
         <v>46</v>
       </c>
       <c r="C37" s="51"/>
-      <c r="D37" s="118">
+      <c r="D37" s="106">
         <v>1</v>
       </c>
-      <c r="E37" s="119"/>
+      <c r="E37" s="107"/>
       <c r="F37" s="51"/>
       <c r="G37" s="51"/>
       <c r="H37" s="51"/>
@@ -4960,10 +4972,10 @@
         <v>60</v>
       </c>
       <c r="C38" s="51"/>
-      <c r="D38" s="118">
+      <c r="D38" s="106">
         <v>1</v>
       </c>
-      <c r="E38" s="119"/>
+      <c r="E38" s="107"/>
       <c r="F38" s="51"/>
       <c r="G38" s="51"/>
       <c r="H38" s="51"/>
@@ -5042,10 +5054,10 @@
         <v>61</v>
       </c>
       <c r="C39" s="51"/>
-      <c r="D39" s="118">
+      <c r="D39" s="106">
         <v>1</v>
       </c>
-      <c r="E39" s="119"/>
+      <c r="E39" s="107"/>
       <c r="F39" s="51"/>
       <c r="G39" s="51"/>
       <c r="H39" s="51"/>
@@ -5124,10 +5136,10 @@
         <v>62</v>
       </c>
       <c r="C40" s="51"/>
-      <c r="D40" s="118">
+      <c r="D40" s="106">
         <v>1</v>
       </c>
-      <c r="E40" s="119"/>
+      <c r="E40" s="107"/>
       <c r="F40" s="51"/>
       <c r="G40" s="51"/>
       <c r="H40" s="51"/>
@@ -5206,10 +5218,10 @@
         <v>63</v>
       </c>
       <c r="C41" s="51"/>
-      <c r="D41" s="118">
+      <c r="D41" s="106">
         <v>1</v>
       </c>
-      <c r="E41" s="119"/>
+      <c r="E41" s="107"/>
       <c r="F41" s="51"/>
       <c r="G41" s="51"/>
       <c r="H41" s="51"/>
@@ -5288,10 +5300,10 @@
         <v>64</v>
       </c>
       <c r="C42" s="51"/>
-      <c r="D42" s="118">
+      <c r="D42" s="106">
         <v>1</v>
       </c>
-      <c r="E42" s="119"/>
+      <c r="E42" s="107"/>
       <c r="F42" s="51"/>
       <c r="G42" s="51"/>
       <c r="H42" s="51"/>
@@ -5370,10 +5382,10 @@
         <v>65</v>
       </c>
       <c r="C43" s="51"/>
-      <c r="D43" s="118">
+      <c r="D43" s="106">
         <v>1</v>
       </c>
-      <c r="E43" s="119"/>
+      <c r="E43" s="107"/>
       <c r="F43" s="51"/>
       <c r="G43" s="51"/>
       <c r="H43" s="51"/>
@@ -5452,10 +5464,10 @@
         <v>66</v>
       </c>
       <c r="C44" s="51"/>
-      <c r="D44" s="118">
+      <c r="D44" s="106">
         <v>1</v>
       </c>
-      <c r="E44" s="119"/>
+      <c r="E44" s="107"/>
       <c r="F44" s="51"/>
       <c r="G44" s="51"/>
       <c r="H44" s="51"/>
@@ -5534,10 +5546,10 @@
         <v>67</v>
       </c>
       <c r="C45" s="51"/>
-      <c r="D45" s="118">
+      <c r="D45" s="106">
         <v>1</v>
       </c>
-      <c r="E45" s="119"/>
+      <c r="E45" s="107"/>
       <c r="F45" s="51"/>
       <c r="G45" s="51"/>
       <c r="H45" s="51"/>
@@ -5616,10 +5628,10 @@
         <v>68</v>
       </c>
       <c r="C46" s="51"/>
-      <c r="D46" s="118">
+      <c r="D46" s="106">
         <v>1</v>
       </c>
-      <c r="E46" s="119"/>
+      <c r="E46" s="107"/>
       <c r="F46" s="51"/>
       <c r="G46" s="51"/>
       <c r="H46" s="51"/>
@@ -5698,10 +5710,10 @@
         <v>69</v>
       </c>
       <c r="C47" s="51"/>
-      <c r="D47" s="118">
+      <c r="D47" s="106">
         <v>1</v>
       </c>
-      <c r="E47" s="119"/>
+      <c r="E47" s="107"/>
       <c r="F47" s="51"/>
       <c r="G47" s="51"/>
       <c r="H47" s="51"/>
@@ -5780,10 +5792,10 @@
         <v>70</v>
       </c>
       <c r="C48" s="51"/>
-      <c r="D48" s="118">
+      <c r="D48" s="106">
         <v>1</v>
       </c>
-      <c r="E48" s="119"/>
+      <c r="E48" s="107"/>
       <c r="F48" s="51"/>
       <c r="G48" s="51"/>
       <c r="H48" s="51"/>
@@ -5862,10 +5874,10 @@
         <v>71</v>
       </c>
       <c r="C49" s="51"/>
-      <c r="D49" s="118">
+      <c r="D49" s="106">
         <v>1</v>
       </c>
-      <c r="E49" s="119"/>
+      <c r="E49" s="107"/>
       <c r="F49" s="51"/>
       <c r="G49" s="51"/>
       <c r="H49" s="51"/>
@@ -5944,10 +5956,10 @@
         <v>72</v>
       </c>
       <c r="C50" s="51"/>
-      <c r="D50" s="118">
+      <c r="D50" s="106">
         <v>1</v>
       </c>
-      <c r="E50" s="119"/>
+      <c r="E50" s="107"/>
       <c r="F50" s="51"/>
       <c r="G50" s="51"/>
       <c r="H50" s="51"/>
@@ -6026,10 +6038,10 @@
         <v>73</v>
       </c>
       <c r="C51" s="51"/>
-      <c r="D51" s="118">
+      <c r="D51" s="106">
         <v>1</v>
       </c>
-      <c r="E51" s="119"/>
+      <c r="E51" s="107"/>
       <c r="F51" s="51"/>
       <c r="G51" s="51"/>
       <c r="H51" s="51"/>
@@ -6108,10 +6120,10 @@
         <v>74</v>
       </c>
       <c r="C52" s="51"/>
-      <c r="D52" s="118">
+      <c r="D52" s="106">
         <v>1</v>
       </c>
-      <c r="E52" s="119"/>
+      <c r="E52" s="107"/>
       <c r="F52" s="51"/>
       <c r="G52" s="51"/>
       <c r="H52" s="51"/>
@@ -6190,10 +6202,10 @@
         <v>75</v>
       </c>
       <c r="C53" s="51"/>
-      <c r="D53" s="118">
+      <c r="D53" s="106">
         <v>1</v>
       </c>
-      <c r="E53" s="119"/>
+      <c r="E53" s="107"/>
       <c r="F53" s="51"/>
       <c r="G53" s="51"/>
       <c r="H53" s="51"/>
@@ -6272,10 +6284,10 @@
         <v>76</v>
       </c>
       <c r="C54" s="51"/>
-      <c r="D54" s="118">
+      <c r="D54" s="106">
         <v>1</v>
       </c>
-      <c r="E54" s="119"/>
+      <c r="E54" s="107"/>
       <c r="F54" s="51"/>
       <c r="G54" s="51"/>
       <c r="H54" s="51"/>
@@ -6354,10 +6366,10 @@
         <v>77</v>
       </c>
       <c r="C55" s="56"/>
-      <c r="D55" s="118">
+      <c r="D55" s="106">
         <v>1</v>
       </c>
-      <c r="E55" s="119"/>
+      <c r="E55" s="107"/>
       <c r="F55" s="51"/>
       <c r="G55" s="51"/>
       <c r="H55" s="51"/>
@@ -6436,10 +6448,10 @@
         <v>78</v>
       </c>
       <c r="C56" s="51"/>
-      <c r="D56" s="118">
+      <c r="D56" s="106">
         <v>1</v>
       </c>
-      <c r="E56" s="119"/>
+      <c r="E56" s="107"/>
       <c r="F56" s="51"/>
       <c r="G56" s="51"/>
       <c r="H56" s="51"/>
@@ -6518,10 +6530,10 @@
         <v>79</v>
       </c>
       <c r="C57" s="51"/>
-      <c r="D57" s="118">
+      <c r="D57" s="106">
         <v>1</v>
       </c>
-      <c r="E57" s="119"/>
+      <c r="E57" s="107"/>
       <c r="F57" s="51"/>
       <c r="G57" s="51"/>
       <c r="H57" s="51"/>
@@ -6600,10 +6612,10 @@
         <v>80</v>
       </c>
       <c r="C58" s="51"/>
-      <c r="D58" s="118">
+      <c r="D58" s="106">
         <v>1</v>
       </c>
-      <c r="E58" s="119"/>
+      <c r="E58" s="107"/>
       <c r="F58" s="51"/>
       <c r="G58" s="51"/>
       <c r="H58" s="51"/>
@@ -6682,10 +6694,10 @@
         <v>81</v>
       </c>
       <c r="C59" s="51"/>
-      <c r="D59" s="118">
+      <c r="D59" s="106">
         <v>1</v>
       </c>
-      <c r="E59" s="119"/>
+      <c r="E59" s="107"/>
       <c r="F59" s="51"/>
       <c r="G59" s="51"/>
       <c r="H59" s="51"/>
@@ -6764,10 +6776,10 @@
         <v>82</v>
       </c>
       <c r="C60" s="51"/>
-      <c r="D60" s="118">
+      <c r="D60" s="106">
         <v>1</v>
       </c>
-      <c r="E60" s="119"/>
+      <c r="E60" s="107"/>
       <c r="F60" s="51"/>
       <c r="G60" s="51"/>
       <c r="H60" s="51"/>
@@ -6846,10 +6858,10 @@
         <v>83</v>
       </c>
       <c r="C61" s="51"/>
-      <c r="D61" s="118">
+      <c r="D61" s="106">
         <v>1</v>
       </c>
-      <c r="E61" s="119"/>
+      <c r="E61" s="107"/>
       <c r="F61" s="51"/>
       <c r="G61" s="51"/>
       <c r="H61" s="51"/>
@@ -6928,10 +6940,10 @@
         <v>84</v>
       </c>
       <c r="C62" s="51"/>
-      <c r="D62" s="118">
+      <c r="D62" s="106">
         <v>1</v>
       </c>
-      <c r="E62" s="119"/>
+      <c r="E62" s="107"/>
       <c r="F62" s="51"/>
       <c r="G62" s="51"/>
       <c r="H62" s="51"/>
@@ -7008,8 +7020,8 @@
     <row r="63" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="55"/>
       <c r="C63" s="57"/>
-      <c r="D63" s="118"/>
-      <c r="E63" s="119"/>
+      <c r="D63" s="106"/>
+      <c r="E63" s="107"/>
       <c r="F63" s="57"/>
       <c r="G63" s="57"/>
       <c r="H63" s="57"/>
@@ -7088,10 +7100,10 @@
         <v>47</v>
       </c>
       <c r="C64" s="57"/>
-      <c r="D64" s="118">
+      <c r="D64" s="106">
         <v>1</v>
       </c>
-      <c r="E64" s="119"/>
+      <c r="E64" s="107"/>
       <c r="F64" s="57"/>
       <c r="G64" s="57"/>
       <c r="H64" s="57"/>
@@ -7170,10 +7182,10 @@
         <v>48</v>
       </c>
       <c r="C65" s="57"/>
-      <c r="D65" s="118">
+      <c r="D65" s="106">
         <v>1</v>
       </c>
-      <c r="E65" s="119"/>
+      <c r="E65" s="107"/>
       <c r="F65" s="57"/>
       <c r="G65" s="57"/>
       <c r="H65" s="57"/>
@@ -7250,8 +7262,8 @@
     <row r="66" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="55"/>
       <c r="C66" s="57"/>
-      <c r="D66" s="118"/>
-      <c r="E66" s="119"/>
+      <c r="D66" s="106"/>
+      <c r="E66" s="107"/>
       <c r="F66" s="57"/>
       <c r="G66" s="57"/>
       <c r="H66" s="57"/>
@@ -7330,10 +7342,10 @@
         <v>49</v>
       </c>
       <c r="C67" s="57"/>
-      <c r="D67" s="118">
+      <c r="D67" s="106">
         <v>1</v>
       </c>
-      <c r="E67" s="119"/>
+      <c r="E67" s="107"/>
       <c r="F67" s="57"/>
       <c r="G67" s="57"/>
       <c r="H67" s="57"/>
@@ -7412,10 +7424,10 @@
         <v>50</v>
       </c>
       <c r="C68" s="57"/>
-      <c r="D68" s="118">
+      <c r="D68" s="106">
         <v>1</v>
       </c>
-      <c r="E68" s="119"/>
+      <c r="E68" s="107"/>
       <c r="F68" s="57"/>
       <c r="G68" s="57"/>
       <c r="H68" s="57"/>
@@ -7494,10 +7506,10 @@
         <v>51</v>
       </c>
       <c r="C69" s="57"/>
-      <c r="D69" s="118">
+      <c r="D69" s="106">
         <v>1</v>
       </c>
-      <c r="E69" s="119"/>
+      <c r="E69" s="107"/>
       <c r="F69" s="57"/>
       <c r="G69" s="57"/>
       <c r="H69" s="57"/>
@@ -7576,10 +7588,10 @@
         <v>52</v>
       </c>
       <c r="C70" s="57"/>
-      <c r="D70" s="118">
+      <c r="D70" s="106">
         <v>1</v>
       </c>
-      <c r="E70" s="119"/>
+      <c r="E70" s="107"/>
       <c r="F70" s="57"/>
       <c r="G70" s="57"/>
       <c r="H70" s="57"/>
@@ -7658,10 +7670,10 @@
         <v>53</v>
       </c>
       <c r="C71" s="57"/>
-      <c r="D71" s="118">
+      <c r="D71" s="106">
         <v>1</v>
       </c>
-      <c r="E71" s="119"/>
+      <c r="E71" s="107"/>
       <c r="F71" s="57"/>
       <c r="G71" s="57"/>
       <c r="H71" s="57"/>
@@ -7740,10 +7752,10 @@
         <v>54</v>
       </c>
       <c r="C72" s="57"/>
-      <c r="D72" s="118">
+      <c r="D72" s="106">
         <v>1</v>
       </c>
-      <c r="E72" s="119"/>
+      <c r="E72" s="107"/>
       <c r="F72" s="57"/>
       <c r="G72" s="57"/>
       <c r="H72" s="57"/>
@@ -7822,10 +7834,10 @@
         <v>55</v>
       </c>
       <c r="C73" s="57"/>
-      <c r="D73" s="118">
+      <c r="D73" s="106">
         <v>1</v>
       </c>
-      <c r="E73" s="119"/>
+      <c r="E73" s="107"/>
       <c r="F73" s="57"/>
       <c r="G73" s="57"/>
       <c r="H73" s="57"/>
@@ -7904,10 +7916,10 @@
         <v>56</v>
       </c>
       <c r="C74" s="57"/>
-      <c r="D74" s="118">
+      <c r="D74" s="106">
         <v>1</v>
       </c>
-      <c r="E74" s="119"/>
+      <c r="E74" s="107"/>
       <c r="F74" s="57"/>
       <c r="G74" s="57"/>
       <c r="H74" s="57"/>
@@ -7986,10 +7998,10 @@
         <v>57</v>
       </c>
       <c r="C75" s="57"/>
-      <c r="D75" s="118">
+      <c r="D75" s="106">
         <v>1</v>
       </c>
-      <c r="E75" s="119"/>
+      <c r="E75" s="107"/>
       <c r="F75" s="57"/>
       <c r="G75" s="57"/>
       <c r="H75" s="57"/>
@@ -8068,10 +8080,10 @@
         <v>58</v>
       </c>
       <c r="C76" s="57"/>
-      <c r="D76" s="118">
+      <c r="D76" s="106">
         <v>1</v>
       </c>
-      <c r="E76" s="119"/>
+      <c r="E76" s="107"/>
       <c r="F76" s="57"/>
       <c r="G76" s="57"/>
       <c r="H76" s="57"/>
@@ -8150,10 +8162,10 @@
         <v>59</v>
       </c>
       <c r="C77" s="60"/>
-      <c r="D77" s="118">
+      <c r="D77" s="106">
         <v>1</v>
       </c>
-      <c r="E77" s="119"/>
+      <c r="E77" s="107"/>
       <c r="F77" s="60"/>
       <c r="G77" s="60"/>
       <c r="H77" s="60"/>
@@ -8234,10 +8246,10 @@
       <c r="C78" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D78" s="118">
+      <c r="D78" s="106">
         <v>1</v>
       </c>
-      <c r="E78" s="119"/>
+      <c r="E78" s="107"/>
       <c r="F78" s="57"/>
       <c r="G78" s="57"/>
       <c r="H78" s="57"/>
@@ -8322,10 +8334,10 @@
       <c r="C79" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D79" s="118">
+      <c r="D79" s="106">
         <v>1</v>
       </c>
-      <c r="E79" s="119"/>
+      <c r="E79" s="107"/>
       <c r="F79" s="57"/>
       <c r="G79" s="57"/>
       <c r="H79" s="57"/>
@@ -8406,10 +8418,10 @@
       <c r="C80" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D80" s="118">
+      <c r="D80" s="106">
         <v>1</v>
       </c>
-      <c r="E80" s="119"/>
+      <c r="E80" s="107"/>
       <c r="F80" s="57"/>
       <c r="G80" s="57"/>
       <c r="H80" s="57"/>
@@ -8490,10 +8502,10 @@
       <c r="C81" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D81" s="118">
+      <c r="D81" s="106">
         <v>1</v>
       </c>
-      <c r="E81" s="119"/>
+      <c r="E81" s="107"/>
       <c r="F81" s="57"/>
       <c r="G81" s="57"/>
       <c r="H81" s="57"/>
@@ -8574,10 +8586,10 @@
       <c r="C82" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D82" s="118">
+      <c r="D82" s="106">
         <v>1</v>
       </c>
-      <c r="E82" s="119"/>
+      <c r="E82" s="107"/>
       <c r="F82" s="57"/>
       <c r="G82" s="57"/>
       <c r="H82" s="57"/>
@@ -8658,10 +8670,10 @@
       <c r="C83" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D83" s="118">
+      <c r="D83" s="106">
         <v>1</v>
       </c>
-      <c r="E83" s="119"/>
+      <c r="E83" s="107"/>
       <c r="F83" s="57"/>
       <c r="G83" s="57"/>
       <c r="H83" s="57"/>
@@ -8738,8 +8750,8 @@
     <row r="84" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="59"/>
       <c r="C84" s="60"/>
-      <c r="D84" s="118"/>
-      <c r="E84" s="119"/>
+      <c r="D84" s="106"/>
+      <c r="E84" s="107"/>
       <c r="F84" s="60"/>
       <c r="G84" s="60"/>
       <c r="H84" s="60"/>
@@ -8821,7 +8833,153 @@
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="169">
+  <mergeCells count="170">
+    <mergeCell ref="X78:AC83"/>
+    <mergeCell ref="X32:AC32"/>
+    <mergeCell ref="X19:AC20"/>
+    <mergeCell ref="X13:AC14"/>
+    <mergeCell ref="X9:AC10"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F9:K10"/>
+    <mergeCell ref="R9:W10"/>
+    <mergeCell ref="L9:Q10"/>
+    <mergeCell ref="L19:Q20"/>
+    <mergeCell ref="F15:K16"/>
+    <mergeCell ref="F13:K14"/>
+    <mergeCell ref="L21:Q22"/>
+    <mergeCell ref="R32:W32"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="BH8:BM8"/>
+    <mergeCell ref="BN8:BS8"/>
+    <mergeCell ref="BT8:BY8"/>
+    <mergeCell ref="BH34:BM34"/>
+    <mergeCell ref="BN34:BS34"/>
+    <mergeCell ref="BT34:BY34"/>
+    <mergeCell ref="R34:W34"/>
+    <mergeCell ref="X34:AC34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="AD8:AI8"/>
+    <mergeCell ref="AJ8:AO8"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="L34:Q34"/>
+    <mergeCell ref="F8:K8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="AJ32:AO32"/>
+    <mergeCell ref="AJ23:AO24"/>
+    <mergeCell ref="AJ25:AO26"/>
+    <mergeCell ref="AJ27:AO28"/>
+    <mergeCell ref="AV17:AZ18"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="D27:E28"/>
+    <mergeCell ref="D23:E24"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="AL5:AM5"/>
+    <mergeCell ref="AV8:BA8"/>
+    <mergeCell ref="BB8:BG8"/>
+    <mergeCell ref="AD34:AI34"/>
+    <mergeCell ref="AJ34:AO34"/>
+    <mergeCell ref="AP34:AU34"/>
+    <mergeCell ref="AV34:BA34"/>
+    <mergeCell ref="BB34:BG34"/>
+    <mergeCell ref="AP8:AU8"/>
+    <mergeCell ref="AD19:AI20"/>
+    <mergeCell ref="AD9:AI10"/>
+    <mergeCell ref="AD32:AI32"/>
+    <mergeCell ref="AP32:AU32"/>
+    <mergeCell ref="AP27:AU28"/>
+    <mergeCell ref="AP19:AU20"/>
     <mergeCell ref="R78:W83"/>
     <mergeCell ref="D78:E78"/>
     <mergeCell ref="D79:E79"/>
@@ -8846,151 +9004,6 @@
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D43:E43"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="AV8:BA8"/>
-    <mergeCell ref="BB8:BG8"/>
-    <mergeCell ref="AD34:AI34"/>
-    <mergeCell ref="AJ34:AO34"/>
-    <mergeCell ref="AP34:AU34"/>
-    <mergeCell ref="AV34:BA34"/>
-    <mergeCell ref="BB34:BG34"/>
-    <mergeCell ref="AP8:AU8"/>
-    <mergeCell ref="AD19:AI20"/>
-    <mergeCell ref="AD9:AI10"/>
-    <mergeCell ref="AD32:AI32"/>
-    <mergeCell ref="AP32:AU32"/>
-    <mergeCell ref="AP27:AU28"/>
-    <mergeCell ref="AP19:AU20"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D25:E26"/>
-    <mergeCell ref="D19:E20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="D27:E28"/>
-    <mergeCell ref="D23:E24"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="BH8:BM8"/>
-    <mergeCell ref="BN8:BS8"/>
-    <mergeCell ref="BT8:BY8"/>
-    <mergeCell ref="BH34:BM34"/>
-    <mergeCell ref="BN34:BS34"/>
-    <mergeCell ref="BT34:BY34"/>
-    <mergeCell ref="R34:W34"/>
-    <mergeCell ref="X34:AC34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="AD8:AI8"/>
-    <mergeCell ref="AJ8:AO8"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="L34:Q34"/>
-    <mergeCell ref="F8:K8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="AJ32:AO32"/>
-    <mergeCell ref="AJ23:AO24"/>
-    <mergeCell ref="AJ25:AO26"/>
-    <mergeCell ref="AJ27:AO28"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="X78:AC83"/>
-    <mergeCell ref="X32:AC32"/>
-    <mergeCell ref="X19:AC20"/>
-    <mergeCell ref="X13:AC14"/>
-    <mergeCell ref="X9:AC10"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F9:K10"/>
-    <mergeCell ref="R9:W10"/>
-    <mergeCell ref="L9:Q10"/>
-    <mergeCell ref="L19:Q20"/>
-    <mergeCell ref="F15:K16"/>
-    <mergeCell ref="F13:K14"/>
-    <mergeCell ref="L21:Q22"/>
-    <mergeCell ref="R32:W32"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/工程表/工程管理(Forest).xlsx
+++ b/document/工程表/工程管理(Forest).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54fd41506f0d43af/デスクトップ/team_forest/document/工程表/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{DD294E77-84DB-4E19-AE4E-5040BAF5CCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B06F4620-9F44-4BFD-8589-7A985CD7DD28}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{DD294E77-84DB-4E19-AE4E-5040BAF5CCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5A2CE72-6FE0-4517-9177-0740D3082E76}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="124">
   <si>
     <t>担当</t>
     <rPh sb="0" eb="2">
@@ -1792,6 +1792,12 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1819,86 +1825,170 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1906,48 +1996,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1956,54 +2004,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2032,6 +2032,10 @@
 </file>
 
 <file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -2303,8 +2307,8 @@
   </sheetPr>
   <dimension ref="B2:BY84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL15" sqref="AL15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ32" sqref="AJ32:AO32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2327,155 +2331,155 @@
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="139" t="s">
+      <c r="D4" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="140"/>
-      <c r="F4" s="139" t="s">
+      <c r="E4" s="142"/>
+      <c r="F4" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="140"/>
-      <c r="H4" s="139" t="s">
+      <c r="G4" s="142"/>
+      <c r="H4" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="140"/>
-      <c r="J4" s="139" t="s">
+      <c r="I4" s="142"/>
+      <c r="J4" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="140"/>
-      <c r="L4" s="139" t="s">
+      <c r="K4" s="142"/>
+      <c r="L4" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="140"/>
-      <c r="N4" s="139" t="s">
+      <c r="M4" s="142"/>
+      <c r="N4" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="140"/>
-      <c r="P4" s="139" t="s">
+      <c r="O4" s="142"/>
+      <c r="P4" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="140"/>
-      <c r="R4" s="139" t="s">
+      <c r="Q4" s="142"/>
+      <c r="R4" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="S4" s="140"/>
-      <c r="T4" s="139" t="s">
+      <c r="S4" s="142"/>
+      <c r="T4" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="U4" s="140"/>
-      <c r="V4" s="139" t="s">
+      <c r="U4" s="142"/>
+      <c r="V4" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="140"/>
-      <c r="X4" s="139" t="s">
+      <c r="W4" s="142"/>
+      <c r="X4" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="Y4" s="140"/>
-      <c r="Z4" s="139" t="s">
+      <c r="Y4" s="142"/>
+      <c r="Z4" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="AA4" s="140"/>
-      <c r="AB4" s="139" t="s">
+      <c r="AA4" s="142"/>
+      <c r="AB4" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="AC4" s="140"/>
-      <c r="AD4" s="139" t="s">
+      <c r="AC4" s="142"/>
+      <c r="AD4" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="AE4" s="140"/>
-      <c r="AF4" s="139" t="s">
+      <c r="AE4" s="142"/>
+      <c r="AF4" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="AG4" s="140"/>
-      <c r="AH4" s="139" t="s">
+      <c r="AG4" s="142"/>
+      <c r="AH4" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="AI4" s="140"/>
-      <c r="AJ4" s="139" t="s">
+      <c r="AI4" s="142"/>
+      <c r="AJ4" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="AK4" s="140"/>
-      <c r="AL4" s="139" t="s">
+      <c r="AK4" s="142"/>
+      <c r="AL4" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="AM4" s="140"/>
+      <c r="AM4" s="142"/>
     </row>
     <row r="5" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="108" t="s">
+      <c r="D5" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="109"/>
-      <c r="F5" s="108" t="s">
+      <c r="E5" s="158"/>
+      <c r="F5" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="109"/>
-      <c r="H5" s="110" t="s">
+      <c r="G5" s="158"/>
+      <c r="H5" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="111"/>
-      <c r="J5" s="110" t="s">
+      <c r="I5" s="156"/>
+      <c r="J5" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="111"/>
-      <c r="L5" s="110" t="s">
+      <c r="K5" s="156"/>
+      <c r="L5" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="111"/>
-      <c r="N5" s="110" t="s">
+      <c r="M5" s="156"/>
+      <c r="N5" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="111"/>
-      <c r="P5" s="108" t="s">
+      <c r="O5" s="156"/>
+      <c r="P5" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="109"/>
-      <c r="R5" s="108" t="s">
+      <c r="Q5" s="158"/>
+      <c r="R5" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="109"/>
-      <c r="T5" s="108" t="s">
+      <c r="S5" s="158"/>
+      <c r="T5" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="U5" s="109"/>
-      <c r="V5" s="108" t="s">
+      <c r="U5" s="158"/>
+      <c r="V5" s="157" t="s">
         <v>4</v>
       </c>
-      <c r="W5" s="109"/>
-      <c r="X5" s="108" t="s">
+      <c r="W5" s="158"/>
+      <c r="X5" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="Y5" s="109"/>
-      <c r="Z5" s="110" t="s">
+      <c r="Y5" s="158"/>
+      <c r="Z5" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="AA5" s="111"/>
-      <c r="AB5" s="110" t="s">
+      <c r="AA5" s="156"/>
+      <c r="AB5" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="AC5" s="111"/>
-      <c r="AD5" s="108" t="s">
+      <c r="AC5" s="156"/>
+      <c r="AD5" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="AE5" s="109"/>
-      <c r="AF5" s="108" t="s">
+      <c r="AE5" s="158"/>
+      <c r="AF5" s="157" t="s">
         <v>4</v>
       </c>
-      <c r="AG5" s="109"/>
-      <c r="AH5" s="108" t="s">
+      <c r="AG5" s="158"/>
+      <c r="AH5" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="AI5" s="109"/>
-      <c r="AJ5" s="108" t="s">
+      <c r="AI5" s="158"/>
+      <c r="AJ5" s="157" t="s">
         <v>4</v>
       </c>
-      <c r="AK5" s="109"/>
-      <c r="AL5" s="108" t="s">
+      <c r="AK5" s="158"/>
+      <c r="AL5" s="157" t="s">
         <v>4</v>
       </c>
-      <c r="AM5" s="109"/>
+      <c r="AM5" s="158"/>
       <c r="AP5" s="62"/>
       <c r="AQ5" s="62"/>
       <c r="AR5" s="1" t="s">
@@ -2505,158 +2509,158 @@
       <c r="C8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="115" t="s">
+      <c r="D8" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="117"/>
-      <c r="F8" s="113" t="s">
+      <c r="E8" s="134"/>
+      <c r="F8" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="112" t="s">
+      <c r="G8" s="128"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="128"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="M8" s="112"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="112"/>
-      <c r="R8" s="113" t="s">
+      <c r="M8" s="128"/>
+      <c r="N8" s="128"/>
+      <c r="O8" s="128"/>
+      <c r="P8" s="128"/>
+      <c r="Q8" s="128"/>
+      <c r="R8" s="129" t="s">
         <v>88</v>
       </c>
-      <c r="S8" s="112"/>
-      <c r="T8" s="112"/>
-      <c r="U8" s="112"/>
-      <c r="V8" s="112"/>
-      <c r="W8" s="114"/>
-      <c r="X8" s="112" t="s">
+      <c r="S8" s="128"/>
+      <c r="T8" s="128"/>
+      <c r="U8" s="128"/>
+      <c r="V8" s="128"/>
+      <c r="W8" s="130"/>
+      <c r="X8" s="128" t="s">
         <v>89</v>
       </c>
-      <c r="Y8" s="112"/>
-      <c r="Z8" s="112"/>
-      <c r="AA8" s="112"/>
-      <c r="AB8" s="112"/>
-      <c r="AC8" s="112"/>
-      <c r="AD8" s="115" t="s">
+      <c r="Y8" s="128"/>
+      <c r="Z8" s="128"/>
+      <c r="AA8" s="128"/>
+      <c r="AB8" s="128"/>
+      <c r="AC8" s="128"/>
+      <c r="AD8" s="132" t="s">
         <v>90</v>
       </c>
-      <c r="AE8" s="116"/>
-      <c r="AF8" s="116"/>
-      <c r="AG8" s="116"/>
-      <c r="AH8" s="116"/>
-      <c r="AI8" s="117"/>
-      <c r="AJ8" s="113" t="s">
+      <c r="AE8" s="133"/>
+      <c r="AF8" s="133"/>
+      <c r="AG8" s="133"/>
+      <c r="AH8" s="133"/>
+      <c r="AI8" s="134"/>
+      <c r="AJ8" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="AK8" s="112"/>
-      <c r="AL8" s="112"/>
-      <c r="AM8" s="112"/>
-      <c r="AN8" s="112"/>
-      <c r="AO8" s="114"/>
-      <c r="AP8" s="112" t="s">
+      <c r="AK8" s="128"/>
+      <c r="AL8" s="128"/>
+      <c r="AM8" s="128"/>
+      <c r="AN8" s="128"/>
+      <c r="AO8" s="130"/>
+      <c r="AP8" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="AQ8" s="112"/>
-      <c r="AR8" s="112"/>
-      <c r="AS8" s="112"/>
-      <c r="AT8" s="112"/>
-      <c r="AU8" s="112"/>
-      <c r="AV8" s="112" t="s">
+      <c r="AQ8" s="128"/>
+      <c r="AR8" s="128"/>
+      <c r="AS8" s="128"/>
+      <c r="AT8" s="128"/>
+      <c r="AU8" s="128"/>
+      <c r="AV8" s="128" t="s">
         <v>91</v>
       </c>
-      <c r="AW8" s="112"/>
-      <c r="AX8" s="112"/>
-      <c r="AY8" s="112"/>
-      <c r="AZ8" s="112"/>
-      <c r="BA8" s="112"/>
-      <c r="BB8" s="113" t="s">
+      <c r="AW8" s="128"/>
+      <c r="AX8" s="128"/>
+      <c r="AY8" s="128"/>
+      <c r="AZ8" s="128"/>
+      <c r="BA8" s="128"/>
+      <c r="BB8" s="129" t="s">
         <v>92</v>
       </c>
-      <c r="BC8" s="112"/>
-      <c r="BD8" s="112"/>
-      <c r="BE8" s="112"/>
-      <c r="BF8" s="112"/>
-      <c r="BG8" s="114"/>
-      <c r="BH8" s="112" t="s">
+      <c r="BC8" s="128"/>
+      <c r="BD8" s="128"/>
+      <c r="BE8" s="128"/>
+      <c r="BF8" s="128"/>
+      <c r="BG8" s="130"/>
+      <c r="BH8" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="BI8" s="112"/>
-      <c r="BJ8" s="112"/>
-      <c r="BK8" s="112"/>
-      <c r="BL8" s="112"/>
-      <c r="BM8" s="112"/>
-      <c r="BN8" s="113" t="s">
+      <c r="BI8" s="128"/>
+      <c r="BJ8" s="128"/>
+      <c r="BK8" s="128"/>
+      <c r="BL8" s="128"/>
+      <c r="BM8" s="128"/>
+      <c r="BN8" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="BO8" s="112"/>
-      <c r="BP8" s="112"/>
-      <c r="BQ8" s="112"/>
-      <c r="BR8" s="112"/>
-      <c r="BS8" s="114"/>
-      <c r="BT8" s="113" t="s">
+      <c r="BO8" s="128"/>
+      <c r="BP8" s="128"/>
+      <c r="BQ8" s="128"/>
+      <c r="BR8" s="128"/>
+      <c r="BS8" s="130"/>
+      <c r="BT8" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="BU8" s="112"/>
-      <c r="BV8" s="112"/>
-      <c r="BW8" s="112"/>
-      <c r="BX8" s="112"/>
-      <c r="BY8" s="114"/>
+      <c r="BU8" s="128"/>
+      <c r="BV8" s="128"/>
+      <c r="BW8" s="128"/>
+      <c r="BX8" s="128"/>
+      <c r="BY8" s="130"/>
     </row>
     <row r="9" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="150" t="s">
+      <c r="B9" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="167" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="135">
+      <c r="D9" s="149">
         <v>0.5</v>
       </c>
-      <c r="E9" s="136"/>
-      <c r="F9" s="163" t="s">
+      <c r="E9" s="150"/>
+      <c r="F9" s="122" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="164"/>
-      <c r="H9" s="164"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="164"/>
-      <c r="K9" s="165"/>
-      <c r="L9" s="124" t="s">
+      <c r="G9" s="123"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="117" t="s">
         <v>95</v>
       </c>
-      <c r="M9" s="125"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="126"/>
-      <c r="R9" s="124" t="s">
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="119"/>
+      <c r="R9" s="117" t="s">
         <v>94</v>
       </c>
-      <c r="S9" s="125"/>
-      <c r="T9" s="125"/>
-      <c r="U9" s="125"/>
-      <c r="V9" s="125"/>
-      <c r="W9" s="126"/>
-      <c r="X9" s="124" t="s">
+      <c r="S9" s="118"/>
+      <c r="T9" s="118"/>
+      <c r="U9" s="118"/>
+      <c r="V9" s="118"/>
+      <c r="W9" s="119"/>
+      <c r="X9" s="117" t="s">
         <v>112</v>
       </c>
-      <c r="Y9" s="125"/>
-      <c r="Z9" s="125"/>
-      <c r="AA9" s="125"/>
-      <c r="AB9" s="125"/>
-      <c r="AC9" s="126"/>
-      <c r="AD9" s="124" t="s">
+      <c r="Y9" s="118"/>
+      <c r="Z9" s="118"/>
+      <c r="AA9" s="118"/>
+      <c r="AB9" s="118"/>
+      <c r="AC9" s="119"/>
+      <c r="AD9" s="117" t="s">
         <v>114</v>
       </c>
-      <c r="AE9" s="125"/>
-      <c r="AF9" s="125"/>
-      <c r="AG9" s="125"/>
-      <c r="AH9" s="125"/>
-      <c r="AI9" s="126"/>
+      <c r="AE9" s="118"/>
+      <c r="AF9" s="118"/>
+      <c r="AG9" s="118"/>
+      <c r="AH9" s="118"/>
+      <c r="AI9" s="119"/>
       <c r="AJ9" s="65"/>
       <c r="AK9" s="66"/>
       <c r="AL9" s="66"/>
@@ -2701,40 +2705,40 @@
       <c r="BY9" s="9"/>
     </row>
     <row r="10" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="142"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="161"/>
-      <c r="K10" s="162"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="122"/>
-      <c r="N10" s="122"/>
-      <c r="O10" s="122"/>
-      <c r="P10" s="122"/>
-      <c r="Q10" s="123"/>
-      <c r="R10" s="121"/>
-      <c r="S10" s="122"/>
-      <c r="T10" s="122"/>
-      <c r="U10" s="122"/>
-      <c r="V10" s="122"/>
-      <c r="W10" s="123"/>
-      <c r="X10" s="121"/>
-      <c r="Y10" s="122"/>
-      <c r="Z10" s="122"/>
-      <c r="AA10" s="122"/>
-      <c r="AB10" s="122"/>
-      <c r="AC10" s="123"/>
-      <c r="AD10" s="121"/>
-      <c r="AE10" s="122"/>
-      <c r="AF10" s="122"/>
-      <c r="AG10" s="122"/>
-      <c r="AH10" s="122"/>
-      <c r="AI10" s="123"/>
+      <c r="B10" s="160"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="126"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="115"/>
+      <c r="N10" s="115"/>
+      <c r="O10" s="115"/>
+      <c r="P10" s="115"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="114"/>
+      <c r="S10" s="115"/>
+      <c r="T10" s="115"/>
+      <c r="U10" s="115"/>
+      <c r="V10" s="115"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="114"/>
+      <c r="Y10" s="115"/>
+      <c r="Z10" s="115"/>
+      <c r="AA10" s="115"/>
+      <c r="AB10" s="115"/>
+      <c r="AC10" s="116"/>
+      <c r="AD10" s="114"/>
+      <c r="AE10" s="115"/>
+      <c r="AF10" s="115"/>
+      <c r="AG10" s="115"/>
+      <c r="AH10" s="115"/>
+      <c r="AI10" s="116"/>
       <c r="AJ10" s="70"/>
       <c r="AK10" s="62"/>
       <c r="AL10" s="62"/>
@@ -2779,16 +2783,16 @@
       <c r="BY10" s="15"/>
     </row>
     <row r="11" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="141" t="s">
+      <c r="B11" s="159" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="133" t="s">
+      <c r="C11" s="163" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="135">
+      <c r="D11" s="149">
         <v>0.7</v>
       </c>
-      <c r="E11" s="136"/>
+      <c r="E11" s="150"/>
       <c r="F11" s="96"/>
       <c r="G11" s="82"/>
       <c r="H11" s="82"/>
@@ -2863,10 +2867,10 @@
       <c r="BY11" s="20"/>
     </row>
     <row r="12" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="142"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="138"/>
+      <c r="B12" s="160"/>
+      <c r="C12" s="164"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="148"/>
       <c r="F12" s="86"/>
       <c r="G12" s="84"/>
       <c r="H12" s="84"/>
@@ -2941,24 +2945,24 @@
       <c r="BY12" s="25"/>
     </row>
     <row r="13" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="141" t="s">
+      <c r="B13" s="159" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="151" t="s">
+      <c r="C13" s="167" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="135">
+      <c r="D13" s="149">
         <v>0.8</v>
       </c>
-      <c r="E13" s="136"/>
-      <c r="F13" s="118" t="s">
+      <c r="E13" s="150"/>
+      <c r="F13" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="119"/>
-      <c r="K13" s="120"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="113"/>
       <c r="L13" s="80"/>
       <c r="M13" s="81"/>
       <c r="N13" s="81"/>
@@ -2971,14 +2975,14 @@
       <c r="U13" s="62"/>
       <c r="V13" s="62"/>
       <c r="W13" s="71"/>
-      <c r="X13" s="118" t="s">
+      <c r="X13" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="Y13" s="119"/>
-      <c r="Z13" s="119"/>
-      <c r="AA13" s="119"/>
-      <c r="AB13" s="119"/>
-      <c r="AC13" s="120"/>
+      <c r="Y13" s="112"/>
+      <c r="Z13" s="112"/>
+      <c r="AA13" s="112"/>
+      <c r="AB13" s="112"/>
+      <c r="AC13" s="113"/>
       <c r="AD13" s="80"/>
       <c r="AE13" s="81"/>
       <c r="AF13" s="81"/>
@@ -3029,16 +3033,16 @@
       <c r="BY13" s="15"/>
     </row>
     <row r="14" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="142"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="137"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="122"/>
-      <c r="K14" s="123"/>
+      <c r="B14" s="160"/>
+      <c r="C14" s="164"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="116"/>
       <c r="L14" s="68"/>
       <c r="M14" s="69"/>
       <c r="N14" s="69"/>
@@ -3051,12 +3055,12 @@
       <c r="U14" s="84"/>
       <c r="V14" s="84"/>
       <c r="W14" s="85"/>
-      <c r="X14" s="121"/>
-      <c r="Y14" s="122"/>
-      <c r="Z14" s="122"/>
-      <c r="AA14" s="122"/>
-      <c r="AB14" s="122"/>
-      <c r="AC14" s="123"/>
+      <c r="X14" s="114"/>
+      <c r="Y14" s="115"/>
+      <c r="Z14" s="115"/>
+      <c r="AA14" s="115"/>
+      <c r="AB14" s="115"/>
+      <c r="AC14" s="116"/>
       <c r="AD14" s="68"/>
       <c r="AE14" s="69"/>
       <c r="AF14" s="69"/>
@@ -3107,24 +3111,24 @@
       <c r="BY14" s="25"/>
     </row>
     <row r="15" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="141" t="s">
+      <c r="B15" s="159" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="133" t="s">
+      <c r="C15" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="143">
+      <c r="D15" s="145">
         <v>0.8</v>
       </c>
       <c r="E15" s="146"/>
-      <c r="F15" s="118" t="s">
+      <c r="F15" s="111" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="120"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="112"/>
+      <c r="K15" s="113"/>
       <c r="L15" s="87"/>
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
@@ -3193,16 +3197,16 @@
       <c r="BY15" s="15"/>
     </row>
     <row r="16" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="142"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="123"/>
+      <c r="B16" s="160"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="116"/>
       <c r="L16" s="87"/>
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
@@ -3271,14 +3275,14 @@
       <c r="BY16" s="25"/>
     </row>
     <row r="17" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="141" t="s">
+      <c r="B17" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="147" t="s">
+      <c r="C17" s="161" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="143">
-        <v>0</v>
+      <c r="D17" s="145">
+        <v>1</v>
       </c>
       <c r="E17" s="146"/>
       <c r="F17" s="14"/>
@@ -3323,14 +3327,14 @@
       <c r="AS17" s="10"/>
       <c r="AT17" s="10"/>
       <c r="AU17" s="15"/>
-      <c r="AV17" s="157" t="s">
+      <c r="AV17" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="AW17" s="158"/>
-      <c r="AX17" s="158"/>
-      <c r="AY17" s="158"/>
-      <c r="AZ17" s="158"/>
-      <c r="BA17" s="166"/>
+      <c r="AW17" s="139"/>
+      <c r="AX17" s="139"/>
+      <c r="AY17" s="139"/>
+      <c r="AZ17" s="139"/>
+      <c r="BA17" s="97"/>
       <c r="BB17" s="70"/>
       <c r="BC17" s="62"/>
       <c r="BD17" s="62"/>
@@ -3357,10 +3361,10 @@
       <c r="BY17" s="15"/>
     </row>
     <row r="18" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="142"/>
-      <c r="C18" s="148"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="138"/>
+      <c r="B18" s="160"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="148"/>
       <c r="F18" s="23"/>
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
@@ -3403,12 +3407,12 @@
       <c r="AS18" s="24"/>
       <c r="AT18" s="24"/>
       <c r="AU18" s="25"/>
-      <c r="AV18" s="160"/>
-      <c r="AW18" s="161"/>
-      <c r="AX18" s="161"/>
-      <c r="AY18" s="161"/>
-      <c r="AZ18" s="161"/>
-      <c r="BA18" s="167"/>
+      <c r="AV18" s="125"/>
+      <c r="AW18" s="126"/>
+      <c r="AX18" s="126"/>
+      <c r="AY18" s="126"/>
+      <c r="AZ18" s="126"/>
+      <c r="BA18" s="98"/>
       <c r="BB18" s="86"/>
       <c r="BC18" s="84"/>
       <c r="BD18" s="84"/>
@@ -3435,13 +3439,13 @@
       <c r="BY18" s="25"/>
     </row>
     <row r="19" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="141" t="s">
+      <c r="B19" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="147" t="s">
+      <c r="C19" s="161" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="143">
+      <c r="D19" s="145">
         <v>0.5</v>
       </c>
       <c r="E19" s="146"/>
@@ -3451,56 +3455,58 @@
       <c r="I19" s="62"/>
       <c r="J19" s="62"/>
       <c r="K19" s="71"/>
-      <c r="L19" s="118" t="s">
+      <c r="L19" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="M19" s="119"/>
-      <c r="N19" s="119"/>
-      <c r="O19" s="119"/>
-      <c r="P19" s="119"/>
-      <c r="Q19" s="120"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="112"/>
+      <c r="Q19" s="113"/>
       <c r="R19" s="70"/>
       <c r="S19" s="62"/>
       <c r="T19" s="62"/>
       <c r="U19" s="62"/>
       <c r="V19" s="62"/>
       <c r="W19" s="71"/>
-      <c r="X19" s="118" t="s">
+      <c r="X19" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="Y19" s="119"/>
-      <c r="Z19" s="119"/>
-      <c r="AA19" s="119"/>
-      <c r="AB19" s="119"/>
-      <c r="AC19" s="120"/>
-      <c r="AD19" s="118" t="s">
+      <c r="Y19" s="112"/>
+      <c r="Z19" s="112"/>
+      <c r="AA19" s="112"/>
+      <c r="AB19" s="112"/>
+      <c r="AC19" s="113"/>
+      <c r="AD19" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="AE19" s="119"/>
-      <c r="AF19" s="119"/>
-      <c r="AG19" s="119"/>
-      <c r="AH19" s="119"/>
-      <c r="AI19" s="120"/>
+      <c r="AE19" s="112"/>
+      <c r="AF19" s="112"/>
+      <c r="AG19" s="112"/>
+      <c r="AH19" s="112"/>
+      <c r="AI19" s="113"/>
       <c r="AJ19" s="70"/>
       <c r="AK19" s="62"/>
       <c r="AL19" s="62"/>
       <c r="AM19" s="62"/>
       <c r="AN19" s="62"/>
       <c r="AO19" s="71"/>
-      <c r="AP19" s="118" t="s">
+      <c r="AP19" s="111" t="s">
         <v>93</v>
       </c>
-      <c r="AQ19" s="119"/>
-      <c r="AR19" s="119"/>
-      <c r="AS19" s="119"/>
-      <c r="AT19" s="119"/>
-      <c r="AU19" s="120"/>
-      <c r="AV19" s="80"/>
-      <c r="AW19" s="81"/>
-      <c r="AX19" s="81"/>
-      <c r="AY19" s="82"/>
-      <c r="AZ19" s="82"/>
-      <c r="BA19" s="83"/>
+      <c r="AQ19" s="112"/>
+      <c r="AR19" s="112"/>
+      <c r="AS19" s="112"/>
+      <c r="AT19" s="112"/>
+      <c r="AU19" s="113"/>
+      <c r="AV19" s="138" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW19" s="139"/>
+      <c r="AX19" s="139"/>
+      <c r="AY19" s="139"/>
+      <c r="AZ19" s="139"/>
+      <c r="BA19" s="140"/>
       <c r="BB19" s="14"/>
       <c r="BC19" s="10"/>
       <c r="BD19" s="10"/>
@@ -3527,58 +3533,58 @@
       <c r="BY19" s="15"/>
     </row>
     <row r="20" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="142"/>
-      <c r="C20" s="148"/>
-      <c r="D20" s="137"/>
-      <c r="E20" s="138"/>
+      <c r="B20" s="160"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="148"/>
       <c r="F20" s="86"/>
       <c r="G20" s="84"/>
       <c r="H20" s="84"/>
       <c r="I20" s="84"/>
       <c r="J20" s="84"/>
       <c r="K20" s="85"/>
-      <c r="L20" s="121"/>
-      <c r="M20" s="122"/>
-      <c r="N20" s="122"/>
-      <c r="O20" s="122"/>
-      <c r="P20" s="122"/>
-      <c r="Q20" s="123"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="115"/>
+      <c r="O20" s="115"/>
+      <c r="P20" s="115"/>
+      <c r="Q20" s="116"/>
       <c r="R20" s="86"/>
       <c r="S20" s="84"/>
       <c r="T20" s="84"/>
       <c r="U20" s="84"/>
       <c r="V20" s="84"/>
       <c r="W20" s="85"/>
-      <c r="X20" s="121"/>
-      <c r="Y20" s="122"/>
-      <c r="Z20" s="122"/>
-      <c r="AA20" s="122"/>
-      <c r="AB20" s="122"/>
-      <c r="AC20" s="123"/>
-      <c r="AD20" s="121"/>
-      <c r="AE20" s="122"/>
-      <c r="AF20" s="122"/>
-      <c r="AG20" s="122"/>
-      <c r="AH20" s="122"/>
-      <c r="AI20" s="123"/>
+      <c r="X20" s="114"/>
+      <c r="Y20" s="115"/>
+      <c r="Z20" s="115"/>
+      <c r="AA20" s="115"/>
+      <c r="AB20" s="115"/>
+      <c r="AC20" s="116"/>
+      <c r="AD20" s="114"/>
+      <c r="AE20" s="115"/>
+      <c r="AF20" s="115"/>
+      <c r="AG20" s="115"/>
+      <c r="AH20" s="115"/>
+      <c r="AI20" s="116"/>
       <c r="AJ20" s="86"/>
       <c r="AK20" s="84"/>
       <c r="AL20" s="84"/>
       <c r="AM20" s="84"/>
       <c r="AN20" s="84"/>
       <c r="AO20" s="85"/>
-      <c r="AP20" s="121"/>
-      <c r="AQ20" s="122"/>
-      <c r="AR20" s="122"/>
-      <c r="AS20" s="122"/>
-      <c r="AT20" s="122"/>
-      <c r="AU20" s="123"/>
-      <c r="AV20" s="68"/>
-      <c r="AW20" s="69"/>
-      <c r="AX20" s="69"/>
-      <c r="AY20" s="84"/>
-      <c r="AZ20" s="84"/>
-      <c r="BA20" s="85"/>
+      <c r="AP20" s="114"/>
+      <c r="AQ20" s="115"/>
+      <c r="AR20" s="115"/>
+      <c r="AS20" s="115"/>
+      <c r="AT20" s="115"/>
+      <c r="AU20" s="116"/>
+      <c r="AV20" s="125"/>
+      <c r="AW20" s="126"/>
+      <c r="AX20" s="126"/>
+      <c r="AY20" s="126"/>
+      <c r="AZ20" s="126"/>
+      <c r="BA20" s="127"/>
       <c r="BB20" s="23"/>
       <c r="BC20" s="24"/>
       <c r="BD20" s="24"/>
@@ -3605,28 +3611,28 @@
       <c r="BY20" s="25"/>
     </row>
     <row r="21" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="141" t="s">
+      <c r="B21" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="149"/>
-      <c r="D21" s="143">
+      <c r="C21" s="165"/>
+      <c r="D21" s="145">
         <v>0.2</v>
       </c>
-      <c r="E21" s="144"/>
+      <c r="E21" s="153"/>
       <c r="F21" s="14"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="15"/>
-      <c r="L21" s="118" t="s">
+      <c r="L21" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="M21" s="119"/>
-      <c r="N21" s="119"/>
-      <c r="O21" s="119"/>
-      <c r="P21" s="119"/>
-      <c r="Q21" s="120"/>
+      <c r="M21" s="112"/>
+      <c r="N21" s="112"/>
+      <c r="O21" s="112"/>
+      <c r="P21" s="112"/>
+      <c r="Q21" s="113"/>
       <c r="R21" s="94"/>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
@@ -3689,22 +3695,22 @@
       <c r="BY21" s="15"/>
     </row>
     <row r="22" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="142"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="145"/>
+      <c r="B22" s="160"/>
+      <c r="C22" s="164"/>
+      <c r="D22" s="147"/>
+      <c r="E22" s="154"/>
       <c r="F22" s="23"/>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="25"/>
-      <c r="L22" s="121"/>
-      <c r="M22" s="122"/>
-      <c r="N22" s="122"/>
-      <c r="O22" s="122"/>
-      <c r="P22" s="122"/>
-      <c r="Q22" s="123"/>
+      <c r="L22" s="114"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="115"/>
+      <c r="O22" s="115"/>
+      <c r="P22" s="115"/>
+      <c r="Q22" s="116"/>
       <c r="R22" s="95"/>
       <c r="S22" s="24"/>
       <c r="T22" s="24"/>
@@ -3767,11 +3773,11 @@
       <c r="BY22" s="25"/>
     </row>
     <row r="23" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="141" t="s">
+      <c r="B23" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="133"/>
-      <c r="D23" s="143"/>
+      <c r="C23" s="163"/>
+      <c r="D23" s="145"/>
       <c r="E23" s="146"/>
       <c r="F23" s="14"/>
       <c r="G23" s="10"/>
@@ -3803,14 +3809,14 @@
       <c r="AG23" s="82"/>
       <c r="AH23" s="82"/>
       <c r="AI23" s="83"/>
-      <c r="AJ23" s="118" t="s">
+      <c r="AJ23" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="AK23" s="119"/>
-      <c r="AL23" s="119"/>
-      <c r="AM23" s="119"/>
-      <c r="AN23" s="119"/>
-      <c r="AO23" s="120"/>
+      <c r="AK23" s="112"/>
+      <c r="AL23" s="112"/>
+      <c r="AM23" s="112"/>
+      <c r="AN23" s="112"/>
+      <c r="AO23" s="113"/>
       <c r="AP23" s="70"/>
       <c r="AQ23" s="62"/>
       <c r="AR23" s="62"/>
@@ -3849,10 +3855,10 @@
       <c r="BY23" s="15"/>
     </row>
     <row r="24" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="142"/>
-      <c r="C24" s="134"/>
-      <c r="D24" s="137"/>
-      <c r="E24" s="138"/>
+      <c r="B24" s="160"/>
+      <c r="C24" s="164"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="148"/>
       <c r="F24" s="23"/>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
@@ -3883,12 +3889,12 @@
       <c r="AG24" s="84"/>
       <c r="AH24" s="84"/>
       <c r="AI24" s="85"/>
-      <c r="AJ24" s="121"/>
-      <c r="AK24" s="122"/>
-      <c r="AL24" s="122"/>
-      <c r="AM24" s="122"/>
-      <c r="AN24" s="122"/>
-      <c r="AO24" s="123"/>
+      <c r="AJ24" s="114"/>
+      <c r="AK24" s="115"/>
+      <c r="AL24" s="115"/>
+      <c r="AM24" s="115"/>
+      <c r="AN24" s="115"/>
+      <c r="AO24" s="116"/>
       <c r="AP24" s="86"/>
       <c r="AQ24" s="84"/>
       <c r="AR24" s="84"/>
@@ -3927,12 +3933,12 @@
       <c r="BY24" s="25"/>
     </row>
     <row r="25" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="141" t="s">
+      <c r="B25" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="149"/>
-      <c r="D25" s="143"/>
-      <c r="E25" s="144"/>
+      <c r="C25" s="165"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="153"/>
       <c r="F25" s="14"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -3963,26 +3969,28 @@
       <c r="AG25" s="82"/>
       <c r="AH25" s="82"/>
       <c r="AI25" s="83"/>
-      <c r="AJ25" s="157" t="s">
+      <c r="AJ25" s="138" t="s">
         <v>120</v>
       </c>
-      <c r="AK25" s="158"/>
-      <c r="AL25" s="158"/>
-      <c r="AM25" s="158"/>
-      <c r="AN25" s="158"/>
-      <c r="AO25" s="159"/>
+      <c r="AK25" s="139"/>
+      <c r="AL25" s="139"/>
+      <c r="AM25" s="139"/>
+      <c r="AN25" s="139"/>
+      <c r="AO25" s="140"/>
       <c r="AP25" s="70"/>
       <c r="AQ25" s="62"/>
       <c r="AR25" s="62"/>
       <c r="AS25" s="62"/>
       <c r="AT25" s="62"/>
       <c r="AU25" s="71"/>
-      <c r="AV25" s="80"/>
-      <c r="AW25" s="81"/>
-      <c r="AX25" s="81"/>
-      <c r="AY25" s="82"/>
-      <c r="AZ25" s="82"/>
-      <c r="BA25" s="83"/>
+      <c r="AV25" s="138" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW25" s="139"/>
+      <c r="AX25" s="139"/>
+      <c r="AY25" s="139"/>
+      <c r="AZ25" s="139"/>
+      <c r="BA25" s="140"/>
       <c r="BB25" s="70"/>
       <c r="BC25" s="62"/>
       <c r="BD25" s="62"/>
@@ -4009,10 +4017,10 @@
       <c r="BY25" s="15"/>
     </row>
     <row r="26" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="142"/>
-      <c r="C26" s="134"/>
-      <c r="D26" s="137"/>
-      <c r="E26" s="145"/>
+      <c r="B26" s="160"/>
+      <c r="C26" s="164"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="154"/>
       <c r="F26" s="23"/>
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
@@ -4043,24 +4051,24 @@
       <c r="AG26" s="84"/>
       <c r="AH26" s="84"/>
       <c r="AI26" s="85"/>
-      <c r="AJ26" s="160"/>
-      <c r="AK26" s="161"/>
-      <c r="AL26" s="161"/>
-      <c r="AM26" s="161"/>
-      <c r="AN26" s="161"/>
-      <c r="AO26" s="162"/>
+      <c r="AJ26" s="125"/>
+      <c r="AK26" s="126"/>
+      <c r="AL26" s="126"/>
+      <c r="AM26" s="126"/>
+      <c r="AN26" s="126"/>
+      <c r="AO26" s="127"/>
       <c r="AP26" s="86"/>
       <c r="AQ26" s="84"/>
       <c r="AR26" s="84"/>
       <c r="AS26" s="84"/>
       <c r="AT26" s="84"/>
       <c r="AU26" s="85"/>
-      <c r="AV26" s="68"/>
-      <c r="AW26" s="69"/>
-      <c r="AX26" s="69"/>
-      <c r="AY26" s="84"/>
-      <c r="AZ26" s="84"/>
-      <c r="BA26" s="85"/>
+      <c r="AV26" s="125"/>
+      <c r="AW26" s="126"/>
+      <c r="AX26" s="126"/>
+      <c r="AY26" s="126"/>
+      <c r="AZ26" s="126"/>
+      <c r="BA26" s="127"/>
       <c r="BB26" s="86"/>
       <c r="BC26" s="84"/>
       <c r="BD26" s="84"/>
@@ -4087,11 +4095,11 @@
       <c r="BY26" s="25"/>
     </row>
     <row r="27" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="141" t="s">
+      <c r="B27" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="133"/>
-      <c r="D27" s="143">
+      <c r="C27" s="163"/>
+      <c r="D27" s="145">
         <v>0</v>
       </c>
       <c r="E27" s="146"/>
@@ -4125,22 +4133,22 @@
       <c r="AG27" s="19"/>
       <c r="AH27" s="19"/>
       <c r="AI27" s="20"/>
-      <c r="AJ27" s="118" t="s">
+      <c r="AJ27" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="AK27" s="119"/>
-      <c r="AL27" s="119"/>
-      <c r="AM27" s="119"/>
-      <c r="AN27" s="119"/>
-      <c r="AO27" s="120"/>
-      <c r="AP27" s="118" t="s">
+      <c r="AK27" s="112"/>
+      <c r="AL27" s="112"/>
+      <c r="AM27" s="112"/>
+      <c r="AN27" s="112"/>
+      <c r="AO27" s="113"/>
+      <c r="AP27" s="111" t="s">
         <v>123</v>
       </c>
-      <c r="AQ27" s="119"/>
-      <c r="AR27" s="119"/>
-      <c r="AS27" s="119"/>
-      <c r="AT27" s="119"/>
-      <c r="AU27" s="120"/>
+      <c r="AQ27" s="112"/>
+      <c r="AR27" s="112"/>
+      <c r="AS27" s="112"/>
+      <c r="AT27" s="112"/>
+      <c r="AU27" s="113"/>
       <c r="AV27" s="80"/>
       <c r="AW27" s="81"/>
       <c r="AX27" s="81"/>
@@ -4173,10 +4181,10 @@
       <c r="BY27" s="15"/>
     </row>
     <row r="28" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="142"/>
-      <c r="C28" s="134"/>
-      <c r="D28" s="137"/>
-      <c r="E28" s="138"/>
+      <c r="B28" s="160"/>
+      <c r="C28" s="164"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="148"/>
       <c r="F28" s="23"/>
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
@@ -4207,18 +4215,18 @@
       <c r="AG28" s="24"/>
       <c r="AH28" s="24"/>
       <c r="AI28" s="25"/>
-      <c r="AJ28" s="121"/>
-      <c r="AK28" s="122"/>
-      <c r="AL28" s="122"/>
-      <c r="AM28" s="122"/>
-      <c r="AN28" s="122"/>
-      <c r="AO28" s="123"/>
-      <c r="AP28" s="121"/>
-      <c r="AQ28" s="122"/>
-      <c r="AR28" s="122"/>
-      <c r="AS28" s="122"/>
-      <c r="AT28" s="122"/>
-      <c r="AU28" s="123"/>
+      <c r="AJ28" s="114"/>
+      <c r="AK28" s="115"/>
+      <c r="AL28" s="115"/>
+      <c r="AM28" s="115"/>
+      <c r="AN28" s="115"/>
+      <c r="AO28" s="116"/>
+      <c r="AP28" s="114"/>
+      <c r="AQ28" s="115"/>
+      <c r="AR28" s="115"/>
+      <c r="AS28" s="115"/>
+      <c r="AT28" s="115"/>
+      <c r="AU28" s="116"/>
       <c r="AV28" s="68"/>
       <c r="AW28" s="69"/>
       <c r="AX28" s="69"/>
@@ -4335,8 +4343,8 @@
         <v>11</v>
       </c>
       <c r="C30" s="28"/>
-      <c r="D30" s="154"/>
-      <c r="E30" s="155"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="152"/>
       <c r="F30" s="29"/>
       <c r="G30" s="30"/>
       <c r="H30" s="30"/>
@@ -4415,8 +4423,8 @@
         <v>1</v>
       </c>
       <c r="C31" s="34"/>
-      <c r="D31" s="143"/>
-      <c r="E31" s="144"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="153"/>
       <c r="F31" s="14"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
@@ -4495,8 +4503,8 @@
         <v>8</v>
       </c>
       <c r="C32" s="35"/>
-      <c r="D32" s="152"/>
-      <c r="E32" s="153"/>
+      <c r="D32" s="143"/>
+      <c r="E32" s="144"/>
       <c r="F32" s="36"/>
       <c r="G32" s="37"/>
       <c r="H32" s="37"/>
@@ -4509,52 +4517,54 @@
       <c r="O32" s="41"/>
       <c r="P32" s="37"/>
       <c r="Q32" s="37"/>
-      <c r="R32" s="130" t="s">
+      <c r="R32" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="S32" s="131"/>
-      <c r="T32" s="131"/>
-      <c r="U32" s="131"/>
-      <c r="V32" s="131"/>
-      <c r="W32" s="132"/>
-      <c r="X32" s="130" t="s">
+      <c r="S32" s="109"/>
+      <c r="T32" s="109"/>
+      <c r="U32" s="109"/>
+      <c r="V32" s="109"/>
+      <c r="W32" s="110"/>
+      <c r="X32" s="108" t="s">
         <v>110</v>
       </c>
-      <c r="Y32" s="131"/>
-      <c r="Z32" s="131"/>
-      <c r="AA32" s="131"/>
-      <c r="AB32" s="131"/>
-      <c r="AC32" s="132"/>
-      <c r="AD32" s="127" t="s">
+      <c r="Y32" s="109"/>
+      <c r="Z32" s="109"/>
+      <c r="AA32" s="109"/>
+      <c r="AB32" s="109"/>
+      <c r="AC32" s="110"/>
+      <c r="AD32" s="135" t="s">
         <v>115</v>
       </c>
-      <c r="AE32" s="128"/>
-      <c r="AF32" s="128"/>
-      <c r="AG32" s="128"/>
-      <c r="AH32" s="128"/>
-      <c r="AI32" s="129"/>
-      <c r="AJ32" s="127" t="s">
+      <c r="AE32" s="136"/>
+      <c r="AF32" s="136"/>
+      <c r="AG32" s="136"/>
+      <c r="AH32" s="136"/>
+      <c r="AI32" s="137"/>
+      <c r="AJ32" s="135" t="s">
         <v>116</v>
       </c>
-      <c r="AK32" s="128"/>
-      <c r="AL32" s="128"/>
-      <c r="AM32" s="128"/>
-      <c r="AN32" s="128"/>
-      <c r="AO32" s="129"/>
-      <c r="AP32" s="130" t="s">
+      <c r="AK32" s="136"/>
+      <c r="AL32" s="136"/>
+      <c r="AM32" s="136"/>
+      <c r="AN32" s="136"/>
+      <c r="AO32" s="137"/>
+      <c r="AP32" s="108" t="s">
         <v>122</v>
       </c>
-      <c r="AQ32" s="131"/>
-      <c r="AR32" s="131"/>
-      <c r="AS32" s="131"/>
-      <c r="AT32" s="131"/>
-      <c r="AU32" s="132"/>
-      <c r="AV32" s="91"/>
-      <c r="AW32" s="92"/>
-      <c r="AX32" s="92"/>
-      <c r="AY32" s="93"/>
-      <c r="AZ32" s="89"/>
-      <c r="BA32" s="89"/>
+      <c r="AQ32" s="109"/>
+      <c r="AR32" s="109"/>
+      <c r="AS32" s="109"/>
+      <c r="AT32" s="109"/>
+      <c r="AU32" s="110"/>
+      <c r="AV32" s="135" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW32" s="136"/>
+      <c r="AX32" s="136"/>
+      <c r="AY32" s="136"/>
+      <c r="AZ32" s="136"/>
+      <c r="BA32" s="137"/>
       <c r="BB32" s="88"/>
       <c r="BC32" s="89"/>
       <c r="BD32" s="89"/>
@@ -4620,116 +4630,116 @@
       <c r="C34" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="156" t="s">
+      <c r="D34" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="156"/>
-      <c r="F34" s="113" t="s">
+      <c r="E34" s="131"/>
+      <c r="F34" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="112"/>
-      <c r="H34" s="112"/>
-      <c r="I34" s="112"/>
-      <c r="J34" s="112"/>
-      <c r="K34" s="114"/>
-      <c r="L34" s="112" t="s">
+      <c r="G34" s="128"/>
+      <c r="H34" s="128"/>
+      <c r="I34" s="128"/>
+      <c r="J34" s="128"/>
+      <c r="K34" s="130"/>
+      <c r="L34" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="M34" s="112"/>
-      <c r="N34" s="112"/>
-      <c r="O34" s="112"/>
-      <c r="P34" s="112"/>
-      <c r="Q34" s="112"/>
-      <c r="R34" s="113" t="s">
+      <c r="M34" s="128"/>
+      <c r="N34" s="128"/>
+      <c r="O34" s="128"/>
+      <c r="P34" s="128"/>
+      <c r="Q34" s="128"/>
+      <c r="R34" s="129" t="s">
         <v>88</v>
       </c>
-      <c r="S34" s="112"/>
-      <c r="T34" s="112"/>
-      <c r="U34" s="112"/>
-      <c r="V34" s="112"/>
-      <c r="W34" s="114"/>
-      <c r="X34" s="112" t="s">
+      <c r="S34" s="128"/>
+      <c r="T34" s="128"/>
+      <c r="U34" s="128"/>
+      <c r="V34" s="128"/>
+      <c r="W34" s="130"/>
+      <c r="X34" s="128" t="s">
         <v>89</v>
       </c>
-      <c r="Y34" s="112"/>
-      <c r="Z34" s="112"/>
-      <c r="AA34" s="112"/>
-      <c r="AB34" s="112"/>
-      <c r="AC34" s="112"/>
-      <c r="AD34" s="115" t="s">
+      <c r="Y34" s="128"/>
+      <c r="Z34" s="128"/>
+      <c r="AA34" s="128"/>
+      <c r="AB34" s="128"/>
+      <c r="AC34" s="128"/>
+      <c r="AD34" s="132" t="s">
         <v>90</v>
       </c>
-      <c r="AE34" s="116"/>
-      <c r="AF34" s="116"/>
-      <c r="AG34" s="116"/>
-      <c r="AH34" s="116"/>
-      <c r="AI34" s="117"/>
-      <c r="AJ34" s="113" t="s">
+      <c r="AE34" s="133"/>
+      <c r="AF34" s="133"/>
+      <c r="AG34" s="133"/>
+      <c r="AH34" s="133"/>
+      <c r="AI34" s="134"/>
+      <c r="AJ34" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="AK34" s="112"/>
-      <c r="AL34" s="112"/>
-      <c r="AM34" s="112"/>
-      <c r="AN34" s="112"/>
-      <c r="AO34" s="114"/>
-      <c r="AP34" s="112" t="s">
+      <c r="AK34" s="128"/>
+      <c r="AL34" s="128"/>
+      <c r="AM34" s="128"/>
+      <c r="AN34" s="128"/>
+      <c r="AO34" s="130"/>
+      <c r="AP34" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="AQ34" s="112"/>
-      <c r="AR34" s="112"/>
-      <c r="AS34" s="112"/>
-      <c r="AT34" s="112"/>
-      <c r="AU34" s="112"/>
-      <c r="AV34" s="112" t="s">
+      <c r="AQ34" s="128"/>
+      <c r="AR34" s="128"/>
+      <c r="AS34" s="128"/>
+      <c r="AT34" s="128"/>
+      <c r="AU34" s="128"/>
+      <c r="AV34" s="128" t="s">
         <v>91</v>
       </c>
-      <c r="AW34" s="112"/>
-      <c r="AX34" s="112"/>
-      <c r="AY34" s="112"/>
-      <c r="AZ34" s="112"/>
-      <c r="BA34" s="112"/>
-      <c r="BB34" s="113" t="s">
+      <c r="AW34" s="128"/>
+      <c r="AX34" s="128"/>
+      <c r="AY34" s="128"/>
+      <c r="AZ34" s="128"/>
+      <c r="BA34" s="128"/>
+      <c r="BB34" s="129" t="s">
         <v>92</v>
       </c>
-      <c r="BC34" s="112"/>
-      <c r="BD34" s="112"/>
-      <c r="BE34" s="112"/>
-      <c r="BF34" s="112"/>
-      <c r="BG34" s="114"/>
-      <c r="BH34" s="112" t="s">
+      <c r="BC34" s="128"/>
+      <c r="BD34" s="128"/>
+      <c r="BE34" s="128"/>
+      <c r="BF34" s="128"/>
+      <c r="BG34" s="130"/>
+      <c r="BH34" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="BI34" s="112"/>
-      <c r="BJ34" s="112"/>
-      <c r="BK34" s="112"/>
-      <c r="BL34" s="112"/>
-      <c r="BM34" s="112"/>
-      <c r="BN34" s="113" t="s">
+      <c r="BI34" s="128"/>
+      <c r="BJ34" s="128"/>
+      <c r="BK34" s="128"/>
+      <c r="BL34" s="128"/>
+      <c r="BM34" s="128"/>
+      <c r="BN34" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="BO34" s="112"/>
-      <c r="BP34" s="112"/>
-      <c r="BQ34" s="112"/>
-      <c r="BR34" s="112"/>
-      <c r="BS34" s="114"/>
-      <c r="BT34" s="113" t="s">
+      <c r="BO34" s="128"/>
+      <c r="BP34" s="128"/>
+      <c r="BQ34" s="128"/>
+      <c r="BR34" s="128"/>
+      <c r="BS34" s="130"/>
+      <c r="BT34" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="BU34" s="112"/>
-      <c r="BV34" s="112"/>
-      <c r="BW34" s="112"/>
-      <c r="BX34" s="112"/>
-      <c r="BY34" s="114"/>
+      <c r="BU34" s="128"/>
+      <c r="BV34" s="128"/>
+      <c r="BW34" s="128"/>
+      <c r="BX34" s="128"/>
+      <c r="BY34" s="130"/>
     </row>
     <row r="35" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="50" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="51"/>
-      <c r="D35" s="106">
+      <c r="D35" s="120">
         <v>1</v>
       </c>
-      <c r="E35" s="107"/>
+      <c r="E35" s="121"/>
       <c r="F35" s="51"/>
       <c r="G35" s="51"/>
       <c r="H35" s="51"/>
@@ -4808,10 +4818,10 @@
         <v>45</v>
       </c>
       <c r="C36" s="51"/>
-      <c r="D36" s="106">
+      <c r="D36" s="120">
         <v>1</v>
       </c>
-      <c r="E36" s="107"/>
+      <c r="E36" s="121"/>
       <c r="F36" s="51"/>
       <c r="G36" s="51"/>
       <c r="H36" s="51"/>
@@ -4890,10 +4900,10 @@
         <v>46</v>
       </c>
       <c r="C37" s="51"/>
-      <c r="D37" s="106">
+      <c r="D37" s="120">
         <v>1</v>
       </c>
-      <c r="E37" s="107"/>
+      <c r="E37" s="121"/>
       <c r="F37" s="51"/>
       <c r="G37" s="51"/>
       <c r="H37" s="51"/>
@@ -4972,10 +4982,10 @@
         <v>60</v>
       </c>
       <c r="C38" s="51"/>
-      <c r="D38" s="106">
+      <c r="D38" s="120">
         <v>1</v>
       </c>
-      <c r="E38" s="107"/>
+      <c r="E38" s="121"/>
       <c r="F38" s="51"/>
       <c r="G38" s="51"/>
       <c r="H38" s="51"/>
@@ -5054,10 +5064,10 @@
         <v>61</v>
       </c>
       <c r="C39" s="51"/>
-      <c r="D39" s="106">
+      <c r="D39" s="120">
         <v>1</v>
       </c>
-      <c r="E39" s="107"/>
+      <c r="E39" s="121"/>
       <c r="F39" s="51"/>
       <c r="G39" s="51"/>
       <c r="H39" s="51"/>
@@ -5136,10 +5146,10 @@
         <v>62</v>
       </c>
       <c r="C40" s="51"/>
-      <c r="D40" s="106">
+      <c r="D40" s="120">
         <v>1</v>
       </c>
-      <c r="E40" s="107"/>
+      <c r="E40" s="121"/>
       <c r="F40" s="51"/>
       <c r="G40" s="51"/>
       <c r="H40" s="51"/>
@@ -5218,10 +5228,10 @@
         <v>63</v>
       </c>
       <c r="C41" s="51"/>
-      <c r="D41" s="106">
+      <c r="D41" s="120">
         <v>1</v>
       </c>
-      <c r="E41" s="107"/>
+      <c r="E41" s="121"/>
       <c r="F41" s="51"/>
       <c r="G41" s="51"/>
       <c r="H41" s="51"/>
@@ -5300,10 +5310,10 @@
         <v>64</v>
       </c>
       <c r="C42" s="51"/>
-      <c r="D42" s="106">
+      <c r="D42" s="120">
         <v>1</v>
       </c>
-      <c r="E42" s="107"/>
+      <c r="E42" s="121"/>
       <c r="F42" s="51"/>
       <c r="G42" s="51"/>
       <c r="H42" s="51"/>
@@ -5382,10 +5392,10 @@
         <v>65</v>
       </c>
       <c r="C43" s="51"/>
-      <c r="D43" s="106">
+      <c r="D43" s="120">
         <v>1</v>
       </c>
-      <c r="E43" s="107"/>
+      <c r="E43" s="121"/>
       <c r="F43" s="51"/>
       <c r="G43" s="51"/>
       <c r="H43" s="51"/>
@@ -5464,10 +5474,10 @@
         <v>66</v>
       </c>
       <c r="C44" s="51"/>
-      <c r="D44" s="106">
+      <c r="D44" s="120">
         <v>1</v>
       </c>
-      <c r="E44" s="107"/>
+      <c r="E44" s="121"/>
       <c r="F44" s="51"/>
       <c r="G44" s="51"/>
       <c r="H44" s="51"/>
@@ -5546,10 +5556,10 @@
         <v>67</v>
       </c>
       <c r="C45" s="51"/>
-      <c r="D45" s="106">
+      <c r="D45" s="120">
         <v>1</v>
       </c>
-      <c r="E45" s="107"/>
+      <c r="E45" s="121"/>
       <c r="F45" s="51"/>
       <c r="G45" s="51"/>
       <c r="H45" s="51"/>
@@ -5628,10 +5638,10 @@
         <v>68</v>
       </c>
       <c r="C46" s="51"/>
-      <c r="D46" s="106">
+      <c r="D46" s="120">
         <v>1</v>
       </c>
-      <c r="E46" s="107"/>
+      <c r="E46" s="121"/>
       <c r="F46" s="51"/>
       <c r="G46" s="51"/>
       <c r="H46" s="51"/>
@@ -5710,10 +5720,10 @@
         <v>69</v>
       </c>
       <c r="C47" s="51"/>
-      <c r="D47" s="106">
+      <c r="D47" s="120">
         <v>1</v>
       </c>
-      <c r="E47" s="107"/>
+      <c r="E47" s="121"/>
       <c r="F47" s="51"/>
       <c r="G47" s="51"/>
       <c r="H47" s="51"/>
@@ -5792,10 +5802,10 @@
         <v>70</v>
       </c>
       <c r="C48" s="51"/>
-      <c r="D48" s="106">
+      <c r="D48" s="120">
         <v>1</v>
       </c>
-      <c r="E48" s="107"/>
+      <c r="E48" s="121"/>
       <c r="F48" s="51"/>
       <c r="G48" s="51"/>
       <c r="H48" s="51"/>
@@ -5874,10 +5884,10 @@
         <v>71</v>
       </c>
       <c r="C49" s="51"/>
-      <c r="D49" s="106">
+      <c r="D49" s="120">
         <v>1</v>
       </c>
-      <c r="E49" s="107"/>
+      <c r="E49" s="121"/>
       <c r="F49" s="51"/>
       <c r="G49" s="51"/>
       <c r="H49" s="51"/>
@@ -5956,10 +5966,10 @@
         <v>72</v>
       </c>
       <c r="C50" s="51"/>
-      <c r="D50" s="106">
+      <c r="D50" s="120">
         <v>1</v>
       </c>
-      <c r="E50" s="107"/>
+      <c r="E50" s="121"/>
       <c r="F50" s="51"/>
       <c r="G50" s="51"/>
       <c r="H50" s="51"/>
@@ -6038,10 +6048,10 @@
         <v>73</v>
       </c>
       <c r="C51" s="51"/>
-      <c r="D51" s="106">
+      <c r="D51" s="120">
         <v>1</v>
       </c>
-      <c r="E51" s="107"/>
+      <c r="E51" s="121"/>
       <c r="F51" s="51"/>
       <c r="G51" s="51"/>
       <c r="H51" s="51"/>
@@ -6120,10 +6130,10 @@
         <v>74</v>
       </c>
       <c r="C52" s="51"/>
-      <c r="D52" s="106">
+      <c r="D52" s="120">
         <v>1</v>
       </c>
-      <c r="E52" s="107"/>
+      <c r="E52" s="121"/>
       <c r="F52" s="51"/>
       <c r="G52" s="51"/>
       <c r="H52" s="51"/>
@@ -6202,10 +6212,10 @@
         <v>75</v>
       </c>
       <c r="C53" s="51"/>
-      <c r="D53" s="106">
+      <c r="D53" s="120">
         <v>1</v>
       </c>
-      <c r="E53" s="107"/>
+      <c r="E53" s="121"/>
       <c r="F53" s="51"/>
       <c r="G53" s="51"/>
       <c r="H53" s="51"/>
@@ -6284,10 +6294,10 @@
         <v>76</v>
       </c>
       <c r="C54" s="51"/>
-      <c r="D54" s="106">
+      <c r="D54" s="120">
         <v>1</v>
       </c>
-      <c r="E54" s="107"/>
+      <c r="E54" s="121"/>
       <c r="F54" s="51"/>
       <c r="G54" s="51"/>
       <c r="H54" s="51"/>
@@ -6366,10 +6376,10 @@
         <v>77</v>
       </c>
       <c r="C55" s="56"/>
-      <c r="D55" s="106">
+      <c r="D55" s="120">
         <v>1</v>
       </c>
-      <c r="E55" s="107"/>
+      <c r="E55" s="121"/>
       <c r="F55" s="51"/>
       <c r="G55" s="51"/>
       <c r="H55" s="51"/>
@@ -6448,10 +6458,10 @@
         <v>78</v>
       </c>
       <c r="C56" s="51"/>
-      <c r="D56" s="106">
+      <c r="D56" s="120">
         <v>1</v>
       </c>
-      <c r="E56" s="107"/>
+      <c r="E56" s="121"/>
       <c r="F56" s="51"/>
       <c r="G56" s="51"/>
       <c r="H56" s="51"/>
@@ -6530,10 +6540,10 @@
         <v>79</v>
       </c>
       <c r="C57" s="51"/>
-      <c r="D57" s="106">
+      <c r="D57" s="120">
         <v>1</v>
       </c>
-      <c r="E57" s="107"/>
+      <c r="E57" s="121"/>
       <c r="F57" s="51"/>
       <c r="G57" s="51"/>
       <c r="H57" s="51"/>
@@ -6612,10 +6622,10 @@
         <v>80</v>
       </c>
       <c r="C58" s="51"/>
-      <c r="D58" s="106">
+      <c r="D58" s="120">
         <v>1</v>
       </c>
-      <c r="E58" s="107"/>
+      <c r="E58" s="121"/>
       <c r="F58" s="51"/>
       <c r="G58" s="51"/>
       <c r="H58" s="51"/>
@@ -6694,10 +6704,10 @@
         <v>81</v>
       </c>
       <c r="C59" s="51"/>
-      <c r="D59" s="106">
+      <c r="D59" s="120">
         <v>1</v>
       </c>
-      <c r="E59" s="107"/>
+      <c r="E59" s="121"/>
       <c r="F59" s="51"/>
       <c r="G59" s="51"/>
       <c r="H59" s="51"/>
@@ -6776,10 +6786,10 @@
         <v>82</v>
       </c>
       <c r="C60" s="51"/>
-      <c r="D60" s="106">
+      <c r="D60" s="120">
         <v>1</v>
       </c>
-      <c r="E60" s="107"/>
+      <c r="E60" s="121"/>
       <c r="F60" s="51"/>
       <c r="G60" s="51"/>
       <c r="H60" s="51"/>
@@ -6858,10 +6868,10 @@
         <v>83</v>
       </c>
       <c r="C61" s="51"/>
-      <c r="D61" s="106">
+      <c r="D61" s="120">
         <v>1</v>
       </c>
-      <c r="E61" s="107"/>
+      <c r="E61" s="121"/>
       <c r="F61" s="51"/>
       <c r="G61" s="51"/>
       <c r="H61" s="51"/>
@@ -6940,10 +6950,10 @@
         <v>84</v>
       </c>
       <c r="C62" s="51"/>
-      <c r="D62" s="106">
+      <c r="D62" s="120">
         <v>1</v>
       </c>
-      <c r="E62" s="107"/>
+      <c r="E62" s="121"/>
       <c r="F62" s="51"/>
       <c r="G62" s="51"/>
       <c r="H62" s="51"/>
@@ -7020,8 +7030,8 @@
     <row r="63" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="55"/>
       <c r="C63" s="57"/>
-      <c r="D63" s="106"/>
-      <c r="E63" s="107"/>
+      <c r="D63" s="120"/>
+      <c r="E63" s="121"/>
       <c r="F63" s="57"/>
       <c r="G63" s="57"/>
       <c r="H63" s="57"/>
@@ -7100,10 +7110,10 @@
         <v>47</v>
       </c>
       <c r="C64" s="57"/>
-      <c r="D64" s="106">
+      <c r="D64" s="120">
         <v>1</v>
       </c>
-      <c r="E64" s="107"/>
+      <c r="E64" s="121"/>
       <c r="F64" s="57"/>
       <c r="G64" s="57"/>
       <c r="H64" s="57"/>
@@ -7182,10 +7192,10 @@
         <v>48</v>
       </c>
       <c r="C65" s="57"/>
-      <c r="D65" s="106">
+      <c r="D65" s="120">
         <v>1</v>
       </c>
-      <c r="E65" s="107"/>
+      <c r="E65" s="121"/>
       <c r="F65" s="57"/>
       <c r="G65" s="57"/>
       <c r="H65" s="57"/>
@@ -7262,8 +7272,8 @@
     <row r="66" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="55"/>
       <c r="C66" s="57"/>
-      <c r="D66" s="106"/>
-      <c r="E66" s="107"/>
+      <c r="D66" s="120"/>
+      <c r="E66" s="121"/>
       <c r="F66" s="57"/>
       <c r="G66" s="57"/>
       <c r="H66" s="57"/>
@@ -7342,10 +7352,10 @@
         <v>49</v>
       </c>
       <c r="C67" s="57"/>
-      <c r="D67" s="106">
+      <c r="D67" s="120">
         <v>1</v>
       </c>
-      <c r="E67" s="107"/>
+      <c r="E67" s="121"/>
       <c r="F67" s="57"/>
       <c r="G67" s="57"/>
       <c r="H67" s="57"/>
@@ -7424,10 +7434,10 @@
         <v>50</v>
       </c>
       <c r="C68" s="57"/>
-      <c r="D68" s="106">
+      <c r="D68" s="120">
         <v>1</v>
       </c>
-      <c r="E68" s="107"/>
+      <c r="E68" s="121"/>
       <c r="F68" s="57"/>
       <c r="G68" s="57"/>
       <c r="H68" s="57"/>
@@ -7506,10 +7516,10 @@
         <v>51</v>
       </c>
       <c r="C69" s="57"/>
-      <c r="D69" s="106">
+      <c r="D69" s="120">
         <v>1</v>
       </c>
-      <c r="E69" s="107"/>
+      <c r="E69" s="121"/>
       <c r="F69" s="57"/>
       <c r="G69" s="57"/>
       <c r="H69" s="57"/>
@@ -7588,10 +7598,10 @@
         <v>52</v>
       </c>
       <c r="C70" s="57"/>
-      <c r="D70" s="106">
+      <c r="D70" s="120">
         <v>1</v>
       </c>
-      <c r="E70" s="107"/>
+      <c r="E70" s="121"/>
       <c r="F70" s="57"/>
       <c r="G70" s="57"/>
       <c r="H70" s="57"/>
@@ -7670,10 +7680,10 @@
         <v>53</v>
       </c>
       <c r="C71" s="57"/>
-      <c r="D71" s="106">
+      <c r="D71" s="120">
         <v>1</v>
       </c>
-      <c r="E71" s="107"/>
+      <c r="E71" s="121"/>
       <c r="F71" s="57"/>
       <c r="G71" s="57"/>
       <c r="H71" s="57"/>
@@ -7752,10 +7762,10 @@
         <v>54</v>
       </c>
       <c r="C72" s="57"/>
-      <c r="D72" s="106">
+      <c r="D72" s="120">
         <v>1</v>
       </c>
-      <c r="E72" s="107"/>
+      <c r="E72" s="121"/>
       <c r="F72" s="57"/>
       <c r="G72" s="57"/>
       <c r="H72" s="57"/>
@@ -7834,10 +7844,10 @@
         <v>55</v>
       </c>
       <c r="C73" s="57"/>
-      <c r="D73" s="106">
+      <c r="D73" s="120">
         <v>1</v>
       </c>
-      <c r="E73" s="107"/>
+      <c r="E73" s="121"/>
       <c r="F73" s="57"/>
       <c r="G73" s="57"/>
       <c r="H73" s="57"/>
@@ -7916,10 +7926,10 @@
         <v>56</v>
       </c>
       <c r="C74" s="57"/>
-      <c r="D74" s="106">
+      <c r="D74" s="120">
         <v>1</v>
       </c>
-      <c r="E74" s="107"/>
+      <c r="E74" s="121"/>
       <c r="F74" s="57"/>
       <c r="G74" s="57"/>
       <c r="H74" s="57"/>
@@ -7998,10 +8008,10 @@
         <v>57</v>
       </c>
       <c r="C75" s="57"/>
-      <c r="D75" s="106">
+      <c r="D75" s="120">
         <v>1</v>
       </c>
-      <c r="E75" s="107"/>
+      <c r="E75" s="121"/>
       <c r="F75" s="57"/>
       <c r="G75" s="57"/>
       <c r="H75" s="57"/>
@@ -8080,10 +8090,10 @@
         <v>58</v>
       </c>
       <c r="C76" s="57"/>
-      <c r="D76" s="106">
+      <c r="D76" s="120">
         <v>1</v>
       </c>
-      <c r="E76" s="107"/>
+      <c r="E76" s="121"/>
       <c r="F76" s="57"/>
       <c r="G76" s="57"/>
       <c r="H76" s="57"/>
@@ -8162,10 +8172,10 @@
         <v>59</v>
       </c>
       <c r="C77" s="60"/>
-      <c r="D77" s="106">
+      <c r="D77" s="120">
         <v>1</v>
       </c>
-      <c r="E77" s="107"/>
+      <c r="E77" s="121"/>
       <c r="F77" s="60"/>
       <c r="G77" s="60"/>
       <c r="H77" s="60"/>
@@ -8246,10 +8256,10 @@
       <c r="C78" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D78" s="106">
+      <c r="D78" s="120">
         <v>1</v>
       </c>
-      <c r="E78" s="107"/>
+      <c r="E78" s="121"/>
       <c r="F78" s="57"/>
       <c r="G78" s="57"/>
       <c r="H78" s="57"/>
@@ -8262,22 +8272,22 @@
       <c r="O78" s="57"/>
       <c r="P78" s="57"/>
       <c r="Q78" s="57"/>
-      <c r="R78" s="97" t="s">
+      <c r="R78" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="S78" s="98"/>
-      <c r="T78" s="98"/>
-      <c r="U78" s="98"/>
-      <c r="V78" s="98"/>
-      <c r="W78" s="99"/>
-      <c r="X78" s="97" t="s">
+      <c r="S78" s="100"/>
+      <c r="T78" s="100"/>
+      <c r="U78" s="100"/>
+      <c r="V78" s="100"/>
+      <c r="W78" s="101"/>
+      <c r="X78" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="Y78" s="98"/>
-      <c r="Z78" s="98"/>
-      <c r="AA78" s="98"/>
-      <c r="AB78" s="98"/>
-      <c r="AC78" s="99"/>
+      <c r="Y78" s="100"/>
+      <c r="Z78" s="100"/>
+      <c r="AA78" s="100"/>
+      <c r="AB78" s="100"/>
+      <c r="AC78" s="101"/>
       <c r="AD78" s="57"/>
       <c r="AE78" s="57"/>
       <c r="AF78" s="57"/>
@@ -8334,10 +8344,10 @@
       <c r="C79" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D79" s="106">
+      <c r="D79" s="120">
         <v>1</v>
       </c>
-      <c r="E79" s="107"/>
+      <c r="E79" s="121"/>
       <c r="F79" s="57"/>
       <c r="G79" s="57"/>
       <c r="H79" s="57"/>
@@ -8350,18 +8360,18 @@
       <c r="O79" s="57"/>
       <c r="P79" s="57"/>
       <c r="Q79" s="57"/>
-      <c r="R79" s="100"/>
-      <c r="S79" s="101"/>
-      <c r="T79" s="101"/>
-      <c r="U79" s="101"/>
-      <c r="V79" s="101"/>
-      <c r="W79" s="102"/>
-      <c r="X79" s="100"/>
-      <c r="Y79" s="101"/>
-      <c r="Z79" s="101"/>
-      <c r="AA79" s="101"/>
-      <c r="AB79" s="101"/>
-      <c r="AC79" s="102"/>
+      <c r="R79" s="102"/>
+      <c r="S79" s="103"/>
+      <c r="T79" s="103"/>
+      <c r="U79" s="103"/>
+      <c r="V79" s="103"/>
+      <c r="W79" s="104"/>
+      <c r="X79" s="102"/>
+      <c r="Y79" s="103"/>
+      <c r="Z79" s="103"/>
+      <c r="AA79" s="103"/>
+      <c r="AB79" s="103"/>
+      <c r="AC79" s="104"/>
       <c r="AD79" s="57"/>
       <c r="AE79" s="57"/>
       <c r="AF79" s="57"/>
@@ -8418,10 +8428,10 @@
       <c r="C80" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D80" s="106">
+      <c r="D80" s="120">
         <v>1</v>
       </c>
-      <c r="E80" s="107"/>
+      <c r="E80" s="121"/>
       <c r="F80" s="57"/>
       <c r="G80" s="57"/>
       <c r="H80" s="57"/>
@@ -8434,18 +8444,18 @@
       <c r="O80" s="57"/>
       <c r="P80" s="57"/>
       <c r="Q80" s="57"/>
-      <c r="R80" s="100"/>
-      <c r="S80" s="101"/>
-      <c r="T80" s="101"/>
-      <c r="U80" s="101"/>
-      <c r="V80" s="101"/>
-      <c r="W80" s="102"/>
-      <c r="X80" s="100"/>
-      <c r="Y80" s="101"/>
-      <c r="Z80" s="101"/>
-      <c r="AA80" s="101"/>
-      <c r="AB80" s="101"/>
-      <c r="AC80" s="102"/>
+      <c r="R80" s="102"/>
+      <c r="S80" s="103"/>
+      <c r="T80" s="103"/>
+      <c r="U80" s="103"/>
+      <c r="V80" s="103"/>
+      <c r="W80" s="104"/>
+      <c r="X80" s="102"/>
+      <c r="Y80" s="103"/>
+      <c r="Z80" s="103"/>
+      <c r="AA80" s="103"/>
+      <c r="AB80" s="103"/>
+      <c r="AC80" s="104"/>
       <c r="AD80" s="57"/>
       <c r="AE80" s="57"/>
       <c r="AF80" s="57"/>
@@ -8502,10 +8512,10 @@
       <c r="C81" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D81" s="106">
+      <c r="D81" s="120">
         <v>1</v>
       </c>
-      <c r="E81" s="107"/>
+      <c r="E81" s="121"/>
       <c r="F81" s="57"/>
       <c r="G81" s="57"/>
       <c r="H81" s="57"/>
@@ -8518,18 +8528,18 @@
       <c r="O81" s="57"/>
       <c r="P81" s="57"/>
       <c r="Q81" s="57"/>
-      <c r="R81" s="100"/>
-      <c r="S81" s="101"/>
-      <c r="T81" s="101"/>
-      <c r="U81" s="101"/>
-      <c r="V81" s="101"/>
-      <c r="W81" s="102"/>
-      <c r="X81" s="100"/>
-      <c r="Y81" s="101"/>
-      <c r="Z81" s="101"/>
-      <c r="AA81" s="101"/>
-      <c r="AB81" s="101"/>
-      <c r="AC81" s="102"/>
+      <c r="R81" s="102"/>
+      <c r="S81" s="103"/>
+      <c r="T81" s="103"/>
+      <c r="U81" s="103"/>
+      <c r="V81" s="103"/>
+      <c r="W81" s="104"/>
+      <c r="X81" s="102"/>
+      <c r="Y81" s="103"/>
+      <c r="Z81" s="103"/>
+      <c r="AA81" s="103"/>
+      <c r="AB81" s="103"/>
+      <c r="AC81" s="104"/>
       <c r="AD81" s="57"/>
       <c r="AE81" s="57"/>
       <c r="AF81" s="57"/>
@@ -8586,10 +8596,10 @@
       <c r="C82" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D82" s="106">
+      <c r="D82" s="120">
         <v>1</v>
       </c>
-      <c r="E82" s="107"/>
+      <c r="E82" s="121"/>
       <c r="F82" s="57"/>
       <c r="G82" s="57"/>
       <c r="H82" s="57"/>
@@ -8602,18 +8612,18 @@
       <c r="O82" s="57"/>
       <c r="P82" s="57"/>
       <c r="Q82" s="57"/>
-      <c r="R82" s="100"/>
-      <c r="S82" s="101"/>
-      <c r="T82" s="101"/>
-      <c r="U82" s="101"/>
-      <c r="V82" s="101"/>
-      <c r="W82" s="102"/>
-      <c r="X82" s="100"/>
-      <c r="Y82" s="101"/>
-      <c r="Z82" s="101"/>
-      <c r="AA82" s="101"/>
-      <c r="AB82" s="101"/>
-      <c r="AC82" s="102"/>
+      <c r="R82" s="102"/>
+      <c r="S82" s="103"/>
+      <c r="T82" s="103"/>
+      <c r="U82" s="103"/>
+      <c r="V82" s="103"/>
+      <c r="W82" s="104"/>
+      <c r="X82" s="102"/>
+      <c r="Y82" s="103"/>
+      <c r="Z82" s="103"/>
+      <c r="AA82" s="103"/>
+      <c r="AB82" s="103"/>
+      <c r="AC82" s="104"/>
       <c r="AD82" s="57"/>
       <c r="AE82" s="57"/>
       <c r="AF82" s="57"/>
@@ -8670,10 +8680,10 @@
       <c r="C83" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D83" s="106">
+      <c r="D83" s="120">
         <v>1</v>
       </c>
-      <c r="E83" s="107"/>
+      <c r="E83" s="121"/>
       <c r="F83" s="57"/>
       <c r="G83" s="57"/>
       <c r="H83" s="57"/>
@@ -8686,18 +8696,18 @@
       <c r="O83" s="57"/>
       <c r="P83" s="57"/>
       <c r="Q83" s="57"/>
-      <c r="R83" s="103"/>
-      <c r="S83" s="104"/>
-      <c r="T83" s="104"/>
-      <c r="U83" s="104"/>
-      <c r="V83" s="104"/>
-      <c r="W83" s="105"/>
-      <c r="X83" s="103"/>
-      <c r="Y83" s="104"/>
-      <c r="Z83" s="104"/>
-      <c r="AA83" s="104"/>
-      <c r="AB83" s="104"/>
-      <c r="AC83" s="105"/>
+      <c r="R83" s="105"/>
+      <c r="S83" s="106"/>
+      <c r="T83" s="106"/>
+      <c r="U83" s="106"/>
+      <c r="V83" s="106"/>
+      <c r="W83" s="107"/>
+      <c r="X83" s="105"/>
+      <c r="Y83" s="106"/>
+      <c r="Z83" s="106"/>
+      <c r="AA83" s="106"/>
+      <c r="AB83" s="106"/>
+      <c r="AC83" s="107"/>
       <c r="AD83" s="57"/>
       <c r="AE83" s="57"/>
       <c r="AF83" s="57"/>
@@ -8750,8 +8760,8 @@
     <row r="84" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="59"/>
       <c r="C84" s="60"/>
-      <c r="D84" s="106"/>
-      <c r="E84" s="107"/>
+      <c r="D84" s="120"/>
+      <c r="E84" s="121"/>
       <c r="F84" s="60"/>
       <c r="G84" s="60"/>
       <c r="H84" s="60"/>
@@ -8833,7 +8843,156 @@
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="170">
+  <mergeCells count="173">
+    <mergeCell ref="R78:W83"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="AL5:AM5"/>
+    <mergeCell ref="AV8:BA8"/>
+    <mergeCell ref="BB8:BG8"/>
+    <mergeCell ref="AD34:AI34"/>
+    <mergeCell ref="AJ34:AO34"/>
+    <mergeCell ref="AP34:AU34"/>
+    <mergeCell ref="AV34:BA34"/>
+    <mergeCell ref="BB34:BG34"/>
+    <mergeCell ref="AP8:AU8"/>
+    <mergeCell ref="AD19:AI20"/>
+    <mergeCell ref="AD9:AI10"/>
+    <mergeCell ref="AD32:AI32"/>
+    <mergeCell ref="AP32:AU32"/>
+    <mergeCell ref="AP27:AU28"/>
+    <mergeCell ref="AP19:AU20"/>
+    <mergeCell ref="AV19:BA20"/>
+    <mergeCell ref="AV32:BA32"/>
+    <mergeCell ref="AV25:BA26"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="D27:E28"/>
+    <mergeCell ref="D23:E24"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="BH8:BM8"/>
+    <mergeCell ref="BN8:BS8"/>
+    <mergeCell ref="BT8:BY8"/>
+    <mergeCell ref="BH34:BM34"/>
+    <mergeCell ref="BN34:BS34"/>
+    <mergeCell ref="BT34:BY34"/>
+    <mergeCell ref="R34:W34"/>
+    <mergeCell ref="X34:AC34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="AD8:AI8"/>
+    <mergeCell ref="AJ8:AO8"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="L34:Q34"/>
+    <mergeCell ref="F8:K8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="AJ32:AO32"/>
+    <mergeCell ref="AJ23:AO24"/>
+    <mergeCell ref="AJ25:AO26"/>
+    <mergeCell ref="AJ27:AO28"/>
+    <mergeCell ref="AV17:AZ18"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
     <mergeCell ref="X78:AC83"/>
     <mergeCell ref="X32:AC32"/>
     <mergeCell ref="X19:AC20"/>
@@ -8858,152 +9017,6 @@
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="BH8:BM8"/>
-    <mergeCell ref="BN8:BS8"/>
-    <mergeCell ref="BT8:BY8"/>
-    <mergeCell ref="BH34:BM34"/>
-    <mergeCell ref="BN34:BS34"/>
-    <mergeCell ref="BT34:BY34"/>
-    <mergeCell ref="R34:W34"/>
-    <mergeCell ref="X34:AC34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="AD8:AI8"/>
-    <mergeCell ref="AJ8:AO8"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="L34:Q34"/>
-    <mergeCell ref="F8:K8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="AJ32:AO32"/>
-    <mergeCell ref="AJ23:AO24"/>
-    <mergeCell ref="AJ25:AO26"/>
-    <mergeCell ref="AJ27:AO28"/>
-    <mergeCell ref="AV17:AZ18"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="D27:E28"/>
-    <mergeCell ref="D23:E24"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D25:E26"/>
-    <mergeCell ref="D19:E20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="AV8:BA8"/>
-    <mergeCell ref="BB8:BG8"/>
-    <mergeCell ref="AD34:AI34"/>
-    <mergeCell ref="AJ34:AO34"/>
-    <mergeCell ref="AP34:AU34"/>
-    <mergeCell ref="AV34:BA34"/>
-    <mergeCell ref="BB34:BG34"/>
-    <mergeCell ref="AP8:AU8"/>
-    <mergeCell ref="AD19:AI20"/>
-    <mergeCell ref="AD9:AI10"/>
-    <mergeCell ref="AD32:AI32"/>
-    <mergeCell ref="AP32:AU32"/>
-    <mergeCell ref="AP27:AU28"/>
-    <mergeCell ref="AP19:AU20"/>
-    <mergeCell ref="R78:W83"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/工程表/工程管理(Forest).xlsx
+++ b/document/工程表/工程管理(Forest).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54fd41506f0d43af/デスクトップ/team_forest/document/工程表/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{DD294E77-84DB-4E19-AE4E-5040BAF5CCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8CB2DA5-68B3-4C26-AF24-CA68B66DB0BB}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{DD294E77-84DB-4E19-AE4E-5040BAF5CCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D1B1C1B-A2B2-4FE6-BD30-40E2B41F8548}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="126">
   <si>
     <t>担当</t>
     <rPh sb="0" eb="2">
@@ -842,13 +842,6 @@
     </rPh>
     <rPh sb="3" eb="8">
       <t>ガメンセンイズ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>黒田：</t>
-    <rPh sb="0" eb="2">
-      <t>クロダ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1525,7 +1518,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1595,6 +1588,405 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1628,443 +2020,59 @@
     <xf numFmtId="9" fontId="1" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2085,6 +2093,10 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -2356,8 +2368,8 @@
   </sheetPr>
   <dimension ref="B2:BY84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AU23" sqref="AU23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BS27" sqref="BS27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2380,155 +2392,155 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="172" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="56" t="s">
+      <c r="E4" s="173"/>
+      <c r="F4" s="172" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="56" t="s">
+      <c r="G4" s="173"/>
+      <c r="H4" s="172" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="56" t="s">
+      <c r="I4" s="173"/>
+      <c r="J4" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="57"/>
-      <c r="L4" s="56" t="s">
+      <c r="K4" s="173"/>
+      <c r="L4" s="172" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="57"/>
-      <c r="N4" s="56" t="s">
+      <c r="M4" s="173"/>
+      <c r="N4" s="172" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="57"/>
-      <c r="P4" s="56" t="s">
+      <c r="O4" s="173"/>
+      <c r="P4" s="172" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="56" t="s">
+      <c r="Q4" s="173"/>
+      <c r="R4" s="172" t="s">
         <v>21</v>
       </c>
-      <c r="S4" s="57"/>
-      <c r="T4" s="56" t="s">
+      <c r="S4" s="173"/>
+      <c r="T4" s="172" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="57"/>
-      <c r="V4" s="56" t="s">
+      <c r="U4" s="173"/>
+      <c r="V4" s="172" t="s">
         <v>23</v>
       </c>
-      <c r="W4" s="57"/>
-      <c r="X4" s="56" t="s">
+      <c r="W4" s="173"/>
+      <c r="X4" s="172" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="56" t="s">
+      <c r="Y4" s="173"/>
+      <c r="Z4" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="AA4" s="57"/>
-      <c r="AB4" s="56" t="s">
+      <c r="AA4" s="173"/>
+      <c r="AB4" s="172" t="s">
         <v>26</v>
       </c>
-      <c r="AC4" s="57"/>
-      <c r="AD4" s="56" t="s">
+      <c r="AC4" s="173"/>
+      <c r="AD4" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="AE4" s="57"/>
-      <c r="AF4" s="56" t="s">
+      <c r="AE4" s="173"/>
+      <c r="AF4" s="172" t="s">
         <v>28</v>
       </c>
-      <c r="AG4" s="57"/>
-      <c r="AH4" s="56" t="s">
+      <c r="AG4" s="173"/>
+      <c r="AH4" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="AI4" s="57"/>
-      <c r="AJ4" s="56" t="s">
+      <c r="AI4" s="173"/>
+      <c r="AJ4" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="AK4" s="57"/>
-      <c r="AL4" s="56" t="s">
+      <c r="AK4" s="173"/>
+      <c r="AL4" s="172" t="s">
         <v>31</v>
       </c>
-      <c r="AM4" s="57"/>
+      <c r="AM4" s="173"/>
     </row>
     <row r="5" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="34" t="s">
+      <c r="E5" s="177"/>
+      <c r="F5" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36" t="s">
+      <c r="G5" s="177"/>
+      <c r="H5" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="36" t="s">
+      <c r="I5" s="175"/>
+      <c r="J5" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="36" t="s">
+      <c r="K5" s="175"/>
+      <c r="L5" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="37"/>
-      <c r="N5" s="36" t="s">
+      <c r="M5" s="175"/>
+      <c r="N5" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="37"/>
-      <c r="P5" s="34" t="s">
+      <c r="O5" s="175"/>
+      <c r="P5" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="34" t="s">
+      <c r="Q5" s="177"/>
+      <c r="R5" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="S5" s="35"/>
-      <c r="T5" s="34" t="s">
+      <c r="S5" s="177"/>
+      <c r="T5" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="35"/>
-      <c r="V5" s="34" t="s">
+      <c r="U5" s="177"/>
+      <c r="V5" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="W5" s="35"/>
-      <c r="X5" s="34" t="s">
+      <c r="W5" s="177"/>
+      <c r="X5" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="36" t="s">
+      <c r="Y5" s="177"/>
+      <c r="Z5" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="AA5" s="37"/>
-      <c r="AB5" s="36" t="s">
+      <c r="AA5" s="175"/>
+      <c r="AB5" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="AC5" s="37"/>
-      <c r="AD5" s="34" t="s">
+      <c r="AC5" s="175"/>
+      <c r="AD5" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="34" t="s">
+      <c r="AE5" s="177"/>
+      <c r="AF5" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="AG5" s="35"/>
-      <c r="AH5" s="34" t="s">
+      <c r="AG5" s="177"/>
+      <c r="AH5" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="AI5" s="35"/>
-      <c r="AJ5" s="34" t="s">
+      <c r="AI5" s="177"/>
+      <c r="AJ5" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="AK5" s="35"/>
-      <c r="AL5" s="34" t="s">
+      <c r="AK5" s="177"/>
+      <c r="AL5" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="AM5" s="35"/>
+      <c r="AM5" s="177"/>
     </row>
     <row r="6" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
@@ -2542,2124 +2554,2124 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="39" t="s">
+      <c r="E8" s="152"/>
+      <c r="F8" s="148" t="s">
         <v>114</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="38" t="s">
+      <c r="G8" s="147"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="147"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="39" t="s">
+      <c r="M8" s="147"/>
+      <c r="N8" s="147"/>
+      <c r="O8" s="147"/>
+      <c r="P8" s="147"/>
+      <c r="Q8" s="147"/>
+      <c r="R8" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="38" t="s">
+      <c r="S8" s="147"/>
+      <c r="T8" s="147"/>
+      <c r="U8" s="147"/>
+      <c r="V8" s="147"/>
+      <c r="W8" s="149"/>
+      <c r="X8" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="Y8" s="38"/>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="38"/>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="38"/>
-      <c r="AD8" s="41" t="s">
+      <c r="Y8" s="147"/>
+      <c r="Z8" s="147"/>
+      <c r="AA8" s="147"/>
+      <c r="AB8" s="147"/>
+      <c r="AC8" s="147"/>
+      <c r="AD8" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="AE8" s="42"/>
-      <c r="AF8" s="42"/>
-      <c r="AG8" s="42"/>
-      <c r="AH8" s="42"/>
-      <c r="AI8" s="43"/>
-      <c r="AJ8" s="39" t="s">
+      <c r="AE8" s="151"/>
+      <c r="AF8" s="151"/>
+      <c r="AG8" s="151"/>
+      <c r="AH8" s="151"/>
+      <c r="AI8" s="152"/>
+      <c r="AJ8" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="AK8" s="38"/>
-      <c r="AL8" s="38"/>
-      <c r="AM8" s="38"/>
-      <c r="AN8" s="38"/>
-      <c r="AO8" s="40"/>
-      <c r="AP8" s="38" t="s">
+      <c r="AK8" s="147"/>
+      <c r="AL8" s="147"/>
+      <c r="AM8" s="147"/>
+      <c r="AN8" s="147"/>
+      <c r="AO8" s="149"/>
+      <c r="AP8" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="AQ8" s="38"/>
-      <c r="AR8" s="38"/>
-      <c r="AS8" s="38"/>
-      <c r="AT8" s="38"/>
-      <c r="AU8" s="38"/>
-      <c r="AV8" s="38" t="s">
+      <c r="AQ8" s="147"/>
+      <c r="AR8" s="147"/>
+      <c r="AS8" s="147"/>
+      <c r="AT8" s="147"/>
+      <c r="AU8" s="147"/>
+      <c r="AV8" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="AW8" s="38"/>
-      <c r="AX8" s="38"/>
-      <c r="AY8" s="38"/>
-      <c r="AZ8" s="38"/>
-      <c r="BA8" s="38"/>
-      <c r="BB8" s="39" t="s">
+      <c r="AW8" s="147"/>
+      <c r="AX8" s="147"/>
+      <c r="AY8" s="147"/>
+      <c r="AZ8" s="147"/>
+      <c r="BA8" s="147"/>
+      <c r="BB8" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="BC8" s="38"/>
-      <c r="BD8" s="38"/>
-      <c r="BE8" s="38"/>
-      <c r="BF8" s="38"/>
-      <c r="BG8" s="40"/>
-      <c r="BH8" s="38" t="s">
+      <c r="BC8" s="147"/>
+      <c r="BD8" s="147"/>
+      <c r="BE8" s="147"/>
+      <c r="BF8" s="147"/>
+      <c r="BG8" s="149"/>
+      <c r="BH8" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="BI8" s="38"/>
-      <c r="BJ8" s="38"/>
-      <c r="BK8" s="38"/>
-      <c r="BL8" s="38"/>
-      <c r="BM8" s="38"/>
-      <c r="BN8" s="39" t="s">
+      <c r="BI8" s="147"/>
+      <c r="BJ8" s="147"/>
+      <c r="BK8" s="147"/>
+      <c r="BL8" s="147"/>
+      <c r="BM8" s="147"/>
+      <c r="BN8" s="148" t="s">
         <v>30</v>
       </c>
-      <c r="BO8" s="38"/>
-      <c r="BP8" s="38"/>
-      <c r="BQ8" s="38"/>
-      <c r="BR8" s="38"/>
-      <c r="BS8" s="40"/>
-      <c r="BT8" s="39" t="s">
+      <c r="BO8" s="147"/>
+      <c r="BP8" s="147"/>
+      <c r="BQ8" s="147"/>
+      <c r="BR8" s="147"/>
+      <c r="BS8" s="149"/>
+      <c r="BT8" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="BU8" s="38"/>
-      <c r="BV8" s="38"/>
-      <c r="BW8" s="38"/>
-      <c r="BX8" s="38"/>
-      <c r="BY8" s="40"/>
+      <c r="BU8" s="147"/>
+      <c r="BV8" s="147"/>
+      <c r="BW8" s="147"/>
+      <c r="BX8" s="147"/>
+      <c r="BY8" s="149"/>
     </row>
     <row r="9" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="134">
         <v>1</v>
       </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="165" t="s">
+      <c r="E9" s="135"/>
+      <c r="F9" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="166"/>
-      <c r="H9" s="166"/>
-      <c r="I9" s="166"/>
-      <c r="J9" s="166"/>
-      <c r="K9" s="167"/>
-      <c r="L9" s="162" t="s">
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="169" t="s">
         <v>94</v>
       </c>
-      <c r="M9" s="163"/>
-      <c r="N9" s="163"/>
-      <c r="O9" s="163"/>
-      <c r="P9" s="163"/>
-      <c r="Q9" s="164"/>
-      <c r="R9" s="162" t="s">
+      <c r="M9" s="170"/>
+      <c r="N9" s="170"/>
+      <c r="O9" s="170"/>
+      <c r="P9" s="170"/>
+      <c r="Q9" s="171"/>
+      <c r="R9" s="169" t="s">
         <v>93</v>
       </c>
-      <c r="S9" s="163"/>
-      <c r="T9" s="163"/>
-      <c r="U9" s="163"/>
-      <c r="V9" s="163"/>
-      <c r="W9" s="164"/>
-      <c r="X9" s="162" t="s">
+      <c r="S9" s="170"/>
+      <c r="T9" s="170"/>
+      <c r="U9" s="170"/>
+      <c r="V9" s="170"/>
+      <c r="W9" s="171"/>
+      <c r="X9" s="169" t="s">
         <v>110</v>
       </c>
-      <c r="Y9" s="163"/>
-      <c r="Z9" s="163"/>
-      <c r="AA9" s="163"/>
-      <c r="AB9" s="163"/>
-      <c r="AC9" s="164"/>
-      <c r="AD9" s="162" t="s">
+      <c r="Y9" s="170"/>
+      <c r="Z9" s="170"/>
+      <c r="AA9" s="170"/>
+      <c r="AB9" s="170"/>
+      <c r="AC9" s="171"/>
+      <c r="AD9" s="169" t="s">
         <v>112</v>
       </c>
-      <c r="AE9" s="163"/>
-      <c r="AF9" s="163"/>
-      <c r="AG9" s="163"/>
-      <c r="AH9" s="163"/>
-      <c r="AI9" s="164"/>
-      <c r="AJ9" s="123"/>
-      <c r="AK9" s="124"/>
-      <c r="AL9" s="124"/>
-      <c r="AM9" s="124"/>
-      <c r="AN9" s="124"/>
-      <c r="AO9" s="125"/>
-      <c r="AP9" s="123"/>
-      <c r="AQ9" s="124"/>
-      <c r="AR9" s="124"/>
-      <c r="AS9" s="124"/>
-      <c r="AT9" s="124"/>
-      <c r="AU9" s="125"/>
-      <c r="AV9" s="122"/>
-      <c r="AW9" s="121"/>
-      <c r="AX9" s="121"/>
-      <c r="AY9" s="124"/>
-      <c r="AZ9" s="124"/>
-      <c r="BA9" s="124"/>
-      <c r="BB9" s="165" t="s">
+      <c r="AE9" s="170"/>
+      <c r="AF9" s="170"/>
+      <c r="AG9" s="170"/>
+      <c r="AH9" s="170"/>
+      <c r="AI9" s="171"/>
+      <c r="AJ9" s="62"/>
+      <c r="AK9" s="63"/>
+      <c r="AL9" s="63"/>
+      <c r="AM9" s="63"/>
+      <c r="AN9" s="63"/>
+      <c r="AO9" s="64"/>
+      <c r="AP9" s="62"/>
+      <c r="AQ9" s="63"/>
+      <c r="AR9" s="63"/>
+      <c r="AS9" s="63"/>
+      <c r="AT9" s="63"/>
+      <c r="AU9" s="64"/>
+      <c r="AV9" s="61"/>
+      <c r="AW9" s="60"/>
+      <c r="AX9" s="60"/>
+      <c r="AY9" s="63"/>
+      <c r="AZ9" s="63"/>
+      <c r="BA9" s="63"/>
+      <c r="BB9" s="99" t="s">
         <v>125</v>
       </c>
-      <c r="BC9" s="166"/>
-      <c r="BD9" s="166"/>
-      <c r="BE9" s="166"/>
-      <c r="BF9" s="166"/>
-      <c r="BG9" s="166"/>
-      <c r="BH9" s="166"/>
-      <c r="BI9" s="166"/>
-      <c r="BJ9" s="166"/>
-      <c r="BK9" s="166"/>
-      <c r="BL9" s="166"/>
-      <c r="BM9" s="167"/>
-      <c r="BN9" s="74" t="s">
-        <v>126</v>
-      </c>
-      <c r="BO9" s="75"/>
-      <c r="BP9" s="75"/>
-      <c r="BQ9" s="75"/>
-      <c r="BR9" s="75"/>
-      <c r="BS9" s="76"/>
-      <c r="BT9" s="83"/>
-      <c r="BU9" s="84"/>
-      <c r="BV9" s="84"/>
-      <c r="BW9" s="84"/>
-      <c r="BX9" s="84"/>
-      <c r="BY9" s="85"/>
+      <c r="BC9" s="100"/>
+      <c r="BD9" s="100"/>
+      <c r="BE9" s="100"/>
+      <c r="BF9" s="100"/>
+      <c r="BG9" s="100"/>
+      <c r="BH9" s="100"/>
+      <c r="BI9" s="100"/>
+      <c r="BJ9" s="100"/>
+      <c r="BK9" s="100"/>
+      <c r="BL9" s="100"/>
+      <c r="BM9" s="101"/>
+      <c r="BN9" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="BO9" s="106"/>
+      <c r="BP9" s="106"/>
+      <c r="BQ9" s="106"/>
+      <c r="BR9" s="106"/>
+      <c r="BS9" s="107"/>
+      <c r="BT9" s="178"/>
+      <c r="BU9" s="27"/>
+      <c r="BV9" s="27"/>
+      <c r="BW9" s="27"/>
+      <c r="BX9" s="27"/>
+      <c r="BY9" s="28"/>
     </row>
     <row r="10" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="59"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="168"/>
-      <c r="G10" s="169"/>
-      <c r="H10" s="169"/>
-      <c r="I10" s="169"/>
-      <c r="J10" s="169"/>
-      <c r="K10" s="170"/>
-      <c r="L10" s="159"/>
-      <c r="M10" s="160"/>
-      <c r="N10" s="160"/>
-      <c r="O10" s="160"/>
-      <c r="P10" s="160"/>
-      <c r="Q10" s="161"/>
-      <c r="R10" s="159"/>
-      <c r="S10" s="160"/>
-      <c r="T10" s="160"/>
-      <c r="U10" s="160"/>
-      <c r="V10" s="160"/>
-      <c r="W10" s="161"/>
-      <c r="X10" s="159"/>
-      <c r="Y10" s="160"/>
-      <c r="Z10" s="160"/>
-      <c r="AA10" s="160"/>
-      <c r="AB10" s="160"/>
-      <c r="AC10" s="161"/>
-      <c r="AD10" s="159"/>
-      <c r="AE10" s="160"/>
-      <c r="AF10" s="160"/>
-      <c r="AG10" s="160"/>
-      <c r="AH10" s="160"/>
-      <c r="AI10" s="161"/>
-      <c r="AJ10" s="128"/>
-      <c r="AK10" s="120"/>
-      <c r="AL10" s="120"/>
-      <c r="AM10" s="120"/>
-      <c r="AN10" s="120"/>
-      <c r="AO10" s="129"/>
-      <c r="AP10" s="128"/>
-      <c r="AQ10" s="120"/>
-      <c r="AR10" s="120"/>
-      <c r="AS10" s="120"/>
-      <c r="AT10" s="120"/>
-      <c r="AU10" s="129"/>
-      <c r="AV10" s="130"/>
-      <c r="AW10" s="131"/>
-      <c r="AX10" s="131"/>
-      <c r="AY10" s="120"/>
-      <c r="AZ10" s="120"/>
-      <c r="BA10" s="120"/>
-      <c r="BB10" s="168"/>
-      <c r="BC10" s="169"/>
-      <c r="BD10" s="169"/>
-      <c r="BE10" s="169"/>
-      <c r="BF10" s="169"/>
-      <c r="BG10" s="169"/>
-      <c r="BH10" s="169"/>
-      <c r="BI10" s="169"/>
-      <c r="BJ10" s="169"/>
-      <c r="BK10" s="169"/>
-      <c r="BL10" s="169"/>
-      <c r="BM10" s="170"/>
-      <c r="BN10" s="77"/>
-      <c r="BO10" s="78"/>
-      <c r="BP10" s="78"/>
-      <c r="BQ10" s="78"/>
-      <c r="BR10" s="78"/>
-      <c r="BS10" s="79"/>
-      <c r="BT10" s="88"/>
-      <c r="BU10" s="86"/>
-      <c r="BV10" s="86"/>
-      <c r="BW10" s="86"/>
-      <c r="BX10" s="86"/>
-      <c r="BY10" s="89"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="97"/>
+      <c r="O10" s="97"/>
+      <c r="P10" s="97"/>
+      <c r="Q10" s="98"/>
+      <c r="R10" s="96"/>
+      <c r="S10" s="97"/>
+      <c r="T10" s="97"/>
+      <c r="U10" s="97"/>
+      <c r="V10" s="97"/>
+      <c r="W10" s="98"/>
+      <c r="X10" s="96"/>
+      <c r="Y10" s="97"/>
+      <c r="Z10" s="97"/>
+      <c r="AA10" s="97"/>
+      <c r="AB10" s="97"/>
+      <c r="AC10" s="98"/>
+      <c r="AD10" s="96"/>
+      <c r="AE10" s="97"/>
+      <c r="AF10" s="97"/>
+      <c r="AG10" s="97"/>
+      <c r="AH10" s="97"/>
+      <c r="AI10" s="98"/>
+      <c r="AJ10" s="67"/>
+      <c r="AK10" s="59"/>
+      <c r="AL10" s="59"/>
+      <c r="AM10" s="59"/>
+      <c r="AN10" s="59"/>
+      <c r="AO10" s="68"/>
+      <c r="AP10" s="67"/>
+      <c r="AQ10" s="59"/>
+      <c r="AR10" s="59"/>
+      <c r="AS10" s="59"/>
+      <c r="AT10" s="59"/>
+      <c r="AU10" s="68"/>
+      <c r="AV10" s="69"/>
+      <c r="AW10" s="70"/>
+      <c r="AX10" s="70"/>
+      <c r="AY10" s="59"/>
+      <c r="AZ10" s="59"/>
+      <c r="BA10" s="59"/>
+      <c r="BB10" s="102"/>
+      <c r="BC10" s="103"/>
+      <c r="BD10" s="103"/>
+      <c r="BE10" s="103"/>
+      <c r="BF10" s="103"/>
+      <c r="BG10" s="103"/>
+      <c r="BH10" s="103"/>
+      <c r="BI10" s="103"/>
+      <c r="BJ10" s="103"/>
+      <c r="BK10" s="103"/>
+      <c r="BL10" s="103"/>
+      <c r="BM10" s="104"/>
+      <c r="BN10" s="108"/>
+      <c r="BO10" s="109"/>
+      <c r="BP10" s="109"/>
+      <c r="BQ10" s="109"/>
+      <c r="BR10" s="109"/>
+      <c r="BS10" s="110"/>
+      <c r="BT10" s="179"/>
+      <c r="BU10" s="6"/>
+      <c r="BV10" s="6"/>
+      <c r="BW10" s="6"/>
+      <c r="BX10" s="6"/>
+      <c r="BY10" s="30"/>
     </row>
     <row r="11" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="52">
+      <c r="D11" s="134">
         <v>1</v>
       </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="151"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="139"/>
-      <c r="J11" s="139"/>
-      <c r="K11" s="140"/>
-      <c r="L11" s="137"/>
-      <c r="M11" s="138"/>
-      <c r="N11" s="138"/>
-      <c r="O11" s="139"/>
-      <c r="P11" s="139"/>
-      <c r="Q11" s="140"/>
-      <c r="R11" s="151"/>
-      <c r="S11" s="139"/>
-      <c r="T11" s="139"/>
-      <c r="U11" s="139"/>
-      <c r="V11" s="139"/>
-      <c r="W11" s="140"/>
-      <c r="X11" s="92"/>
-      <c r="Y11" s="93"/>
-      <c r="Z11" s="93"/>
-      <c r="AA11" s="93"/>
-      <c r="AB11" s="93"/>
-      <c r="AC11" s="94"/>
-      <c r="AD11" s="95"/>
-      <c r="AE11" s="96"/>
-      <c r="AF11" s="96"/>
-      <c r="AG11" s="93"/>
-      <c r="AH11" s="93"/>
-      <c r="AI11" s="94"/>
-      <c r="AJ11" s="92"/>
-      <c r="AK11" s="93"/>
-      <c r="AL11" s="93"/>
-      <c r="AM11" s="93"/>
-      <c r="AN11" s="93"/>
-      <c r="AO11" s="94"/>
-      <c r="AP11" s="92"/>
-      <c r="AQ11" s="93"/>
-      <c r="AR11" s="93"/>
-      <c r="AS11" s="93"/>
-      <c r="AT11" s="93"/>
-      <c r="AU11" s="94"/>
-      <c r="AV11" s="95"/>
-      <c r="AW11" s="96"/>
-      <c r="AX11" s="96"/>
-      <c r="AY11" s="93"/>
-      <c r="AZ11" s="93"/>
-      <c r="BA11" s="94"/>
-      <c r="BB11" s="92"/>
-      <c r="BC11" s="93"/>
-      <c r="BD11" s="93"/>
-      <c r="BE11" s="93"/>
-      <c r="BF11" s="93"/>
-      <c r="BG11" s="94"/>
-      <c r="BH11" s="95"/>
-      <c r="BI11" s="96"/>
-      <c r="BJ11" s="96"/>
-      <c r="BK11" s="93"/>
-      <c r="BL11" s="93"/>
-      <c r="BM11" s="94"/>
-      <c r="BN11" s="92"/>
-      <c r="BO11" s="93"/>
-      <c r="BP11" s="93"/>
-      <c r="BQ11" s="93"/>
-      <c r="BR11" s="93"/>
-      <c r="BS11" s="94"/>
-      <c r="BT11" s="92"/>
-      <c r="BU11" s="93"/>
-      <c r="BV11" s="93"/>
-      <c r="BW11" s="93"/>
-      <c r="BX11" s="93"/>
-      <c r="BY11" s="94"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="79"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="78"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="180"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="37"/>
+      <c r="AF11" s="37"/>
+      <c r="AG11" s="34"/>
+      <c r="AH11" s="34"/>
+      <c r="AI11" s="35"/>
+      <c r="AJ11" s="33"/>
+      <c r="AK11" s="34"/>
+      <c r="AL11" s="34"/>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="34"/>
+      <c r="AO11" s="35"/>
+      <c r="AP11" s="33"/>
+      <c r="AQ11" s="34"/>
+      <c r="AR11" s="34"/>
+      <c r="AS11" s="34"/>
+      <c r="AT11" s="34"/>
+      <c r="AU11" s="35"/>
+      <c r="AV11" s="36"/>
+      <c r="AW11" s="37"/>
+      <c r="AX11" s="37"/>
+      <c r="AY11" s="34"/>
+      <c r="AZ11" s="34"/>
+      <c r="BA11" s="35"/>
+      <c r="BB11" s="33"/>
+      <c r="BC11" s="34"/>
+      <c r="BD11" s="34"/>
+      <c r="BE11" s="34"/>
+      <c r="BF11" s="34"/>
+      <c r="BG11" s="35"/>
+      <c r="BH11" s="36"/>
+      <c r="BI11" s="37"/>
+      <c r="BJ11" s="37"/>
+      <c r="BK11" s="34"/>
+      <c r="BL11" s="34"/>
+      <c r="BM11" s="35"/>
+      <c r="BN11" s="33"/>
+      <c r="BO11" s="34"/>
+      <c r="BP11" s="34"/>
+      <c r="BQ11" s="34"/>
+      <c r="BR11" s="34"/>
+      <c r="BS11" s="35"/>
+      <c r="BT11" s="33"/>
+      <c r="BU11" s="34"/>
+      <c r="BV11" s="34"/>
+      <c r="BW11" s="34"/>
+      <c r="BX11" s="34"/>
+      <c r="BY11" s="35"/>
     </row>
     <row r="12" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="59"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="143"/>
-      <c r="G12" s="141"/>
-      <c r="H12" s="141"/>
-      <c r="I12" s="141"/>
-      <c r="J12" s="141"/>
-      <c r="K12" s="142"/>
-      <c r="L12" s="126"/>
-      <c r="M12" s="127"/>
-      <c r="N12" s="127"/>
-      <c r="O12" s="141"/>
-      <c r="P12" s="141"/>
-      <c r="Q12" s="142"/>
-      <c r="R12" s="143"/>
-      <c r="S12" s="141"/>
-      <c r="T12" s="141"/>
-      <c r="U12" s="141"/>
-      <c r="V12" s="141"/>
-      <c r="W12" s="142"/>
-      <c r="X12" s="97"/>
-      <c r="Y12" s="98"/>
-      <c r="Z12" s="98"/>
-      <c r="AA12" s="98"/>
-      <c r="AB12" s="98"/>
-      <c r="AC12" s="99"/>
-      <c r="AD12" s="100"/>
-      <c r="AE12" s="101"/>
-      <c r="AF12" s="101"/>
-      <c r="AG12" s="98"/>
-      <c r="AH12" s="98"/>
-      <c r="AI12" s="99"/>
-      <c r="AJ12" s="97"/>
-      <c r="AK12" s="98"/>
-      <c r="AL12" s="98"/>
-      <c r="AM12" s="98"/>
-      <c r="AN12" s="98"/>
-      <c r="AO12" s="99"/>
-      <c r="AP12" s="97"/>
-      <c r="AQ12" s="98"/>
-      <c r="AR12" s="98"/>
-      <c r="AS12" s="98"/>
-      <c r="AT12" s="98"/>
-      <c r="AU12" s="99"/>
-      <c r="AV12" s="100"/>
-      <c r="AW12" s="101"/>
-      <c r="AX12" s="101"/>
-      <c r="AY12" s="98"/>
-      <c r="AZ12" s="98"/>
-      <c r="BA12" s="99"/>
-      <c r="BB12" s="97"/>
-      <c r="BC12" s="98"/>
-      <c r="BD12" s="98"/>
-      <c r="BE12" s="98"/>
-      <c r="BF12" s="98"/>
-      <c r="BG12" s="99"/>
-      <c r="BH12" s="100"/>
-      <c r="BI12" s="101"/>
-      <c r="BJ12" s="101"/>
-      <c r="BK12" s="98"/>
-      <c r="BL12" s="98"/>
-      <c r="BM12" s="99"/>
-      <c r="BN12" s="97"/>
-      <c r="BO12" s="98"/>
-      <c r="BP12" s="98"/>
-      <c r="BQ12" s="98"/>
-      <c r="BR12" s="98"/>
-      <c r="BS12" s="99"/>
-      <c r="BT12" s="97"/>
-      <c r="BU12" s="98"/>
-      <c r="BV12" s="98"/>
-      <c r="BW12" s="98"/>
-      <c r="BX12" s="98"/>
-      <c r="BY12" s="99"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="80"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="80"/>
+      <c r="T12" s="80"/>
+      <c r="U12" s="80"/>
+      <c r="V12" s="80"/>
+      <c r="W12" s="81"/>
+      <c r="X12" s="181"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="25"/>
+      <c r="AF12" s="25"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="40"/>
+      <c r="AJ12" s="38"/>
+      <c r="AK12" s="39"/>
+      <c r="AL12" s="39"/>
+      <c r="AM12" s="39"/>
+      <c r="AN12" s="39"/>
+      <c r="AO12" s="40"/>
+      <c r="AP12" s="38"/>
+      <c r="AQ12" s="39"/>
+      <c r="AR12" s="39"/>
+      <c r="AS12" s="39"/>
+      <c r="AT12" s="39"/>
+      <c r="AU12" s="40"/>
+      <c r="AV12" s="24"/>
+      <c r="AW12" s="25"/>
+      <c r="AX12" s="25"/>
+      <c r="AY12" s="39"/>
+      <c r="AZ12" s="39"/>
+      <c r="BA12" s="40"/>
+      <c r="BB12" s="38"/>
+      <c r="BC12" s="39"/>
+      <c r="BD12" s="39"/>
+      <c r="BE12" s="39"/>
+      <c r="BF12" s="39"/>
+      <c r="BG12" s="40"/>
+      <c r="BH12" s="24"/>
+      <c r="BI12" s="25"/>
+      <c r="BJ12" s="25"/>
+      <c r="BK12" s="39"/>
+      <c r="BL12" s="39"/>
+      <c r="BM12" s="40"/>
+      <c r="BN12" s="38"/>
+      <c r="BO12" s="39"/>
+      <c r="BP12" s="39"/>
+      <c r="BQ12" s="39"/>
+      <c r="BR12" s="39"/>
+      <c r="BS12" s="40"/>
+      <c r="BT12" s="38"/>
+      <c r="BU12" s="39"/>
+      <c r="BV12" s="39"/>
+      <c r="BW12" s="39"/>
+      <c r="BX12" s="39"/>
+      <c r="BY12" s="40"/>
     </row>
     <row r="13" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="52">
+      <c r="D13" s="134">
         <v>1</v>
       </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="156" t="s">
+      <c r="E13" s="135"/>
+      <c r="F13" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="157"/>
-      <c r="H13" s="157"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="157"/>
-      <c r="K13" s="158"/>
-      <c r="L13" s="137"/>
-      <c r="M13" s="138"/>
-      <c r="N13" s="138"/>
-      <c r="O13" s="139"/>
-      <c r="P13" s="139"/>
-      <c r="Q13" s="140"/>
-      <c r="R13" s="128"/>
-      <c r="S13" s="120"/>
-      <c r="T13" s="120"/>
-      <c r="U13" s="120"/>
-      <c r="V13" s="120"/>
-      <c r="W13" s="129"/>
-      <c r="X13" s="156" t="s">
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="79"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="Y13" s="157"/>
-      <c r="Z13" s="157"/>
-      <c r="AA13" s="157"/>
-      <c r="AB13" s="157"/>
-      <c r="AC13" s="158"/>
-      <c r="AD13" s="137"/>
-      <c r="AE13" s="138"/>
-      <c r="AF13" s="138"/>
-      <c r="AG13" s="139"/>
-      <c r="AH13" s="139"/>
-      <c r="AI13" s="140"/>
-      <c r="AJ13" s="128"/>
-      <c r="AK13" s="120"/>
-      <c r="AL13" s="120"/>
-      <c r="AM13" s="120"/>
-      <c r="AN13" s="120"/>
-      <c r="AO13" s="129"/>
-      <c r="AP13" s="128"/>
-      <c r="AQ13" s="120"/>
-      <c r="AR13" s="120"/>
-      <c r="AS13" s="120"/>
-      <c r="AT13" s="120"/>
-      <c r="AU13" s="129"/>
-      <c r="AV13" s="137"/>
-      <c r="AW13" s="138"/>
-      <c r="AX13" s="138"/>
-      <c r="AY13" s="139"/>
-      <c r="AZ13" s="139"/>
-      <c r="BA13" s="140"/>
-      <c r="BB13" s="174" t="s">
+      <c r="Y13" s="94"/>
+      <c r="Z13" s="94"/>
+      <c r="AA13" s="94"/>
+      <c r="AB13" s="94"/>
+      <c r="AC13" s="95"/>
+      <c r="AD13" s="76"/>
+      <c r="AE13" s="77"/>
+      <c r="AF13" s="77"/>
+      <c r="AG13" s="78"/>
+      <c r="AH13" s="78"/>
+      <c r="AI13" s="79"/>
+      <c r="AJ13" s="67"/>
+      <c r="AK13" s="59"/>
+      <c r="AL13" s="59"/>
+      <c r="AM13" s="59"/>
+      <c r="AN13" s="59"/>
+      <c r="AO13" s="68"/>
+      <c r="AP13" s="67"/>
+      <c r="AQ13" s="59"/>
+      <c r="AR13" s="59"/>
+      <c r="AS13" s="59"/>
+      <c r="AT13" s="59"/>
+      <c r="AU13" s="68"/>
+      <c r="AV13" s="76"/>
+      <c r="AW13" s="77"/>
+      <c r="AX13" s="77"/>
+      <c r="AY13" s="78"/>
+      <c r="AZ13" s="78"/>
+      <c r="BA13" s="79"/>
+      <c r="BB13" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="BC13" s="175"/>
-      <c r="BD13" s="175"/>
-      <c r="BE13" s="175"/>
-      <c r="BF13" s="175"/>
-      <c r="BG13" s="176"/>
-      <c r="BH13" s="95"/>
-      <c r="BI13" s="96"/>
-      <c r="BJ13" s="96"/>
-      <c r="BK13" s="93"/>
-      <c r="BL13" s="93"/>
-      <c r="BM13" s="94"/>
-      <c r="BN13" s="88"/>
-      <c r="BO13" s="86"/>
-      <c r="BP13" s="86"/>
-      <c r="BQ13" s="86"/>
-      <c r="BR13" s="86"/>
-      <c r="BS13" s="89"/>
-      <c r="BT13" s="88"/>
-      <c r="BU13" s="86"/>
-      <c r="BV13" s="86"/>
-      <c r="BW13" s="86"/>
-      <c r="BX13" s="86"/>
-      <c r="BY13" s="89"/>
+      <c r="BC13" s="112"/>
+      <c r="BD13" s="112"/>
+      <c r="BE13" s="112"/>
+      <c r="BF13" s="112"/>
+      <c r="BG13" s="113"/>
+      <c r="BH13" s="182"/>
+      <c r="BI13" s="37"/>
+      <c r="BJ13" s="37"/>
+      <c r="BK13" s="34"/>
+      <c r="BL13" s="34"/>
+      <c r="BM13" s="35"/>
+      <c r="BN13" s="29"/>
+      <c r="BO13" s="6"/>
+      <c r="BP13" s="6"/>
+      <c r="BQ13" s="6"/>
+      <c r="BR13" s="6"/>
+      <c r="BS13" s="30"/>
+      <c r="BT13" s="29"/>
+      <c r="BU13" s="6"/>
+      <c r="BV13" s="6"/>
+      <c r="BW13" s="6"/>
+      <c r="BX13" s="6"/>
+      <c r="BY13" s="30"/>
     </row>
     <row r="14" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="59"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="160"/>
-      <c r="I14" s="160"/>
-      <c r="J14" s="160"/>
-      <c r="K14" s="161"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="127"/>
-      <c r="N14" s="127"/>
-      <c r="O14" s="141"/>
-      <c r="P14" s="141"/>
-      <c r="Q14" s="142"/>
-      <c r="R14" s="143"/>
-      <c r="S14" s="141"/>
-      <c r="T14" s="141"/>
-      <c r="U14" s="141"/>
-      <c r="V14" s="141"/>
-      <c r="W14" s="142"/>
-      <c r="X14" s="159"/>
-      <c r="Y14" s="160"/>
-      <c r="Z14" s="160"/>
-      <c r="AA14" s="160"/>
-      <c r="AB14" s="160"/>
-      <c r="AC14" s="161"/>
-      <c r="AD14" s="126"/>
-      <c r="AE14" s="127"/>
-      <c r="AF14" s="127"/>
-      <c r="AG14" s="141"/>
-      <c r="AH14" s="141"/>
-      <c r="AI14" s="142"/>
-      <c r="AJ14" s="143"/>
-      <c r="AK14" s="141"/>
-      <c r="AL14" s="141"/>
-      <c r="AM14" s="141"/>
-      <c r="AN14" s="141"/>
-      <c r="AO14" s="142"/>
-      <c r="AP14" s="143"/>
-      <c r="AQ14" s="141"/>
-      <c r="AR14" s="141"/>
-      <c r="AS14" s="141"/>
-      <c r="AT14" s="141"/>
-      <c r="AU14" s="142"/>
-      <c r="AV14" s="126"/>
-      <c r="AW14" s="127"/>
-      <c r="AX14" s="127"/>
-      <c r="AY14" s="141"/>
-      <c r="AZ14" s="141"/>
-      <c r="BA14" s="142"/>
-      <c r="BB14" s="168"/>
-      <c r="BC14" s="169"/>
-      <c r="BD14" s="169"/>
-      <c r="BE14" s="169"/>
-      <c r="BF14" s="169"/>
-      <c r="BG14" s="170"/>
-      <c r="BH14" s="100"/>
-      <c r="BI14" s="101"/>
-      <c r="BJ14" s="101"/>
-      <c r="BK14" s="98"/>
-      <c r="BL14" s="98"/>
-      <c r="BM14" s="99"/>
-      <c r="BN14" s="97"/>
-      <c r="BO14" s="98"/>
-      <c r="BP14" s="98"/>
-      <c r="BQ14" s="98"/>
-      <c r="BR14" s="98"/>
-      <c r="BS14" s="99"/>
-      <c r="BT14" s="97"/>
-      <c r="BU14" s="98"/>
-      <c r="BV14" s="98"/>
-      <c r="BW14" s="98"/>
-      <c r="BX14" s="98"/>
-      <c r="BY14" s="99"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="80"/>
+      <c r="U14" s="80"/>
+      <c r="V14" s="80"/>
+      <c r="W14" s="81"/>
+      <c r="X14" s="96"/>
+      <c r="Y14" s="97"/>
+      <c r="Z14" s="97"/>
+      <c r="AA14" s="97"/>
+      <c r="AB14" s="97"/>
+      <c r="AC14" s="98"/>
+      <c r="AD14" s="65"/>
+      <c r="AE14" s="66"/>
+      <c r="AF14" s="66"/>
+      <c r="AG14" s="80"/>
+      <c r="AH14" s="80"/>
+      <c r="AI14" s="81"/>
+      <c r="AJ14" s="82"/>
+      <c r="AK14" s="80"/>
+      <c r="AL14" s="80"/>
+      <c r="AM14" s="80"/>
+      <c r="AN14" s="80"/>
+      <c r="AO14" s="81"/>
+      <c r="AP14" s="82"/>
+      <c r="AQ14" s="80"/>
+      <c r="AR14" s="80"/>
+      <c r="AS14" s="80"/>
+      <c r="AT14" s="80"/>
+      <c r="AU14" s="81"/>
+      <c r="AV14" s="65"/>
+      <c r="AW14" s="66"/>
+      <c r="AX14" s="66"/>
+      <c r="AY14" s="80"/>
+      <c r="AZ14" s="80"/>
+      <c r="BA14" s="81"/>
+      <c r="BB14" s="102"/>
+      <c r="BC14" s="103"/>
+      <c r="BD14" s="103"/>
+      <c r="BE14" s="103"/>
+      <c r="BF14" s="103"/>
+      <c r="BG14" s="104"/>
+      <c r="BH14" s="183"/>
+      <c r="BI14" s="25"/>
+      <c r="BJ14" s="25"/>
+      <c r="BK14" s="39"/>
+      <c r="BL14" s="39"/>
+      <c r="BM14" s="40"/>
+      <c r="BN14" s="38"/>
+      <c r="BO14" s="39"/>
+      <c r="BP14" s="39"/>
+      <c r="BQ14" s="39"/>
+      <c r="BR14" s="39"/>
+      <c r="BS14" s="40"/>
+      <c r="BT14" s="38"/>
+      <c r="BU14" s="39"/>
+      <c r="BV14" s="39"/>
+      <c r="BW14" s="39"/>
+      <c r="BX14" s="39"/>
+      <c r="BY14" s="40"/>
     </row>
     <row r="15" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="119" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="60">
+      <c r="D15" s="123">
         <v>1</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="156" t="s">
+      <c r="E15" s="127"/>
+      <c r="F15" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="G15" s="157"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="157"/>
-      <c r="K15" s="158"/>
-      <c r="L15" s="144"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="88"/>
-      <c r="S15" s="86"/>
-      <c r="T15" s="86"/>
-      <c r="U15" s="86"/>
-      <c r="V15" s="86"/>
-      <c r="W15" s="89"/>
-      <c r="X15" s="88"/>
-      <c r="Y15" s="86"/>
-      <c r="Z15" s="86"/>
-      <c r="AA15" s="86"/>
-      <c r="AB15" s="86"/>
-      <c r="AC15" s="89"/>
-      <c r="AD15" s="90"/>
-      <c r="AE15" s="91"/>
-      <c r="AF15" s="91"/>
-      <c r="AG15" s="86"/>
-      <c r="AH15" s="86"/>
-      <c r="AI15" s="86"/>
-      <c r="AJ15" s="88"/>
-      <c r="AK15" s="86"/>
-      <c r="AL15" s="86"/>
-      <c r="AM15" s="86"/>
-      <c r="AN15" s="86"/>
-      <c r="AO15" s="89"/>
-      <c r="AP15" s="88"/>
-      <c r="AQ15" s="86"/>
-      <c r="AR15" s="86"/>
-      <c r="AS15" s="86"/>
-      <c r="AT15" s="86"/>
-      <c r="AU15" s="89"/>
-      <c r="AV15" s="90"/>
-      <c r="AW15" s="91"/>
-      <c r="AX15" s="91"/>
-      <c r="AY15" s="86"/>
-      <c r="AZ15" s="86"/>
-      <c r="BA15" s="86"/>
-      <c r="BB15" s="88"/>
-      <c r="BC15" s="86"/>
-      <c r="BD15" s="86"/>
-      <c r="BE15" s="86"/>
-      <c r="BF15" s="86"/>
-      <c r="BG15" s="89"/>
-      <c r="BH15" s="90"/>
-      <c r="BI15" s="91"/>
-      <c r="BJ15" s="91"/>
-      <c r="BK15" s="86"/>
-      <c r="BL15" s="86"/>
-      <c r="BM15" s="86"/>
-      <c r="BN15" s="88"/>
-      <c r="BO15" s="86"/>
-      <c r="BP15" s="86"/>
-      <c r="BQ15" s="86"/>
-      <c r="BR15" s="86"/>
-      <c r="BS15" s="89"/>
-      <c r="BT15" s="88"/>
-      <c r="BU15" s="86"/>
-      <c r="BV15" s="86"/>
-      <c r="BW15" s="86"/>
-      <c r="BX15" s="86"/>
-      <c r="BY15" s="89"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="32"/>
+      <c r="AF15" s="32"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="29"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="30"/>
+      <c r="AP15" s="29"/>
+      <c r="AQ15" s="6"/>
+      <c r="AR15" s="6"/>
+      <c r="AS15" s="6"/>
+      <c r="AT15" s="6"/>
+      <c r="AU15" s="30"/>
+      <c r="AV15" s="31"/>
+      <c r="AW15" s="32"/>
+      <c r="AX15" s="32"/>
+      <c r="AY15" s="6"/>
+      <c r="AZ15" s="6"/>
+      <c r="BA15" s="6"/>
+      <c r="BB15" s="29"/>
+      <c r="BC15" s="6"/>
+      <c r="BD15" s="6"/>
+      <c r="BE15" s="6"/>
+      <c r="BF15" s="6"/>
+      <c r="BG15" s="30"/>
+      <c r="BH15" s="31"/>
+      <c r="BI15" s="32"/>
+      <c r="BJ15" s="32"/>
+      <c r="BK15" s="6"/>
+      <c r="BL15" s="6"/>
+      <c r="BM15" s="6"/>
+      <c r="BN15" s="29"/>
+      <c r="BO15" s="6"/>
+      <c r="BP15" s="6"/>
+      <c r="BQ15" s="6"/>
+      <c r="BR15" s="6"/>
+      <c r="BS15" s="30"/>
+      <c r="BT15" s="29"/>
+      <c r="BU15" s="6"/>
+      <c r="BV15" s="6"/>
+      <c r="BW15" s="6"/>
+      <c r="BX15" s="6"/>
+      <c r="BY15" s="30"/>
     </row>
     <row r="16" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="59"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="160"/>
-      <c r="H16" s="160"/>
-      <c r="I16" s="160"/>
-      <c r="J16" s="160"/>
-      <c r="K16" s="161"/>
-      <c r="L16" s="144"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="86"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="97"/>
-      <c r="S16" s="98"/>
-      <c r="T16" s="98"/>
-      <c r="U16" s="98"/>
-      <c r="V16" s="98"/>
-      <c r="W16" s="99"/>
-      <c r="X16" s="97"/>
-      <c r="Y16" s="98"/>
-      <c r="Z16" s="98"/>
-      <c r="AA16" s="98"/>
-      <c r="AB16" s="98"/>
-      <c r="AC16" s="99"/>
-      <c r="AD16" s="90"/>
-      <c r="AE16" s="91"/>
-      <c r="AF16" s="91"/>
-      <c r="AG16" s="86"/>
-      <c r="AH16" s="86"/>
-      <c r="AI16" s="86"/>
-      <c r="AJ16" s="97"/>
-      <c r="AK16" s="98"/>
-      <c r="AL16" s="98"/>
-      <c r="AM16" s="98"/>
-      <c r="AN16" s="98"/>
-      <c r="AO16" s="99"/>
-      <c r="AP16" s="97"/>
-      <c r="AQ16" s="98"/>
-      <c r="AR16" s="98"/>
-      <c r="AS16" s="98"/>
-      <c r="AT16" s="98"/>
-      <c r="AU16" s="99"/>
-      <c r="AV16" s="90"/>
-      <c r="AW16" s="91"/>
-      <c r="AX16" s="91"/>
-      <c r="AY16" s="86"/>
-      <c r="AZ16" s="86"/>
-      <c r="BA16" s="86"/>
-      <c r="BB16" s="97"/>
-      <c r="BC16" s="98"/>
-      <c r="BD16" s="98"/>
-      <c r="BE16" s="98"/>
-      <c r="BF16" s="98"/>
-      <c r="BG16" s="99"/>
-      <c r="BH16" s="90"/>
-      <c r="BI16" s="91"/>
-      <c r="BJ16" s="91"/>
-      <c r="BK16" s="86"/>
-      <c r="BL16" s="86"/>
-      <c r="BM16" s="86"/>
-      <c r="BN16" s="97"/>
-      <c r="BO16" s="98"/>
-      <c r="BP16" s="98"/>
-      <c r="BQ16" s="98"/>
-      <c r="BR16" s="98"/>
-      <c r="BS16" s="99"/>
-      <c r="BT16" s="97"/>
-      <c r="BU16" s="98"/>
-      <c r="BV16" s="98"/>
-      <c r="BW16" s="98"/>
-      <c r="BX16" s="98"/>
-      <c r="BY16" s="99"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="39"/>
+      <c r="AA16" s="39"/>
+      <c r="AB16" s="39"/>
+      <c r="AC16" s="40"/>
+      <c r="AD16" s="31"/>
+      <c r="AE16" s="32"/>
+      <c r="AF16" s="32"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="38"/>
+      <c r="AK16" s="39"/>
+      <c r="AL16" s="39"/>
+      <c r="AM16" s="39"/>
+      <c r="AN16" s="39"/>
+      <c r="AO16" s="40"/>
+      <c r="AP16" s="38"/>
+      <c r="AQ16" s="39"/>
+      <c r="AR16" s="39"/>
+      <c r="AS16" s="39"/>
+      <c r="AT16" s="39"/>
+      <c r="AU16" s="40"/>
+      <c r="AV16" s="31"/>
+      <c r="AW16" s="32"/>
+      <c r="AX16" s="32"/>
+      <c r="AY16" s="6"/>
+      <c r="AZ16" s="6"/>
+      <c r="BA16" s="6"/>
+      <c r="BB16" s="38"/>
+      <c r="BC16" s="39"/>
+      <c r="BD16" s="39"/>
+      <c r="BE16" s="39"/>
+      <c r="BF16" s="39"/>
+      <c r="BG16" s="40"/>
+      <c r="BH16" s="31"/>
+      <c r="BI16" s="32"/>
+      <c r="BJ16" s="32"/>
+      <c r="BK16" s="6"/>
+      <c r="BL16" s="6"/>
+      <c r="BM16" s="6"/>
+      <c r="BN16" s="38"/>
+      <c r="BO16" s="39"/>
+      <c r="BP16" s="39"/>
+      <c r="BQ16" s="39"/>
+      <c r="BR16" s="39"/>
+      <c r="BS16" s="40"/>
+      <c r="BT16" s="38"/>
+      <c r="BU16" s="39"/>
+      <c r="BV16" s="39"/>
+      <c r="BW16" s="39"/>
+      <c r="BX16" s="39"/>
+      <c r="BY16" s="40"/>
     </row>
     <row r="17" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="60">
+      <c r="D17" s="123">
         <v>1</v>
       </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="88"/>
-      <c r="S17" s="86"/>
-      <c r="T17" s="86"/>
-      <c r="U17" s="86"/>
-      <c r="V17" s="86"/>
-      <c r="W17" s="89"/>
-      <c r="X17" s="88"/>
-      <c r="Y17" s="86"/>
-      <c r="Z17" s="86"/>
-      <c r="AA17" s="86"/>
-      <c r="AB17" s="86"/>
-      <c r="AC17" s="89"/>
-      <c r="AD17" s="95"/>
-      <c r="AE17" s="96"/>
-      <c r="AF17" s="96"/>
-      <c r="AG17" s="93"/>
-      <c r="AH17" s="93"/>
-      <c r="AI17" s="94"/>
-      <c r="AJ17" s="88"/>
-      <c r="AK17" s="86"/>
-      <c r="AL17" s="86"/>
-      <c r="AM17" s="86"/>
-      <c r="AN17" s="86"/>
-      <c r="AO17" s="89"/>
-      <c r="AP17" s="88"/>
-      <c r="AQ17" s="86"/>
-      <c r="AR17" s="86"/>
-      <c r="AS17" s="86"/>
-      <c r="AT17" s="86"/>
-      <c r="AU17" s="89"/>
-      <c r="AV17" s="174" t="s">
+      <c r="E17" s="127"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="37"/>
+      <c r="AG17" s="34"/>
+      <c r="AH17" s="34"/>
+      <c r="AI17" s="35"/>
+      <c r="AJ17" s="29"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6"/>
+      <c r="AO17" s="30"/>
+      <c r="AP17" s="29"/>
+      <c r="AQ17" s="6"/>
+      <c r="AR17" s="6"/>
+      <c r="AS17" s="6"/>
+      <c r="AT17" s="6"/>
+      <c r="AU17" s="30"/>
+      <c r="AV17" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="AW17" s="175"/>
-      <c r="AX17" s="175"/>
-      <c r="AY17" s="175"/>
-      <c r="AZ17" s="175"/>
-      <c r="BA17" s="152"/>
-      <c r="BB17" s="88"/>
-      <c r="BC17" s="86"/>
-      <c r="BD17" s="86"/>
-      <c r="BE17" s="86"/>
-      <c r="BF17" s="86"/>
-      <c r="BG17" s="89"/>
-      <c r="BH17" s="95"/>
-      <c r="BI17" s="96"/>
-      <c r="BJ17" s="96"/>
-      <c r="BK17" s="93"/>
-      <c r="BL17" s="93"/>
-      <c r="BM17" s="94"/>
-      <c r="BN17" s="88"/>
-      <c r="BO17" s="86"/>
-      <c r="BP17" s="86"/>
-      <c r="BQ17" s="86"/>
-      <c r="BR17" s="86"/>
-      <c r="BS17" s="89"/>
-      <c r="BT17" s="88"/>
-      <c r="BU17" s="86"/>
-      <c r="BV17" s="86"/>
-      <c r="BW17" s="86"/>
-      <c r="BX17" s="86"/>
-      <c r="BY17" s="89"/>
+      <c r="AW17" s="112"/>
+      <c r="AX17" s="112"/>
+      <c r="AY17" s="112"/>
+      <c r="AZ17" s="112"/>
+      <c r="BA17" s="91"/>
+      <c r="BB17" s="29"/>
+      <c r="BC17" s="6"/>
+      <c r="BD17" s="6"/>
+      <c r="BE17" s="6"/>
+      <c r="BF17" s="6"/>
+      <c r="BG17" s="30"/>
+      <c r="BH17" s="36"/>
+      <c r="BI17" s="37"/>
+      <c r="BJ17" s="37"/>
+      <c r="BK17" s="34"/>
+      <c r="BL17" s="34"/>
+      <c r="BM17" s="35"/>
+      <c r="BN17" s="29"/>
+      <c r="BO17" s="6"/>
+      <c r="BP17" s="6"/>
+      <c r="BQ17" s="6"/>
+      <c r="BR17" s="6"/>
+      <c r="BS17" s="30"/>
+      <c r="BT17" s="29"/>
+      <c r="BU17" s="6"/>
+      <c r="BV17" s="6"/>
+      <c r="BW17" s="6"/>
+      <c r="BX17" s="6"/>
+      <c r="BY17" s="30"/>
     </row>
     <row r="18" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="59"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="98"/>
-      <c r="P18" s="98"/>
-      <c r="Q18" s="99"/>
-      <c r="R18" s="97"/>
-      <c r="S18" s="98"/>
-      <c r="T18" s="98"/>
-      <c r="U18" s="98"/>
-      <c r="V18" s="98"/>
-      <c r="W18" s="99"/>
-      <c r="X18" s="97"/>
-      <c r="Y18" s="98"/>
-      <c r="Z18" s="98"/>
-      <c r="AA18" s="98"/>
-      <c r="AB18" s="98"/>
-      <c r="AC18" s="99"/>
-      <c r="AD18" s="100"/>
-      <c r="AE18" s="101"/>
-      <c r="AF18" s="101"/>
-      <c r="AG18" s="98"/>
-      <c r="AH18" s="98"/>
-      <c r="AI18" s="99"/>
-      <c r="AJ18" s="97"/>
-      <c r="AK18" s="98"/>
-      <c r="AL18" s="98"/>
-      <c r="AM18" s="98"/>
-      <c r="AN18" s="98"/>
-      <c r="AO18" s="99"/>
-      <c r="AP18" s="97"/>
-      <c r="AQ18" s="98"/>
-      <c r="AR18" s="98"/>
-      <c r="AS18" s="98"/>
-      <c r="AT18" s="98"/>
-      <c r="AU18" s="99"/>
-      <c r="AV18" s="168"/>
-      <c r="AW18" s="169"/>
-      <c r="AX18" s="169"/>
-      <c r="AY18" s="169"/>
-      <c r="AZ18" s="169"/>
-      <c r="BA18" s="153"/>
-      <c r="BB18" s="97"/>
-      <c r="BC18" s="98"/>
-      <c r="BD18" s="98"/>
-      <c r="BE18" s="98"/>
-      <c r="BF18" s="98"/>
-      <c r="BG18" s="99"/>
-      <c r="BH18" s="100"/>
-      <c r="BI18" s="101"/>
-      <c r="BJ18" s="101"/>
-      <c r="BK18" s="98"/>
-      <c r="BL18" s="98"/>
-      <c r="BM18" s="99"/>
-      <c r="BN18" s="97"/>
-      <c r="BO18" s="98"/>
-      <c r="BP18" s="98"/>
-      <c r="BQ18" s="98"/>
-      <c r="BR18" s="98"/>
-      <c r="BS18" s="99"/>
-      <c r="BT18" s="97"/>
-      <c r="BU18" s="98"/>
-      <c r="BV18" s="98"/>
-      <c r="BW18" s="98"/>
-      <c r="BX18" s="98"/>
-      <c r="BY18" s="99"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="39"/>
+      <c r="AA18" s="39"/>
+      <c r="AB18" s="39"/>
+      <c r="AC18" s="40"/>
+      <c r="AD18" s="24"/>
+      <c r="AE18" s="25"/>
+      <c r="AF18" s="25"/>
+      <c r="AG18" s="39"/>
+      <c r="AH18" s="39"/>
+      <c r="AI18" s="40"/>
+      <c r="AJ18" s="38"/>
+      <c r="AK18" s="39"/>
+      <c r="AL18" s="39"/>
+      <c r="AM18" s="39"/>
+      <c r="AN18" s="39"/>
+      <c r="AO18" s="40"/>
+      <c r="AP18" s="38"/>
+      <c r="AQ18" s="39"/>
+      <c r="AR18" s="39"/>
+      <c r="AS18" s="39"/>
+      <c r="AT18" s="39"/>
+      <c r="AU18" s="40"/>
+      <c r="AV18" s="102"/>
+      <c r="AW18" s="103"/>
+      <c r="AX18" s="103"/>
+      <c r="AY18" s="103"/>
+      <c r="AZ18" s="103"/>
+      <c r="BA18" s="92"/>
+      <c r="BB18" s="38"/>
+      <c r="BC18" s="39"/>
+      <c r="BD18" s="39"/>
+      <c r="BE18" s="39"/>
+      <c r="BF18" s="39"/>
+      <c r="BG18" s="40"/>
+      <c r="BH18" s="24"/>
+      <c r="BI18" s="25"/>
+      <c r="BJ18" s="25"/>
+      <c r="BK18" s="39"/>
+      <c r="BL18" s="39"/>
+      <c r="BM18" s="40"/>
+      <c r="BN18" s="38"/>
+      <c r="BO18" s="39"/>
+      <c r="BP18" s="39"/>
+      <c r="BQ18" s="39"/>
+      <c r="BR18" s="39"/>
+      <c r="BS18" s="40"/>
+      <c r="BT18" s="38"/>
+      <c r="BU18" s="39"/>
+      <c r="BV18" s="39"/>
+      <c r="BW18" s="39"/>
+      <c r="BX18" s="39"/>
+      <c r="BY18" s="40"/>
     </row>
     <row r="19" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="129" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="60">
+      <c r="D19" s="123">
         <v>0.5</v>
       </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="129"/>
-      <c r="L19" s="156" t="s">
+      <c r="E19" s="127"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="M19" s="157"/>
-      <c r="N19" s="157"/>
-      <c r="O19" s="157"/>
-      <c r="P19" s="157"/>
-      <c r="Q19" s="158"/>
-      <c r="R19" s="128"/>
-      <c r="S19" s="120"/>
-      <c r="T19" s="120"/>
-      <c r="U19" s="120"/>
-      <c r="V19" s="120"/>
-      <c r="W19" s="129"/>
-      <c r="X19" s="156" t="s">
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="68"/>
+      <c r="X19" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="Y19" s="157"/>
-      <c r="Z19" s="157"/>
-      <c r="AA19" s="157"/>
-      <c r="AB19" s="157"/>
-      <c r="AC19" s="158"/>
-      <c r="AD19" s="156" t="s">
+      <c r="Y19" s="94"/>
+      <c r="Z19" s="94"/>
+      <c r="AA19" s="94"/>
+      <c r="AB19" s="94"/>
+      <c r="AC19" s="95"/>
+      <c r="AD19" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="AE19" s="157"/>
-      <c r="AF19" s="157"/>
-      <c r="AG19" s="157"/>
-      <c r="AH19" s="157"/>
-      <c r="AI19" s="158"/>
-      <c r="AJ19" s="128"/>
-      <c r="AK19" s="120"/>
-      <c r="AL19" s="120"/>
-      <c r="AM19" s="120"/>
-      <c r="AN19" s="120"/>
-      <c r="AO19" s="129"/>
-      <c r="AP19" s="156" t="s">
+      <c r="AE19" s="94"/>
+      <c r="AF19" s="94"/>
+      <c r="AG19" s="94"/>
+      <c r="AH19" s="94"/>
+      <c r="AI19" s="95"/>
+      <c r="AJ19" s="67"/>
+      <c r="AK19" s="59"/>
+      <c r="AL19" s="59"/>
+      <c r="AM19" s="59"/>
+      <c r="AN19" s="59"/>
+      <c r="AO19" s="68"/>
+      <c r="AP19" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="AQ19" s="157"/>
-      <c r="AR19" s="157"/>
-      <c r="AS19" s="157"/>
-      <c r="AT19" s="157"/>
-      <c r="AU19" s="158"/>
-      <c r="AV19" s="174" t="s">
+      <c r="AQ19" s="94"/>
+      <c r="AR19" s="94"/>
+      <c r="AS19" s="94"/>
+      <c r="AT19" s="94"/>
+      <c r="AU19" s="95"/>
+      <c r="AV19" s="111" t="s">
         <v>92</v>
       </c>
-      <c r="AW19" s="175"/>
-      <c r="AX19" s="175"/>
-      <c r="AY19" s="175"/>
-      <c r="AZ19" s="175"/>
-      <c r="BA19" s="176"/>
-      <c r="BB19" s="88"/>
-      <c r="BC19" s="86"/>
-      <c r="BD19" s="86"/>
-      <c r="BE19" s="86"/>
-      <c r="BF19" s="86"/>
-      <c r="BG19" s="89"/>
-      <c r="BH19" s="95"/>
-      <c r="BI19" s="96"/>
-      <c r="BJ19" s="96"/>
-      <c r="BK19" s="93"/>
-      <c r="BL19" s="93"/>
-      <c r="BM19" s="94"/>
-      <c r="BN19" s="88"/>
-      <c r="BO19" s="86"/>
-      <c r="BP19" s="86"/>
-      <c r="BQ19" s="86"/>
-      <c r="BR19" s="86"/>
-      <c r="BS19" s="89"/>
-      <c r="BT19" s="88"/>
-      <c r="BU19" s="86"/>
-      <c r="BV19" s="86"/>
-      <c r="BW19" s="86"/>
-      <c r="BX19" s="86"/>
-      <c r="BY19" s="89"/>
+      <c r="AW19" s="112"/>
+      <c r="AX19" s="112"/>
+      <c r="AY19" s="112"/>
+      <c r="AZ19" s="112"/>
+      <c r="BA19" s="113"/>
+      <c r="BB19" s="184"/>
+      <c r="BC19" s="6"/>
+      <c r="BD19" s="6"/>
+      <c r="BE19" s="6"/>
+      <c r="BF19" s="6"/>
+      <c r="BG19" s="30"/>
+      <c r="BH19" s="36"/>
+      <c r="BI19" s="37"/>
+      <c r="BJ19" s="37"/>
+      <c r="BK19" s="34"/>
+      <c r="BL19" s="34"/>
+      <c r="BM19" s="35"/>
+      <c r="BN19" s="29"/>
+      <c r="BO19" s="6"/>
+      <c r="BP19" s="6"/>
+      <c r="BQ19" s="6"/>
+      <c r="BR19" s="6"/>
+      <c r="BS19" s="30"/>
+      <c r="BT19" s="29"/>
+      <c r="BU19" s="6"/>
+      <c r="BV19" s="6"/>
+      <c r="BW19" s="6"/>
+      <c r="BX19" s="6"/>
+      <c r="BY19" s="30"/>
     </row>
     <row r="20" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="59"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="141"/>
-      <c r="I20" s="141"/>
-      <c r="J20" s="141"/>
-      <c r="K20" s="142"/>
-      <c r="L20" s="159"/>
-      <c r="M20" s="160"/>
-      <c r="N20" s="160"/>
-      <c r="O20" s="160"/>
-      <c r="P20" s="160"/>
-      <c r="Q20" s="161"/>
-      <c r="R20" s="143"/>
-      <c r="S20" s="141"/>
-      <c r="T20" s="141"/>
-      <c r="U20" s="141"/>
-      <c r="V20" s="141"/>
-      <c r="W20" s="142"/>
-      <c r="X20" s="159"/>
-      <c r="Y20" s="160"/>
-      <c r="Z20" s="160"/>
-      <c r="AA20" s="160"/>
-      <c r="AB20" s="160"/>
-      <c r="AC20" s="161"/>
-      <c r="AD20" s="159"/>
-      <c r="AE20" s="160"/>
-      <c r="AF20" s="160"/>
-      <c r="AG20" s="160"/>
-      <c r="AH20" s="160"/>
-      <c r="AI20" s="161"/>
-      <c r="AJ20" s="143"/>
-      <c r="AK20" s="141"/>
-      <c r="AL20" s="141"/>
-      <c r="AM20" s="141"/>
-      <c r="AN20" s="141"/>
-      <c r="AO20" s="142"/>
-      <c r="AP20" s="159"/>
-      <c r="AQ20" s="160"/>
-      <c r="AR20" s="160"/>
-      <c r="AS20" s="160"/>
-      <c r="AT20" s="160"/>
-      <c r="AU20" s="161"/>
-      <c r="AV20" s="168"/>
-      <c r="AW20" s="169"/>
-      <c r="AX20" s="169"/>
-      <c r="AY20" s="169"/>
-      <c r="AZ20" s="169"/>
-      <c r="BA20" s="170"/>
-      <c r="BB20" s="97"/>
-      <c r="BC20" s="98"/>
-      <c r="BD20" s="98"/>
-      <c r="BE20" s="98"/>
-      <c r="BF20" s="98"/>
-      <c r="BG20" s="99"/>
-      <c r="BH20" s="100"/>
-      <c r="BI20" s="101"/>
-      <c r="BJ20" s="101"/>
-      <c r="BK20" s="98"/>
-      <c r="BL20" s="98"/>
-      <c r="BM20" s="99"/>
-      <c r="BN20" s="97"/>
-      <c r="BO20" s="98"/>
-      <c r="BP20" s="98"/>
-      <c r="BQ20" s="98"/>
-      <c r="BR20" s="98"/>
-      <c r="BS20" s="99"/>
-      <c r="BT20" s="97"/>
-      <c r="BU20" s="98"/>
-      <c r="BV20" s="98"/>
-      <c r="BW20" s="98"/>
-      <c r="BX20" s="98"/>
-      <c r="BY20" s="99"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="97"/>
+      <c r="N20" s="97"/>
+      <c r="O20" s="97"/>
+      <c r="P20" s="97"/>
+      <c r="Q20" s="98"/>
+      <c r="R20" s="82"/>
+      <c r="S20" s="80"/>
+      <c r="T20" s="80"/>
+      <c r="U20" s="80"/>
+      <c r="V20" s="80"/>
+      <c r="W20" s="81"/>
+      <c r="X20" s="96"/>
+      <c r="Y20" s="97"/>
+      <c r="Z20" s="97"/>
+      <c r="AA20" s="97"/>
+      <c r="AB20" s="97"/>
+      <c r="AC20" s="98"/>
+      <c r="AD20" s="96"/>
+      <c r="AE20" s="97"/>
+      <c r="AF20" s="97"/>
+      <c r="AG20" s="97"/>
+      <c r="AH20" s="97"/>
+      <c r="AI20" s="98"/>
+      <c r="AJ20" s="82"/>
+      <c r="AK20" s="80"/>
+      <c r="AL20" s="80"/>
+      <c r="AM20" s="80"/>
+      <c r="AN20" s="80"/>
+      <c r="AO20" s="81"/>
+      <c r="AP20" s="96"/>
+      <c r="AQ20" s="97"/>
+      <c r="AR20" s="97"/>
+      <c r="AS20" s="97"/>
+      <c r="AT20" s="97"/>
+      <c r="AU20" s="98"/>
+      <c r="AV20" s="102"/>
+      <c r="AW20" s="103"/>
+      <c r="AX20" s="103"/>
+      <c r="AY20" s="103"/>
+      <c r="AZ20" s="103"/>
+      <c r="BA20" s="104"/>
+      <c r="BB20" s="181"/>
+      <c r="BC20" s="39"/>
+      <c r="BD20" s="39"/>
+      <c r="BE20" s="39"/>
+      <c r="BF20" s="39"/>
+      <c r="BG20" s="40"/>
+      <c r="BH20" s="24"/>
+      <c r="BI20" s="25"/>
+      <c r="BJ20" s="25"/>
+      <c r="BK20" s="39"/>
+      <c r="BL20" s="39"/>
+      <c r="BM20" s="40"/>
+      <c r="BN20" s="38"/>
+      <c r="BO20" s="39"/>
+      <c r="BP20" s="39"/>
+      <c r="BQ20" s="39"/>
+      <c r="BR20" s="39"/>
+      <c r="BS20" s="40"/>
+      <c r="BT20" s="38"/>
+      <c r="BU20" s="39"/>
+      <c r="BV20" s="39"/>
+      <c r="BW20" s="39"/>
+      <c r="BX20" s="39"/>
+      <c r="BY20" s="40"/>
     </row>
     <row r="21" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="60">
+      <c r="C21" s="131"/>
+      <c r="D21" s="123">
         <v>0.9</v>
       </c>
-      <c r="E21" s="61"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="88"/>
-      <c r="S21" s="86"/>
-      <c r="T21" s="86"/>
-      <c r="U21" s="86"/>
-      <c r="V21" s="86"/>
-      <c r="W21" s="89"/>
-      <c r="X21" s="88"/>
-      <c r="Y21" s="86"/>
-      <c r="Z21" s="86"/>
-      <c r="AA21" s="86"/>
-      <c r="AB21" s="86"/>
-      <c r="AC21" s="89"/>
-      <c r="AD21" s="95"/>
-      <c r="AE21" s="96"/>
-      <c r="AF21" s="96"/>
-      <c r="AG21" s="93"/>
-      <c r="AH21" s="93"/>
-      <c r="AI21" s="94"/>
-      <c r="AJ21" s="88"/>
-      <c r="AK21" s="86"/>
-      <c r="AL21" s="86"/>
-      <c r="AM21" s="86"/>
-      <c r="AN21" s="86"/>
-      <c r="AO21" s="89"/>
-      <c r="AP21" s="88"/>
-      <c r="AQ21" s="86"/>
-      <c r="AR21" s="86"/>
-      <c r="AS21" s="86"/>
-      <c r="AT21" s="86"/>
-      <c r="AU21" s="89"/>
-      <c r="AV21" s="95"/>
-      <c r="AW21" s="96"/>
-      <c r="AX21" s="96"/>
-      <c r="AY21" s="93"/>
-      <c r="AZ21" s="93"/>
-      <c r="BA21" s="94"/>
-      <c r="BB21" s="156" t="s">
+      <c r="E21" s="124"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="138"/>
+      <c r="M21" s="139"/>
+      <c r="N21" s="139"/>
+      <c r="O21" s="139"/>
+      <c r="P21" s="139"/>
+      <c r="Q21" s="140"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="37"/>
+      <c r="AF21" s="37"/>
+      <c r="AG21" s="34"/>
+      <c r="AH21" s="34"/>
+      <c r="AI21" s="35"/>
+      <c r="AJ21" s="29"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="6"/>
+      <c r="AN21" s="6"/>
+      <c r="AO21" s="30"/>
+      <c r="AP21" s="29"/>
+      <c r="AQ21" s="6"/>
+      <c r="AR21" s="6"/>
+      <c r="AS21" s="6"/>
+      <c r="AT21" s="6"/>
+      <c r="AU21" s="30"/>
+      <c r="AV21" s="36"/>
+      <c r="AW21" s="37"/>
+      <c r="AX21" s="37"/>
+      <c r="AY21" s="34"/>
+      <c r="AZ21" s="34"/>
+      <c r="BA21" s="35"/>
+      <c r="BB21" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="BC21" s="157"/>
-      <c r="BD21" s="157"/>
-      <c r="BE21" s="157"/>
-      <c r="BF21" s="157"/>
-      <c r="BG21" s="158"/>
-      <c r="BH21" s="156" t="s">
+      <c r="BC21" s="94"/>
+      <c r="BD21" s="94"/>
+      <c r="BE21" s="94"/>
+      <c r="BF21" s="94"/>
+      <c r="BG21" s="95"/>
+      <c r="BH21" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="BI21" s="157"/>
-      <c r="BJ21" s="157"/>
-      <c r="BK21" s="157"/>
-      <c r="BL21" s="157"/>
-      <c r="BM21" s="158"/>
-      <c r="BN21" s="88"/>
-      <c r="BO21" s="86"/>
-      <c r="BP21" s="86"/>
-      <c r="BQ21" s="86"/>
-      <c r="BR21" s="86"/>
-      <c r="BS21" s="89"/>
-      <c r="BT21" s="88"/>
-      <c r="BU21" s="86"/>
-      <c r="BV21" s="86"/>
-      <c r="BW21" s="86"/>
-      <c r="BX21" s="86"/>
-      <c r="BY21" s="89"/>
+      <c r="BI21" s="94"/>
+      <c r="BJ21" s="94"/>
+      <c r="BK21" s="94"/>
+      <c r="BL21" s="94"/>
+      <c r="BM21" s="95"/>
+      <c r="BN21" s="184"/>
+      <c r="BO21" s="6"/>
+      <c r="BP21" s="6"/>
+      <c r="BQ21" s="6"/>
+      <c r="BR21" s="6"/>
+      <c r="BS21" s="30"/>
+      <c r="BT21" s="29"/>
+      <c r="BU21" s="6"/>
+      <c r="BV21" s="6"/>
+      <c r="BW21" s="6"/>
+      <c r="BX21" s="6"/>
+      <c r="BY21" s="30"/>
     </row>
     <row r="22" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="59"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="98"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="97"/>
-      <c r="S22" s="98"/>
-      <c r="T22" s="98"/>
-      <c r="U22" s="98"/>
-      <c r="V22" s="98"/>
-      <c r="W22" s="99"/>
-      <c r="X22" s="97"/>
-      <c r="Y22" s="98"/>
-      <c r="Z22" s="98"/>
-      <c r="AA22" s="98"/>
-      <c r="AB22" s="98"/>
-      <c r="AC22" s="99"/>
-      <c r="AD22" s="100"/>
-      <c r="AE22" s="101"/>
-      <c r="AF22" s="101"/>
-      <c r="AG22" s="98"/>
-      <c r="AH22" s="98"/>
-      <c r="AI22" s="99"/>
-      <c r="AJ22" s="97"/>
-      <c r="AK22" s="98"/>
-      <c r="AL22" s="98"/>
-      <c r="AM22" s="98"/>
-      <c r="AN22" s="98"/>
-      <c r="AO22" s="99"/>
-      <c r="AP22" s="97"/>
-      <c r="AQ22" s="98"/>
-      <c r="AR22" s="98"/>
-      <c r="AS22" s="98"/>
-      <c r="AT22" s="98"/>
-      <c r="AU22" s="99"/>
-      <c r="AV22" s="100"/>
-      <c r="AW22" s="101"/>
-      <c r="AX22" s="101"/>
-      <c r="AY22" s="98"/>
-      <c r="AZ22" s="98"/>
-      <c r="BA22" s="99"/>
-      <c r="BB22" s="159"/>
-      <c r="BC22" s="160"/>
-      <c r="BD22" s="160"/>
-      <c r="BE22" s="160"/>
-      <c r="BF22" s="160"/>
-      <c r="BG22" s="161"/>
-      <c r="BH22" s="159"/>
-      <c r="BI22" s="160"/>
-      <c r="BJ22" s="160"/>
-      <c r="BK22" s="160"/>
-      <c r="BL22" s="160"/>
-      <c r="BM22" s="161"/>
-      <c r="BN22" s="97"/>
-      <c r="BO22" s="98"/>
-      <c r="BP22" s="98"/>
-      <c r="BQ22" s="98"/>
-      <c r="BR22" s="98"/>
-      <c r="BS22" s="99"/>
-      <c r="BT22" s="97"/>
-      <c r="BU22" s="98"/>
-      <c r="BV22" s="98"/>
-      <c r="BW22" s="98"/>
-      <c r="BX22" s="98"/>
-      <c r="BY22" s="99"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="141"/>
+      <c r="M22" s="142"/>
+      <c r="N22" s="142"/>
+      <c r="O22" s="142"/>
+      <c r="P22" s="142"/>
+      <c r="Q22" s="143"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="39"/>
+      <c r="AB22" s="39"/>
+      <c r="AC22" s="40"/>
+      <c r="AD22" s="24"/>
+      <c r="AE22" s="25"/>
+      <c r="AF22" s="25"/>
+      <c r="AG22" s="39"/>
+      <c r="AH22" s="39"/>
+      <c r="AI22" s="40"/>
+      <c r="AJ22" s="38"/>
+      <c r="AK22" s="39"/>
+      <c r="AL22" s="39"/>
+      <c r="AM22" s="39"/>
+      <c r="AN22" s="39"/>
+      <c r="AO22" s="40"/>
+      <c r="AP22" s="38"/>
+      <c r="AQ22" s="39"/>
+      <c r="AR22" s="39"/>
+      <c r="AS22" s="39"/>
+      <c r="AT22" s="39"/>
+      <c r="AU22" s="40"/>
+      <c r="AV22" s="24"/>
+      <c r="AW22" s="25"/>
+      <c r="AX22" s="25"/>
+      <c r="AY22" s="39"/>
+      <c r="AZ22" s="39"/>
+      <c r="BA22" s="40"/>
+      <c r="BB22" s="96"/>
+      <c r="BC22" s="97"/>
+      <c r="BD22" s="97"/>
+      <c r="BE22" s="97"/>
+      <c r="BF22" s="97"/>
+      <c r="BG22" s="98"/>
+      <c r="BH22" s="96"/>
+      <c r="BI22" s="97"/>
+      <c r="BJ22" s="97"/>
+      <c r="BK22" s="97"/>
+      <c r="BL22" s="97"/>
+      <c r="BM22" s="98"/>
+      <c r="BN22" s="181"/>
+      <c r="BO22" s="39"/>
+      <c r="BP22" s="39"/>
+      <c r="BQ22" s="39"/>
+      <c r="BR22" s="39"/>
+      <c r="BS22" s="40"/>
+      <c r="BT22" s="38"/>
+      <c r="BU22" s="39"/>
+      <c r="BV22" s="39"/>
+      <c r="BW22" s="39"/>
+      <c r="BX22" s="39"/>
+      <c r="BY22" s="40"/>
     </row>
     <row r="23" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="60">
+      <c r="C23" s="122"/>
+      <c r="D23" s="123">
         <v>0.9</v>
       </c>
-      <c r="E23" s="63"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="94"/>
-      <c r="R23" s="88"/>
-      <c r="S23" s="86"/>
-      <c r="T23" s="86"/>
-      <c r="U23" s="86"/>
-      <c r="V23" s="86"/>
-      <c r="W23" s="89"/>
-      <c r="X23" s="88"/>
-      <c r="Y23" s="86"/>
-      <c r="Z23" s="86"/>
-      <c r="AA23" s="86"/>
-      <c r="AB23" s="86"/>
-      <c r="AC23" s="89"/>
-      <c r="AD23" s="95"/>
-      <c r="AE23" s="96"/>
-      <c r="AF23" s="96"/>
-      <c r="AG23" s="93"/>
-      <c r="AH23" s="93"/>
-      <c r="AI23" s="94"/>
-      <c r="AJ23" s="44"/>
-      <c r="AK23" s="45"/>
-      <c r="AL23" s="45"/>
-      <c r="AM23" s="45"/>
-      <c r="AN23" s="45"/>
-      <c r="AO23" s="46"/>
-      <c r="AP23" s="88"/>
-      <c r="AQ23" s="86"/>
-      <c r="AR23" s="86"/>
-      <c r="AS23" s="86"/>
-      <c r="AT23" s="86"/>
-      <c r="AU23" s="89"/>
-      <c r="AV23" s="95"/>
-      <c r="AW23" s="96"/>
-      <c r="AX23" s="96"/>
-      <c r="AY23" s="93"/>
-      <c r="AZ23" s="93"/>
-      <c r="BA23" s="94"/>
-      <c r="BB23" s="88"/>
-      <c r="BC23" s="86"/>
-      <c r="BD23" s="86"/>
-      <c r="BE23" s="86"/>
-      <c r="BF23" s="86"/>
-      <c r="BG23" s="89"/>
-      <c r="BH23" s="137"/>
-      <c r="BI23" s="138"/>
-      <c r="BJ23" s="138"/>
-      <c r="BK23" s="139"/>
-      <c r="BL23" s="139"/>
-      <c r="BM23" s="140"/>
-      <c r="BN23" s="174" t="s">
+      <c r="E23" s="127"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="37"/>
+      <c r="AF23" s="37"/>
+      <c r="AG23" s="34"/>
+      <c r="AH23" s="34"/>
+      <c r="AI23" s="35"/>
+      <c r="AJ23" s="138"/>
+      <c r="AK23" s="139"/>
+      <c r="AL23" s="139"/>
+      <c r="AM23" s="139"/>
+      <c r="AN23" s="139"/>
+      <c r="AO23" s="140"/>
+      <c r="AP23" s="29"/>
+      <c r="AQ23" s="6"/>
+      <c r="AR23" s="6"/>
+      <c r="AS23" s="6"/>
+      <c r="AT23" s="6"/>
+      <c r="AU23" s="30"/>
+      <c r="AV23" s="36"/>
+      <c r="AW23" s="37"/>
+      <c r="AX23" s="37"/>
+      <c r="AY23" s="34"/>
+      <c r="AZ23" s="34"/>
+      <c r="BA23" s="35"/>
+      <c r="BB23" s="29"/>
+      <c r="BC23" s="6"/>
+      <c r="BD23" s="6"/>
+      <c r="BE23" s="6"/>
+      <c r="BF23" s="6"/>
+      <c r="BG23" s="30"/>
+      <c r="BH23" s="76"/>
+      <c r="BI23" s="77"/>
+      <c r="BJ23" s="77"/>
+      <c r="BK23" s="78"/>
+      <c r="BL23" s="78"/>
+      <c r="BM23" s="79"/>
+      <c r="BN23" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="BO23" s="175"/>
-      <c r="BP23" s="175"/>
-      <c r="BQ23" s="175"/>
-      <c r="BR23" s="175"/>
-      <c r="BS23" s="176"/>
-      <c r="BT23" s="88"/>
-      <c r="BU23" s="86"/>
-      <c r="BV23" s="86"/>
-      <c r="BW23" s="86"/>
-      <c r="BX23" s="86"/>
-      <c r="BY23" s="89"/>
+      <c r="BO23" s="112"/>
+      <c r="BP23" s="112"/>
+      <c r="BQ23" s="112"/>
+      <c r="BR23" s="112"/>
+      <c r="BS23" s="113"/>
+      <c r="BT23" s="184"/>
+      <c r="BU23" s="6"/>
+      <c r="BV23" s="6"/>
+      <c r="BW23" s="6"/>
+      <c r="BX23" s="6"/>
+      <c r="BY23" s="30"/>
     </row>
     <row r="24" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="59"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="101"/>
-      <c r="O24" s="98"/>
-      <c r="P24" s="98"/>
-      <c r="Q24" s="99"/>
-      <c r="R24" s="97"/>
-      <c r="S24" s="98"/>
-      <c r="T24" s="98"/>
-      <c r="U24" s="98"/>
-      <c r="V24" s="98"/>
-      <c r="W24" s="99"/>
-      <c r="X24" s="97"/>
-      <c r="Y24" s="98"/>
-      <c r="Z24" s="98"/>
-      <c r="AA24" s="98"/>
-      <c r="AB24" s="98"/>
-      <c r="AC24" s="99"/>
-      <c r="AD24" s="100"/>
-      <c r="AE24" s="101"/>
-      <c r="AF24" s="101"/>
-      <c r="AG24" s="98"/>
-      <c r="AH24" s="98"/>
-      <c r="AI24" s="99"/>
-      <c r="AJ24" s="47"/>
-      <c r="AK24" s="48"/>
-      <c r="AL24" s="48"/>
-      <c r="AM24" s="48"/>
-      <c r="AN24" s="48"/>
-      <c r="AO24" s="49"/>
-      <c r="AP24" s="97"/>
-      <c r="AQ24" s="98"/>
-      <c r="AR24" s="98"/>
-      <c r="AS24" s="98"/>
-      <c r="AT24" s="98"/>
-      <c r="AU24" s="99"/>
-      <c r="AV24" s="100"/>
-      <c r="AW24" s="101"/>
-      <c r="AX24" s="101"/>
-      <c r="AY24" s="98"/>
-      <c r="AZ24" s="98"/>
-      <c r="BA24" s="99"/>
-      <c r="BB24" s="97"/>
-      <c r="BC24" s="98"/>
-      <c r="BD24" s="98"/>
-      <c r="BE24" s="98"/>
-      <c r="BF24" s="98"/>
-      <c r="BG24" s="99"/>
-      <c r="BH24" s="126"/>
-      <c r="BI24" s="127"/>
-      <c r="BJ24" s="127"/>
-      <c r="BK24" s="141"/>
-      <c r="BL24" s="141"/>
-      <c r="BM24" s="142"/>
-      <c r="BN24" s="168"/>
-      <c r="BO24" s="169"/>
-      <c r="BP24" s="169"/>
-      <c r="BQ24" s="169"/>
-      <c r="BR24" s="169"/>
-      <c r="BS24" s="170"/>
-      <c r="BT24" s="97"/>
-      <c r="BU24" s="98"/>
-      <c r="BV24" s="98"/>
-      <c r="BW24" s="98"/>
-      <c r="BX24" s="98"/>
-      <c r="BY24" s="99"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="39"/>
+      <c r="AB24" s="39"/>
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="24"/>
+      <c r="AE24" s="25"/>
+      <c r="AF24" s="25"/>
+      <c r="AG24" s="39"/>
+      <c r="AH24" s="39"/>
+      <c r="AI24" s="40"/>
+      <c r="AJ24" s="141"/>
+      <c r="AK24" s="142"/>
+      <c r="AL24" s="142"/>
+      <c r="AM24" s="142"/>
+      <c r="AN24" s="142"/>
+      <c r="AO24" s="143"/>
+      <c r="AP24" s="38"/>
+      <c r="AQ24" s="39"/>
+      <c r="AR24" s="39"/>
+      <c r="AS24" s="39"/>
+      <c r="AT24" s="39"/>
+      <c r="AU24" s="40"/>
+      <c r="AV24" s="24"/>
+      <c r="AW24" s="25"/>
+      <c r="AX24" s="25"/>
+      <c r="AY24" s="39"/>
+      <c r="AZ24" s="39"/>
+      <c r="BA24" s="40"/>
+      <c r="BB24" s="38"/>
+      <c r="BC24" s="39"/>
+      <c r="BD24" s="39"/>
+      <c r="BE24" s="39"/>
+      <c r="BF24" s="39"/>
+      <c r="BG24" s="40"/>
+      <c r="BH24" s="65"/>
+      <c r="BI24" s="66"/>
+      <c r="BJ24" s="66"/>
+      <c r="BK24" s="80"/>
+      <c r="BL24" s="80"/>
+      <c r="BM24" s="81"/>
+      <c r="BN24" s="102"/>
+      <c r="BO24" s="103"/>
+      <c r="BP24" s="103"/>
+      <c r="BQ24" s="103"/>
+      <c r="BR24" s="103"/>
+      <c r="BS24" s="104"/>
+      <c r="BT24" s="181"/>
+      <c r="BU24" s="39"/>
+      <c r="BV24" s="39"/>
+      <c r="BW24" s="39"/>
+      <c r="BX24" s="39"/>
+      <c r="BY24" s="40"/>
     </row>
     <row r="25" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="66"/>
-      <c r="D25" s="60">
+      <c r="C25" s="131"/>
+      <c r="D25" s="123">
         <v>0.8</v>
       </c>
-      <c r="E25" s="61"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="96"/>
-      <c r="N25" s="96"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="88"/>
-      <c r="S25" s="86"/>
-      <c r="T25" s="86"/>
-      <c r="U25" s="86"/>
-      <c r="V25" s="86"/>
-      <c r="W25" s="89"/>
-      <c r="X25" s="88"/>
-      <c r="Y25" s="86"/>
-      <c r="Z25" s="86"/>
-      <c r="AA25" s="86"/>
-      <c r="AB25" s="86"/>
-      <c r="AC25" s="89"/>
-      <c r="AD25" s="137"/>
-      <c r="AE25" s="138"/>
-      <c r="AF25" s="138"/>
-      <c r="AG25" s="139"/>
-      <c r="AH25" s="139"/>
-      <c r="AI25" s="140"/>
-      <c r="AJ25" s="174" t="s">
+      <c r="E25" s="124"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="76"/>
+      <c r="AE25" s="77"/>
+      <c r="AF25" s="77"/>
+      <c r="AG25" s="78"/>
+      <c r="AH25" s="78"/>
+      <c r="AI25" s="79"/>
+      <c r="AJ25" s="111" t="s">
         <v>116</v>
       </c>
-      <c r="AK25" s="175"/>
-      <c r="AL25" s="175"/>
-      <c r="AM25" s="175"/>
-      <c r="AN25" s="175"/>
-      <c r="AO25" s="176"/>
-      <c r="AP25" s="156" t="s">
+      <c r="AK25" s="112"/>
+      <c r="AL25" s="112"/>
+      <c r="AM25" s="112"/>
+      <c r="AN25" s="112"/>
+      <c r="AO25" s="113"/>
+      <c r="AP25" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="AQ25" s="157"/>
-      <c r="AR25" s="157"/>
-      <c r="AS25" s="157"/>
-      <c r="AT25" s="157"/>
-      <c r="AU25" s="158"/>
-      <c r="AV25" s="174" t="s">
+      <c r="AQ25" s="94"/>
+      <c r="AR25" s="94"/>
+      <c r="AS25" s="94"/>
+      <c r="AT25" s="94"/>
+      <c r="AU25" s="95"/>
+      <c r="AV25" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="AW25" s="175"/>
-      <c r="AX25" s="175"/>
-      <c r="AY25" s="175"/>
-      <c r="AZ25" s="175"/>
-      <c r="BA25" s="176"/>
-      <c r="BB25" s="174" t="s">
+      <c r="AW25" s="112"/>
+      <c r="AX25" s="112"/>
+      <c r="AY25" s="112"/>
+      <c r="AZ25" s="112"/>
+      <c r="BA25" s="113"/>
+      <c r="BB25" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="BC25" s="175"/>
-      <c r="BD25" s="175"/>
-      <c r="BE25" s="175"/>
-      <c r="BF25" s="175"/>
-      <c r="BG25" s="176"/>
-      <c r="BH25" s="174" t="s">
+      <c r="BC25" s="112"/>
+      <c r="BD25" s="112"/>
+      <c r="BE25" s="112"/>
+      <c r="BF25" s="112"/>
+      <c r="BG25" s="113"/>
+      <c r="BH25" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="BI25" s="175"/>
-      <c r="BJ25" s="175"/>
-      <c r="BK25" s="175"/>
-      <c r="BL25" s="175"/>
-      <c r="BM25" s="176"/>
-      <c r="BN25" s="174" t="s">
+      <c r="BI25" s="112"/>
+      <c r="BJ25" s="112"/>
+      <c r="BK25" s="112"/>
+      <c r="BL25" s="112"/>
+      <c r="BM25" s="113"/>
+      <c r="BN25" s="111" t="s">
         <v>92</v>
       </c>
-      <c r="BO25" s="175"/>
-      <c r="BP25" s="175"/>
-      <c r="BQ25" s="175"/>
-      <c r="BR25" s="175"/>
-      <c r="BS25" s="176"/>
-      <c r="BT25" s="88"/>
-      <c r="BU25" s="86"/>
-      <c r="BV25" s="86"/>
-      <c r="BW25" s="86"/>
-      <c r="BX25" s="86"/>
-      <c r="BY25" s="89"/>
+      <c r="BO25" s="112"/>
+      <c r="BP25" s="112"/>
+      <c r="BQ25" s="112"/>
+      <c r="BR25" s="112"/>
+      <c r="BS25" s="113"/>
+      <c r="BT25" s="29"/>
+      <c r="BU25" s="6"/>
+      <c r="BV25" s="6"/>
+      <c r="BW25" s="6"/>
+      <c r="BX25" s="6"/>
+      <c r="BY25" s="30"/>
     </row>
     <row r="26" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="59"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="100"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="101"/>
-      <c r="O26" s="98"/>
-      <c r="P26" s="98"/>
-      <c r="Q26" s="99"/>
-      <c r="R26" s="97"/>
-      <c r="S26" s="98"/>
-      <c r="T26" s="98"/>
-      <c r="U26" s="98"/>
-      <c r="V26" s="98"/>
-      <c r="W26" s="99"/>
-      <c r="X26" s="97"/>
-      <c r="Y26" s="98"/>
-      <c r="Z26" s="98"/>
-      <c r="AA26" s="98"/>
-      <c r="AB26" s="98"/>
-      <c r="AC26" s="99"/>
-      <c r="AD26" s="126"/>
-      <c r="AE26" s="127"/>
-      <c r="AF26" s="127"/>
-      <c r="AG26" s="141"/>
-      <c r="AH26" s="141"/>
-      <c r="AI26" s="142"/>
-      <c r="AJ26" s="168"/>
-      <c r="AK26" s="169"/>
-      <c r="AL26" s="169"/>
-      <c r="AM26" s="169"/>
-      <c r="AN26" s="169"/>
-      <c r="AO26" s="170"/>
-      <c r="AP26" s="159"/>
-      <c r="AQ26" s="160"/>
-      <c r="AR26" s="160"/>
-      <c r="AS26" s="160"/>
-      <c r="AT26" s="160"/>
-      <c r="AU26" s="161"/>
-      <c r="AV26" s="168"/>
-      <c r="AW26" s="169"/>
-      <c r="AX26" s="169"/>
-      <c r="AY26" s="169"/>
-      <c r="AZ26" s="169"/>
-      <c r="BA26" s="170"/>
-      <c r="BB26" s="168"/>
-      <c r="BC26" s="169"/>
-      <c r="BD26" s="169"/>
-      <c r="BE26" s="169"/>
-      <c r="BF26" s="169"/>
-      <c r="BG26" s="170"/>
-      <c r="BH26" s="168"/>
-      <c r="BI26" s="169"/>
-      <c r="BJ26" s="169"/>
-      <c r="BK26" s="169"/>
-      <c r="BL26" s="169"/>
-      <c r="BM26" s="170"/>
-      <c r="BN26" s="168"/>
-      <c r="BO26" s="169"/>
-      <c r="BP26" s="169"/>
-      <c r="BQ26" s="169"/>
-      <c r="BR26" s="169"/>
-      <c r="BS26" s="170"/>
-      <c r="BT26" s="97"/>
-      <c r="BU26" s="98"/>
-      <c r="BV26" s="98"/>
-      <c r="BW26" s="98"/>
-      <c r="BX26" s="98"/>
-      <c r="BY26" s="99"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="39"/>
+      <c r="AA26" s="39"/>
+      <c r="AB26" s="39"/>
+      <c r="AC26" s="40"/>
+      <c r="AD26" s="65"/>
+      <c r="AE26" s="66"/>
+      <c r="AF26" s="66"/>
+      <c r="AG26" s="80"/>
+      <c r="AH26" s="80"/>
+      <c r="AI26" s="81"/>
+      <c r="AJ26" s="102"/>
+      <c r="AK26" s="103"/>
+      <c r="AL26" s="103"/>
+      <c r="AM26" s="103"/>
+      <c r="AN26" s="103"/>
+      <c r="AO26" s="104"/>
+      <c r="AP26" s="96"/>
+      <c r="AQ26" s="97"/>
+      <c r="AR26" s="97"/>
+      <c r="AS26" s="97"/>
+      <c r="AT26" s="97"/>
+      <c r="AU26" s="98"/>
+      <c r="AV26" s="102"/>
+      <c r="AW26" s="103"/>
+      <c r="AX26" s="103"/>
+      <c r="AY26" s="103"/>
+      <c r="AZ26" s="103"/>
+      <c r="BA26" s="104"/>
+      <c r="BB26" s="102"/>
+      <c r="BC26" s="103"/>
+      <c r="BD26" s="103"/>
+      <c r="BE26" s="103"/>
+      <c r="BF26" s="103"/>
+      <c r="BG26" s="104"/>
+      <c r="BH26" s="102"/>
+      <c r="BI26" s="103"/>
+      <c r="BJ26" s="103"/>
+      <c r="BK26" s="103"/>
+      <c r="BL26" s="103"/>
+      <c r="BM26" s="104"/>
+      <c r="BN26" s="102"/>
+      <c r="BO26" s="103"/>
+      <c r="BP26" s="103"/>
+      <c r="BQ26" s="103"/>
+      <c r="BR26" s="103"/>
+      <c r="BS26" s="104"/>
+      <c r="BT26" s="38"/>
+      <c r="BU26" s="39"/>
+      <c r="BV26" s="39"/>
+      <c r="BW26" s="39"/>
+      <c r="BX26" s="39"/>
+      <c r="BY26" s="40"/>
     </row>
     <row r="27" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="60">
+      <c r="C27" s="122"/>
+      <c r="D27" s="123">
         <v>0.8</v>
       </c>
-      <c r="E27" s="63"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="96"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="93"/>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="88"/>
-      <c r="S27" s="86"/>
-      <c r="T27" s="86"/>
-      <c r="U27" s="86"/>
-      <c r="V27" s="86"/>
-      <c r="W27" s="89"/>
-      <c r="X27" s="88"/>
-      <c r="Y27" s="86"/>
-      <c r="Z27" s="86"/>
-      <c r="AA27" s="86"/>
-      <c r="AB27" s="86"/>
-      <c r="AC27" s="89"/>
-      <c r="AD27" s="95"/>
-      <c r="AE27" s="96"/>
-      <c r="AF27" s="96"/>
-      <c r="AG27" s="93"/>
-      <c r="AH27" s="93"/>
-      <c r="AI27" s="94"/>
-      <c r="AJ27" s="156" t="s">
+      <c r="E27" s="127"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="36"/>
+      <c r="AE27" s="37"/>
+      <c r="AF27" s="37"/>
+      <c r="AG27" s="34"/>
+      <c r="AH27" s="34"/>
+      <c r="AI27" s="35"/>
+      <c r="AJ27" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="AK27" s="157"/>
-      <c r="AL27" s="157"/>
-      <c r="AM27" s="157"/>
-      <c r="AN27" s="157"/>
-      <c r="AO27" s="158"/>
-      <c r="AP27" s="156" t="s">
+      <c r="AK27" s="94"/>
+      <c r="AL27" s="94"/>
+      <c r="AM27" s="94"/>
+      <c r="AN27" s="94"/>
+      <c r="AO27" s="95"/>
+      <c r="AP27" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="AQ27" s="157"/>
-      <c r="AR27" s="157"/>
-      <c r="AS27" s="157"/>
-      <c r="AT27" s="157"/>
-      <c r="AU27" s="158"/>
-      <c r="AV27" s="137"/>
-      <c r="AW27" s="138"/>
-      <c r="AX27" s="138"/>
-      <c r="AY27" s="139"/>
-      <c r="AZ27" s="139"/>
-      <c r="BA27" s="140"/>
-      <c r="BB27" s="128"/>
-      <c r="BC27" s="120"/>
-      <c r="BD27" s="120"/>
-      <c r="BE27" s="120"/>
-      <c r="BF27" s="120"/>
-      <c r="BG27" s="129"/>
-      <c r="BH27" s="137"/>
-      <c r="BI27" s="138"/>
-      <c r="BJ27" s="138"/>
-      <c r="BK27" s="139"/>
-      <c r="BL27" s="139"/>
-      <c r="BM27" s="140"/>
-      <c r="BN27" s="88"/>
-      <c r="BO27" s="86"/>
-      <c r="BP27" s="86"/>
-      <c r="BQ27" s="86"/>
-      <c r="BR27" s="86"/>
-      <c r="BS27" s="89"/>
-      <c r="BT27" s="88"/>
-      <c r="BU27" s="86"/>
-      <c r="BV27" s="86"/>
-      <c r="BW27" s="86"/>
-      <c r="BX27" s="86"/>
-      <c r="BY27" s="89"/>
+      <c r="AQ27" s="94"/>
+      <c r="AR27" s="94"/>
+      <c r="AS27" s="94"/>
+      <c r="AT27" s="94"/>
+      <c r="AU27" s="95"/>
+      <c r="AV27" s="76"/>
+      <c r="AW27" s="77"/>
+      <c r="AX27" s="77"/>
+      <c r="AY27" s="78"/>
+      <c r="AZ27" s="78"/>
+      <c r="BA27" s="79"/>
+      <c r="BB27" s="67"/>
+      <c r="BC27" s="59"/>
+      <c r="BD27" s="59"/>
+      <c r="BE27" s="59"/>
+      <c r="BF27" s="59"/>
+      <c r="BG27" s="68"/>
+      <c r="BH27" s="76"/>
+      <c r="BI27" s="77"/>
+      <c r="BJ27" s="77"/>
+      <c r="BK27" s="78"/>
+      <c r="BL27" s="78"/>
+      <c r="BM27" s="79"/>
+      <c r="BN27" s="29"/>
+      <c r="BO27" s="6"/>
+      <c r="BP27" s="6"/>
+      <c r="BQ27" s="6"/>
+      <c r="BR27" s="6"/>
+      <c r="BS27" s="30"/>
+      <c r="BT27" s="29"/>
+      <c r="BU27" s="6"/>
+      <c r="BV27" s="6"/>
+      <c r="BW27" s="6"/>
+      <c r="BX27" s="6"/>
+      <c r="BY27" s="30"/>
     </row>
     <row r="28" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="59"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="97"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="100"/>
-      <c r="M28" s="101"/>
-      <c r="N28" s="101"/>
-      <c r="O28" s="98"/>
-      <c r="P28" s="98"/>
-      <c r="Q28" s="99"/>
-      <c r="R28" s="97"/>
-      <c r="S28" s="98"/>
-      <c r="T28" s="98"/>
-      <c r="U28" s="98"/>
-      <c r="V28" s="98"/>
-      <c r="W28" s="99"/>
-      <c r="X28" s="97"/>
-      <c r="Y28" s="98"/>
-      <c r="Z28" s="98"/>
-      <c r="AA28" s="98"/>
-      <c r="AB28" s="98"/>
-      <c r="AC28" s="99"/>
-      <c r="AD28" s="100"/>
-      <c r="AE28" s="101"/>
-      <c r="AF28" s="101"/>
-      <c r="AG28" s="98"/>
-      <c r="AH28" s="98"/>
-      <c r="AI28" s="99"/>
-      <c r="AJ28" s="159"/>
-      <c r="AK28" s="160"/>
-      <c r="AL28" s="160"/>
-      <c r="AM28" s="160"/>
-      <c r="AN28" s="160"/>
-      <c r="AO28" s="161"/>
-      <c r="AP28" s="159"/>
-      <c r="AQ28" s="160"/>
-      <c r="AR28" s="160"/>
-      <c r="AS28" s="160"/>
-      <c r="AT28" s="160"/>
-      <c r="AU28" s="161"/>
-      <c r="AV28" s="126"/>
-      <c r="AW28" s="127"/>
-      <c r="AX28" s="127"/>
-      <c r="AY28" s="141"/>
-      <c r="AZ28" s="141"/>
-      <c r="BA28" s="142"/>
-      <c r="BB28" s="143"/>
-      <c r="BC28" s="141"/>
-      <c r="BD28" s="141"/>
-      <c r="BE28" s="141"/>
-      <c r="BF28" s="141"/>
-      <c r="BG28" s="142"/>
-      <c r="BH28" s="126"/>
-      <c r="BI28" s="127"/>
-      <c r="BJ28" s="127"/>
-      <c r="BK28" s="141"/>
-      <c r="BL28" s="141"/>
-      <c r="BM28" s="142"/>
-      <c r="BN28" s="97"/>
-      <c r="BO28" s="98"/>
-      <c r="BP28" s="98"/>
-      <c r="BQ28" s="98"/>
-      <c r="BR28" s="98"/>
-      <c r="BS28" s="99"/>
-      <c r="BT28" s="97"/>
-      <c r="BU28" s="98"/>
-      <c r="BV28" s="98"/>
-      <c r="BW28" s="98"/>
-      <c r="BX28" s="98"/>
-      <c r="BY28" s="99"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="40"/>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="39"/>
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="39"/>
+      <c r="AC28" s="40"/>
+      <c r="AD28" s="24"/>
+      <c r="AE28" s="25"/>
+      <c r="AF28" s="25"/>
+      <c r="AG28" s="39"/>
+      <c r="AH28" s="39"/>
+      <c r="AI28" s="40"/>
+      <c r="AJ28" s="96"/>
+      <c r="AK28" s="97"/>
+      <c r="AL28" s="97"/>
+      <c r="AM28" s="97"/>
+      <c r="AN28" s="97"/>
+      <c r="AO28" s="98"/>
+      <c r="AP28" s="96"/>
+      <c r="AQ28" s="97"/>
+      <c r="AR28" s="97"/>
+      <c r="AS28" s="97"/>
+      <c r="AT28" s="97"/>
+      <c r="AU28" s="98"/>
+      <c r="AV28" s="65"/>
+      <c r="AW28" s="66"/>
+      <c r="AX28" s="66"/>
+      <c r="AY28" s="80"/>
+      <c r="AZ28" s="80"/>
+      <c r="BA28" s="81"/>
+      <c r="BB28" s="82"/>
+      <c r="BC28" s="80"/>
+      <c r="BD28" s="80"/>
+      <c r="BE28" s="80"/>
+      <c r="BF28" s="80"/>
+      <c r="BG28" s="81"/>
+      <c r="BH28" s="65"/>
+      <c r="BI28" s="66"/>
+      <c r="BJ28" s="66"/>
+      <c r="BK28" s="80"/>
+      <c r="BL28" s="80"/>
+      <c r="BM28" s="81"/>
+      <c r="BN28" s="38"/>
+      <c r="BO28" s="39"/>
+      <c r="BP28" s="39"/>
+      <c r="BQ28" s="39"/>
+      <c r="BR28" s="39"/>
+      <c r="BS28" s="40"/>
+      <c r="BT28" s="38"/>
+      <c r="BU28" s="39"/>
+      <c r="BV28" s="39"/>
+      <c r="BW28" s="39"/>
+      <c r="BX28" s="39"/>
+      <c r="BY28" s="40"/>
     </row>
     <row r="29" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="116" t="s">
+      <c r="B29" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="87"/>
-      <c r="D29" s="71">
+      <c r="C29" s="23"/>
+      <c r="D29" s="136">
         <v>0.8</v>
       </c>
-      <c r="E29" s="80"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="98"/>
-      <c r="J29" s="98"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="100"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="101"/>
-      <c r="O29" s="98"/>
-      <c r="P29" s="98"/>
-      <c r="Q29" s="98"/>
-      <c r="R29" s="97"/>
-      <c r="S29" s="98"/>
-      <c r="T29" s="98"/>
-      <c r="U29" s="98"/>
-      <c r="V29" s="98"/>
-      <c r="W29" s="99"/>
-      <c r="X29" s="97"/>
-      <c r="Y29" s="98"/>
-      <c r="Z29" s="98"/>
-      <c r="AA29" s="98"/>
-      <c r="AB29" s="98"/>
-      <c r="AC29" s="99"/>
-      <c r="AD29" s="100"/>
-      <c r="AE29" s="101"/>
-      <c r="AF29" s="101"/>
-      <c r="AG29" s="98"/>
-      <c r="AH29" s="98"/>
-      <c r="AI29" s="98"/>
-      <c r="AJ29" s="143"/>
-      <c r="AK29" s="141"/>
-      <c r="AL29" s="141"/>
-      <c r="AM29" s="141"/>
-      <c r="AN29" s="141"/>
-      <c r="AO29" s="142"/>
-      <c r="AP29" s="143"/>
-      <c r="AQ29" s="141"/>
-      <c r="AR29" s="141"/>
-      <c r="AS29" s="141"/>
-      <c r="AT29" s="141"/>
-      <c r="AU29" s="142"/>
-      <c r="AV29" s="126"/>
-      <c r="AW29" s="127"/>
-      <c r="AX29" s="127"/>
-      <c r="AY29" s="141"/>
-      <c r="AZ29" s="141"/>
-      <c r="BA29" s="141"/>
-      <c r="BB29" s="143"/>
-      <c r="BC29" s="141"/>
-      <c r="BD29" s="141"/>
-      <c r="BE29" s="141"/>
-      <c r="BF29" s="141"/>
-      <c r="BG29" s="142"/>
-      <c r="BH29" s="126"/>
-      <c r="BI29" s="127"/>
-      <c r="BJ29" s="127"/>
-      <c r="BK29" s="141"/>
-      <c r="BL29" s="141"/>
-      <c r="BM29" s="141"/>
-      <c r="BN29" s="143"/>
-      <c r="BO29" s="141"/>
-      <c r="BP29" s="141"/>
-      <c r="BQ29" s="141"/>
-      <c r="BR29" s="141"/>
-      <c r="BS29" s="142"/>
-      <c r="BT29" s="97"/>
-      <c r="BU29" s="98"/>
-      <c r="BV29" s="98"/>
-      <c r="BW29" s="98"/>
-      <c r="BX29" s="98"/>
-      <c r="BY29" s="99"/>
+      <c r="E29" s="168"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="40"/>
+      <c r="X29" s="38"/>
+      <c r="Y29" s="39"/>
+      <c r="Z29" s="39"/>
+      <c r="AA29" s="39"/>
+      <c r="AB29" s="39"/>
+      <c r="AC29" s="40"/>
+      <c r="AD29" s="24"/>
+      <c r="AE29" s="25"/>
+      <c r="AF29" s="25"/>
+      <c r="AG29" s="39"/>
+      <c r="AH29" s="39"/>
+      <c r="AI29" s="39"/>
+      <c r="AJ29" s="82"/>
+      <c r="AK29" s="80"/>
+      <c r="AL29" s="80"/>
+      <c r="AM29" s="80"/>
+      <c r="AN29" s="80"/>
+      <c r="AO29" s="81"/>
+      <c r="AP29" s="82"/>
+      <c r="AQ29" s="80"/>
+      <c r="AR29" s="80"/>
+      <c r="AS29" s="80"/>
+      <c r="AT29" s="80"/>
+      <c r="AU29" s="81"/>
+      <c r="AV29" s="65"/>
+      <c r="AW29" s="66"/>
+      <c r="AX29" s="66"/>
+      <c r="AY29" s="80"/>
+      <c r="AZ29" s="80"/>
+      <c r="BA29" s="80"/>
+      <c r="BB29" s="82"/>
+      <c r="BC29" s="80"/>
+      <c r="BD29" s="80"/>
+      <c r="BE29" s="80"/>
+      <c r="BF29" s="80"/>
+      <c r="BG29" s="81"/>
+      <c r="BH29" s="65"/>
+      <c r="BI29" s="66"/>
+      <c r="BJ29" s="66"/>
+      <c r="BK29" s="80"/>
+      <c r="BL29" s="80"/>
+      <c r="BM29" s="80"/>
+      <c r="BN29" s="82"/>
+      <c r="BO29" s="80"/>
+      <c r="BP29" s="80"/>
+      <c r="BQ29" s="80"/>
+      <c r="BR29" s="80"/>
+      <c r="BS29" s="81"/>
+      <c r="BT29" s="38"/>
+      <c r="BU29" s="39"/>
+      <c r="BV29" s="39"/>
+      <c r="BW29" s="39"/>
+      <c r="BX29" s="39"/>
+      <c r="BY29" s="40"/>
     </row>
     <row r="30" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="117" t="s">
+      <c r="B30" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="102"/>
-      <c r="D30" s="71">
+      <c r="C30" s="41"/>
+      <c r="D30" s="136">
         <v>0.5</v>
       </c>
-      <c r="E30" s="72"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="104"/>
-      <c r="K30" s="105"/>
-      <c r="L30" s="106"/>
-      <c r="M30" s="107"/>
-      <c r="N30" s="107"/>
-      <c r="O30" s="104"/>
-      <c r="P30" s="104"/>
-      <c r="Q30" s="104"/>
-      <c r="R30" s="103"/>
-      <c r="S30" s="104"/>
-      <c r="T30" s="104"/>
-      <c r="U30" s="104"/>
-      <c r="V30" s="104"/>
-      <c r="W30" s="105"/>
-      <c r="X30" s="103"/>
-      <c r="Y30" s="104"/>
-      <c r="Z30" s="104"/>
-      <c r="AA30" s="104"/>
-      <c r="AB30" s="104"/>
-      <c r="AC30" s="105"/>
-      <c r="AD30" s="106"/>
-      <c r="AE30" s="107"/>
-      <c r="AF30" s="107"/>
-      <c r="AG30" s="104"/>
-      <c r="AH30" s="104"/>
-      <c r="AI30" s="104"/>
-      <c r="AJ30" s="103"/>
-      <c r="AK30" s="104"/>
-      <c r="AL30" s="104"/>
-      <c r="AM30" s="104"/>
-      <c r="AN30" s="104"/>
-      <c r="AO30" s="105"/>
-      <c r="AP30" s="103"/>
-      <c r="AQ30" s="104"/>
-      <c r="AR30" s="104"/>
-      <c r="AS30" s="104"/>
-      <c r="AT30" s="104"/>
-      <c r="AU30" s="105"/>
-      <c r="AV30" s="106"/>
-      <c r="AW30" s="107"/>
-      <c r="AX30" s="107"/>
-      <c r="AY30" s="104"/>
-      <c r="AZ30" s="104"/>
-      <c r="BA30" s="104"/>
-      <c r="BB30" s="132"/>
-      <c r="BC30" s="133"/>
-      <c r="BD30" s="133"/>
-      <c r="BE30" s="133"/>
-      <c r="BF30" s="133"/>
-      <c r="BG30" s="134"/>
-      <c r="BH30" s="135"/>
-      <c r="BI30" s="136"/>
-      <c r="BJ30" s="136"/>
-      <c r="BK30" s="133"/>
-      <c r="BL30" s="133"/>
-      <c r="BM30" s="133"/>
-      <c r="BN30" s="177" t="s">
+      <c r="E30" s="137"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="43"/>
+      <c r="W30" s="44"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="43"/>
+      <c r="AA30" s="43"/>
+      <c r="AB30" s="43"/>
+      <c r="AC30" s="44"/>
+      <c r="AD30" s="45"/>
+      <c r="AE30" s="46"/>
+      <c r="AF30" s="46"/>
+      <c r="AG30" s="43"/>
+      <c r="AH30" s="43"/>
+      <c r="AI30" s="43"/>
+      <c r="AJ30" s="42"/>
+      <c r="AK30" s="43"/>
+      <c r="AL30" s="43"/>
+      <c r="AM30" s="43"/>
+      <c r="AN30" s="43"/>
+      <c r="AO30" s="44"/>
+      <c r="AP30" s="42"/>
+      <c r="AQ30" s="43"/>
+      <c r="AR30" s="43"/>
+      <c r="AS30" s="43"/>
+      <c r="AT30" s="43"/>
+      <c r="AU30" s="44"/>
+      <c r="AV30" s="45"/>
+      <c r="AW30" s="46"/>
+      <c r="AX30" s="46"/>
+      <c r="AY30" s="43"/>
+      <c r="AZ30" s="43"/>
+      <c r="BA30" s="43"/>
+      <c r="BB30" s="71"/>
+      <c r="BC30" s="72"/>
+      <c r="BD30" s="72"/>
+      <c r="BE30" s="72"/>
+      <c r="BF30" s="72"/>
+      <c r="BG30" s="73"/>
+      <c r="BH30" s="74"/>
+      <c r="BI30" s="75"/>
+      <c r="BJ30" s="75"/>
+      <c r="BK30" s="72"/>
+      <c r="BL30" s="72"/>
+      <c r="BM30" s="72"/>
+      <c r="BN30" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="BO30" s="178"/>
-      <c r="BP30" s="178"/>
-      <c r="BQ30" s="178"/>
-      <c r="BR30" s="178"/>
-      <c r="BS30" s="179"/>
-      <c r="BT30" s="132"/>
-      <c r="BU30" s="133"/>
-      <c r="BV30" s="133"/>
-      <c r="BW30" s="133"/>
-      <c r="BX30" s="133"/>
-      <c r="BY30" s="134"/>
+      <c r="BO30" s="115"/>
+      <c r="BP30" s="115"/>
+      <c r="BQ30" s="115"/>
+      <c r="BR30" s="115"/>
+      <c r="BS30" s="116"/>
+      <c r="BT30" s="71"/>
+      <c r="BU30" s="72"/>
+      <c r="BV30" s="72"/>
+      <c r="BW30" s="72"/>
+      <c r="BX30" s="72"/>
+      <c r="BY30" s="73"/>
     </row>
     <row r="31" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="118" t="s">
+      <c r="B31" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="108"/>
-      <c r="D31" s="60">
+      <c r="C31" s="47"/>
+      <c r="D31" s="123">
         <v>0</v>
       </c>
-      <c r="E31" s="61"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="89"/>
-      <c r="L31" s="106"/>
-      <c r="M31" s="107"/>
-      <c r="N31" s="107"/>
-      <c r="O31" s="104"/>
-      <c r="P31" s="86"/>
-      <c r="Q31" s="86"/>
-      <c r="R31" s="88"/>
-      <c r="S31" s="86"/>
-      <c r="T31" s="86"/>
-      <c r="U31" s="86"/>
-      <c r="V31" s="86"/>
-      <c r="W31" s="89"/>
-      <c r="X31" s="88"/>
-      <c r="Y31" s="86"/>
-      <c r="Z31" s="86"/>
-      <c r="AA31" s="86"/>
-      <c r="AB31" s="86"/>
-      <c r="AC31" s="89"/>
-      <c r="AD31" s="106"/>
-      <c r="AE31" s="107"/>
-      <c r="AF31" s="107"/>
-      <c r="AG31" s="104"/>
-      <c r="AH31" s="86"/>
-      <c r="AI31" s="86"/>
-      <c r="AJ31" s="88"/>
-      <c r="AK31" s="86"/>
-      <c r="AL31" s="86"/>
-      <c r="AM31" s="86"/>
-      <c r="AN31" s="86"/>
-      <c r="AO31" s="89"/>
-      <c r="AP31" s="88"/>
-      <c r="AQ31" s="86"/>
-      <c r="AR31" s="86"/>
-      <c r="AS31" s="86"/>
-      <c r="AT31" s="86"/>
-      <c r="AU31" s="89"/>
-      <c r="AV31" s="106"/>
-      <c r="AW31" s="107"/>
-      <c r="AX31" s="107"/>
-      <c r="AY31" s="104"/>
-      <c r="AZ31" s="86"/>
-      <c r="BA31" s="86"/>
-      <c r="BB31" s="88"/>
-      <c r="BC31" s="86"/>
-      <c r="BD31" s="86"/>
-      <c r="BE31" s="86"/>
-      <c r="BF31" s="86"/>
-      <c r="BG31" s="89"/>
-      <c r="BH31" s="106"/>
-      <c r="BI31" s="107"/>
-      <c r="BJ31" s="107"/>
-      <c r="BK31" s="104"/>
-      <c r="BL31" s="86"/>
-      <c r="BM31" s="86"/>
-      <c r="BN31" s="88"/>
-      <c r="BO31" s="86"/>
-      <c r="BP31" s="86"/>
-      <c r="BQ31" s="86"/>
-      <c r="BR31" s="86"/>
-      <c r="BS31" s="89"/>
-      <c r="BT31" s="88"/>
-      <c r="BU31" s="86"/>
-      <c r="BV31" s="86"/>
-      <c r="BW31" s="86"/>
-      <c r="BX31" s="86"/>
-      <c r="BY31" s="89"/>
+      <c r="E31" s="124"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="30"/>
+      <c r="AD31" s="45"/>
+      <c r="AE31" s="46"/>
+      <c r="AF31" s="46"/>
+      <c r="AG31" s="43"/>
+      <c r="AH31" s="6"/>
+      <c r="AI31" s="6"/>
+      <c r="AJ31" s="29"/>
+      <c r="AK31" s="6"/>
+      <c r="AL31" s="6"/>
+      <c r="AM31" s="6"/>
+      <c r="AN31" s="6"/>
+      <c r="AO31" s="30"/>
+      <c r="AP31" s="29"/>
+      <c r="AQ31" s="6"/>
+      <c r="AR31" s="6"/>
+      <c r="AS31" s="6"/>
+      <c r="AT31" s="6"/>
+      <c r="AU31" s="30"/>
+      <c r="AV31" s="45"/>
+      <c r="AW31" s="46"/>
+      <c r="AX31" s="46"/>
+      <c r="AY31" s="43"/>
+      <c r="AZ31" s="6"/>
+      <c r="BA31" s="6"/>
+      <c r="BB31" s="29"/>
+      <c r="BC31" s="6"/>
+      <c r="BD31" s="6"/>
+      <c r="BE31" s="6"/>
+      <c r="BF31" s="6"/>
+      <c r="BG31" s="30"/>
+      <c r="BH31" s="45"/>
+      <c r="BI31" s="46"/>
+      <c r="BJ31" s="46"/>
+      <c r="BK31" s="43"/>
+      <c r="BL31" s="6"/>
+      <c r="BM31" s="6"/>
+      <c r="BN31" s="29"/>
+      <c r="BO31" s="6"/>
+      <c r="BP31" s="6"/>
+      <c r="BQ31" s="6"/>
+      <c r="BR31" s="6"/>
+      <c r="BS31" s="30"/>
+      <c r="BT31" s="29"/>
+      <c r="BU31" s="6"/>
+      <c r="BV31" s="6"/>
+      <c r="BW31" s="6"/>
+      <c r="BX31" s="6"/>
+      <c r="BY31" s="30"/>
     </row>
     <row r="32" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="119" t="s">
+      <c r="B32" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="109"/>
-      <c r="D32" s="69">
+      <c r="C32" s="48"/>
+      <c r="D32" s="132">
         <v>0.8</v>
       </c>
-      <c r="E32" s="70"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="111"/>
-      <c r="J32" s="111"/>
-      <c r="K32" s="112"/>
-      <c r="L32" s="113"/>
-      <c r="M32" s="114"/>
-      <c r="N32" s="114"/>
-      <c r="O32" s="115"/>
-      <c r="P32" s="111"/>
-      <c r="Q32" s="111"/>
-      <c r="R32" s="81" t="s">
+      <c r="E32" s="133"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="144" t="s">
         <v>99</v>
       </c>
-      <c r="S32" s="154"/>
-      <c r="T32" s="154"/>
-      <c r="U32" s="154"/>
-      <c r="V32" s="154"/>
-      <c r="W32" s="155"/>
-      <c r="X32" s="81" t="s">
+      <c r="S32" s="145"/>
+      <c r="T32" s="145"/>
+      <c r="U32" s="145"/>
+      <c r="V32" s="145"/>
+      <c r="W32" s="146"/>
+      <c r="X32" s="144" t="s">
         <v>108</v>
       </c>
-      <c r="Y32" s="154"/>
-      <c r="Z32" s="154"/>
-      <c r="AA32" s="154"/>
-      <c r="AB32" s="154"/>
-      <c r="AC32" s="155"/>
-      <c r="AD32" s="171" t="s">
+      <c r="Y32" s="145"/>
+      <c r="Z32" s="145"/>
+      <c r="AA32" s="145"/>
+      <c r="AB32" s="145"/>
+      <c r="AC32" s="146"/>
+      <c r="AD32" s="153" t="s">
         <v>113</v>
       </c>
-      <c r="AE32" s="172"/>
-      <c r="AF32" s="172"/>
-      <c r="AG32" s="172"/>
-      <c r="AH32" s="172"/>
-      <c r="AI32" s="173"/>
-      <c r="AJ32" s="171" t="s">
+      <c r="AE32" s="154"/>
+      <c r="AF32" s="154"/>
+      <c r="AG32" s="154"/>
+      <c r="AH32" s="154"/>
+      <c r="AI32" s="155"/>
+      <c r="AJ32" s="153" t="s">
         <v>118</v>
       </c>
-      <c r="AK32" s="172"/>
-      <c r="AL32" s="172"/>
-      <c r="AM32" s="172"/>
-      <c r="AN32" s="172"/>
-      <c r="AO32" s="173"/>
-      <c r="AP32" s="81" t="s">
+      <c r="AK32" s="154"/>
+      <c r="AL32" s="154"/>
+      <c r="AM32" s="154"/>
+      <c r="AN32" s="154"/>
+      <c r="AO32" s="155"/>
+      <c r="AP32" s="144" t="s">
         <v>123</v>
       </c>
-      <c r="AQ32" s="154"/>
-      <c r="AR32" s="154"/>
-      <c r="AS32" s="154"/>
-      <c r="AT32" s="154"/>
-      <c r="AU32" s="155"/>
-      <c r="AV32" s="171" t="s">
+      <c r="AQ32" s="145"/>
+      <c r="AR32" s="145"/>
+      <c r="AS32" s="145"/>
+      <c r="AT32" s="145"/>
+      <c r="AU32" s="146"/>
+      <c r="AV32" s="153" t="s">
         <v>124</v>
       </c>
-      <c r="AW32" s="172"/>
-      <c r="AX32" s="172"/>
-      <c r="AY32" s="172"/>
-      <c r="AZ32" s="172"/>
-      <c r="BA32" s="173"/>
-      <c r="BB32" s="171" t="s">
+      <c r="AW32" s="154"/>
+      <c r="AX32" s="154"/>
+      <c r="AY32" s="154"/>
+      <c r="AZ32" s="154"/>
+      <c r="BA32" s="155"/>
+      <c r="BB32" s="153" t="s">
         <v>32</v>
       </c>
-      <c r="BC32" s="172"/>
-      <c r="BD32" s="172"/>
-      <c r="BE32" s="172"/>
-      <c r="BF32" s="172"/>
-      <c r="BG32" s="173"/>
-      <c r="BH32" s="148"/>
-      <c r="BI32" s="149"/>
-      <c r="BJ32" s="149"/>
-      <c r="BK32" s="150"/>
-      <c r="BL32" s="146"/>
-      <c r="BM32" s="146"/>
-      <c r="BN32" s="145"/>
-      <c r="BO32" s="146"/>
-      <c r="BP32" s="146"/>
-      <c r="BQ32" s="146"/>
-      <c r="BR32" s="146"/>
-      <c r="BS32" s="147"/>
-      <c r="BT32" s="110"/>
-      <c r="BU32" s="111"/>
-      <c r="BV32" s="111"/>
-      <c r="BW32" s="111"/>
-      <c r="BX32" s="111"/>
-      <c r="BY32" s="112"/>
+      <c r="BC32" s="154"/>
+      <c r="BD32" s="154"/>
+      <c r="BE32" s="154"/>
+      <c r="BF32" s="154"/>
+      <c r="BG32" s="155"/>
+      <c r="BH32" s="87"/>
+      <c r="BI32" s="88"/>
+      <c r="BJ32" s="88"/>
+      <c r="BK32" s="89"/>
+      <c r="BL32" s="85"/>
+      <c r="BM32" s="85"/>
+      <c r="BN32" s="84"/>
+      <c r="BO32" s="85"/>
+      <c r="BP32" s="85"/>
+      <c r="BQ32" s="85"/>
+      <c r="BR32" s="85"/>
+      <c r="BS32" s="86"/>
+      <c r="BT32" s="49"/>
+      <c r="BU32" s="50"/>
+      <c r="BV32" s="50"/>
+      <c r="BW32" s="50"/>
+      <c r="BX32" s="50"/>
+      <c r="BY32" s="51"/>
     </row>
     <row r="33" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="6"/>
@@ -4701,116 +4713,116 @@
       <c r="C34" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="73" t="s">
+      <c r="D34" s="167" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="73"/>
-      <c r="F34" s="39" t="s">
+      <c r="E34" s="167"/>
+      <c r="F34" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="38" t="s">
+      <c r="G34" s="147"/>
+      <c r="H34" s="147"/>
+      <c r="I34" s="147"/>
+      <c r="J34" s="147"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="147" t="s">
         <v>86</v>
       </c>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="39" t="s">
+      <c r="M34" s="147"/>
+      <c r="N34" s="147"/>
+      <c r="O34" s="147"/>
+      <c r="P34" s="147"/>
+      <c r="Q34" s="147"/>
+      <c r="R34" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="S34" s="38"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="40"/>
-      <c r="X34" s="38" t="s">
+      <c r="S34" s="147"/>
+      <c r="T34" s="147"/>
+      <c r="U34" s="147"/>
+      <c r="V34" s="147"/>
+      <c r="W34" s="149"/>
+      <c r="X34" s="147" t="s">
         <v>88</v>
       </c>
-      <c r="Y34" s="38"/>
-      <c r="Z34" s="38"/>
-      <c r="AA34" s="38"/>
-      <c r="AB34" s="38"/>
-      <c r="AC34" s="38"/>
-      <c r="AD34" s="41" t="s">
+      <c r="Y34" s="147"/>
+      <c r="Z34" s="147"/>
+      <c r="AA34" s="147"/>
+      <c r="AB34" s="147"/>
+      <c r="AC34" s="147"/>
+      <c r="AD34" s="150" t="s">
         <v>89</v>
       </c>
-      <c r="AE34" s="42"/>
-      <c r="AF34" s="42"/>
-      <c r="AG34" s="42"/>
-      <c r="AH34" s="42"/>
-      <c r="AI34" s="43"/>
-      <c r="AJ34" s="39" t="s">
+      <c r="AE34" s="151"/>
+      <c r="AF34" s="151"/>
+      <c r="AG34" s="151"/>
+      <c r="AH34" s="151"/>
+      <c r="AI34" s="152"/>
+      <c r="AJ34" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="AK34" s="38"/>
-      <c r="AL34" s="38"/>
-      <c r="AM34" s="38"/>
-      <c r="AN34" s="38"/>
-      <c r="AO34" s="40"/>
-      <c r="AP34" s="38" t="s">
+      <c r="AK34" s="147"/>
+      <c r="AL34" s="147"/>
+      <c r="AM34" s="147"/>
+      <c r="AN34" s="147"/>
+      <c r="AO34" s="149"/>
+      <c r="AP34" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="AQ34" s="38"/>
-      <c r="AR34" s="38"/>
-      <c r="AS34" s="38"/>
-      <c r="AT34" s="38"/>
-      <c r="AU34" s="38"/>
-      <c r="AV34" s="38" t="s">
+      <c r="AQ34" s="147"/>
+      <c r="AR34" s="147"/>
+      <c r="AS34" s="147"/>
+      <c r="AT34" s="147"/>
+      <c r="AU34" s="147"/>
+      <c r="AV34" s="147" t="s">
         <v>90</v>
       </c>
-      <c r="AW34" s="38"/>
-      <c r="AX34" s="38"/>
-      <c r="AY34" s="38"/>
-      <c r="AZ34" s="38"/>
-      <c r="BA34" s="38"/>
-      <c r="BB34" s="39" t="s">
+      <c r="AW34" s="147"/>
+      <c r="AX34" s="147"/>
+      <c r="AY34" s="147"/>
+      <c r="AZ34" s="147"/>
+      <c r="BA34" s="147"/>
+      <c r="BB34" s="148" t="s">
         <v>91</v>
       </c>
-      <c r="BC34" s="38"/>
-      <c r="BD34" s="38"/>
-      <c r="BE34" s="38"/>
-      <c r="BF34" s="38"/>
-      <c r="BG34" s="40"/>
-      <c r="BH34" s="38" t="s">
+      <c r="BC34" s="147"/>
+      <c r="BD34" s="147"/>
+      <c r="BE34" s="147"/>
+      <c r="BF34" s="147"/>
+      <c r="BG34" s="149"/>
+      <c r="BH34" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="BI34" s="38"/>
-      <c r="BJ34" s="38"/>
-      <c r="BK34" s="38"/>
-      <c r="BL34" s="38"/>
-      <c r="BM34" s="38"/>
-      <c r="BN34" s="39" t="s">
+      <c r="BI34" s="147"/>
+      <c r="BJ34" s="147"/>
+      <c r="BK34" s="147"/>
+      <c r="BL34" s="147"/>
+      <c r="BM34" s="147"/>
+      <c r="BN34" s="148" t="s">
         <v>30</v>
       </c>
-      <c r="BO34" s="38"/>
-      <c r="BP34" s="38"/>
-      <c r="BQ34" s="38"/>
-      <c r="BR34" s="38"/>
-      <c r="BS34" s="40"/>
-      <c r="BT34" s="39" t="s">
+      <c r="BO34" s="147"/>
+      <c r="BP34" s="147"/>
+      <c r="BQ34" s="147"/>
+      <c r="BR34" s="147"/>
+      <c r="BS34" s="149"/>
+      <c r="BT34" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="BU34" s="38"/>
-      <c r="BV34" s="38"/>
-      <c r="BW34" s="38"/>
-      <c r="BX34" s="38"/>
-      <c r="BY34" s="40"/>
+      <c r="BU34" s="147"/>
+      <c r="BV34" s="147"/>
+      <c r="BW34" s="147"/>
+      <c r="BX34" s="147"/>
+      <c r="BY34" s="149"/>
     </row>
     <row r="35" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C35" s="12"/>
-      <c r="D35" s="32">
+      <c r="D35" s="165">
         <v>1</v>
       </c>
-      <c r="E35" s="33"/>
+      <c r="E35" s="166"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
@@ -4889,10 +4901,10 @@
         <v>44</v>
       </c>
       <c r="C36" s="12"/>
-      <c r="D36" s="32">
+      <c r="D36" s="165">
         <v>1</v>
       </c>
-      <c r="E36" s="33"/>
+      <c r="E36" s="166"/>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
@@ -4971,10 +4983,10 @@
         <v>45</v>
       </c>
       <c r="C37" s="12"/>
-      <c r="D37" s="32">
+      <c r="D37" s="165">
         <v>1</v>
       </c>
-      <c r="E37" s="33"/>
+      <c r="E37" s="166"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
@@ -5053,10 +5065,10 @@
         <v>59</v>
       </c>
       <c r="C38" s="12"/>
-      <c r="D38" s="32">
+      <c r="D38" s="165">
         <v>1</v>
       </c>
-      <c r="E38" s="33"/>
+      <c r="E38" s="166"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
@@ -5135,10 +5147,10 @@
         <v>60</v>
       </c>
       <c r="C39" s="12"/>
-      <c r="D39" s="32">
+      <c r="D39" s="165">
         <v>1</v>
       </c>
-      <c r="E39" s="33"/>
+      <c r="E39" s="166"/>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
@@ -5217,10 +5229,10 @@
         <v>61</v>
       </c>
       <c r="C40" s="12"/>
-      <c r="D40" s="32">
+      <c r="D40" s="165">
         <v>1</v>
       </c>
-      <c r="E40" s="33"/>
+      <c r="E40" s="166"/>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
@@ -5299,10 +5311,10 @@
         <v>62</v>
       </c>
       <c r="C41" s="12"/>
-      <c r="D41" s="32">
+      <c r="D41" s="165">
         <v>1</v>
       </c>
-      <c r="E41" s="33"/>
+      <c r="E41" s="166"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
@@ -5381,10 +5393,10 @@
         <v>63</v>
       </c>
       <c r="C42" s="12"/>
-      <c r="D42" s="32">
+      <c r="D42" s="165">
         <v>1</v>
       </c>
-      <c r="E42" s="33"/>
+      <c r="E42" s="166"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
@@ -5463,10 +5475,10 @@
         <v>64</v>
       </c>
       <c r="C43" s="12"/>
-      <c r="D43" s="32">
+      <c r="D43" s="165">
         <v>1</v>
       </c>
-      <c r="E43" s="33"/>
+      <c r="E43" s="166"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
@@ -5545,10 +5557,10 @@
         <v>65</v>
       </c>
       <c r="C44" s="12"/>
-      <c r="D44" s="32">
+      <c r="D44" s="165">
         <v>1</v>
       </c>
-      <c r="E44" s="33"/>
+      <c r="E44" s="166"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
@@ -5627,10 +5639,10 @@
         <v>66</v>
       </c>
       <c r="C45" s="12"/>
-      <c r="D45" s="32">
+      <c r="D45" s="165">
         <v>1</v>
       </c>
-      <c r="E45" s="33"/>
+      <c r="E45" s="166"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
@@ -5709,10 +5721,10 @@
         <v>67</v>
       </c>
       <c r="C46" s="12"/>
-      <c r="D46" s="32">
+      <c r="D46" s="165">
         <v>1</v>
       </c>
-      <c r="E46" s="33"/>
+      <c r="E46" s="166"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
@@ -5791,10 +5803,10 @@
         <v>68</v>
       </c>
       <c r="C47" s="12"/>
-      <c r="D47" s="32">
+      <c r="D47" s="165">
         <v>1</v>
       </c>
-      <c r="E47" s="33"/>
+      <c r="E47" s="166"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
@@ -5873,10 +5885,10 @@
         <v>69</v>
       </c>
       <c r="C48" s="12"/>
-      <c r="D48" s="32">
+      <c r="D48" s="165">
         <v>1</v>
       </c>
-      <c r="E48" s="33"/>
+      <c r="E48" s="166"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
@@ -5955,10 +5967,10 @@
         <v>70</v>
       </c>
       <c r="C49" s="12"/>
-      <c r="D49" s="32">
+      <c r="D49" s="165">
         <v>1</v>
       </c>
-      <c r="E49" s="33"/>
+      <c r="E49" s="166"/>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
@@ -6037,10 +6049,10 @@
         <v>71</v>
       </c>
       <c r="C50" s="12"/>
-      <c r="D50" s="32">
+      <c r="D50" s="165">
         <v>1</v>
       </c>
-      <c r="E50" s="33"/>
+      <c r="E50" s="166"/>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
@@ -6119,10 +6131,10 @@
         <v>72</v>
       </c>
       <c r="C51" s="12"/>
-      <c r="D51" s="32">
+      <c r="D51" s="165">
         <v>1</v>
       </c>
-      <c r="E51" s="33"/>
+      <c r="E51" s="166"/>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
@@ -6201,10 +6213,10 @@
         <v>73</v>
       </c>
       <c r="C52" s="12"/>
-      <c r="D52" s="32">
+      <c r="D52" s="165">
         <v>1</v>
       </c>
-      <c r="E52" s="33"/>
+      <c r="E52" s="166"/>
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
@@ -6283,10 +6295,10 @@
         <v>74</v>
       </c>
       <c r="C53" s="12"/>
-      <c r="D53" s="32">
+      <c r="D53" s="165">
         <v>1</v>
       </c>
-      <c r="E53" s="33"/>
+      <c r="E53" s="166"/>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
@@ -6365,10 +6377,10 @@
         <v>75</v>
       </c>
       <c r="C54" s="12"/>
-      <c r="D54" s="32">
+      <c r="D54" s="165">
         <v>1</v>
       </c>
-      <c r="E54" s="33"/>
+      <c r="E54" s="166"/>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
@@ -6447,10 +6459,10 @@
         <v>76</v>
       </c>
       <c r="C55" s="17"/>
-      <c r="D55" s="32">
+      <c r="D55" s="165">
         <v>1</v>
       </c>
-      <c r="E55" s="33"/>
+      <c r="E55" s="166"/>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
@@ -6529,10 +6541,10 @@
         <v>77</v>
       </c>
       <c r="C56" s="12"/>
-      <c r="D56" s="32">
+      <c r="D56" s="165">
         <v>1</v>
       </c>
-      <c r="E56" s="33"/>
+      <c r="E56" s="166"/>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
@@ -6611,10 +6623,10 @@
         <v>78</v>
       </c>
       <c r="C57" s="12"/>
-      <c r="D57" s="32">
+      <c r="D57" s="165">
         <v>1</v>
       </c>
-      <c r="E57" s="33"/>
+      <c r="E57" s="166"/>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
@@ -6693,10 +6705,10 @@
         <v>79</v>
       </c>
       <c r="C58" s="12"/>
-      <c r="D58" s="32">
+      <c r="D58" s="165">
         <v>1</v>
       </c>
-      <c r="E58" s="33"/>
+      <c r="E58" s="166"/>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
@@ -6775,10 +6787,10 @@
         <v>80</v>
       </c>
       <c r="C59" s="12"/>
-      <c r="D59" s="32">
+      <c r="D59" s="165">
         <v>1</v>
       </c>
-      <c r="E59" s="33"/>
+      <c r="E59" s="166"/>
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
@@ -6857,10 +6869,10 @@
         <v>81</v>
       </c>
       <c r="C60" s="12"/>
-      <c r="D60" s="32">
+      <c r="D60" s="165">
         <v>1</v>
       </c>
-      <c r="E60" s="33"/>
+      <c r="E60" s="166"/>
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
@@ -6939,10 +6951,10 @@
         <v>82</v>
       </c>
       <c r="C61" s="12"/>
-      <c r="D61" s="32">
+      <c r="D61" s="165">
         <v>1</v>
       </c>
-      <c r="E61" s="33"/>
+      <c r="E61" s="166"/>
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
@@ -7021,10 +7033,10 @@
         <v>83</v>
       </c>
       <c r="C62" s="12"/>
-      <c r="D62" s="32">
+      <c r="D62" s="165">
         <v>1</v>
       </c>
-      <c r="E62" s="33"/>
+      <c r="E62" s="166"/>
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
@@ -7101,8 +7113,8 @@
     <row r="63" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="16"/>
       <c r="C63" s="18"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="33"/>
+      <c r="D63" s="165"/>
+      <c r="E63" s="166"/>
       <c r="F63" s="18"/>
       <c r="G63" s="18"/>
       <c r="H63" s="18"/>
@@ -7181,10 +7193,10 @@
         <v>46</v>
       </c>
       <c r="C64" s="18"/>
-      <c r="D64" s="32">
+      <c r="D64" s="165">
         <v>1</v>
       </c>
-      <c r="E64" s="33"/>
+      <c r="E64" s="166"/>
       <c r="F64" s="18"/>
       <c r="G64" s="18"/>
       <c r="H64" s="18"/>
@@ -7263,10 +7275,10 @@
         <v>47</v>
       </c>
       <c r="C65" s="18"/>
-      <c r="D65" s="32">
+      <c r="D65" s="165">
         <v>1</v>
       </c>
-      <c r="E65" s="33"/>
+      <c r="E65" s="166"/>
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
       <c r="H65" s="18"/>
@@ -7343,8 +7355,8 @@
     <row r="66" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="16"/>
       <c r="C66" s="18"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="33"/>
+      <c r="D66" s="165"/>
+      <c r="E66" s="166"/>
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
       <c r="H66" s="18"/>
@@ -7423,10 +7435,10 @@
         <v>48</v>
       </c>
       <c r="C67" s="18"/>
-      <c r="D67" s="32">
+      <c r="D67" s="165">
         <v>1</v>
       </c>
-      <c r="E67" s="33"/>
+      <c r="E67" s="166"/>
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
       <c r="H67" s="18"/>
@@ -7505,10 +7517,10 @@
         <v>49</v>
       </c>
       <c r="C68" s="18"/>
-      <c r="D68" s="32">
+      <c r="D68" s="165">
         <v>1</v>
       </c>
-      <c r="E68" s="33"/>
+      <c r="E68" s="166"/>
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
       <c r="H68" s="18"/>
@@ -7587,10 +7599,10 @@
         <v>50</v>
       </c>
       <c r="C69" s="18"/>
-      <c r="D69" s="32">
+      <c r="D69" s="165">
         <v>1</v>
       </c>
-      <c r="E69" s="33"/>
+      <c r="E69" s="166"/>
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
       <c r="H69" s="18"/>
@@ -7669,10 +7681,10 @@
         <v>51</v>
       </c>
       <c r="C70" s="18"/>
-      <c r="D70" s="32">
+      <c r="D70" s="165">
         <v>1</v>
       </c>
-      <c r="E70" s="33"/>
+      <c r="E70" s="166"/>
       <c r="F70" s="18"/>
       <c r="G70" s="18"/>
       <c r="H70" s="18"/>
@@ -7751,10 +7763,10 @@
         <v>52</v>
       </c>
       <c r="C71" s="18"/>
-      <c r="D71" s="32">
+      <c r="D71" s="165">
         <v>1</v>
       </c>
-      <c r="E71" s="33"/>
+      <c r="E71" s="166"/>
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
       <c r="H71" s="18"/>
@@ -7833,10 +7845,10 @@
         <v>53</v>
       </c>
       <c r="C72" s="18"/>
-      <c r="D72" s="32">
+      <c r="D72" s="165">
         <v>1</v>
       </c>
-      <c r="E72" s="33"/>
+      <c r="E72" s="166"/>
       <c r="F72" s="18"/>
       <c r="G72" s="18"/>
       <c r="H72" s="18"/>
@@ -7915,10 +7927,10 @@
         <v>54</v>
       </c>
       <c r="C73" s="18"/>
-      <c r="D73" s="32">
+      <c r="D73" s="165">
         <v>1</v>
       </c>
-      <c r="E73" s="33"/>
+      <c r="E73" s="166"/>
       <c r="F73" s="18"/>
       <c r="G73" s="18"/>
       <c r="H73" s="18"/>
@@ -7997,10 +8009,10 @@
         <v>55</v>
       </c>
       <c r="C74" s="18"/>
-      <c r="D74" s="32">
+      <c r="D74" s="165">
         <v>1</v>
       </c>
-      <c r="E74" s="33"/>
+      <c r="E74" s="166"/>
       <c r="F74" s="18"/>
       <c r="G74" s="18"/>
       <c r="H74" s="18"/>
@@ -8079,10 +8091,10 @@
         <v>56</v>
       </c>
       <c r="C75" s="18"/>
-      <c r="D75" s="32">
+      <c r="D75" s="165">
         <v>1</v>
       </c>
-      <c r="E75" s="33"/>
+      <c r="E75" s="166"/>
       <c r="F75" s="18"/>
       <c r="G75" s="18"/>
       <c r="H75" s="18"/>
@@ -8161,10 +8173,10 @@
         <v>57</v>
       </c>
       <c r="C76" s="18"/>
-      <c r="D76" s="32">
+      <c r="D76" s="165">
         <v>1</v>
       </c>
-      <c r="E76" s="33"/>
+      <c r="E76" s="166"/>
       <c r="F76" s="18"/>
       <c r="G76" s="18"/>
       <c r="H76" s="18"/>
@@ -8243,10 +8255,10 @@
         <v>58</v>
       </c>
       <c r="C77" s="21"/>
-      <c r="D77" s="32">
+      <c r="D77" s="165">
         <v>1</v>
       </c>
-      <c r="E77" s="33"/>
+      <c r="E77" s="166"/>
       <c r="F77" s="21"/>
       <c r="G77" s="21"/>
       <c r="H77" s="21"/>
@@ -8327,8 +8339,8 @@
       <c r="C78" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D78" s="32"/>
-      <c r="E78" s="33"/>
+      <c r="D78" s="165"/>
+      <c r="E78" s="166"/>
       <c r="F78" s="18"/>
       <c r="G78" s="18"/>
       <c r="H78" s="18"/>
@@ -8341,22 +8353,22 @@
       <c r="O78" s="18"/>
       <c r="P78" s="18"/>
       <c r="Q78" s="18"/>
-      <c r="R78" s="23" t="s">
+      <c r="R78" s="156" t="s">
         <v>106</v>
       </c>
-      <c r="S78" s="24"/>
-      <c r="T78" s="24"/>
-      <c r="U78" s="24"/>
-      <c r="V78" s="24"/>
-      <c r="W78" s="25"/>
-      <c r="X78" s="23" t="s">
+      <c r="S78" s="157"/>
+      <c r="T78" s="157"/>
+      <c r="U78" s="157"/>
+      <c r="V78" s="157"/>
+      <c r="W78" s="158"/>
+      <c r="X78" s="156" t="s">
         <v>107</v>
       </c>
-      <c r="Y78" s="24"/>
-      <c r="Z78" s="24"/>
-      <c r="AA78" s="24"/>
-      <c r="AB78" s="24"/>
-      <c r="AC78" s="25"/>
+      <c r="Y78" s="157"/>
+      <c r="Z78" s="157"/>
+      <c r="AA78" s="157"/>
+      <c r="AB78" s="157"/>
+      <c r="AC78" s="158"/>
       <c r="AD78" s="18"/>
       <c r="AE78" s="18"/>
       <c r="AF78" s="18"/>
@@ -8413,8 +8425,8 @@
       <c r="C79" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D79" s="32"/>
-      <c r="E79" s="33"/>
+      <c r="D79" s="165"/>
+      <c r="E79" s="166"/>
       <c r="F79" s="18"/>
       <c r="G79" s="18"/>
       <c r="H79" s="18"/>
@@ -8427,18 +8439,18 @@
       <c r="O79" s="18"/>
       <c r="P79" s="18"/>
       <c r="Q79" s="18"/>
-      <c r="R79" s="26"/>
-      <c r="S79" s="27"/>
-      <c r="T79" s="27"/>
-      <c r="U79" s="27"/>
-      <c r="V79" s="27"/>
-      <c r="W79" s="28"/>
-      <c r="X79" s="26"/>
-      <c r="Y79" s="27"/>
-      <c r="Z79" s="27"/>
-      <c r="AA79" s="27"/>
-      <c r="AB79" s="27"/>
-      <c r="AC79" s="28"/>
+      <c r="R79" s="159"/>
+      <c r="S79" s="160"/>
+      <c r="T79" s="160"/>
+      <c r="U79" s="160"/>
+      <c r="V79" s="160"/>
+      <c r="W79" s="161"/>
+      <c r="X79" s="159"/>
+      <c r="Y79" s="160"/>
+      <c r="Z79" s="160"/>
+      <c r="AA79" s="160"/>
+      <c r="AB79" s="160"/>
+      <c r="AC79" s="161"/>
       <c r="AD79" s="18"/>
       <c r="AE79" s="18"/>
       <c r="AF79" s="18"/>
@@ -8495,8 +8507,8 @@
       <c r="C80" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D80" s="32"/>
-      <c r="E80" s="33"/>
+      <c r="D80" s="165"/>
+      <c r="E80" s="166"/>
       <c r="F80" s="18"/>
       <c r="G80" s="18"/>
       <c r="H80" s="18"/>
@@ -8509,18 +8521,18 @@
       <c r="O80" s="18"/>
       <c r="P80" s="18"/>
       <c r="Q80" s="18"/>
-      <c r="R80" s="26"/>
-      <c r="S80" s="27"/>
-      <c r="T80" s="27"/>
-      <c r="U80" s="27"/>
-      <c r="V80" s="27"/>
-      <c r="W80" s="28"/>
-      <c r="X80" s="26"/>
-      <c r="Y80" s="27"/>
-      <c r="Z80" s="27"/>
-      <c r="AA80" s="27"/>
-      <c r="AB80" s="27"/>
-      <c r="AC80" s="28"/>
+      <c r="R80" s="159"/>
+      <c r="S80" s="160"/>
+      <c r="T80" s="160"/>
+      <c r="U80" s="160"/>
+      <c r="V80" s="160"/>
+      <c r="W80" s="161"/>
+      <c r="X80" s="159"/>
+      <c r="Y80" s="160"/>
+      <c r="Z80" s="160"/>
+      <c r="AA80" s="160"/>
+      <c r="AB80" s="160"/>
+      <c r="AC80" s="161"/>
       <c r="AD80" s="18"/>
       <c r="AE80" s="18"/>
       <c r="AF80" s="18"/>
@@ -8577,8 +8589,8 @@
       <c r="C81" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="32"/>
-      <c r="E81" s="33"/>
+      <c r="D81" s="165"/>
+      <c r="E81" s="166"/>
       <c r="F81" s="18"/>
       <c r="G81" s="18"/>
       <c r="H81" s="18"/>
@@ -8591,18 +8603,18 @@
       <c r="O81" s="18"/>
       <c r="P81" s="18"/>
       <c r="Q81" s="18"/>
-      <c r="R81" s="26"/>
-      <c r="S81" s="27"/>
-      <c r="T81" s="27"/>
-      <c r="U81" s="27"/>
-      <c r="V81" s="27"/>
-      <c r="W81" s="28"/>
-      <c r="X81" s="26"/>
-      <c r="Y81" s="27"/>
-      <c r="Z81" s="27"/>
-      <c r="AA81" s="27"/>
-      <c r="AB81" s="27"/>
-      <c r="AC81" s="28"/>
+      <c r="R81" s="159"/>
+      <c r="S81" s="160"/>
+      <c r="T81" s="160"/>
+      <c r="U81" s="160"/>
+      <c r="V81" s="160"/>
+      <c r="W81" s="161"/>
+      <c r="X81" s="159"/>
+      <c r="Y81" s="160"/>
+      <c r="Z81" s="160"/>
+      <c r="AA81" s="160"/>
+      <c r="AB81" s="160"/>
+      <c r="AC81" s="161"/>
       <c r="AD81" s="18"/>
       <c r="AE81" s="18"/>
       <c r="AF81" s="18"/>
@@ -8659,8 +8671,8 @@
       <c r="C82" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D82" s="32"/>
-      <c r="E82" s="33"/>
+      <c r="D82" s="165"/>
+      <c r="E82" s="166"/>
       <c r="F82" s="18"/>
       <c r="G82" s="18"/>
       <c r="H82" s="18"/>
@@ -8673,18 +8685,18 @@
       <c r="O82" s="18"/>
       <c r="P82" s="18"/>
       <c r="Q82" s="18"/>
-      <c r="R82" s="26"/>
-      <c r="S82" s="27"/>
-      <c r="T82" s="27"/>
-      <c r="U82" s="27"/>
-      <c r="V82" s="27"/>
-      <c r="W82" s="28"/>
-      <c r="X82" s="26"/>
-      <c r="Y82" s="27"/>
-      <c r="Z82" s="27"/>
-      <c r="AA82" s="27"/>
-      <c r="AB82" s="27"/>
-      <c r="AC82" s="28"/>
+      <c r="R82" s="159"/>
+      <c r="S82" s="160"/>
+      <c r="T82" s="160"/>
+      <c r="U82" s="160"/>
+      <c r="V82" s="160"/>
+      <c r="W82" s="161"/>
+      <c r="X82" s="159"/>
+      <c r="Y82" s="160"/>
+      <c r="Z82" s="160"/>
+      <c r="AA82" s="160"/>
+      <c r="AB82" s="160"/>
+      <c r="AC82" s="161"/>
       <c r="AD82" s="18"/>
       <c r="AE82" s="18"/>
       <c r="AF82" s="18"/>
@@ -8741,8 +8753,8 @@
       <c r="C83" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D83" s="32"/>
-      <c r="E83" s="33"/>
+      <c r="D83" s="165"/>
+      <c r="E83" s="166"/>
       <c r="F83" s="18"/>
       <c r="G83" s="18"/>
       <c r="H83" s="18"/>
@@ -8755,18 +8767,18 @@
       <c r="O83" s="18"/>
       <c r="P83" s="18"/>
       <c r="Q83" s="18"/>
-      <c r="R83" s="29"/>
-      <c r="S83" s="30"/>
-      <c r="T83" s="30"/>
-      <c r="U83" s="30"/>
-      <c r="V83" s="30"/>
-      <c r="W83" s="31"/>
-      <c r="X83" s="29"/>
-      <c r="Y83" s="30"/>
-      <c r="Z83" s="30"/>
-      <c r="AA83" s="30"/>
-      <c r="AB83" s="30"/>
-      <c r="AC83" s="31"/>
+      <c r="R83" s="162"/>
+      <c r="S83" s="163"/>
+      <c r="T83" s="163"/>
+      <c r="U83" s="163"/>
+      <c r="V83" s="163"/>
+      <c r="W83" s="164"/>
+      <c r="X83" s="162"/>
+      <c r="Y83" s="163"/>
+      <c r="Z83" s="163"/>
+      <c r="AA83" s="163"/>
+      <c r="AB83" s="163"/>
+      <c r="AC83" s="164"/>
       <c r="AD83" s="18"/>
       <c r="AE83" s="18"/>
       <c r="AF83" s="18"/>
@@ -8819,8 +8831,8 @@
     <row r="84" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="20"/>
       <c r="C84" s="21"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="33"/>
+      <c r="D84" s="165"/>
+      <c r="E84" s="166"/>
       <c r="F84" s="21"/>
       <c r="G84" s="21"/>
       <c r="H84" s="21"/>
@@ -8903,6 +8915,168 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="186">
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="AV19:BA20"/>
+    <mergeCell ref="AV32:BA32"/>
+    <mergeCell ref="AV25:BA26"/>
+    <mergeCell ref="BB32:BG32"/>
+    <mergeCell ref="BB25:BG26"/>
+    <mergeCell ref="R78:W83"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="AD9:AI10"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="AL5:AM5"/>
+    <mergeCell ref="AD34:AI34"/>
+    <mergeCell ref="AJ34:AO34"/>
+    <mergeCell ref="AP34:AU34"/>
+    <mergeCell ref="AD19:AI20"/>
+    <mergeCell ref="AD32:AI32"/>
+    <mergeCell ref="AP32:AU32"/>
+    <mergeCell ref="AP27:AU28"/>
+    <mergeCell ref="AP19:AU20"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="X19:AC20"/>
+    <mergeCell ref="X13:AC14"/>
+    <mergeCell ref="X9:AC10"/>
+    <mergeCell ref="F9:K10"/>
+    <mergeCell ref="R9:W10"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="L9:Q10"/>
+    <mergeCell ref="BH34:BM34"/>
+    <mergeCell ref="BN34:BS34"/>
+    <mergeCell ref="BT34:BY34"/>
+    <mergeCell ref="R34:W34"/>
+    <mergeCell ref="X34:AC34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="L34:Q34"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="X32:AC32"/>
+    <mergeCell ref="AV34:BA34"/>
+    <mergeCell ref="BB34:BG34"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="X78:AC83"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="L19:Q20"/>
+    <mergeCell ref="F15:K16"/>
+    <mergeCell ref="F13:K14"/>
+    <mergeCell ref="L21:Q22"/>
+    <mergeCell ref="R32:W32"/>
+    <mergeCell ref="BH8:BM8"/>
+    <mergeCell ref="BN8:BS8"/>
+    <mergeCell ref="BT8:BY8"/>
+    <mergeCell ref="AD8:AI8"/>
+    <mergeCell ref="AJ8:AO8"/>
+    <mergeCell ref="F8:K8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="AJ32:AO32"/>
+    <mergeCell ref="AJ23:AO24"/>
+    <mergeCell ref="AJ25:AO26"/>
+    <mergeCell ref="AJ27:AO28"/>
+    <mergeCell ref="AV17:AZ18"/>
+    <mergeCell ref="BB21:BG22"/>
+    <mergeCell ref="AP25:AU26"/>
+    <mergeCell ref="AV8:BA8"/>
+    <mergeCell ref="BB8:BG8"/>
+    <mergeCell ref="AP8:AU8"/>
+    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="D27:E28"/>
+    <mergeCell ref="D23:E24"/>
     <mergeCell ref="BH21:BM22"/>
     <mergeCell ref="BB9:BM10"/>
     <mergeCell ref="BN9:BS10"/>
@@ -8927,168 +9101,6 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="D25:E26"/>
-    <mergeCell ref="D19:E20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="D27:E28"/>
-    <mergeCell ref="D23:E24"/>
-    <mergeCell ref="L19:Q20"/>
-    <mergeCell ref="F15:K16"/>
-    <mergeCell ref="F13:K14"/>
-    <mergeCell ref="L21:Q22"/>
-    <mergeCell ref="R32:W32"/>
-    <mergeCell ref="BH8:BM8"/>
-    <mergeCell ref="BN8:BS8"/>
-    <mergeCell ref="BT8:BY8"/>
-    <mergeCell ref="AD8:AI8"/>
-    <mergeCell ref="AJ8:AO8"/>
-    <mergeCell ref="F8:K8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="AJ32:AO32"/>
-    <mergeCell ref="AJ23:AO24"/>
-    <mergeCell ref="AJ25:AO26"/>
-    <mergeCell ref="AJ27:AO28"/>
-    <mergeCell ref="AV17:AZ18"/>
-    <mergeCell ref="BB21:BG22"/>
-    <mergeCell ref="AP25:AU26"/>
-    <mergeCell ref="AV8:BA8"/>
-    <mergeCell ref="BB8:BG8"/>
-    <mergeCell ref="AP8:AU8"/>
-    <mergeCell ref="X78:AC83"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="BH34:BM34"/>
-    <mergeCell ref="BN34:BS34"/>
-    <mergeCell ref="BT34:BY34"/>
-    <mergeCell ref="R34:W34"/>
-    <mergeCell ref="X34:AC34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="L34:Q34"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="X32:AC32"/>
-    <mergeCell ref="X19:AC20"/>
-    <mergeCell ref="X13:AC14"/>
-    <mergeCell ref="X9:AC10"/>
-    <mergeCell ref="F9:K10"/>
-    <mergeCell ref="R9:W10"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="L9:Q10"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="AD9:AI10"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="AD34:AI34"/>
-    <mergeCell ref="AJ34:AO34"/>
-    <mergeCell ref="AP34:AU34"/>
-    <mergeCell ref="AV34:BA34"/>
-    <mergeCell ref="BB34:BG34"/>
-    <mergeCell ref="AD19:AI20"/>
-    <mergeCell ref="AD32:AI32"/>
-    <mergeCell ref="AP32:AU32"/>
-    <mergeCell ref="AP27:AU28"/>
-    <mergeCell ref="AP19:AU20"/>
-    <mergeCell ref="AV19:BA20"/>
-    <mergeCell ref="AV32:BA32"/>
-    <mergeCell ref="AV25:BA26"/>
-    <mergeCell ref="BB32:BG32"/>
-    <mergeCell ref="BB25:BG26"/>
-    <mergeCell ref="R78:W83"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/工程表/工程管理(Forest).xlsx
+++ b/document/工程表/工程管理(Forest).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54fd41506f0d43af/デスクトップ/team_forest/document/工程表/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{DD294E77-84DB-4E19-AE4E-5040BAF5CCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D1B1C1B-A2B2-4FE6-BD30-40E2B41F8548}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{DD294E77-84DB-4E19-AE4E-5040BAF5CCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C9CEB2C-63F5-4D7A-AE6E-851D38E99E61}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="133">
   <si>
     <t>担当</t>
     <rPh sb="0" eb="2">
@@ -842,6 +842,43 @@
     </rPh>
     <rPh sb="3" eb="8">
       <t>ガメンセンイズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/11</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/13</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/17</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発表日</t>
+    <rPh sb="0" eb="3">
+      <t>ハッピョウビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発表練習</t>
+    <rPh sb="0" eb="2">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>レンシュウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1518,7 +1555,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1798,6 +1835,147 @@
     <xf numFmtId="49" fontId="7" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1807,14 +1985,20 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1825,13 +2009,67 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1852,15 +2090,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1882,197 +2111,20 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2097,6 +2149,10 @@
 </file>
 
 <file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -2366,10 +2422,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:BY84"/>
+  <dimension ref="B2:DC84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BS27" sqref="BS27"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CQ27" sqref="CQ27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2382,336 +2438,376 @@
     <col min="46" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:77" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:107" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="8"/>
     </row>
-    <row r="4" spans="2:77" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:107" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="172" t="s">
+      <c r="D4" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="173"/>
-      <c r="F4" s="172" t="s">
+      <c r="E4" s="147"/>
+      <c r="F4" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="173"/>
-      <c r="H4" s="172" t="s">
+      <c r="G4" s="147"/>
+      <c r="H4" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="173"/>
-      <c r="J4" s="172" t="s">
+      <c r="I4" s="147"/>
+      <c r="J4" s="146" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="173"/>
-      <c r="L4" s="172" t="s">
+      <c r="K4" s="147"/>
+      <c r="L4" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="173"/>
-      <c r="N4" s="172" t="s">
+      <c r="M4" s="147"/>
+      <c r="N4" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="173"/>
-      <c r="P4" s="172" t="s">
+      <c r="O4" s="147"/>
+      <c r="P4" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="173"/>
-      <c r="R4" s="172" t="s">
+      <c r="Q4" s="147"/>
+      <c r="R4" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="S4" s="173"/>
-      <c r="T4" s="172" t="s">
+      <c r="S4" s="147"/>
+      <c r="T4" s="146" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="173"/>
-      <c r="V4" s="172" t="s">
+      <c r="U4" s="147"/>
+      <c r="V4" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="W4" s="173"/>
-      <c r="X4" s="172" t="s">
+      <c r="W4" s="147"/>
+      <c r="X4" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="173"/>
-      <c r="Z4" s="172" t="s">
+      <c r="Y4" s="147"/>
+      <c r="Z4" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="AA4" s="173"/>
-      <c r="AB4" s="172" t="s">
+      <c r="AA4" s="147"/>
+      <c r="AB4" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="AC4" s="173"/>
-      <c r="AD4" s="172" t="s">
+      <c r="AC4" s="147"/>
+      <c r="AD4" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="AE4" s="173"/>
-      <c r="AF4" s="172" t="s">
+      <c r="AE4" s="147"/>
+      <c r="AF4" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="AG4" s="173"/>
-      <c r="AH4" s="172" t="s">
+      <c r="AG4" s="147"/>
+      <c r="AH4" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="AI4" s="173"/>
-      <c r="AJ4" s="172" t="s">
+      <c r="AI4" s="147"/>
+      <c r="AJ4" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="AK4" s="173"/>
-      <c r="AL4" s="172" t="s">
+      <c r="AK4" s="147"/>
+      <c r="AL4" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="AM4" s="173"/>
+      <c r="AM4" s="147"/>
     </row>
-    <row r="5" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:107" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="176" t="s">
+      <c r="D5" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="177"/>
-      <c r="F5" s="176" t="s">
+      <c r="E5" s="103"/>
+      <c r="F5" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="177"/>
-      <c r="H5" s="174" t="s">
+      <c r="G5" s="103"/>
+      <c r="H5" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="175"/>
-      <c r="J5" s="174" t="s">
+      <c r="I5" s="105"/>
+      <c r="J5" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="175"/>
-      <c r="L5" s="174" t="s">
+      <c r="K5" s="105"/>
+      <c r="L5" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="175"/>
-      <c r="N5" s="174" t="s">
+      <c r="M5" s="105"/>
+      <c r="N5" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="175"/>
-      <c r="P5" s="176" t="s">
+      <c r="O5" s="105"/>
+      <c r="P5" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="177"/>
-      <c r="R5" s="176" t="s">
+      <c r="Q5" s="103"/>
+      <c r="R5" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="S5" s="177"/>
-      <c r="T5" s="176" t="s">
+      <c r="S5" s="103"/>
+      <c r="T5" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="177"/>
-      <c r="V5" s="176" t="s">
+      <c r="U5" s="103"/>
+      <c r="V5" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="W5" s="177"/>
-      <c r="X5" s="176" t="s">
+      <c r="W5" s="103"/>
+      <c r="X5" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="Y5" s="177"/>
-      <c r="Z5" s="174" t="s">
+      <c r="Y5" s="103"/>
+      <c r="Z5" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="AA5" s="175"/>
-      <c r="AB5" s="174" t="s">
+      <c r="AA5" s="105"/>
+      <c r="AB5" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="AC5" s="175"/>
-      <c r="AD5" s="176" t="s">
+      <c r="AC5" s="105"/>
+      <c r="AD5" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="AE5" s="177"/>
-      <c r="AF5" s="176" t="s">
+      <c r="AE5" s="103"/>
+      <c r="AF5" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="AG5" s="177"/>
-      <c r="AH5" s="176" t="s">
+      <c r="AG5" s="103"/>
+      <c r="AH5" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="AI5" s="177"/>
-      <c r="AJ5" s="176" t="s">
+      <c r="AI5" s="103"/>
+      <c r="AJ5" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="AK5" s="177"/>
-      <c r="AL5" s="176" t="s">
+      <c r="AK5" s="103"/>
+      <c r="AL5" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="AM5" s="177"/>
+      <c r="AM5" s="103"/>
     </row>
-    <row r="6" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:107" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:77" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:107" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="150" t="s">
+      <c r="D8" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="152"/>
-      <c r="F8" s="148" t="s">
+      <c r="E8" s="125"/>
+      <c r="F8" s="137" t="s">
         <v>114</v>
       </c>
-      <c r="G8" s="147"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="147"/>
-      <c r="J8" s="147"/>
-      <c r="K8" s="149"/>
-      <c r="L8" s="147" t="s">
+      <c r="G8" s="138"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="147"/>
-      <c r="N8" s="147"/>
-      <c r="O8" s="147"/>
-      <c r="P8" s="147"/>
-      <c r="Q8" s="147"/>
-      <c r="R8" s="148" t="s">
+      <c r="M8" s="138"/>
+      <c r="N8" s="138"/>
+      <c r="O8" s="138"/>
+      <c r="P8" s="138"/>
+      <c r="Q8" s="138"/>
+      <c r="R8" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="147"/>
-      <c r="T8" s="147"/>
-      <c r="U8" s="147"/>
-      <c r="V8" s="147"/>
-      <c r="W8" s="149"/>
-      <c r="X8" s="147" t="s">
+      <c r="S8" s="138"/>
+      <c r="T8" s="138"/>
+      <c r="U8" s="138"/>
+      <c r="V8" s="138"/>
+      <c r="W8" s="139"/>
+      <c r="X8" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="Y8" s="147"/>
-      <c r="Z8" s="147"/>
-      <c r="AA8" s="147"/>
-      <c r="AB8" s="147"/>
-      <c r="AC8" s="147"/>
-      <c r="AD8" s="150" t="s">
+      <c r="Y8" s="138"/>
+      <c r="Z8" s="138"/>
+      <c r="AA8" s="138"/>
+      <c r="AB8" s="138"/>
+      <c r="AC8" s="138"/>
+      <c r="AD8" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="AE8" s="151"/>
-      <c r="AF8" s="151"/>
-      <c r="AG8" s="151"/>
-      <c r="AH8" s="151"/>
-      <c r="AI8" s="152"/>
-      <c r="AJ8" s="148" t="s">
+      <c r="AE8" s="136"/>
+      <c r="AF8" s="136"/>
+      <c r="AG8" s="136"/>
+      <c r="AH8" s="136"/>
+      <c r="AI8" s="125"/>
+      <c r="AJ8" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="AK8" s="147"/>
-      <c r="AL8" s="147"/>
-      <c r="AM8" s="147"/>
-      <c r="AN8" s="147"/>
-      <c r="AO8" s="149"/>
-      <c r="AP8" s="147" t="s">
+      <c r="AK8" s="138"/>
+      <c r="AL8" s="138"/>
+      <c r="AM8" s="138"/>
+      <c r="AN8" s="138"/>
+      <c r="AO8" s="139"/>
+      <c r="AP8" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="AQ8" s="147"/>
-      <c r="AR8" s="147"/>
-      <c r="AS8" s="147"/>
-      <c r="AT8" s="147"/>
-      <c r="AU8" s="147"/>
-      <c r="AV8" s="147" t="s">
+      <c r="AQ8" s="138"/>
+      <c r="AR8" s="138"/>
+      <c r="AS8" s="138"/>
+      <c r="AT8" s="138"/>
+      <c r="AU8" s="138"/>
+      <c r="AV8" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="AW8" s="147"/>
-      <c r="AX8" s="147"/>
-      <c r="AY8" s="147"/>
-      <c r="AZ8" s="147"/>
-      <c r="BA8" s="147"/>
-      <c r="BB8" s="148" t="s">
+      <c r="AW8" s="138"/>
+      <c r="AX8" s="138"/>
+      <c r="AY8" s="138"/>
+      <c r="AZ8" s="138"/>
+      <c r="BA8" s="138"/>
+      <c r="BB8" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="BC8" s="147"/>
-      <c r="BD8" s="147"/>
-      <c r="BE8" s="147"/>
-      <c r="BF8" s="147"/>
-      <c r="BG8" s="149"/>
-      <c r="BH8" s="147" t="s">
+      <c r="BC8" s="138"/>
+      <c r="BD8" s="138"/>
+      <c r="BE8" s="138"/>
+      <c r="BF8" s="138"/>
+      <c r="BG8" s="139"/>
+      <c r="BH8" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="BI8" s="147"/>
-      <c r="BJ8" s="147"/>
-      <c r="BK8" s="147"/>
-      <c r="BL8" s="147"/>
-      <c r="BM8" s="147"/>
-      <c r="BN8" s="148" t="s">
+      <c r="BI8" s="138"/>
+      <c r="BJ8" s="138"/>
+      <c r="BK8" s="138"/>
+      <c r="BL8" s="138"/>
+      <c r="BM8" s="138"/>
+      <c r="BN8" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="BO8" s="147"/>
-      <c r="BP8" s="147"/>
-      <c r="BQ8" s="147"/>
-      <c r="BR8" s="147"/>
-      <c r="BS8" s="149"/>
-      <c r="BT8" s="148" t="s">
+      <c r="BO8" s="138"/>
+      <c r="BP8" s="138"/>
+      <c r="BQ8" s="138"/>
+      <c r="BR8" s="138"/>
+      <c r="BS8" s="139"/>
+      <c r="BT8" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="BU8" s="147"/>
-      <c r="BV8" s="147"/>
-      <c r="BW8" s="147"/>
-      <c r="BX8" s="147"/>
-      <c r="BY8" s="149"/>
+      <c r="BU8" s="138"/>
+      <c r="BV8" s="138"/>
+      <c r="BW8" s="138"/>
+      <c r="BX8" s="138"/>
+      <c r="BY8" s="139"/>
+      <c r="BZ8" s="124" t="s">
+        <v>126</v>
+      </c>
+      <c r="CA8" s="136"/>
+      <c r="CB8" s="136"/>
+      <c r="CC8" s="136"/>
+      <c r="CD8" s="136"/>
+      <c r="CE8" s="125"/>
+      <c r="CF8" s="124" t="s">
+        <v>127</v>
+      </c>
+      <c r="CG8" s="136"/>
+      <c r="CH8" s="136"/>
+      <c r="CI8" s="136"/>
+      <c r="CJ8" s="136"/>
+      <c r="CK8" s="125"/>
+      <c r="CL8" s="124" t="s">
+        <v>128</v>
+      </c>
+      <c r="CM8" s="136"/>
+      <c r="CN8" s="136"/>
+      <c r="CO8" s="136"/>
+      <c r="CP8" s="136"/>
+      <c r="CQ8" s="125"/>
+      <c r="CR8" s="137" t="s">
+        <v>129</v>
+      </c>
+      <c r="CS8" s="138"/>
+      <c r="CT8" s="138"/>
+      <c r="CU8" s="138"/>
+      <c r="CV8" s="138"/>
+      <c r="CW8" s="139"/>
+      <c r="CX8" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="CY8" s="138"/>
+      <c r="CZ8" s="138"/>
+      <c r="DA8" s="138"/>
+      <c r="DB8" s="138"/>
+      <c r="DC8" s="139"/>
     </row>
-    <row r="9" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="117" t="s">
+    <row r="9" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="134">
+      <c r="D9" s="126">
         <v>1</v>
       </c>
-      <c r="E9" s="135"/>
-      <c r="F9" s="99" t="s">
+      <c r="E9" s="127"/>
+      <c r="F9" s="148" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="169" t="s">
+      <c r="G9" s="149"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="149"/>
+      <c r="J9" s="149"/>
+      <c r="K9" s="150"/>
+      <c r="L9" s="130" t="s">
         <v>94</v>
       </c>
-      <c r="M9" s="170"/>
-      <c r="N9" s="170"/>
-      <c r="O9" s="170"/>
-      <c r="P9" s="170"/>
-      <c r="Q9" s="171"/>
-      <c r="R9" s="169" t="s">
+      <c r="M9" s="131"/>
+      <c r="N9" s="131"/>
+      <c r="O9" s="131"/>
+      <c r="P9" s="131"/>
+      <c r="Q9" s="132"/>
+      <c r="R9" s="130" t="s">
         <v>93</v>
       </c>
-      <c r="S9" s="170"/>
-      <c r="T9" s="170"/>
-      <c r="U9" s="170"/>
-      <c r="V9" s="170"/>
-      <c r="W9" s="171"/>
-      <c r="X9" s="169" t="s">
+      <c r="S9" s="131"/>
+      <c r="T9" s="131"/>
+      <c r="U9" s="131"/>
+      <c r="V9" s="131"/>
+      <c r="W9" s="132"/>
+      <c r="X9" s="130" t="s">
         <v>110</v>
       </c>
-      <c r="Y9" s="170"/>
-      <c r="Z9" s="170"/>
-      <c r="AA9" s="170"/>
-      <c r="AB9" s="170"/>
-      <c r="AC9" s="171"/>
-      <c r="AD9" s="169" t="s">
+      <c r="Y9" s="131"/>
+      <c r="Z9" s="131"/>
+      <c r="AA9" s="131"/>
+      <c r="AB9" s="131"/>
+      <c r="AC9" s="132"/>
+      <c r="AD9" s="130" t="s">
         <v>112</v>
       </c>
-      <c r="AE9" s="170"/>
-      <c r="AF9" s="170"/>
-      <c r="AG9" s="170"/>
-      <c r="AH9" s="170"/>
-      <c r="AI9" s="171"/>
+      <c r="AE9" s="131"/>
+      <c r="AF9" s="131"/>
+      <c r="AG9" s="131"/>
+      <c r="AH9" s="131"/>
+      <c r="AI9" s="132"/>
       <c r="AJ9" s="62"/>
       <c r="AK9" s="63"/>
       <c r="AL9" s="63"/>
@@ -2730,70 +2826,100 @@
       <c r="AY9" s="63"/>
       <c r="AZ9" s="63"/>
       <c r="BA9" s="63"/>
-      <c r="BB9" s="99" t="s">
+      <c r="BB9" s="148" t="s">
         <v>125</v>
       </c>
-      <c r="BC9" s="100"/>
-      <c r="BD9" s="100"/>
-      <c r="BE9" s="100"/>
-      <c r="BF9" s="100"/>
-      <c r="BG9" s="100"/>
-      <c r="BH9" s="100"/>
-      <c r="BI9" s="100"/>
-      <c r="BJ9" s="100"/>
-      <c r="BK9" s="100"/>
-      <c r="BL9" s="100"/>
-      <c r="BM9" s="101"/>
-      <c r="BN9" s="105" t="s">
+      <c r="BC9" s="149"/>
+      <c r="BD9" s="149"/>
+      <c r="BE9" s="149"/>
+      <c r="BF9" s="149"/>
+      <c r="BG9" s="149"/>
+      <c r="BH9" s="149"/>
+      <c r="BI9" s="149"/>
+      <c r="BJ9" s="149"/>
+      <c r="BK9" s="149"/>
+      <c r="BL9" s="149"/>
+      <c r="BM9" s="150"/>
+      <c r="BN9" s="172" t="s">
         <v>42</v>
       </c>
-      <c r="BO9" s="106"/>
-      <c r="BP9" s="106"/>
-      <c r="BQ9" s="106"/>
-      <c r="BR9" s="106"/>
-      <c r="BS9" s="107"/>
-      <c r="BT9" s="178"/>
+      <c r="BO9" s="173"/>
+      <c r="BP9" s="173"/>
+      <c r="BQ9" s="173"/>
+      <c r="BR9" s="173"/>
+      <c r="BS9" s="174"/>
+      <c r="BT9" s="93"/>
       <c r="BU9" s="27"/>
       <c r="BV9" s="27"/>
       <c r="BW9" s="27"/>
       <c r="BX9" s="27"/>
       <c r="BY9" s="28"/>
+      <c r="BZ9" s="185"/>
+      <c r="CA9" s="27"/>
+      <c r="CB9" s="27"/>
+      <c r="CC9" s="27"/>
+      <c r="CD9" s="27"/>
+      <c r="CE9" s="28"/>
+      <c r="CF9" s="185"/>
+      <c r="CG9" s="27"/>
+      <c r="CH9" s="27"/>
+      <c r="CI9" s="27"/>
+      <c r="CJ9" s="27"/>
+      <c r="CK9" s="28"/>
+      <c r="CL9" s="185"/>
+      <c r="CM9" s="27"/>
+      <c r="CN9" s="27"/>
+      <c r="CO9" s="27"/>
+      <c r="CP9" s="27"/>
+      <c r="CQ9" s="28"/>
+      <c r="CR9" s="185"/>
+      <c r="CS9" s="27"/>
+      <c r="CT9" s="27"/>
+      <c r="CU9" s="27"/>
+      <c r="CV9" s="27"/>
+      <c r="CW9" s="28"/>
+      <c r="CX9" s="185"/>
+      <c r="CY9" s="27"/>
+      <c r="CZ9" s="27"/>
+      <c r="DA9" s="27"/>
+      <c r="DB9" s="27"/>
+      <c r="DC9" s="28"/>
     </row>
-    <row r="10" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="118"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="97"/>
-      <c r="N10" s="97"/>
-      <c r="O10" s="97"/>
-      <c r="P10" s="97"/>
-      <c r="Q10" s="98"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="97"/>
-      <c r="T10" s="97"/>
-      <c r="U10" s="97"/>
-      <c r="V10" s="97"/>
-      <c r="W10" s="98"/>
-      <c r="X10" s="96"/>
-      <c r="Y10" s="97"/>
-      <c r="Z10" s="97"/>
-      <c r="AA10" s="97"/>
-      <c r="AB10" s="97"/>
-      <c r="AC10" s="98"/>
-      <c r="AD10" s="96"/>
-      <c r="AE10" s="97"/>
-      <c r="AF10" s="97"/>
-      <c r="AG10" s="97"/>
-      <c r="AH10" s="97"/>
-      <c r="AI10" s="98"/>
+    <row r="10" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="182"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="133"/>
+      <c r="M10" s="134"/>
+      <c r="N10" s="134"/>
+      <c r="O10" s="134"/>
+      <c r="P10" s="134"/>
+      <c r="Q10" s="135"/>
+      <c r="R10" s="133"/>
+      <c r="S10" s="134"/>
+      <c r="T10" s="134"/>
+      <c r="U10" s="134"/>
+      <c r="V10" s="134"/>
+      <c r="W10" s="135"/>
+      <c r="X10" s="133"/>
+      <c r="Y10" s="134"/>
+      <c r="Z10" s="134"/>
+      <c r="AA10" s="134"/>
+      <c r="AB10" s="134"/>
+      <c r="AC10" s="135"/>
+      <c r="AD10" s="133"/>
+      <c r="AE10" s="134"/>
+      <c r="AF10" s="134"/>
+      <c r="AG10" s="134"/>
+      <c r="AH10" s="134"/>
+      <c r="AI10" s="135"/>
       <c r="AJ10" s="67"/>
       <c r="AK10" s="59"/>
       <c r="AL10" s="59"/>
@@ -2812,42 +2938,72 @@
       <c r="AY10" s="59"/>
       <c r="AZ10" s="59"/>
       <c r="BA10" s="59"/>
-      <c r="BB10" s="102"/>
-      <c r="BC10" s="103"/>
-      <c r="BD10" s="103"/>
-      <c r="BE10" s="103"/>
-      <c r="BF10" s="103"/>
-      <c r="BG10" s="103"/>
-      <c r="BH10" s="103"/>
-      <c r="BI10" s="103"/>
-      <c r="BJ10" s="103"/>
-      <c r="BK10" s="103"/>
-      <c r="BL10" s="103"/>
-      <c r="BM10" s="104"/>
-      <c r="BN10" s="108"/>
-      <c r="BO10" s="109"/>
-      <c r="BP10" s="109"/>
-      <c r="BQ10" s="109"/>
-      <c r="BR10" s="109"/>
-      <c r="BS10" s="110"/>
-      <c r="BT10" s="179"/>
+      <c r="BB10" s="109"/>
+      <c r="BC10" s="110"/>
+      <c r="BD10" s="110"/>
+      <c r="BE10" s="110"/>
+      <c r="BF10" s="110"/>
+      <c r="BG10" s="110"/>
+      <c r="BH10" s="110"/>
+      <c r="BI10" s="110"/>
+      <c r="BJ10" s="110"/>
+      <c r="BK10" s="110"/>
+      <c r="BL10" s="110"/>
+      <c r="BM10" s="111"/>
+      <c r="BN10" s="175"/>
+      <c r="BO10" s="176"/>
+      <c r="BP10" s="176"/>
+      <c r="BQ10" s="176"/>
+      <c r="BR10" s="176"/>
+      <c r="BS10" s="177"/>
+      <c r="BT10" s="94"/>
       <c r="BU10" s="6"/>
       <c r="BV10" s="6"/>
       <c r="BW10" s="6"/>
       <c r="BX10" s="6"/>
       <c r="BY10" s="30"/>
+      <c r="BZ10" s="186"/>
+      <c r="CA10" s="6"/>
+      <c r="CB10" s="6"/>
+      <c r="CC10" s="6"/>
+      <c r="CD10" s="6"/>
+      <c r="CE10" s="30"/>
+      <c r="CF10" s="186"/>
+      <c r="CG10" s="6"/>
+      <c r="CH10" s="6"/>
+      <c r="CI10" s="6"/>
+      <c r="CJ10" s="6"/>
+      <c r="CK10" s="30"/>
+      <c r="CL10" s="186"/>
+      <c r="CM10" s="6"/>
+      <c r="CN10" s="6"/>
+      <c r="CO10" s="6"/>
+      <c r="CP10" s="6"/>
+      <c r="CQ10" s="30"/>
+      <c r="CR10" s="186"/>
+      <c r="CS10" s="6"/>
+      <c r="CT10" s="6"/>
+      <c r="CU10" s="6"/>
+      <c r="CV10" s="6"/>
+      <c r="CW10" s="30"/>
+      <c r="CX10" s="186"/>
+      <c r="CY10" s="6"/>
+      <c r="CZ10" s="6"/>
+      <c r="DA10" s="6"/>
+      <c r="DB10" s="6"/>
+      <c r="DC10" s="30"/>
     </row>
-    <row r="11" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="119" t="s">
+    <row r="11" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="122" t="s">
+      <c r="C11" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="134">
+      <c r="D11" s="126">
         <v>1</v>
       </c>
-      <c r="E11" s="135"/>
+      <c r="E11" s="127"/>
       <c r="F11" s="90"/>
       <c r="G11" s="78"/>
       <c r="H11" s="78"/>
@@ -2866,7 +3022,7 @@
       <c r="U11" s="78"/>
       <c r="V11" s="78"/>
       <c r="W11" s="79"/>
-      <c r="X11" s="180"/>
+      <c r="X11" s="95"/>
       <c r="Y11" s="34"/>
       <c r="Z11" s="34"/>
       <c r="AA11" s="34"/>
@@ -2920,12 +3076,42 @@
       <c r="BW11" s="34"/>
       <c r="BX11" s="34"/>
       <c r="BY11" s="35"/>
+      <c r="BZ11" s="33"/>
+      <c r="CA11" s="34"/>
+      <c r="CB11" s="34"/>
+      <c r="CC11" s="34"/>
+      <c r="CD11" s="34"/>
+      <c r="CE11" s="35"/>
+      <c r="CF11" s="33"/>
+      <c r="CG11" s="34"/>
+      <c r="CH11" s="34"/>
+      <c r="CI11" s="34"/>
+      <c r="CJ11" s="34"/>
+      <c r="CK11" s="35"/>
+      <c r="CL11" s="33"/>
+      <c r="CM11" s="34"/>
+      <c r="CN11" s="34"/>
+      <c r="CO11" s="34"/>
+      <c r="CP11" s="34"/>
+      <c r="CQ11" s="35"/>
+      <c r="CR11" s="33"/>
+      <c r="CS11" s="34"/>
+      <c r="CT11" s="34"/>
+      <c r="CU11" s="34"/>
+      <c r="CV11" s="34"/>
+      <c r="CW11" s="35"/>
+      <c r="CX11" s="33"/>
+      <c r="CY11" s="34"/>
+      <c r="CZ11" s="34"/>
+      <c r="DA11" s="34"/>
+      <c r="DB11" s="34"/>
+      <c r="DC11" s="35"/>
     </row>
-    <row r="12" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="118"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="128"/>
+    <row r="12" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="182"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="129"/>
       <c r="F12" s="82"/>
       <c r="G12" s="80"/>
       <c r="H12" s="80"/>
@@ -2944,7 +3130,7 @@
       <c r="U12" s="80"/>
       <c r="V12" s="80"/>
       <c r="W12" s="81"/>
-      <c r="X12" s="181"/>
+      <c r="X12" s="96"/>
       <c r="Y12" s="39"/>
       <c r="Z12" s="39"/>
       <c r="AA12" s="39"/>
@@ -2998,26 +3184,56 @@
       <c r="BW12" s="39"/>
       <c r="BX12" s="39"/>
       <c r="BY12" s="40"/>
+      <c r="BZ12" s="38"/>
+      <c r="CA12" s="39"/>
+      <c r="CB12" s="39"/>
+      <c r="CC12" s="39"/>
+      <c r="CD12" s="39"/>
+      <c r="CE12" s="40"/>
+      <c r="CF12" s="38"/>
+      <c r="CG12" s="39"/>
+      <c r="CH12" s="39"/>
+      <c r="CI12" s="39"/>
+      <c r="CJ12" s="39"/>
+      <c r="CK12" s="40"/>
+      <c r="CL12" s="38"/>
+      <c r="CM12" s="39"/>
+      <c r="CN12" s="39"/>
+      <c r="CO12" s="39"/>
+      <c r="CP12" s="39"/>
+      <c r="CQ12" s="40"/>
+      <c r="CR12" s="38"/>
+      <c r="CS12" s="39"/>
+      <c r="CT12" s="39"/>
+      <c r="CU12" s="39"/>
+      <c r="CV12" s="39"/>
+      <c r="CW12" s="40"/>
+      <c r="CX12" s="38"/>
+      <c r="CY12" s="39"/>
+      <c r="CZ12" s="39"/>
+      <c r="DA12" s="39"/>
+      <c r="DB12" s="39"/>
+      <c r="DC12" s="40"/>
     </row>
-    <row r="13" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="119" t="s">
+    <row r="13" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="183" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="120" t="s">
+      <c r="C13" s="184" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="134">
+      <c r="D13" s="126">
         <v>1</v>
       </c>
-      <c r="E13" s="135"/>
-      <c r="F13" s="93" t="s">
+      <c r="E13" s="127"/>
+      <c r="F13" s="140" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="95"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="141"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="142"/>
       <c r="L13" s="76"/>
       <c r="M13" s="77"/>
       <c r="N13" s="77"/>
@@ -3030,14 +3246,14 @@
       <c r="U13" s="59"/>
       <c r="V13" s="59"/>
       <c r="W13" s="68"/>
-      <c r="X13" s="93" t="s">
+      <c r="X13" s="140" t="s">
         <v>109</v>
       </c>
-      <c r="Y13" s="94"/>
-      <c r="Z13" s="94"/>
-      <c r="AA13" s="94"/>
-      <c r="AB13" s="94"/>
-      <c r="AC13" s="95"/>
+      <c r="Y13" s="141"/>
+      <c r="Z13" s="141"/>
+      <c r="AA13" s="141"/>
+      <c r="AB13" s="141"/>
+      <c r="AC13" s="142"/>
       <c r="AD13" s="76"/>
       <c r="AE13" s="77"/>
       <c r="AF13" s="77"/>
@@ -3062,15 +3278,15 @@
       <c r="AY13" s="78"/>
       <c r="AZ13" s="78"/>
       <c r="BA13" s="79"/>
-      <c r="BB13" s="111" t="s">
+      <c r="BB13" s="106" t="s">
         <v>118</v>
       </c>
-      <c r="BC13" s="112"/>
-      <c r="BD13" s="112"/>
-      <c r="BE13" s="112"/>
-      <c r="BF13" s="112"/>
-      <c r="BG13" s="113"/>
-      <c r="BH13" s="182"/>
+      <c r="BC13" s="107"/>
+      <c r="BD13" s="107"/>
+      <c r="BE13" s="107"/>
+      <c r="BF13" s="107"/>
+      <c r="BG13" s="108"/>
+      <c r="BH13" s="97"/>
       <c r="BI13" s="37"/>
       <c r="BJ13" s="37"/>
       <c r="BK13" s="34"/>
@@ -3088,18 +3304,48 @@
       <c r="BW13" s="6"/>
       <c r="BX13" s="6"/>
       <c r="BY13" s="30"/>
+      <c r="BZ13" s="29"/>
+      <c r="CA13" s="6"/>
+      <c r="CB13" s="6"/>
+      <c r="CC13" s="6"/>
+      <c r="CD13" s="6"/>
+      <c r="CE13" s="30"/>
+      <c r="CF13" s="29"/>
+      <c r="CG13" s="6"/>
+      <c r="CH13" s="6"/>
+      <c r="CI13" s="6"/>
+      <c r="CJ13" s="6"/>
+      <c r="CK13" s="30"/>
+      <c r="CL13" s="29"/>
+      <c r="CM13" s="6"/>
+      <c r="CN13" s="6"/>
+      <c r="CO13" s="6"/>
+      <c r="CP13" s="6"/>
+      <c r="CQ13" s="30"/>
+      <c r="CR13" s="29"/>
+      <c r="CS13" s="6"/>
+      <c r="CT13" s="6"/>
+      <c r="CU13" s="6"/>
+      <c r="CV13" s="6"/>
+      <c r="CW13" s="30"/>
+      <c r="CX13" s="29"/>
+      <c r="CY13" s="6"/>
+      <c r="CZ13" s="6"/>
+      <c r="DA13" s="6"/>
+      <c r="DB13" s="6"/>
+      <c r="DC13" s="30"/>
     </row>
-    <row r="14" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="118"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="98"/>
+    <row r="14" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="182"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="134"/>
+      <c r="K14" s="135"/>
       <c r="L14" s="65"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
@@ -3112,12 +3358,12 @@
       <c r="U14" s="80"/>
       <c r="V14" s="80"/>
       <c r="W14" s="81"/>
-      <c r="X14" s="96"/>
-      <c r="Y14" s="97"/>
-      <c r="Z14" s="97"/>
-      <c r="AA14" s="97"/>
-      <c r="AB14" s="97"/>
-      <c r="AC14" s="98"/>
+      <c r="X14" s="133"/>
+      <c r="Y14" s="134"/>
+      <c r="Z14" s="134"/>
+      <c r="AA14" s="134"/>
+      <c r="AB14" s="134"/>
+      <c r="AC14" s="135"/>
       <c r="AD14" s="65"/>
       <c r="AE14" s="66"/>
       <c r="AF14" s="66"/>
@@ -3142,13 +3388,13 @@
       <c r="AY14" s="80"/>
       <c r="AZ14" s="80"/>
       <c r="BA14" s="81"/>
-      <c r="BB14" s="102"/>
-      <c r="BC14" s="103"/>
-      <c r="BD14" s="103"/>
-      <c r="BE14" s="103"/>
-      <c r="BF14" s="103"/>
-      <c r="BG14" s="104"/>
-      <c r="BH14" s="183"/>
+      <c r="BB14" s="109"/>
+      <c r="BC14" s="110"/>
+      <c r="BD14" s="110"/>
+      <c r="BE14" s="110"/>
+      <c r="BF14" s="110"/>
+      <c r="BG14" s="111"/>
+      <c r="BH14" s="98"/>
       <c r="BI14" s="25"/>
       <c r="BJ14" s="25"/>
       <c r="BK14" s="39"/>
@@ -3166,26 +3412,56 @@
       <c r="BW14" s="39"/>
       <c r="BX14" s="39"/>
       <c r="BY14" s="40"/>
+      <c r="BZ14" s="38"/>
+      <c r="CA14" s="39"/>
+      <c r="CB14" s="39"/>
+      <c r="CC14" s="39"/>
+      <c r="CD14" s="39"/>
+      <c r="CE14" s="40"/>
+      <c r="CF14" s="38"/>
+      <c r="CG14" s="39"/>
+      <c r="CH14" s="39"/>
+      <c r="CI14" s="39"/>
+      <c r="CJ14" s="39"/>
+      <c r="CK14" s="40"/>
+      <c r="CL14" s="38"/>
+      <c r="CM14" s="39"/>
+      <c r="CN14" s="39"/>
+      <c r="CO14" s="39"/>
+      <c r="CP14" s="39"/>
+      <c r="CQ14" s="40"/>
+      <c r="CR14" s="38"/>
+      <c r="CS14" s="39"/>
+      <c r="CT14" s="39"/>
+      <c r="CU14" s="39"/>
+      <c r="CV14" s="39"/>
+      <c r="CW14" s="40"/>
+      <c r="CX14" s="38"/>
+      <c r="CY14" s="39"/>
+      <c r="CZ14" s="39"/>
+      <c r="DA14" s="39"/>
+      <c r="DB14" s="39"/>
+      <c r="DC14" s="40"/>
     </row>
-    <row r="15" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="119" t="s">
+    <row r="15" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="183" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="122" t="s">
+      <c r="C15" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="123">
+      <c r="D15" s="160">
         <v>1</v>
       </c>
-      <c r="E15" s="127"/>
-      <c r="F15" s="93" t="s">
+      <c r="E15" s="161"/>
+      <c r="F15" s="140" t="s">
         <v>97</v>
       </c>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="95"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="141"/>
+      <c r="I15" s="141"/>
+      <c r="J15" s="141"/>
+      <c r="K15" s="142"/>
       <c r="L15" s="83"/>
       <c r="M15" s="32"/>
       <c r="N15" s="32"/>
@@ -3252,18 +3528,48 @@
       <c r="BW15" s="6"/>
       <c r="BX15" s="6"/>
       <c r="BY15" s="30"/>
+      <c r="BZ15" s="29"/>
+      <c r="CA15" s="6"/>
+      <c r="CB15" s="6"/>
+      <c r="CC15" s="6"/>
+      <c r="CD15" s="6"/>
+      <c r="CE15" s="30"/>
+      <c r="CF15" s="29"/>
+      <c r="CG15" s="6"/>
+      <c r="CH15" s="6"/>
+      <c r="CI15" s="6"/>
+      <c r="CJ15" s="6"/>
+      <c r="CK15" s="30"/>
+      <c r="CL15" s="29"/>
+      <c r="CM15" s="6"/>
+      <c r="CN15" s="6"/>
+      <c r="CO15" s="6"/>
+      <c r="CP15" s="6"/>
+      <c r="CQ15" s="30"/>
+      <c r="CR15" s="29"/>
+      <c r="CS15" s="6"/>
+      <c r="CT15" s="6"/>
+      <c r="CU15" s="6"/>
+      <c r="CV15" s="6"/>
+      <c r="CW15" s="30"/>
+      <c r="CX15" s="29"/>
+      <c r="CY15" s="6"/>
+      <c r="CZ15" s="6"/>
+      <c r="DA15" s="6"/>
+      <c r="DB15" s="6"/>
+      <c r="DC15" s="30"/>
     </row>
-    <row r="16" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="118"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="98"/>
+    <row r="16" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="182"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="134"/>
+      <c r="K16" s="135"/>
       <c r="L16" s="83"/>
       <c r="M16" s="32"/>
       <c r="N16" s="32"/>
@@ -3330,18 +3636,48 @@
       <c r="BW16" s="39"/>
       <c r="BX16" s="39"/>
       <c r="BY16" s="40"/>
+      <c r="BZ16" s="38"/>
+      <c r="CA16" s="39"/>
+      <c r="CB16" s="39"/>
+      <c r="CC16" s="39"/>
+      <c r="CD16" s="39"/>
+      <c r="CE16" s="40"/>
+      <c r="CF16" s="38"/>
+      <c r="CG16" s="39"/>
+      <c r="CH16" s="39"/>
+      <c r="CI16" s="39"/>
+      <c r="CJ16" s="39"/>
+      <c r="CK16" s="40"/>
+      <c r="CL16" s="38"/>
+      <c r="CM16" s="39"/>
+      <c r="CN16" s="39"/>
+      <c r="CO16" s="39"/>
+      <c r="CP16" s="39"/>
+      <c r="CQ16" s="40"/>
+      <c r="CR16" s="38"/>
+      <c r="CS16" s="39"/>
+      <c r="CT16" s="39"/>
+      <c r="CU16" s="39"/>
+      <c r="CV16" s="39"/>
+      <c r="CW16" s="40"/>
+      <c r="CX16" s="38"/>
+      <c r="CY16" s="39"/>
+      <c r="CZ16" s="39"/>
+      <c r="DA16" s="39"/>
+      <c r="DB16" s="39"/>
+      <c r="DC16" s="40"/>
     </row>
-    <row r="17" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="119" t="s">
+    <row r="17" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="129" t="s">
+      <c r="C17" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="123">
+      <c r="D17" s="160">
         <v>1</v>
       </c>
-      <c r="E17" s="127"/>
+      <c r="E17" s="161"/>
       <c r="F17" s="29"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -3384,13 +3720,13 @@
       <c r="AS17" s="6"/>
       <c r="AT17" s="6"/>
       <c r="AU17" s="30"/>
-      <c r="AV17" s="111" t="s">
+      <c r="AV17" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="AW17" s="112"/>
-      <c r="AX17" s="112"/>
-      <c r="AY17" s="112"/>
-      <c r="AZ17" s="112"/>
+      <c r="AW17" s="107"/>
+      <c r="AX17" s="107"/>
+      <c r="AY17" s="107"/>
+      <c r="AZ17" s="107"/>
       <c r="BA17" s="91"/>
       <c r="BB17" s="29"/>
       <c r="BC17" s="6"/>
@@ -3416,12 +3752,42 @@
       <c r="BW17" s="6"/>
       <c r="BX17" s="6"/>
       <c r="BY17" s="30"/>
+      <c r="BZ17" s="29"/>
+      <c r="CA17" s="6"/>
+      <c r="CB17" s="6"/>
+      <c r="CC17" s="6"/>
+      <c r="CD17" s="6"/>
+      <c r="CE17" s="30"/>
+      <c r="CF17" s="29"/>
+      <c r="CG17" s="6"/>
+      <c r="CH17" s="6"/>
+      <c r="CI17" s="6"/>
+      <c r="CJ17" s="6"/>
+      <c r="CK17" s="30"/>
+      <c r="CL17" s="29"/>
+      <c r="CM17" s="6"/>
+      <c r="CN17" s="6"/>
+      <c r="CO17" s="6"/>
+      <c r="CP17" s="6"/>
+      <c r="CQ17" s="30"/>
+      <c r="CR17" s="29"/>
+      <c r="CS17" s="6"/>
+      <c r="CT17" s="6"/>
+      <c r="CU17" s="6"/>
+      <c r="CV17" s="6"/>
+      <c r="CW17" s="30"/>
+      <c r="CX17" s="29"/>
+      <c r="CY17" s="6"/>
+      <c r="CZ17" s="6"/>
+      <c r="DA17" s="6"/>
+      <c r="DB17" s="6"/>
+      <c r="DC17" s="30"/>
     </row>
-    <row r="18" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="118"/>
-      <c r="C18" s="130"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="128"/>
+    <row r="18" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="182"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="129"/>
       <c r="F18" s="38"/>
       <c r="G18" s="39"/>
       <c r="H18" s="39"/>
@@ -3464,11 +3830,11 @@
       <c r="AS18" s="39"/>
       <c r="AT18" s="39"/>
       <c r="AU18" s="40"/>
-      <c r="AV18" s="102"/>
-      <c r="AW18" s="103"/>
-      <c r="AX18" s="103"/>
-      <c r="AY18" s="103"/>
-      <c r="AZ18" s="103"/>
+      <c r="AV18" s="109"/>
+      <c r="AW18" s="110"/>
+      <c r="AX18" s="110"/>
+      <c r="AY18" s="110"/>
+      <c r="AZ18" s="110"/>
       <c r="BA18" s="92"/>
       <c r="BB18" s="38"/>
       <c r="BC18" s="39"/>
@@ -3494,77 +3860,107 @@
       <c r="BW18" s="39"/>
       <c r="BX18" s="39"/>
       <c r="BY18" s="40"/>
+      <c r="BZ18" s="38"/>
+      <c r="CA18" s="39"/>
+      <c r="CB18" s="39"/>
+      <c r="CC18" s="39"/>
+      <c r="CD18" s="39"/>
+      <c r="CE18" s="40"/>
+      <c r="CF18" s="38"/>
+      <c r="CG18" s="39"/>
+      <c r="CH18" s="39"/>
+      <c r="CI18" s="39"/>
+      <c r="CJ18" s="39"/>
+      <c r="CK18" s="40"/>
+      <c r="CL18" s="38"/>
+      <c r="CM18" s="39"/>
+      <c r="CN18" s="39"/>
+      <c r="CO18" s="39"/>
+      <c r="CP18" s="39"/>
+      <c r="CQ18" s="40"/>
+      <c r="CR18" s="38"/>
+      <c r="CS18" s="39"/>
+      <c r="CT18" s="39"/>
+      <c r="CU18" s="39"/>
+      <c r="CV18" s="39"/>
+      <c r="CW18" s="40"/>
+      <c r="CX18" s="38"/>
+      <c r="CY18" s="39"/>
+      <c r="CZ18" s="39"/>
+      <c r="DA18" s="39"/>
+      <c r="DB18" s="39"/>
+      <c r="DC18" s="40"/>
     </row>
-    <row r="19" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="119" t="s">
+    <row r="19" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="183" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="123">
+      <c r="D19" s="160">
         <v>0.5</v>
       </c>
-      <c r="E19" s="127"/>
+      <c r="E19" s="161"/>
       <c r="F19" s="67"/>
       <c r="G19" s="59"/>
       <c r="H19" s="59"/>
       <c r="I19" s="59"/>
       <c r="J19" s="59"/>
       <c r="K19" s="68"/>
-      <c r="L19" s="93" t="s">
+      <c r="L19" s="140" t="s">
         <v>96</v>
       </c>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="95"/>
+      <c r="M19" s="141"/>
+      <c r="N19" s="141"/>
+      <c r="O19" s="141"/>
+      <c r="P19" s="141"/>
+      <c r="Q19" s="142"/>
       <c r="R19" s="67"/>
       <c r="S19" s="59"/>
       <c r="T19" s="59"/>
       <c r="U19" s="59"/>
       <c r="V19" s="59"/>
       <c r="W19" s="68"/>
-      <c r="X19" s="93" t="s">
+      <c r="X19" s="140" t="s">
         <v>96</v>
       </c>
-      <c r="Y19" s="94"/>
-      <c r="Z19" s="94"/>
-      <c r="AA19" s="94"/>
-      <c r="AB19" s="94"/>
-      <c r="AC19" s="95"/>
-      <c r="AD19" s="93" t="s">
+      <c r="Y19" s="141"/>
+      <c r="Z19" s="141"/>
+      <c r="AA19" s="141"/>
+      <c r="AB19" s="141"/>
+      <c r="AC19" s="142"/>
+      <c r="AD19" s="140" t="s">
         <v>111</v>
       </c>
-      <c r="AE19" s="94"/>
-      <c r="AF19" s="94"/>
-      <c r="AG19" s="94"/>
-      <c r="AH19" s="94"/>
-      <c r="AI19" s="95"/>
+      <c r="AE19" s="141"/>
+      <c r="AF19" s="141"/>
+      <c r="AG19" s="141"/>
+      <c r="AH19" s="141"/>
+      <c r="AI19" s="142"/>
       <c r="AJ19" s="67"/>
       <c r="AK19" s="59"/>
       <c r="AL19" s="59"/>
       <c r="AM19" s="59"/>
       <c r="AN19" s="59"/>
       <c r="AO19" s="68"/>
-      <c r="AP19" s="93" t="s">
+      <c r="AP19" s="140" t="s">
         <v>92</v>
       </c>
-      <c r="AQ19" s="94"/>
-      <c r="AR19" s="94"/>
-      <c r="AS19" s="94"/>
-      <c r="AT19" s="94"/>
-      <c r="AU19" s="95"/>
-      <c r="AV19" s="111" t="s">
+      <c r="AQ19" s="141"/>
+      <c r="AR19" s="141"/>
+      <c r="AS19" s="141"/>
+      <c r="AT19" s="141"/>
+      <c r="AU19" s="142"/>
+      <c r="AV19" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="AW19" s="112"/>
-      <c r="AX19" s="112"/>
-      <c r="AY19" s="112"/>
-      <c r="AZ19" s="112"/>
-      <c r="BA19" s="113"/>
-      <c r="BB19" s="184"/>
+      <c r="AW19" s="107"/>
+      <c r="AX19" s="107"/>
+      <c r="AY19" s="107"/>
+      <c r="AZ19" s="107"/>
+      <c r="BA19" s="108"/>
+      <c r="BB19" s="99"/>
       <c r="BC19" s="6"/>
       <c r="BD19" s="6"/>
       <c r="BE19" s="6"/>
@@ -3588,61 +3984,91 @@
       <c r="BW19" s="6"/>
       <c r="BX19" s="6"/>
       <c r="BY19" s="30"/>
+      <c r="BZ19" s="29"/>
+      <c r="CA19" s="6"/>
+      <c r="CB19" s="6"/>
+      <c r="CC19" s="6"/>
+      <c r="CD19" s="6"/>
+      <c r="CE19" s="30"/>
+      <c r="CF19" s="29"/>
+      <c r="CG19" s="6"/>
+      <c r="CH19" s="6"/>
+      <c r="CI19" s="6"/>
+      <c r="CJ19" s="6"/>
+      <c r="CK19" s="30"/>
+      <c r="CL19" s="29"/>
+      <c r="CM19" s="6"/>
+      <c r="CN19" s="6"/>
+      <c r="CO19" s="6"/>
+      <c r="CP19" s="6"/>
+      <c r="CQ19" s="30"/>
+      <c r="CR19" s="29"/>
+      <c r="CS19" s="6"/>
+      <c r="CT19" s="6"/>
+      <c r="CU19" s="6"/>
+      <c r="CV19" s="6"/>
+      <c r="CW19" s="30"/>
+      <c r="CX19" s="29"/>
+      <c r="CY19" s="6"/>
+      <c r="CZ19" s="6"/>
+      <c r="DA19" s="6"/>
+      <c r="DB19" s="6"/>
+      <c r="DC19" s="30"/>
     </row>
-    <row r="20" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="118"/>
-      <c r="C20" s="130"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="128"/>
+    <row r="20" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="182"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="129"/>
       <c r="F20" s="82"/>
       <c r="G20" s="80"/>
       <c r="H20" s="80"/>
       <c r="I20" s="80"/>
       <c r="J20" s="80"/>
       <c r="K20" s="81"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="97"/>
-      <c r="N20" s="97"/>
-      <c r="O20" s="97"/>
-      <c r="P20" s="97"/>
-      <c r="Q20" s="98"/>
+      <c r="L20" s="133"/>
+      <c r="M20" s="134"/>
+      <c r="N20" s="134"/>
+      <c r="O20" s="134"/>
+      <c r="P20" s="134"/>
+      <c r="Q20" s="135"/>
       <c r="R20" s="82"/>
       <c r="S20" s="80"/>
       <c r="T20" s="80"/>
       <c r="U20" s="80"/>
       <c r="V20" s="80"/>
       <c r="W20" s="81"/>
-      <c r="X20" s="96"/>
-      <c r="Y20" s="97"/>
-      <c r="Z20" s="97"/>
-      <c r="AA20" s="97"/>
-      <c r="AB20" s="97"/>
-      <c r="AC20" s="98"/>
-      <c r="AD20" s="96"/>
-      <c r="AE20" s="97"/>
-      <c r="AF20" s="97"/>
-      <c r="AG20" s="97"/>
-      <c r="AH20" s="97"/>
-      <c r="AI20" s="98"/>
+      <c r="X20" s="133"/>
+      <c r="Y20" s="134"/>
+      <c r="Z20" s="134"/>
+      <c r="AA20" s="134"/>
+      <c r="AB20" s="134"/>
+      <c r="AC20" s="135"/>
+      <c r="AD20" s="133"/>
+      <c r="AE20" s="134"/>
+      <c r="AF20" s="134"/>
+      <c r="AG20" s="134"/>
+      <c r="AH20" s="134"/>
+      <c r="AI20" s="135"/>
       <c r="AJ20" s="82"/>
       <c r="AK20" s="80"/>
       <c r="AL20" s="80"/>
       <c r="AM20" s="80"/>
       <c r="AN20" s="80"/>
       <c r="AO20" s="81"/>
-      <c r="AP20" s="96"/>
-      <c r="AQ20" s="97"/>
-      <c r="AR20" s="97"/>
-      <c r="AS20" s="97"/>
-      <c r="AT20" s="97"/>
-      <c r="AU20" s="98"/>
-      <c r="AV20" s="102"/>
-      <c r="AW20" s="103"/>
-      <c r="AX20" s="103"/>
-      <c r="AY20" s="103"/>
-      <c r="AZ20" s="103"/>
-      <c r="BA20" s="104"/>
-      <c r="BB20" s="181"/>
+      <c r="AP20" s="133"/>
+      <c r="AQ20" s="134"/>
+      <c r="AR20" s="134"/>
+      <c r="AS20" s="134"/>
+      <c r="AT20" s="134"/>
+      <c r="AU20" s="135"/>
+      <c r="AV20" s="109"/>
+      <c r="AW20" s="110"/>
+      <c r="AX20" s="110"/>
+      <c r="AY20" s="110"/>
+      <c r="AZ20" s="110"/>
+      <c r="BA20" s="111"/>
+      <c r="BB20" s="96"/>
       <c r="BC20" s="39"/>
       <c r="BD20" s="39"/>
       <c r="BE20" s="39"/>
@@ -3666,28 +4092,58 @@
       <c r="BW20" s="39"/>
       <c r="BX20" s="39"/>
       <c r="BY20" s="40"/>
+      <c r="BZ20" s="38"/>
+      <c r="CA20" s="39"/>
+      <c r="CB20" s="39"/>
+      <c r="CC20" s="39"/>
+      <c r="CD20" s="39"/>
+      <c r="CE20" s="40"/>
+      <c r="CF20" s="38"/>
+      <c r="CG20" s="39"/>
+      <c r="CH20" s="39"/>
+      <c r="CI20" s="39"/>
+      <c r="CJ20" s="39"/>
+      <c r="CK20" s="40"/>
+      <c r="CL20" s="38"/>
+      <c r="CM20" s="39"/>
+      <c r="CN20" s="39"/>
+      <c r="CO20" s="39"/>
+      <c r="CP20" s="39"/>
+      <c r="CQ20" s="40"/>
+      <c r="CR20" s="38"/>
+      <c r="CS20" s="39"/>
+      <c r="CT20" s="39"/>
+      <c r="CU20" s="39"/>
+      <c r="CV20" s="39"/>
+      <c r="CW20" s="40"/>
+      <c r="CX20" s="38"/>
+      <c r="CY20" s="39"/>
+      <c r="CZ20" s="39"/>
+      <c r="DA20" s="39"/>
+      <c r="DB20" s="39"/>
+      <c r="DC20" s="40"/>
     </row>
-    <row r="21" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="119" t="s">
+    <row r="21" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="131"/>
-      <c r="D21" s="123">
+      <c r="C21" s="166"/>
+      <c r="D21" s="160">
         <v>0.9</v>
       </c>
-      <c r="E21" s="124"/>
+      <c r="E21" s="170"/>
       <c r="F21" s="29"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="30"/>
-      <c r="L21" s="138"/>
-      <c r="M21" s="139"/>
-      <c r="N21" s="139"/>
-      <c r="O21" s="139"/>
-      <c r="P21" s="139"/>
-      <c r="Q21" s="140"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="155"/>
+      <c r="N21" s="155"/>
+      <c r="O21" s="155"/>
+      <c r="P21" s="155"/>
+      <c r="Q21" s="156"/>
       <c r="R21" s="29"/>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
@@ -3724,23 +4180,23 @@
       <c r="AY21" s="34"/>
       <c r="AZ21" s="34"/>
       <c r="BA21" s="35"/>
-      <c r="BB21" s="93" t="s">
+      <c r="BB21" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="BC21" s="94"/>
-      <c r="BD21" s="94"/>
-      <c r="BE21" s="94"/>
-      <c r="BF21" s="94"/>
-      <c r="BG21" s="95"/>
-      <c r="BH21" s="93" t="s">
+      <c r="BC21" s="141"/>
+      <c r="BD21" s="141"/>
+      <c r="BE21" s="141"/>
+      <c r="BF21" s="141"/>
+      <c r="BG21" s="142"/>
+      <c r="BH21" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="BI21" s="94"/>
-      <c r="BJ21" s="94"/>
-      <c r="BK21" s="94"/>
-      <c r="BL21" s="94"/>
-      <c r="BM21" s="95"/>
-      <c r="BN21" s="184"/>
+      <c r="BI21" s="141"/>
+      <c r="BJ21" s="141"/>
+      <c r="BK21" s="141"/>
+      <c r="BL21" s="141"/>
+      <c r="BM21" s="142"/>
+      <c r="BN21" s="99"/>
       <c r="BO21" s="6"/>
       <c r="BP21" s="6"/>
       <c r="BQ21" s="6"/>
@@ -3752,24 +4208,54 @@
       <c r="BW21" s="6"/>
       <c r="BX21" s="6"/>
       <c r="BY21" s="30"/>
+      <c r="BZ21" s="29"/>
+      <c r="CA21" s="6"/>
+      <c r="CB21" s="6"/>
+      <c r="CC21" s="6"/>
+      <c r="CD21" s="6"/>
+      <c r="CE21" s="30"/>
+      <c r="CF21" s="29"/>
+      <c r="CG21" s="6"/>
+      <c r="CH21" s="6"/>
+      <c r="CI21" s="6"/>
+      <c r="CJ21" s="6"/>
+      <c r="CK21" s="30"/>
+      <c r="CL21" s="29"/>
+      <c r="CM21" s="6"/>
+      <c r="CN21" s="6"/>
+      <c r="CO21" s="6"/>
+      <c r="CP21" s="6"/>
+      <c r="CQ21" s="30"/>
+      <c r="CR21" s="29"/>
+      <c r="CS21" s="6"/>
+      <c r="CT21" s="6"/>
+      <c r="CU21" s="6"/>
+      <c r="CV21" s="6"/>
+      <c r="CW21" s="30"/>
+      <c r="CX21" s="29"/>
+      <c r="CY21" s="6"/>
+      <c r="CZ21" s="6"/>
+      <c r="DA21" s="6"/>
+      <c r="DB21" s="6"/>
+      <c r="DC21" s="30"/>
     </row>
-    <row r="22" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="118"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="126"/>
+    <row r="22" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="182"/>
+      <c r="C22" s="165"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="171"/>
       <c r="F22" s="38"/>
       <c r="G22" s="39"/>
       <c r="H22" s="39"/>
       <c r="I22" s="39"/>
       <c r="J22" s="39"/>
       <c r="K22" s="40"/>
-      <c r="L22" s="141"/>
-      <c r="M22" s="142"/>
-      <c r="N22" s="142"/>
-      <c r="O22" s="142"/>
-      <c r="P22" s="142"/>
-      <c r="Q22" s="143"/>
+      <c r="L22" s="157"/>
+      <c r="M22" s="158"/>
+      <c r="N22" s="158"/>
+      <c r="O22" s="158"/>
+      <c r="P22" s="158"/>
+      <c r="Q22" s="159"/>
       <c r="R22" s="38"/>
       <c r="S22" s="39"/>
       <c r="T22" s="39"/>
@@ -3806,19 +4292,19 @@
       <c r="AY22" s="39"/>
       <c r="AZ22" s="39"/>
       <c r="BA22" s="40"/>
-      <c r="BB22" s="96"/>
-      <c r="BC22" s="97"/>
-      <c r="BD22" s="97"/>
-      <c r="BE22" s="97"/>
-      <c r="BF22" s="97"/>
-      <c r="BG22" s="98"/>
-      <c r="BH22" s="96"/>
-      <c r="BI22" s="97"/>
-      <c r="BJ22" s="97"/>
-      <c r="BK22" s="97"/>
-      <c r="BL22" s="97"/>
-      <c r="BM22" s="98"/>
-      <c r="BN22" s="181"/>
+      <c r="BB22" s="133"/>
+      <c r="BC22" s="134"/>
+      <c r="BD22" s="134"/>
+      <c r="BE22" s="134"/>
+      <c r="BF22" s="134"/>
+      <c r="BG22" s="135"/>
+      <c r="BH22" s="133"/>
+      <c r="BI22" s="134"/>
+      <c r="BJ22" s="134"/>
+      <c r="BK22" s="134"/>
+      <c r="BL22" s="134"/>
+      <c r="BM22" s="135"/>
+      <c r="BN22" s="96"/>
       <c r="BO22" s="39"/>
       <c r="BP22" s="39"/>
       <c r="BQ22" s="39"/>
@@ -3830,16 +4316,46 @@
       <c r="BW22" s="39"/>
       <c r="BX22" s="39"/>
       <c r="BY22" s="40"/>
+      <c r="BZ22" s="38"/>
+      <c r="CA22" s="39"/>
+      <c r="CB22" s="39"/>
+      <c r="CC22" s="39"/>
+      <c r="CD22" s="39"/>
+      <c r="CE22" s="40"/>
+      <c r="CF22" s="38"/>
+      <c r="CG22" s="39"/>
+      <c r="CH22" s="39"/>
+      <c r="CI22" s="39"/>
+      <c r="CJ22" s="39"/>
+      <c r="CK22" s="40"/>
+      <c r="CL22" s="38"/>
+      <c r="CM22" s="39"/>
+      <c r="CN22" s="39"/>
+      <c r="CO22" s="39"/>
+      <c r="CP22" s="39"/>
+      <c r="CQ22" s="40"/>
+      <c r="CR22" s="38"/>
+      <c r="CS22" s="39"/>
+      <c r="CT22" s="39"/>
+      <c r="CU22" s="39"/>
+      <c r="CV22" s="39"/>
+      <c r="CW22" s="40"/>
+      <c r="CX22" s="38"/>
+      <c r="CY22" s="39"/>
+      <c r="CZ22" s="39"/>
+      <c r="DA22" s="39"/>
+      <c r="DB22" s="39"/>
+      <c r="DC22" s="40"/>
     </row>
-    <row r="23" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="119" t="s">
+    <row r="23" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="183" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="122"/>
-      <c r="D23" s="123">
+      <c r="C23" s="164"/>
+      <c r="D23" s="160">
         <v>0.9</v>
       </c>
-      <c r="E23" s="127"/>
+      <c r="E23" s="161"/>
       <c r="F23" s="29"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -3870,12 +4386,12 @@
       <c r="AG23" s="34"/>
       <c r="AH23" s="34"/>
       <c r="AI23" s="35"/>
-      <c r="AJ23" s="138"/>
-      <c r="AK23" s="139"/>
-      <c r="AL23" s="139"/>
-      <c r="AM23" s="139"/>
-      <c r="AN23" s="139"/>
-      <c r="AO23" s="140"/>
+      <c r="AJ23" s="154"/>
+      <c r="AK23" s="155"/>
+      <c r="AL23" s="155"/>
+      <c r="AM23" s="155"/>
+      <c r="AN23" s="155"/>
+      <c r="AO23" s="156"/>
       <c r="AP23" s="29"/>
       <c r="AQ23" s="6"/>
       <c r="AR23" s="6"/>
@@ -3900,26 +4416,56 @@
       <c r="BK23" s="78"/>
       <c r="BL23" s="78"/>
       <c r="BM23" s="79"/>
-      <c r="BN23" s="111" t="s">
+      <c r="BN23" s="106" t="s">
         <v>121</v>
       </c>
-      <c r="BO23" s="112"/>
-      <c r="BP23" s="112"/>
-      <c r="BQ23" s="112"/>
-      <c r="BR23" s="112"/>
-      <c r="BS23" s="113"/>
-      <c r="BT23" s="184"/>
+      <c r="BO23" s="107"/>
+      <c r="BP23" s="107"/>
+      <c r="BQ23" s="107"/>
+      <c r="BR23" s="107"/>
+      <c r="BS23" s="108"/>
+      <c r="BT23" s="99"/>
       <c r="BU23" s="6"/>
       <c r="BV23" s="6"/>
       <c r="BW23" s="6"/>
       <c r="BX23" s="6"/>
       <c r="BY23" s="30"/>
+      <c r="BZ23" s="29"/>
+      <c r="CA23" s="6"/>
+      <c r="CB23" s="6"/>
+      <c r="CC23" s="6"/>
+      <c r="CD23" s="6"/>
+      <c r="CE23" s="30"/>
+      <c r="CF23" s="29"/>
+      <c r="CG23" s="6"/>
+      <c r="CH23" s="6"/>
+      <c r="CI23" s="6"/>
+      <c r="CJ23" s="6"/>
+      <c r="CK23" s="30"/>
+      <c r="CL23" s="29"/>
+      <c r="CM23" s="6"/>
+      <c r="CN23" s="6"/>
+      <c r="CO23" s="6"/>
+      <c r="CP23" s="6"/>
+      <c r="CQ23" s="30"/>
+      <c r="CR23" s="29"/>
+      <c r="CS23" s="6"/>
+      <c r="CT23" s="6"/>
+      <c r="CU23" s="6"/>
+      <c r="CV23" s="6"/>
+      <c r="CW23" s="30"/>
+      <c r="CX23" s="29"/>
+      <c r="CY23" s="6"/>
+      <c r="CZ23" s="6"/>
+      <c r="DA23" s="6"/>
+      <c r="DB23" s="6"/>
+      <c r="DC23" s="30"/>
     </row>
-    <row r="24" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="118"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="128"/>
+    <row r="24" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="182"/>
+      <c r="C24" s="165"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="129"/>
       <c r="F24" s="38"/>
       <c r="G24" s="39"/>
       <c r="H24" s="39"/>
@@ -3950,12 +4496,12 @@
       <c r="AG24" s="39"/>
       <c r="AH24" s="39"/>
       <c r="AI24" s="40"/>
-      <c r="AJ24" s="141"/>
-      <c r="AK24" s="142"/>
-      <c r="AL24" s="142"/>
-      <c r="AM24" s="142"/>
-      <c r="AN24" s="142"/>
-      <c r="AO24" s="143"/>
+      <c r="AJ24" s="157"/>
+      <c r="AK24" s="158"/>
+      <c r="AL24" s="158"/>
+      <c r="AM24" s="158"/>
+      <c r="AN24" s="158"/>
+      <c r="AO24" s="159"/>
       <c r="AP24" s="38"/>
       <c r="AQ24" s="39"/>
       <c r="AR24" s="39"/>
@@ -3980,28 +4526,58 @@
       <c r="BK24" s="80"/>
       <c r="BL24" s="80"/>
       <c r="BM24" s="81"/>
-      <c r="BN24" s="102"/>
-      <c r="BO24" s="103"/>
-      <c r="BP24" s="103"/>
-      <c r="BQ24" s="103"/>
-      <c r="BR24" s="103"/>
-      <c r="BS24" s="104"/>
-      <c r="BT24" s="181"/>
+      <c r="BN24" s="109"/>
+      <c r="BO24" s="110"/>
+      <c r="BP24" s="110"/>
+      <c r="BQ24" s="110"/>
+      <c r="BR24" s="110"/>
+      <c r="BS24" s="111"/>
+      <c r="BT24" s="96"/>
       <c r="BU24" s="39"/>
       <c r="BV24" s="39"/>
       <c r="BW24" s="39"/>
       <c r="BX24" s="39"/>
       <c r="BY24" s="40"/>
+      <c r="BZ24" s="38"/>
+      <c r="CA24" s="39"/>
+      <c r="CB24" s="39"/>
+      <c r="CC24" s="39"/>
+      <c r="CD24" s="39"/>
+      <c r="CE24" s="40"/>
+      <c r="CF24" s="38"/>
+      <c r="CG24" s="39"/>
+      <c r="CH24" s="39"/>
+      <c r="CI24" s="39"/>
+      <c r="CJ24" s="39"/>
+      <c r="CK24" s="40"/>
+      <c r="CL24" s="38"/>
+      <c r="CM24" s="39"/>
+      <c r="CN24" s="39"/>
+      <c r="CO24" s="39"/>
+      <c r="CP24" s="39"/>
+      <c r="CQ24" s="40"/>
+      <c r="CR24" s="38"/>
+      <c r="CS24" s="39"/>
+      <c r="CT24" s="39"/>
+      <c r="CU24" s="39"/>
+      <c r="CV24" s="39"/>
+      <c r="CW24" s="40"/>
+      <c r="CX24" s="38"/>
+      <c r="CY24" s="39"/>
+      <c r="CZ24" s="39"/>
+      <c r="DA24" s="39"/>
+      <c r="DB24" s="39"/>
+      <c r="DC24" s="40"/>
     </row>
-    <row r="25" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="119" t="s">
+    <row r="25" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="183" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="131"/>
-      <c r="D25" s="123">
+      <c r="C25" s="166"/>
+      <c r="D25" s="160">
         <v>0.8</v>
       </c>
-      <c r="E25" s="124"/>
+      <c r="E25" s="170"/>
       <c r="F25" s="29"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -4032,66 +4608,96 @@
       <c r="AG25" s="78"/>
       <c r="AH25" s="78"/>
       <c r="AI25" s="79"/>
-      <c r="AJ25" s="111" t="s">
+      <c r="AJ25" s="106" t="s">
         <v>116</v>
       </c>
-      <c r="AK25" s="112"/>
-      <c r="AL25" s="112"/>
-      <c r="AM25" s="112"/>
-      <c r="AN25" s="112"/>
-      <c r="AO25" s="113"/>
-      <c r="AP25" s="93" t="s">
+      <c r="AK25" s="107"/>
+      <c r="AL25" s="107"/>
+      <c r="AM25" s="107"/>
+      <c r="AN25" s="107"/>
+      <c r="AO25" s="108"/>
+      <c r="AP25" s="140" t="s">
         <v>117</v>
       </c>
-      <c r="AQ25" s="94"/>
-      <c r="AR25" s="94"/>
-      <c r="AS25" s="94"/>
-      <c r="AT25" s="94"/>
-      <c r="AU25" s="95"/>
-      <c r="AV25" s="111" t="s">
+      <c r="AQ25" s="141"/>
+      <c r="AR25" s="141"/>
+      <c r="AS25" s="141"/>
+      <c r="AT25" s="141"/>
+      <c r="AU25" s="142"/>
+      <c r="AV25" s="106" t="s">
         <v>118</v>
       </c>
-      <c r="AW25" s="112"/>
-      <c r="AX25" s="112"/>
-      <c r="AY25" s="112"/>
-      <c r="AZ25" s="112"/>
-      <c r="BA25" s="113"/>
-      <c r="BB25" s="111" t="s">
+      <c r="AW25" s="107"/>
+      <c r="AX25" s="107"/>
+      <c r="AY25" s="107"/>
+      <c r="AZ25" s="107"/>
+      <c r="BA25" s="108"/>
+      <c r="BB25" s="106" t="s">
         <v>119</v>
       </c>
-      <c r="BC25" s="112"/>
-      <c r="BD25" s="112"/>
-      <c r="BE25" s="112"/>
-      <c r="BF25" s="112"/>
-      <c r="BG25" s="113"/>
-      <c r="BH25" s="111" t="s">
+      <c r="BC25" s="107"/>
+      <c r="BD25" s="107"/>
+      <c r="BE25" s="107"/>
+      <c r="BF25" s="107"/>
+      <c r="BG25" s="108"/>
+      <c r="BH25" s="106" t="s">
         <v>119</v>
       </c>
-      <c r="BI25" s="112"/>
-      <c r="BJ25" s="112"/>
-      <c r="BK25" s="112"/>
-      <c r="BL25" s="112"/>
-      <c r="BM25" s="113"/>
-      <c r="BN25" s="111" t="s">
+      <c r="BI25" s="107"/>
+      <c r="BJ25" s="107"/>
+      <c r="BK25" s="107"/>
+      <c r="BL25" s="107"/>
+      <c r="BM25" s="108"/>
+      <c r="BN25" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="BO25" s="112"/>
-      <c r="BP25" s="112"/>
-      <c r="BQ25" s="112"/>
-      <c r="BR25" s="112"/>
-      <c r="BS25" s="113"/>
+      <c r="BO25" s="107"/>
+      <c r="BP25" s="107"/>
+      <c r="BQ25" s="107"/>
+      <c r="BR25" s="107"/>
+      <c r="BS25" s="108"/>
       <c r="BT25" s="29"/>
       <c r="BU25" s="6"/>
       <c r="BV25" s="6"/>
       <c r="BW25" s="6"/>
       <c r="BX25" s="6"/>
       <c r="BY25" s="30"/>
+      <c r="BZ25" s="29"/>
+      <c r="CA25" s="6"/>
+      <c r="CB25" s="6"/>
+      <c r="CC25" s="6"/>
+      <c r="CD25" s="6"/>
+      <c r="CE25" s="30"/>
+      <c r="CF25" s="29"/>
+      <c r="CG25" s="6"/>
+      <c r="CH25" s="6"/>
+      <c r="CI25" s="6"/>
+      <c r="CJ25" s="6"/>
+      <c r="CK25" s="30"/>
+      <c r="CL25" s="29"/>
+      <c r="CM25" s="6"/>
+      <c r="CN25" s="6"/>
+      <c r="CO25" s="6"/>
+      <c r="CP25" s="6"/>
+      <c r="CQ25" s="30"/>
+      <c r="CR25" s="29"/>
+      <c r="CS25" s="6"/>
+      <c r="CT25" s="6"/>
+      <c r="CU25" s="6"/>
+      <c r="CV25" s="6"/>
+      <c r="CW25" s="30"/>
+      <c r="CX25" s="29"/>
+      <c r="CY25" s="6"/>
+      <c r="CZ25" s="6"/>
+      <c r="DA25" s="6"/>
+      <c r="DB25" s="6"/>
+      <c r="DC25" s="30"/>
     </row>
-    <row r="26" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="118"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="126"/>
+    <row r="26" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="182"/>
+      <c r="C26" s="165"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="171"/>
       <c r="F26" s="38"/>
       <c r="G26" s="39"/>
       <c r="H26" s="39"/>
@@ -4122,58 +4728,88 @@
       <c r="AG26" s="80"/>
       <c r="AH26" s="80"/>
       <c r="AI26" s="81"/>
-      <c r="AJ26" s="102"/>
-      <c r="AK26" s="103"/>
-      <c r="AL26" s="103"/>
-      <c r="AM26" s="103"/>
-      <c r="AN26" s="103"/>
-      <c r="AO26" s="104"/>
-      <c r="AP26" s="96"/>
-      <c r="AQ26" s="97"/>
-      <c r="AR26" s="97"/>
-      <c r="AS26" s="97"/>
-      <c r="AT26" s="97"/>
-      <c r="AU26" s="98"/>
-      <c r="AV26" s="102"/>
-      <c r="AW26" s="103"/>
-      <c r="AX26" s="103"/>
-      <c r="AY26" s="103"/>
-      <c r="AZ26" s="103"/>
-      <c r="BA26" s="104"/>
-      <c r="BB26" s="102"/>
-      <c r="BC26" s="103"/>
-      <c r="BD26" s="103"/>
-      <c r="BE26" s="103"/>
-      <c r="BF26" s="103"/>
-      <c r="BG26" s="104"/>
-      <c r="BH26" s="102"/>
-      <c r="BI26" s="103"/>
-      <c r="BJ26" s="103"/>
-      <c r="BK26" s="103"/>
-      <c r="BL26" s="103"/>
-      <c r="BM26" s="104"/>
-      <c r="BN26" s="102"/>
-      <c r="BO26" s="103"/>
-      <c r="BP26" s="103"/>
-      <c r="BQ26" s="103"/>
-      <c r="BR26" s="103"/>
-      <c r="BS26" s="104"/>
+      <c r="AJ26" s="109"/>
+      <c r="AK26" s="110"/>
+      <c r="AL26" s="110"/>
+      <c r="AM26" s="110"/>
+      <c r="AN26" s="110"/>
+      <c r="AO26" s="111"/>
+      <c r="AP26" s="133"/>
+      <c r="AQ26" s="134"/>
+      <c r="AR26" s="134"/>
+      <c r="AS26" s="134"/>
+      <c r="AT26" s="134"/>
+      <c r="AU26" s="135"/>
+      <c r="AV26" s="109"/>
+      <c r="AW26" s="110"/>
+      <c r="AX26" s="110"/>
+      <c r="AY26" s="110"/>
+      <c r="AZ26" s="110"/>
+      <c r="BA26" s="111"/>
+      <c r="BB26" s="109"/>
+      <c r="BC26" s="110"/>
+      <c r="BD26" s="110"/>
+      <c r="BE26" s="110"/>
+      <c r="BF26" s="110"/>
+      <c r="BG26" s="111"/>
+      <c r="BH26" s="109"/>
+      <c r="BI26" s="110"/>
+      <c r="BJ26" s="110"/>
+      <c r="BK26" s="110"/>
+      <c r="BL26" s="110"/>
+      <c r="BM26" s="111"/>
+      <c r="BN26" s="109"/>
+      <c r="BO26" s="110"/>
+      <c r="BP26" s="110"/>
+      <c r="BQ26" s="110"/>
+      <c r="BR26" s="110"/>
+      <c r="BS26" s="111"/>
       <c r="BT26" s="38"/>
       <c r="BU26" s="39"/>
       <c r="BV26" s="39"/>
       <c r="BW26" s="39"/>
       <c r="BX26" s="39"/>
       <c r="BY26" s="40"/>
+      <c r="BZ26" s="38"/>
+      <c r="CA26" s="39"/>
+      <c r="CB26" s="39"/>
+      <c r="CC26" s="39"/>
+      <c r="CD26" s="39"/>
+      <c r="CE26" s="40"/>
+      <c r="CF26" s="38"/>
+      <c r="CG26" s="39"/>
+      <c r="CH26" s="39"/>
+      <c r="CI26" s="39"/>
+      <c r="CJ26" s="39"/>
+      <c r="CK26" s="40"/>
+      <c r="CL26" s="38"/>
+      <c r="CM26" s="39"/>
+      <c r="CN26" s="39"/>
+      <c r="CO26" s="39"/>
+      <c r="CP26" s="39"/>
+      <c r="CQ26" s="40"/>
+      <c r="CR26" s="38"/>
+      <c r="CS26" s="39"/>
+      <c r="CT26" s="39"/>
+      <c r="CU26" s="39"/>
+      <c r="CV26" s="39"/>
+      <c r="CW26" s="40"/>
+      <c r="CX26" s="38"/>
+      <c r="CY26" s="39"/>
+      <c r="CZ26" s="39"/>
+      <c r="DA26" s="39"/>
+      <c r="DB26" s="39"/>
+      <c r="DC26" s="40"/>
     </row>
-    <row r="27" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="119" t="s">
+    <row r="27" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="183" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="122"/>
-      <c r="D27" s="123">
+      <c r="C27" s="164"/>
+      <c r="D27" s="160">
         <v>0.8</v>
       </c>
-      <c r="E27" s="127"/>
+      <c r="E27" s="161"/>
       <c r="F27" s="29"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -4204,22 +4840,22 @@
       <c r="AG27" s="34"/>
       <c r="AH27" s="34"/>
       <c r="AI27" s="35"/>
-      <c r="AJ27" s="93" t="s">
+      <c r="AJ27" s="140" t="s">
         <v>120</v>
       </c>
-      <c r="AK27" s="94"/>
-      <c r="AL27" s="94"/>
-      <c r="AM27" s="94"/>
-      <c r="AN27" s="94"/>
-      <c r="AO27" s="95"/>
-      <c r="AP27" s="93" t="s">
+      <c r="AK27" s="141"/>
+      <c r="AL27" s="141"/>
+      <c r="AM27" s="141"/>
+      <c r="AN27" s="141"/>
+      <c r="AO27" s="142"/>
+      <c r="AP27" s="140" t="s">
         <v>121</v>
       </c>
-      <c r="AQ27" s="94"/>
-      <c r="AR27" s="94"/>
-      <c r="AS27" s="94"/>
-      <c r="AT27" s="94"/>
-      <c r="AU27" s="95"/>
+      <c r="AQ27" s="141"/>
+      <c r="AR27" s="141"/>
+      <c r="AS27" s="141"/>
+      <c r="AT27" s="141"/>
+      <c r="AU27" s="142"/>
       <c r="AV27" s="76"/>
       <c r="AW27" s="77"/>
       <c r="AX27" s="77"/>
@@ -4250,12 +4886,42 @@
       <c r="BW27" s="6"/>
       <c r="BX27" s="6"/>
       <c r="BY27" s="30"/>
+      <c r="BZ27" s="29"/>
+      <c r="CA27" s="6"/>
+      <c r="CB27" s="6"/>
+      <c r="CC27" s="6"/>
+      <c r="CD27" s="6"/>
+      <c r="CE27" s="30"/>
+      <c r="CF27" s="29"/>
+      <c r="CG27" s="6"/>
+      <c r="CH27" s="6"/>
+      <c r="CI27" s="6"/>
+      <c r="CJ27" s="6"/>
+      <c r="CK27" s="30"/>
+      <c r="CL27" s="29"/>
+      <c r="CM27" s="6"/>
+      <c r="CN27" s="6"/>
+      <c r="CO27" s="6"/>
+      <c r="CP27" s="6"/>
+      <c r="CQ27" s="30"/>
+      <c r="CR27" s="29"/>
+      <c r="CS27" s="6"/>
+      <c r="CT27" s="6"/>
+      <c r="CU27" s="6"/>
+      <c r="CV27" s="6"/>
+      <c r="CW27" s="30"/>
+      <c r="CX27" s="29"/>
+      <c r="CY27" s="6"/>
+      <c r="CZ27" s="6"/>
+      <c r="DA27" s="6"/>
+      <c r="DB27" s="6"/>
+      <c r="DC27" s="30"/>
     </row>
-    <row r="28" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="118"/>
-      <c r="C28" s="121"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="128"/>
+    <row r="28" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="182"/>
+      <c r="C28" s="165"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="129"/>
       <c r="F28" s="38"/>
       <c r="G28" s="39"/>
       <c r="H28" s="39"/>
@@ -4286,18 +4952,18 @@
       <c r="AG28" s="39"/>
       <c r="AH28" s="39"/>
       <c r="AI28" s="40"/>
-      <c r="AJ28" s="96"/>
-      <c r="AK28" s="97"/>
-      <c r="AL28" s="97"/>
-      <c r="AM28" s="97"/>
-      <c r="AN28" s="97"/>
-      <c r="AO28" s="98"/>
-      <c r="AP28" s="96"/>
-      <c r="AQ28" s="97"/>
-      <c r="AR28" s="97"/>
-      <c r="AS28" s="97"/>
-      <c r="AT28" s="97"/>
-      <c r="AU28" s="98"/>
+      <c r="AJ28" s="133"/>
+      <c r="AK28" s="134"/>
+      <c r="AL28" s="134"/>
+      <c r="AM28" s="134"/>
+      <c r="AN28" s="134"/>
+      <c r="AO28" s="135"/>
+      <c r="AP28" s="133"/>
+      <c r="AQ28" s="134"/>
+      <c r="AR28" s="134"/>
+      <c r="AS28" s="134"/>
+      <c r="AT28" s="134"/>
+      <c r="AU28" s="135"/>
       <c r="AV28" s="65"/>
       <c r="AW28" s="66"/>
       <c r="AX28" s="66"/>
@@ -4328,16 +4994,46 @@
       <c r="BW28" s="39"/>
       <c r="BX28" s="39"/>
       <c r="BY28" s="40"/>
+      <c r="BZ28" s="38"/>
+      <c r="CA28" s="39"/>
+      <c r="CB28" s="39"/>
+      <c r="CC28" s="39"/>
+      <c r="CD28" s="39"/>
+      <c r="CE28" s="40"/>
+      <c r="CF28" s="38"/>
+      <c r="CG28" s="39"/>
+      <c r="CH28" s="39"/>
+      <c r="CI28" s="39"/>
+      <c r="CJ28" s="39"/>
+      <c r="CK28" s="40"/>
+      <c r="CL28" s="38"/>
+      <c r="CM28" s="39"/>
+      <c r="CN28" s="39"/>
+      <c r="CO28" s="39"/>
+      <c r="CP28" s="39"/>
+      <c r="CQ28" s="40"/>
+      <c r="CR28" s="38"/>
+      <c r="CS28" s="39"/>
+      <c r="CT28" s="39"/>
+      <c r="CU28" s="39"/>
+      <c r="CV28" s="39"/>
+      <c r="CW28" s="40"/>
+      <c r="CX28" s="38"/>
+      <c r="CY28" s="39"/>
+      <c r="CZ28" s="39"/>
+      <c r="DA28" s="39"/>
+      <c r="DB28" s="39"/>
+      <c r="DC28" s="40"/>
     </row>
-    <row r="29" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C29" s="23"/>
-      <c r="D29" s="136">
+      <c r="D29" s="152">
         <v>0.8</v>
       </c>
-      <c r="E29" s="168"/>
+      <c r="E29" s="153"/>
       <c r="F29" s="38"/>
       <c r="G29" s="39"/>
       <c r="H29" s="39"/>
@@ -4410,16 +5106,46 @@
       <c r="BW29" s="39"/>
       <c r="BX29" s="39"/>
       <c r="BY29" s="40"/>
+      <c r="BZ29" s="38"/>
+      <c r="CA29" s="39"/>
+      <c r="CB29" s="39"/>
+      <c r="CC29" s="39"/>
+      <c r="CD29" s="39"/>
+      <c r="CE29" s="40"/>
+      <c r="CF29" s="38"/>
+      <c r="CG29" s="39"/>
+      <c r="CH29" s="39"/>
+      <c r="CI29" s="39"/>
+      <c r="CJ29" s="39"/>
+      <c r="CK29" s="40"/>
+      <c r="CL29" s="38"/>
+      <c r="CM29" s="39"/>
+      <c r="CN29" s="39"/>
+      <c r="CO29" s="39"/>
+      <c r="CP29" s="39"/>
+      <c r="CQ29" s="40"/>
+      <c r="CR29" s="38"/>
+      <c r="CS29" s="39"/>
+      <c r="CT29" s="39"/>
+      <c r="CU29" s="39"/>
+      <c r="CV29" s="39"/>
+      <c r="CW29" s="40"/>
+      <c r="CX29" s="38"/>
+      <c r="CY29" s="39"/>
+      <c r="CZ29" s="39"/>
+      <c r="DA29" s="39"/>
+      <c r="DB29" s="39"/>
+      <c r="DC29" s="40"/>
     </row>
-    <row r="30" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="56" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="41"/>
-      <c r="D30" s="136">
+      <c r="D30" s="152">
         <v>0.5</v>
       </c>
-      <c r="E30" s="137"/>
+      <c r="E30" s="169"/>
       <c r="F30" s="42"/>
       <c r="G30" s="43"/>
       <c r="H30" s="43"/>
@@ -4480,30 +5206,60 @@
       <c r="BK30" s="72"/>
       <c r="BL30" s="72"/>
       <c r="BM30" s="72"/>
-      <c r="BN30" s="114" t="s">
+      <c r="BN30" s="178" t="s">
         <v>32</v>
       </c>
-      <c r="BO30" s="115"/>
-      <c r="BP30" s="115"/>
-      <c r="BQ30" s="115"/>
-      <c r="BR30" s="115"/>
-      <c r="BS30" s="116"/>
+      <c r="BO30" s="179"/>
+      <c r="BP30" s="179"/>
+      <c r="BQ30" s="179"/>
+      <c r="BR30" s="179"/>
+      <c r="BS30" s="180"/>
       <c r="BT30" s="71"/>
       <c r="BU30" s="72"/>
       <c r="BV30" s="72"/>
       <c r="BW30" s="72"/>
       <c r="BX30" s="72"/>
       <c r="BY30" s="73"/>
+      <c r="BZ30" s="42"/>
+      <c r="CA30" s="43"/>
+      <c r="CB30" s="43"/>
+      <c r="CC30" s="43"/>
+      <c r="CD30" s="43"/>
+      <c r="CE30" s="44"/>
+      <c r="CF30" s="42"/>
+      <c r="CG30" s="43"/>
+      <c r="CH30" s="43"/>
+      <c r="CI30" s="43"/>
+      <c r="CJ30" s="43"/>
+      <c r="CK30" s="44"/>
+      <c r="CL30" s="42"/>
+      <c r="CM30" s="43"/>
+      <c r="CN30" s="43"/>
+      <c r="CO30" s="43"/>
+      <c r="CP30" s="43"/>
+      <c r="CQ30" s="44"/>
+      <c r="CR30" s="42"/>
+      <c r="CS30" s="43"/>
+      <c r="CT30" s="43"/>
+      <c r="CU30" s="43"/>
+      <c r="CV30" s="43"/>
+      <c r="CW30" s="44"/>
+      <c r="CX30" s="42"/>
+      <c r="CY30" s="43"/>
+      <c r="CZ30" s="43"/>
+      <c r="DA30" s="43"/>
+      <c r="DB30" s="43"/>
+      <c r="DC30" s="44"/>
     </row>
-    <row r="31" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="57" t="s">
         <v>1</v>
       </c>
       <c r="C31" s="47"/>
-      <c r="D31" s="123">
+      <c r="D31" s="160">
         <v>0</v>
       </c>
-      <c r="E31" s="124"/>
+      <c r="E31" s="170"/>
       <c r="F31" s="29"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -4576,16 +5332,50 @@
       <c r="BW31" s="6"/>
       <c r="BX31" s="6"/>
       <c r="BY31" s="30"/>
+      <c r="BZ31" s="29"/>
+      <c r="CA31" s="6"/>
+      <c r="CB31" s="6"/>
+      <c r="CC31" s="6"/>
+      <c r="CD31" s="6"/>
+      <c r="CE31" s="30"/>
+      <c r="CF31" s="29"/>
+      <c r="CG31" s="6"/>
+      <c r="CH31" s="6"/>
+      <c r="CI31" s="6"/>
+      <c r="CJ31" s="6"/>
+      <c r="CK31" s="30"/>
+      <c r="CL31" s="187" t="s">
+        <v>132</v>
+      </c>
+      <c r="CM31" s="188"/>
+      <c r="CN31" s="188"/>
+      <c r="CO31" s="188"/>
+      <c r="CP31" s="188"/>
+      <c r="CQ31" s="189"/>
+      <c r="CR31" s="29"/>
+      <c r="CS31" s="6"/>
+      <c r="CT31" s="6"/>
+      <c r="CU31" s="6"/>
+      <c r="CV31" s="6"/>
+      <c r="CW31" s="30"/>
+      <c r="CX31" s="187" t="s">
+        <v>131</v>
+      </c>
+      <c r="CY31" s="188"/>
+      <c r="CZ31" s="188"/>
+      <c r="DA31" s="188"/>
+      <c r="DB31" s="188"/>
+      <c r="DC31" s="189"/>
     </row>
-    <row r="32" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="58" t="s">
         <v>122</v>
       </c>
       <c r="C32" s="48"/>
-      <c r="D32" s="132">
+      <c r="D32" s="167">
         <v>0.8</v>
       </c>
-      <c r="E32" s="133"/>
+      <c r="E32" s="168"/>
       <c r="F32" s="49"/>
       <c r="G32" s="50"/>
       <c r="H32" s="50"/>
@@ -4598,62 +5388,62 @@
       <c r="O32" s="54"/>
       <c r="P32" s="50"/>
       <c r="Q32" s="50"/>
-      <c r="R32" s="144" t="s">
+      <c r="R32" s="143" t="s">
         <v>99</v>
       </c>
-      <c r="S32" s="145"/>
-      <c r="T32" s="145"/>
-      <c r="U32" s="145"/>
-      <c r="V32" s="145"/>
-      <c r="W32" s="146"/>
-      <c r="X32" s="144" t="s">
+      <c r="S32" s="144"/>
+      <c r="T32" s="144"/>
+      <c r="U32" s="144"/>
+      <c r="V32" s="144"/>
+      <c r="W32" s="145"/>
+      <c r="X32" s="143" t="s">
         <v>108</v>
       </c>
-      <c r="Y32" s="145"/>
-      <c r="Z32" s="145"/>
-      <c r="AA32" s="145"/>
-      <c r="AB32" s="145"/>
-      <c r="AC32" s="146"/>
-      <c r="AD32" s="153" t="s">
+      <c r="Y32" s="144"/>
+      <c r="Z32" s="144"/>
+      <c r="AA32" s="144"/>
+      <c r="AB32" s="144"/>
+      <c r="AC32" s="145"/>
+      <c r="AD32" s="112" t="s">
         <v>113</v>
       </c>
-      <c r="AE32" s="154"/>
-      <c r="AF32" s="154"/>
-      <c r="AG32" s="154"/>
-      <c r="AH32" s="154"/>
-      <c r="AI32" s="155"/>
-      <c r="AJ32" s="153" t="s">
+      <c r="AE32" s="113"/>
+      <c r="AF32" s="113"/>
+      <c r="AG32" s="113"/>
+      <c r="AH32" s="113"/>
+      <c r="AI32" s="114"/>
+      <c r="AJ32" s="112" t="s">
         <v>118</v>
       </c>
-      <c r="AK32" s="154"/>
-      <c r="AL32" s="154"/>
-      <c r="AM32" s="154"/>
-      <c r="AN32" s="154"/>
-      <c r="AO32" s="155"/>
-      <c r="AP32" s="144" t="s">
+      <c r="AK32" s="113"/>
+      <c r="AL32" s="113"/>
+      <c r="AM32" s="113"/>
+      <c r="AN32" s="113"/>
+      <c r="AO32" s="114"/>
+      <c r="AP32" s="143" t="s">
         <v>123</v>
       </c>
-      <c r="AQ32" s="145"/>
-      <c r="AR32" s="145"/>
-      <c r="AS32" s="145"/>
-      <c r="AT32" s="145"/>
-      <c r="AU32" s="146"/>
-      <c r="AV32" s="153" t="s">
+      <c r="AQ32" s="144"/>
+      <c r="AR32" s="144"/>
+      <c r="AS32" s="144"/>
+      <c r="AT32" s="144"/>
+      <c r="AU32" s="145"/>
+      <c r="AV32" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="AW32" s="154"/>
-      <c r="AX32" s="154"/>
-      <c r="AY32" s="154"/>
-      <c r="AZ32" s="154"/>
-      <c r="BA32" s="155"/>
-      <c r="BB32" s="153" t="s">
+      <c r="AW32" s="113"/>
+      <c r="AX32" s="113"/>
+      <c r="AY32" s="113"/>
+      <c r="AZ32" s="113"/>
+      <c r="BA32" s="114"/>
+      <c r="BB32" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="BC32" s="154"/>
-      <c r="BD32" s="154"/>
-      <c r="BE32" s="154"/>
-      <c r="BF32" s="154"/>
-      <c r="BG32" s="155"/>
+      <c r="BC32" s="113"/>
+      <c r="BD32" s="113"/>
+      <c r="BE32" s="113"/>
+      <c r="BF32" s="113"/>
+      <c r="BG32" s="114"/>
       <c r="BH32" s="87"/>
       <c r="BI32" s="88"/>
       <c r="BJ32" s="88"/>
@@ -4672,6 +5462,36 @@
       <c r="BW32" s="50"/>
       <c r="BX32" s="50"/>
       <c r="BY32" s="51"/>
+      <c r="BZ32" s="49"/>
+      <c r="CA32" s="50"/>
+      <c r="CB32" s="50"/>
+      <c r="CC32" s="50"/>
+      <c r="CD32" s="50"/>
+      <c r="CE32" s="51"/>
+      <c r="CF32" s="49"/>
+      <c r="CG32" s="50"/>
+      <c r="CH32" s="50"/>
+      <c r="CI32" s="50"/>
+      <c r="CJ32" s="50"/>
+      <c r="CK32" s="51"/>
+      <c r="CL32" s="49"/>
+      <c r="CM32" s="50"/>
+      <c r="CN32" s="50"/>
+      <c r="CO32" s="50"/>
+      <c r="CP32" s="50"/>
+      <c r="CQ32" s="51"/>
+      <c r="CR32" s="49"/>
+      <c r="CS32" s="50"/>
+      <c r="CT32" s="50"/>
+      <c r="CU32" s="50"/>
+      <c r="CV32" s="50"/>
+      <c r="CW32" s="51"/>
+      <c r="CX32" s="49"/>
+      <c r="CY32" s="50"/>
+      <c r="CZ32" s="50"/>
+      <c r="DA32" s="50"/>
+      <c r="DB32" s="50"/>
+      <c r="DC32" s="51"/>
     </row>
     <row r="33" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="6"/>
@@ -4713,116 +5533,116 @@
       <c r="C34" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="167" t="s">
+      <c r="D34" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="167"/>
-      <c r="F34" s="148" t="s">
+      <c r="E34" s="151"/>
+      <c r="F34" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="147"/>
-      <c r="H34" s="147"/>
-      <c r="I34" s="147"/>
-      <c r="J34" s="147"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="147" t="s">
+      <c r="G34" s="138"/>
+      <c r="H34" s="138"/>
+      <c r="I34" s="138"/>
+      <c r="J34" s="138"/>
+      <c r="K34" s="139"/>
+      <c r="L34" s="138" t="s">
         <v>86</v>
       </c>
-      <c r="M34" s="147"/>
-      <c r="N34" s="147"/>
-      <c r="O34" s="147"/>
-      <c r="P34" s="147"/>
-      <c r="Q34" s="147"/>
-      <c r="R34" s="148" t="s">
+      <c r="M34" s="138"/>
+      <c r="N34" s="138"/>
+      <c r="O34" s="138"/>
+      <c r="P34" s="138"/>
+      <c r="Q34" s="138"/>
+      <c r="R34" s="137" t="s">
         <v>87</v>
       </c>
-      <c r="S34" s="147"/>
-      <c r="T34" s="147"/>
-      <c r="U34" s="147"/>
-      <c r="V34" s="147"/>
-      <c r="W34" s="149"/>
-      <c r="X34" s="147" t="s">
+      <c r="S34" s="138"/>
+      <c r="T34" s="138"/>
+      <c r="U34" s="138"/>
+      <c r="V34" s="138"/>
+      <c r="W34" s="139"/>
+      <c r="X34" s="138" t="s">
         <v>88</v>
       </c>
-      <c r="Y34" s="147"/>
-      <c r="Z34" s="147"/>
-      <c r="AA34" s="147"/>
-      <c r="AB34" s="147"/>
-      <c r="AC34" s="147"/>
-      <c r="AD34" s="150" t="s">
+      <c r="Y34" s="138"/>
+      <c r="Z34" s="138"/>
+      <c r="AA34" s="138"/>
+      <c r="AB34" s="138"/>
+      <c r="AC34" s="138"/>
+      <c r="AD34" s="124" t="s">
         <v>89</v>
       </c>
-      <c r="AE34" s="151"/>
-      <c r="AF34" s="151"/>
-      <c r="AG34" s="151"/>
-      <c r="AH34" s="151"/>
-      <c r="AI34" s="152"/>
-      <c r="AJ34" s="148" t="s">
+      <c r="AE34" s="136"/>
+      <c r="AF34" s="136"/>
+      <c r="AG34" s="136"/>
+      <c r="AH34" s="136"/>
+      <c r="AI34" s="125"/>
+      <c r="AJ34" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="AK34" s="147"/>
-      <c r="AL34" s="147"/>
-      <c r="AM34" s="147"/>
-      <c r="AN34" s="147"/>
-      <c r="AO34" s="149"/>
-      <c r="AP34" s="147" t="s">
+      <c r="AK34" s="138"/>
+      <c r="AL34" s="138"/>
+      <c r="AM34" s="138"/>
+      <c r="AN34" s="138"/>
+      <c r="AO34" s="139"/>
+      <c r="AP34" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="AQ34" s="147"/>
-      <c r="AR34" s="147"/>
-      <c r="AS34" s="147"/>
-      <c r="AT34" s="147"/>
-      <c r="AU34" s="147"/>
-      <c r="AV34" s="147" t="s">
+      <c r="AQ34" s="138"/>
+      <c r="AR34" s="138"/>
+      <c r="AS34" s="138"/>
+      <c r="AT34" s="138"/>
+      <c r="AU34" s="138"/>
+      <c r="AV34" s="138" t="s">
         <v>90</v>
       </c>
-      <c r="AW34" s="147"/>
-      <c r="AX34" s="147"/>
-      <c r="AY34" s="147"/>
-      <c r="AZ34" s="147"/>
-      <c r="BA34" s="147"/>
-      <c r="BB34" s="148" t="s">
+      <c r="AW34" s="138"/>
+      <c r="AX34" s="138"/>
+      <c r="AY34" s="138"/>
+      <c r="AZ34" s="138"/>
+      <c r="BA34" s="138"/>
+      <c r="BB34" s="137" t="s">
         <v>91</v>
       </c>
-      <c r="BC34" s="147"/>
-      <c r="BD34" s="147"/>
-      <c r="BE34" s="147"/>
-      <c r="BF34" s="147"/>
-      <c r="BG34" s="149"/>
-      <c r="BH34" s="147" t="s">
+      <c r="BC34" s="138"/>
+      <c r="BD34" s="138"/>
+      <c r="BE34" s="138"/>
+      <c r="BF34" s="138"/>
+      <c r="BG34" s="139"/>
+      <c r="BH34" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="BI34" s="147"/>
-      <c r="BJ34" s="147"/>
-      <c r="BK34" s="147"/>
-      <c r="BL34" s="147"/>
-      <c r="BM34" s="147"/>
-      <c r="BN34" s="148" t="s">
+      <c r="BI34" s="138"/>
+      <c r="BJ34" s="138"/>
+      <c r="BK34" s="138"/>
+      <c r="BL34" s="138"/>
+      <c r="BM34" s="138"/>
+      <c r="BN34" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="BO34" s="147"/>
-      <c r="BP34" s="147"/>
-      <c r="BQ34" s="147"/>
-      <c r="BR34" s="147"/>
-      <c r="BS34" s="149"/>
-      <c r="BT34" s="148" t="s">
+      <c r="BO34" s="138"/>
+      <c r="BP34" s="138"/>
+      <c r="BQ34" s="138"/>
+      <c r="BR34" s="138"/>
+      <c r="BS34" s="139"/>
+      <c r="BT34" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="BU34" s="147"/>
-      <c r="BV34" s="147"/>
-      <c r="BW34" s="147"/>
-      <c r="BX34" s="147"/>
-      <c r="BY34" s="149"/>
+      <c r="BU34" s="138"/>
+      <c r="BV34" s="138"/>
+      <c r="BW34" s="138"/>
+      <c r="BX34" s="138"/>
+      <c r="BY34" s="139"/>
     </row>
     <row r="35" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C35" s="12"/>
-      <c r="D35" s="165">
+      <c r="D35" s="100">
         <v>1</v>
       </c>
-      <c r="E35" s="166"/>
+      <c r="E35" s="101"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
@@ -4901,10 +5721,10 @@
         <v>44</v>
       </c>
       <c r="C36" s="12"/>
-      <c r="D36" s="165">
+      <c r="D36" s="100">
         <v>1</v>
       </c>
-      <c r="E36" s="166"/>
+      <c r="E36" s="101"/>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
@@ -4983,10 +5803,10 @@
         <v>45</v>
       </c>
       <c r="C37" s="12"/>
-      <c r="D37" s="165">
+      <c r="D37" s="100">
         <v>1</v>
       </c>
-      <c r="E37" s="166"/>
+      <c r="E37" s="101"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
@@ -5065,10 +5885,10 @@
         <v>59</v>
       </c>
       <c r="C38" s="12"/>
-      <c r="D38" s="165">
+      <c r="D38" s="100">
         <v>1</v>
       </c>
-      <c r="E38" s="166"/>
+      <c r="E38" s="101"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
@@ -5147,10 +5967,10 @@
         <v>60</v>
       </c>
       <c r="C39" s="12"/>
-      <c r="D39" s="165">
+      <c r="D39" s="100">
         <v>1</v>
       </c>
-      <c r="E39" s="166"/>
+      <c r="E39" s="101"/>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
@@ -5229,10 +6049,10 @@
         <v>61</v>
       </c>
       <c r="C40" s="12"/>
-      <c r="D40" s="165">
+      <c r="D40" s="100">
         <v>1</v>
       </c>
-      <c r="E40" s="166"/>
+      <c r="E40" s="101"/>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
@@ -5311,10 +6131,10 @@
         <v>62</v>
       </c>
       <c r="C41" s="12"/>
-      <c r="D41" s="165">
+      <c r="D41" s="100">
         <v>1</v>
       </c>
-      <c r="E41" s="166"/>
+      <c r="E41" s="101"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
@@ -5393,10 +6213,10 @@
         <v>63</v>
       </c>
       <c r="C42" s="12"/>
-      <c r="D42" s="165">
+      <c r="D42" s="100">
         <v>1</v>
       </c>
-      <c r="E42" s="166"/>
+      <c r="E42" s="101"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
@@ -5475,10 +6295,10 @@
         <v>64</v>
       </c>
       <c r="C43" s="12"/>
-      <c r="D43" s="165">
+      <c r="D43" s="100">
         <v>1</v>
       </c>
-      <c r="E43" s="166"/>
+      <c r="E43" s="101"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
@@ -5557,10 +6377,10 @@
         <v>65</v>
       </c>
       <c r="C44" s="12"/>
-      <c r="D44" s="165">
+      <c r="D44" s="100">
         <v>1</v>
       </c>
-      <c r="E44" s="166"/>
+      <c r="E44" s="101"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
@@ -5639,10 +6459,10 @@
         <v>66</v>
       </c>
       <c r="C45" s="12"/>
-      <c r="D45" s="165">
+      <c r="D45" s="100">
         <v>1</v>
       </c>
-      <c r="E45" s="166"/>
+      <c r="E45" s="101"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
@@ -5721,10 +6541,10 @@
         <v>67</v>
       </c>
       <c r="C46" s="12"/>
-      <c r="D46" s="165">
+      <c r="D46" s="100">
         <v>1</v>
       </c>
-      <c r="E46" s="166"/>
+      <c r="E46" s="101"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
@@ -5803,10 +6623,10 @@
         <v>68</v>
       </c>
       <c r="C47" s="12"/>
-      <c r="D47" s="165">
+      <c r="D47" s="100">
         <v>1</v>
       </c>
-      <c r="E47" s="166"/>
+      <c r="E47" s="101"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
@@ -5885,10 +6705,10 @@
         <v>69</v>
       </c>
       <c r="C48" s="12"/>
-      <c r="D48" s="165">
+      <c r="D48" s="100">
         <v>1</v>
       </c>
-      <c r="E48" s="166"/>
+      <c r="E48" s="101"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
@@ -5967,10 +6787,10 @@
         <v>70</v>
       </c>
       <c r="C49" s="12"/>
-      <c r="D49" s="165">
+      <c r="D49" s="100">
         <v>1</v>
       </c>
-      <c r="E49" s="166"/>
+      <c r="E49" s="101"/>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
@@ -6049,10 +6869,10 @@
         <v>71</v>
       </c>
       <c r="C50" s="12"/>
-      <c r="D50" s="165">
+      <c r="D50" s="100">
         <v>1</v>
       </c>
-      <c r="E50" s="166"/>
+      <c r="E50" s="101"/>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
@@ -6131,10 +6951,10 @@
         <v>72</v>
       </c>
       <c r="C51" s="12"/>
-      <c r="D51" s="165">
+      <c r="D51" s="100">
         <v>1</v>
       </c>
-      <c r="E51" s="166"/>
+      <c r="E51" s="101"/>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
@@ -6213,10 +7033,10 @@
         <v>73</v>
       </c>
       <c r="C52" s="12"/>
-      <c r="D52" s="165">
+      <c r="D52" s="100">
         <v>1</v>
       </c>
-      <c r="E52" s="166"/>
+      <c r="E52" s="101"/>
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
@@ -6295,10 +7115,10 @@
         <v>74</v>
       </c>
       <c r="C53" s="12"/>
-      <c r="D53" s="165">
+      <c r="D53" s="100">
         <v>1</v>
       </c>
-      <c r="E53" s="166"/>
+      <c r="E53" s="101"/>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
@@ -6377,10 +7197,10 @@
         <v>75</v>
       </c>
       <c r="C54" s="12"/>
-      <c r="D54" s="165">
+      <c r="D54" s="100">
         <v>1</v>
       </c>
-      <c r="E54" s="166"/>
+      <c r="E54" s="101"/>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
@@ -6459,10 +7279,10 @@
         <v>76</v>
       </c>
       <c r="C55" s="17"/>
-      <c r="D55" s="165">
+      <c r="D55" s="100">
         <v>1</v>
       </c>
-      <c r="E55" s="166"/>
+      <c r="E55" s="101"/>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
@@ -6541,10 +7361,10 @@
         <v>77</v>
       </c>
       <c r="C56" s="12"/>
-      <c r="D56" s="165">
+      <c r="D56" s="100">
         <v>1</v>
       </c>
-      <c r="E56" s="166"/>
+      <c r="E56" s="101"/>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
@@ -6623,10 +7443,10 @@
         <v>78</v>
       </c>
       <c r="C57" s="12"/>
-      <c r="D57" s="165">
+      <c r="D57" s="100">
         <v>1</v>
       </c>
-      <c r="E57" s="166"/>
+      <c r="E57" s="101"/>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
@@ -6705,10 +7525,10 @@
         <v>79</v>
       </c>
       <c r="C58" s="12"/>
-      <c r="D58" s="165">
+      <c r="D58" s="100">
         <v>1</v>
       </c>
-      <c r="E58" s="166"/>
+      <c r="E58" s="101"/>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
@@ -6787,10 +7607,10 @@
         <v>80</v>
       </c>
       <c r="C59" s="12"/>
-      <c r="D59" s="165">
+      <c r="D59" s="100">
         <v>1</v>
       </c>
-      <c r="E59" s="166"/>
+      <c r="E59" s="101"/>
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
@@ -6869,10 +7689,10 @@
         <v>81</v>
       </c>
       <c r="C60" s="12"/>
-      <c r="D60" s="165">
+      <c r="D60" s="100">
         <v>1</v>
       </c>
-      <c r="E60" s="166"/>
+      <c r="E60" s="101"/>
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
@@ -6951,10 +7771,10 @@
         <v>82</v>
       </c>
       <c r="C61" s="12"/>
-      <c r="D61" s="165">
+      <c r="D61" s="100">
         <v>1</v>
       </c>
-      <c r="E61" s="166"/>
+      <c r="E61" s="101"/>
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
@@ -7033,10 +7853,10 @@
         <v>83</v>
       </c>
       <c r="C62" s="12"/>
-      <c r="D62" s="165">
+      <c r="D62" s="100">
         <v>1</v>
       </c>
-      <c r="E62" s="166"/>
+      <c r="E62" s="101"/>
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
@@ -7113,8 +7933,8 @@
     <row r="63" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="16"/>
       <c r="C63" s="18"/>
-      <c r="D63" s="165"/>
-      <c r="E63" s="166"/>
+      <c r="D63" s="100"/>
+      <c r="E63" s="101"/>
       <c r="F63" s="18"/>
       <c r="G63" s="18"/>
       <c r="H63" s="18"/>
@@ -7193,10 +8013,10 @@
         <v>46</v>
       </c>
       <c r="C64" s="18"/>
-      <c r="D64" s="165">
+      <c r="D64" s="100">
         <v>1</v>
       </c>
-      <c r="E64" s="166"/>
+      <c r="E64" s="101"/>
       <c r="F64" s="18"/>
       <c r="G64" s="18"/>
       <c r="H64" s="18"/>
@@ -7275,10 +8095,10 @@
         <v>47</v>
       </c>
       <c r="C65" s="18"/>
-      <c r="D65" s="165">
+      <c r="D65" s="100">
         <v>1</v>
       </c>
-      <c r="E65" s="166"/>
+      <c r="E65" s="101"/>
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
       <c r="H65" s="18"/>
@@ -7355,8 +8175,8 @@
     <row r="66" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="16"/>
       <c r="C66" s="18"/>
-      <c r="D66" s="165"/>
-      <c r="E66" s="166"/>
+      <c r="D66" s="100"/>
+      <c r="E66" s="101"/>
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
       <c r="H66" s="18"/>
@@ -7435,10 +8255,10 @@
         <v>48</v>
       </c>
       <c r="C67" s="18"/>
-      <c r="D67" s="165">
+      <c r="D67" s="100">
         <v>1</v>
       </c>
-      <c r="E67" s="166"/>
+      <c r="E67" s="101"/>
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
       <c r="H67" s="18"/>
@@ -7517,10 +8337,10 @@
         <v>49</v>
       </c>
       <c r="C68" s="18"/>
-      <c r="D68" s="165">
+      <c r="D68" s="100">
         <v>1</v>
       </c>
-      <c r="E68" s="166"/>
+      <c r="E68" s="101"/>
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
       <c r="H68" s="18"/>
@@ -7599,10 +8419,10 @@
         <v>50</v>
       </c>
       <c r="C69" s="18"/>
-      <c r="D69" s="165">
+      <c r="D69" s="100">
         <v>1</v>
       </c>
-      <c r="E69" s="166"/>
+      <c r="E69" s="101"/>
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
       <c r="H69" s="18"/>
@@ -7681,10 +8501,10 @@
         <v>51</v>
       </c>
       <c r="C70" s="18"/>
-      <c r="D70" s="165">
+      <c r="D70" s="100">
         <v>1</v>
       </c>
-      <c r="E70" s="166"/>
+      <c r="E70" s="101"/>
       <c r="F70" s="18"/>
       <c r="G70" s="18"/>
       <c r="H70" s="18"/>
@@ -7763,10 +8583,10 @@
         <v>52</v>
       </c>
       <c r="C71" s="18"/>
-      <c r="D71" s="165">
+      <c r="D71" s="100">
         <v>1</v>
       </c>
-      <c r="E71" s="166"/>
+      <c r="E71" s="101"/>
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
       <c r="H71" s="18"/>
@@ -7845,10 +8665,10 @@
         <v>53</v>
       </c>
       <c r="C72" s="18"/>
-      <c r="D72" s="165">
+      <c r="D72" s="100">
         <v>1</v>
       </c>
-      <c r="E72" s="166"/>
+      <c r="E72" s="101"/>
       <c r="F72" s="18"/>
       <c r="G72" s="18"/>
       <c r="H72" s="18"/>
@@ -7927,10 +8747,10 @@
         <v>54</v>
       </c>
       <c r="C73" s="18"/>
-      <c r="D73" s="165">
+      <c r="D73" s="100">
         <v>1</v>
       </c>
-      <c r="E73" s="166"/>
+      <c r="E73" s="101"/>
       <c r="F73" s="18"/>
       <c r="G73" s="18"/>
       <c r="H73" s="18"/>
@@ -8009,10 +8829,10 @@
         <v>55</v>
       </c>
       <c r="C74" s="18"/>
-      <c r="D74" s="165">
+      <c r="D74" s="100">
         <v>1</v>
       </c>
-      <c r="E74" s="166"/>
+      <c r="E74" s="101"/>
       <c r="F74" s="18"/>
       <c r="G74" s="18"/>
       <c r="H74" s="18"/>
@@ -8091,10 +8911,10 @@
         <v>56</v>
       </c>
       <c r="C75" s="18"/>
-      <c r="D75" s="165">
+      <c r="D75" s="100">
         <v>1</v>
       </c>
-      <c r="E75" s="166"/>
+      <c r="E75" s="101"/>
       <c r="F75" s="18"/>
       <c r="G75" s="18"/>
       <c r="H75" s="18"/>
@@ -8173,10 +8993,10 @@
         <v>57</v>
       </c>
       <c r="C76" s="18"/>
-      <c r="D76" s="165">
+      <c r="D76" s="100">
         <v>1</v>
       </c>
-      <c r="E76" s="166"/>
+      <c r="E76" s="101"/>
       <c r="F76" s="18"/>
       <c r="G76" s="18"/>
       <c r="H76" s="18"/>
@@ -8255,10 +9075,10 @@
         <v>58</v>
       </c>
       <c r="C77" s="21"/>
-      <c r="D77" s="165">
+      <c r="D77" s="100">
         <v>1</v>
       </c>
-      <c r="E77" s="166"/>
+      <c r="E77" s="101"/>
       <c r="F77" s="21"/>
       <c r="G77" s="21"/>
       <c r="H77" s="21"/>
@@ -8339,8 +9159,8 @@
       <c r="C78" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D78" s="165"/>
-      <c r="E78" s="166"/>
+      <c r="D78" s="100"/>
+      <c r="E78" s="101"/>
       <c r="F78" s="18"/>
       <c r="G78" s="18"/>
       <c r="H78" s="18"/>
@@ -8353,22 +9173,22 @@
       <c r="O78" s="18"/>
       <c r="P78" s="18"/>
       <c r="Q78" s="18"/>
-      <c r="R78" s="156" t="s">
+      <c r="R78" s="115" t="s">
         <v>106</v>
       </c>
-      <c r="S78" s="157"/>
-      <c r="T78" s="157"/>
-      <c r="U78" s="157"/>
-      <c r="V78" s="157"/>
-      <c r="W78" s="158"/>
-      <c r="X78" s="156" t="s">
+      <c r="S78" s="116"/>
+      <c r="T78" s="116"/>
+      <c r="U78" s="116"/>
+      <c r="V78" s="116"/>
+      <c r="W78" s="117"/>
+      <c r="X78" s="115" t="s">
         <v>107</v>
       </c>
-      <c r="Y78" s="157"/>
-      <c r="Z78" s="157"/>
-      <c r="AA78" s="157"/>
-      <c r="AB78" s="157"/>
-      <c r="AC78" s="158"/>
+      <c r="Y78" s="116"/>
+      <c r="Z78" s="116"/>
+      <c r="AA78" s="116"/>
+      <c r="AB78" s="116"/>
+      <c r="AC78" s="117"/>
       <c r="AD78" s="18"/>
       <c r="AE78" s="18"/>
       <c r="AF78" s="18"/>
@@ -8425,8 +9245,8 @@
       <c r="C79" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D79" s="165"/>
-      <c r="E79" s="166"/>
+      <c r="D79" s="100"/>
+      <c r="E79" s="101"/>
       <c r="F79" s="18"/>
       <c r="G79" s="18"/>
       <c r="H79" s="18"/>
@@ -8439,18 +9259,18 @@
       <c r="O79" s="18"/>
       <c r="P79" s="18"/>
       <c r="Q79" s="18"/>
-      <c r="R79" s="159"/>
-      <c r="S79" s="160"/>
-      <c r="T79" s="160"/>
-      <c r="U79" s="160"/>
-      <c r="V79" s="160"/>
-      <c r="W79" s="161"/>
-      <c r="X79" s="159"/>
-      <c r="Y79" s="160"/>
-      <c r="Z79" s="160"/>
-      <c r="AA79" s="160"/>
-      <c r="AB79" s="160"/>
-      <c r="AC79" s="161"/>
+      <c r="R79" s="118"/>
+      <c r="S79" s="119"/>
+      <c r="T79" s="119"/>
+      <c r="U79" s="119"/>
+      <c r="V79" s="119"/>
+      <c r="W79" s="120"/>
+      <c r="X79" s="118"/>
+      <c r="Y79" s="119"/>
+      <c r="Z79" s="119"/>
+      <c r="AA79" s="119"/>
+      <c r="AB79" s="119"/>
+      <c r="AC79" s="120"/>
       <c r="AD79" s="18"/>
       <c r="AE79" s="18"/>
       <c r="AF79" s="18"/>
@@ -8507,8 +9327,8 @@
       <c r="C80" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D80" s="165"/>
-      <c r="E80" s="166"/>
+      <c r="D80" s="100"/>
+      <c r="E80" s="101"/>
       <c r="F80" s="18"/>
       <c r="G80" s="18"/>
       <c r="H80" s="18"/>
@@ -8521,18 +9341,18 @@
       <c r="O80" s="18"/>
       <c r="P80" s="18"/>
       <c r="Q80" s="18"/>
-      <c r="R80" s="159"/>
-      <c r="S80" s="160"/>
-      <c r="T80" s="160"/>
-      <c r="U80" s="160"/>
-      <c r="V80" s="160"/>
-      <c r="W80" s="161"/>
-      <c r="X80" s="159"/>
-      <c r="Y80" s="160"/>
-      <c r="Z80" s="160"/>
-      <c r="AA80" s="160"/>
-      <c r="AB80" s="160"/>
-      <c r="AC80" s="161"/>
+      <c r="R80" s="118"/>
+      <c r="S80" s="119"/>
+      <c r="T80" s="119"/>
+      <c r="U80" s="119"/>
+      <c r="V80" s="119"/>
+      <c r="W80" s="120"/>
+      <c r="X80" s="118"/>
+      <c r="Y80" s="119"/>
+      <c r="Z80" s="119"/>
+      <c r="AA80" s="119"/>
+      <c r="AB80" s="119"/>
+      <c r="AC80" s="120"/>
       <c r="AD80" s="18"/>
       <c r="AE80" s="18"/>
       <c r="AF80" s="18"/>
@@ -8589,8 +9409,8 @@
       <c r="C81" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="165"/>
-      <c r="E81" s="166"/>
+      <c r="D81" s="100"/>
+      <c r="E81" s="101"/>
       <c r="F81" s="18"/>
       <c r="G81" s="18"/>
       <c r="H81" s="18"/>
@@ -8603,18 +9423,18 @@
       <c r="O81" s="18"/>
       <c r="P81" s="18"/>
       <c r="Q81" s="18"/>
-      <c r="R81" s="159"/>
-      <c r="S81" s="160"/>
-      <c r="T81" s="160"/>
-      <c r="U81" s="160"/>
-      <c r="V81" s="160"/>
-      <c r="W81" s="161"/>
-      <c r="X81" s="159"/>
-      <c r="Y81" s="160"/>
-      <c r="Z81" s="160"/>
-      <c r="AA81" s="160"/>
-      <c r="AB81" s="160"/>
-      <c r="AC81" s="161"/>
+      <c r="R81" s="118"/>
+      <c r="S81" s="119"/>
+      <c r="T81" s="119"/>
+      <c r="U81" s="119"/>
+      <c r="V81" s="119"/>
+      <c r="W81" s="120"/>
+      <c r="X81" s="118"/>
+      <c r="Y81" s="119"/>
+      <c r="Z81" s="119"/>
+      <c r="AA81" s="119"/>
+      <c r="AB81" s="119"/>
+      <c r="AC81" s="120"/>
       <c r="AD81" s="18"/>
       <c r="AE81" s="18"/>
       <c r="AF81" s="18"/>
@@ -8671,8 +9491,8 @@
       <c r="C82" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D82" s="165"/>
-      <c r="E82" s="166"/>
+      <c r="D82" s="100"/>
+      <c r="E82" s="101"/>
       <c r="F82" s="18"/>
       <c r="G82" s="18"/>
       <c r="H82" s="18"/>
@@ -8685,18 +9505,18 @@
       <c r="O82" s="18"/>
       <c r="P82" s="18"/>
       <c r="Q82" s="18"/>
-      <c r="R82" s="159"/>
-      <c r="S82" s="160"/>
-      <c r="T82" s="160"/>
-      <c r="U82" s="160"/>
-      <c r="V82" s="160"/>
-      <c r="W82" s="161"/>
-      <c r="X82" s="159"/>
-      <c r="Y82" s="160"/>
-      <c r="Z82" s="160"/>
-      <c r="AA82" s="160"/>
-      <c r="AB82" s="160"/>
-      <c r="AC82" s="161"/>
+      <c r="R82" s="118"/>
+      <c r="S82" s="119"/>
+      <c r="T82" s="119"/>
+      <c r="U82" s="119"/>
+      <c r="V82" s="119"/>
+      <c r="W82" s="120"/>
+      <c r="X82" s="118"/>
+      <c r="Y82" s="119"/>
+      <c r="Z82" s="119"/>
+      <c r="AA82" s="119"/>
+      <c r="AB82" s="119"/>
+      <c r="AC82" s="120"/>
       <c r="AD82" s="18"/>
       <c r="AE82" s="18"/>
       <c r="AF82" s="18"/>
@@ -8753,8 +9573,8 @@
       <c r="C83" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D83" s="165"/>
-      <c r="E83" s="166"/>
+      <c r="D83" s="100"/>
+      <c r="E83" s="101"/>
       <c r="F83" s="18"/>
       <c r="G83" s="18"/>
       <c r="H83" s="18"/>
@@ -8767,18 +9587,18 @@
       <c r="O83" s="18"/>
       <c r="P83" s="18"/>
       <c r="Q83" s="18"/>
-      <c r="R83" s="162"/>
-      <c r="S83" s="163"/>
-      <c r="T83" s="163"/>
-      <c r="U83" s="163"/>
-      <c r="V83" s="163"/>
-      <c r="W83" s="164"/>
-      <c r="X83" s="162"/>
-      <c r="Y83" s="163"/>
-      <c r="Z83" s="163"/>
-      <c r="AA83" s="163"/>
-      <c r="AB83" s="163"/>
-      <c r="AC83" s="164"/>
+      <c r="R83" s="121"/>
+      <c r="S83" s="122"/>
+      <c r="T83" s="122"/>
+      <c r="U83" s="122"/>
+      <c r="V83" s="122"/>
+      <c r="W83" s="123"/>
+      <c r="X83" s="121"/>
+      <c r="Y83" s="122"/>
+      <c r="Z83" s="122"/>
+      <c r="AA83" s="122"/>
+      <c r="AB83" s="122"/>
+      <c r="AC83" s="123"/>
       <c r="AD83" s="18"/>
       <c r="AE83" s="18"/>
       <c r="AF83" s="18"/>
@@ -8831,8 +9651,8 @@
     <row r="84" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="20"/>
       <c r="C84" s="21"/>
-      <c r="D84" s="165"/>
-      <c r="E84" s="166"/>
+      <c r="D84" s="100"/>
+      <c r="E84" s="101"/>
       <c r="F84" s="21"/>
       <c r="G84" s="21"/>
       <c r="H84" s="21"/>
@@ -8914,130 +9734,53 @@
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="186">
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="AV19:BA20"/>
-    <mergeCell ref="AV32:BA32"/>
-    <mergeCell ref="AV25:BA26"/>
-    <mergeCell ref="BB32:BG32"/>
-    <mergeCell ref="BB25:BG26"/>
-    <mergeCell ref="R78:W83"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="AD9:AI10"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="AD34:AI34"/>
-    <mergeCell ref="AJ34:AO34"/>
-    <mergeCell ref="AP34:AU34"/>
-    <mergeCell ref="AD19:AI20"/>
-    <mergeCell ref="AD32:AI32"/>
-    <mergeCell ref="AP32:AU32"/>
-    <mergeCell ref="AP27:AU28"/>
-    <mergeCell ref="AP19:AU20"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="X19:AC20"/>
-    <mergeCell ref="X13:AC14"/>
-    <mergeCell ref="X9:AC10"/>
-    <mergeCell ref="F9:K10"/>
-    <mergeCell ref="R9:W10"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="L9:Q10"/>
-    <mergeCell ref="BH34:BM34"/>
-    <mergeCell ref="BN34:BS34"/>
-    <mergeCell ref="BT34:BY34"/>
-    <mergeCell ref="R34:W34"/>
-    <mergeCell ref="X34:AC34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="L34:Q34"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="X32:AC32"/>
-    <mergeCell ref="AV34:BA34"/>
-    <mergeCell ref="BB34:BG34"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="X78:AC83"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
+  <mergeCells count="193">
+    <mergeCell ref="BZ8:CE8"/>
+    <mergeCell ref="CF8:CK8"/>
+    <mergeCell ref="CL8:CQ8"/>
+    <mergeCell ref="CR8:CW8"/>
+    <mergeCell ref="CX8:DC8"/>
+    <mergeCell ref="CX31:DC31"/>
+    <mergeCell ref="CL31:CQ31"/>
+    <mergeCell ref="BH21:BM22"/>
+    <mergeCell ref="BB9:BM10"/>
+    <mergeCell ref="BN9:BS10"/>
+    <mergeCell ref="BB13:BG14"/>
+    <mergeCell ref="BN23:BS24"/>
+    <mergeCell ref="BN30:BS30"/>
+    <mergeCell ref="BH25:BM26"/>
+    <mergeCell ref="BN25:BS26"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="D27:E28"/>
+    <mergeCell ref="D23:E24"/>
     <mergeCell ref="L19:Q20"/>
     <mergeCell ref="F15:K16"/>
     <mergeCell ref="F13:K14"/>
@@ -9062,45 +9805,129 @@
     <mergeCell ref="AV8:BA8"/>
     <mergeCell ref="BB8:BG8"/>
     <mergeCell ref="AP8:AU8"/>
-    <mergeCell ref="D19:E20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="D27:E28"/>
-    <mergeCell ref="D23:E24"/>
-    <mergeCell ref="BH21:BM22"/>
-    <mergeCell ref="BB9:BM10"/>
-    <mergeCell ref="BN9:BS10"/>
-    <mergeCell ref="BB13:BG14"/>
-    <mergeCell ref="BN23:BS24"/>
-    <mergeCell ref="BN30:BS30"/>
-    <mergeCell ref="BH25:BM26"/>
-    <mergeCell ref="BN25:BS26"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="X78:AC83"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="BH34:BM34"/>
+    <mergeCell ref="BN34:BS34"/>
+    <mergeCell ref="BT34:BY34"/>
+    <mergeCell ref="R34:W34"/>
+    <mergeCell ref="X34:AC34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="L34:Q34"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="X32:AC32"/>
+    <mergeCell ref="AV34:BA34"/>
+    <mergeCell ref="BB34:BG34"/>
+    <mergeCell ref="R9:W10"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="L9:Q10"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="AL5:AM5"/>
+    <mergeCell ref="AD34:AI34"/>
+    <mergeCell ref="AJ34:AO34"/>
+    <mergeCell ref="AP34:AU34"/>
+    <mergeCell ref="AD19:AI20"/>
+    <mergeCell ref="AD32:AI32"/>
+    <mergeCell ref="AP32:AU32"/>
+    <mergeCell ref="AP27:AU28"/>
+    <mergeCell ref="AP19:AU20"/>
+    <mergeCell ref="AV19:BA20"/>
+    <mergeCell ref="AV32:BA32"/>
+    <mergeCell ref="AV25:BA26"/>
+    <mergeCell ref="BB32:BG32"/>
+    <mergeCell ref="BB25:BG26"/>
+    <mergeCell ref="R78:W83"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="X19:AC20"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="AD9:AI10"/>
+    <mergeCell ref="X13:AC14"/>
+    <mergeCell ref="X9:AC10"/>
+    <mergeCell ref="F9:K10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/工程表/工程管理(Forest).xlsx
+++ b/document/工程表/工程管理(Forest).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54fd41506f0d43af/デスクトップ/team_forest/document/工程表/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{DD294E77-84DB-4E19-AE4E-5040BAF5CCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D1B1C1B-A2B2-4FE6-BD30-40E2B41F8548}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{DD294E77-84DB-4E19-AE4E-5040BAF5CCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67B74F40-2EA9-4590-99FA-CDD33A93F3F1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="133">
   <si>
     <t>担当</t>
     <rPh sb="0" eb="2">
@@ -145,10 +145,6 @@
     <rPh sb="0" eb="1">
       <t>ヤス</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>%</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -842,6 +838,50 @@
     </rPh>
     <rPh sb="3" eb="8">
       <t>ガメンセンイズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/11</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/13</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/17</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発表日</t>
+    <rPh sb="0" eb="3">
+      <t>ハッピョウビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発表練習</t>
+    <rPh sb="0" eb="2">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>レンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -916,7 +956,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -956,6 +996,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1518,7 +1564,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1798,6 +1844,60 @@
     <xf numFmtId="49" fontId="7" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1960,24 +2060,6 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2053,25 +2135,16 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2097,6 +2170,10 @@
 </file>
 
 <file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -2366,10 +2443,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:BY84"/>
+  <dimension ref="B2:DC84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BS27" sqref="BS27"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2382,336 +2459,376 @@
     <col min="46" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:77" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:107" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="8"/>
     </row>
-    <row r="4" spans="2:77" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:107" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="172" t="s">
+      <c r="D4" s="184" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="185"/>
+      <c r="F4" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="173"/>
-      <c r="F4" s="172" t="s">
+      <c r="G4" s="185"/>
+      <c r="H4" s="184" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="173"/>
-      <c r="H4" s="172" t="s">
+      <c r="I4" s="185"/>
+      <c r="J4" s="184" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="173"/>
-      <c r="J4" s="172" t="s">
+      <c r="K4" s="185"/>
+      <c r="L4" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="173"/>
-      <c r="L4" s="172" t="s">
+      <c r="M4" s="185"/>
+      <c r="N4" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="173"/>
-      <c r="N4" s="172" t="s">
+      <c r="O4" s="185"/>
+      <c r="P4" s="184" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="173"/>
-      <c r="P4" s="172" t="s">
+      <c r="Q4" s="185"/>
+      <c r="R4" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="173"/>
-      <c r="R4" s="172" t="s">
+      <c r="S4" s="185"/>
+      <c r="T4" s="184" t="s">
         <v>21</v>
       </c>
-      <c r="S4" s="173"/>
-      <c r="T4" s="172" t="s">
+      <c r="U4" s="185"/>
+      <c r="V4" s="184" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="173"/>
-      <c r="V4" s="172" t="s">
+      <c r="W4" s="185"/>
+      <c r="X4" s="184" t="s">
         <v>23</v>
       </c>
-      <c r="W4" s="173"/>
-      <c r="X4" s="172" t="s">
+      <c r="Y4" s="185"/>
+      <c r="Z4" s="184" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="173"/>
-      <c r="Z4" s="172" t="s">
+      <c r="AA4" s="185"/>
+      <c r="AB4" s="184" t="s">
         <v>25</v>
       </c>
-      <c r="AA4" s="173"/>
-      <c r="AB4" s="172" t="s">
+      <c r="AC4" s="185"/>
+      <c r="AD4" s="184" t="s">
         <v>26</v>
       </c>
-      <c r="AC4" s="173"/>
-      <c r="AD4" s="172" t="s">
+      <c r="AE4" s="185"/>
+      <c r="AF4" s="184" t="s">
         <v>27</v>
       </c>
-      <c r="AE4" s="173"/>
-      <c r="AF4" s="172" t="s">
+      <c r="AG4" s="185"/>
+      <c r="AH4" s="184" t="s">
         <v>28</v>
       </c>
-      <c r="AG4" s="173"/>
-      <c r="AH4" s="172" t="s">
+      <c r="AI4" s="185"/>
+      <c r="AJ4" s="184" t="s">
         <v>29</v>
       </c>
-      <c r="AI4" s="173"/>
-      <c r="AJ4" s="172" t="s">
+      <c r="AK4" s="185"/>
+      <c r="AL4" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="AK4" s="173"/>
-      <c r="AL4" s="172" t="s">
-        <v>31</v>
-      </c>
-      <c r="AM4" s="173"/>
+      <c r="AM4" s="185"/>
     </row>
-    <row r="5" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:107" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="176" t="s">
+      <c r="D5" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="177"/>
-      <c r="F5" s="176" t="s">
+      <c r="E5" s="189"/>
+      <c r="F5" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="177"/>
-      <c r="H5" s="174" t="s">
+      <c r="G5" s="189"/>
+      <c r="H5" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="175"/>
-      <c r="J5" s="174" t="s">
+      <c r="I5" s="187"/>
+      <c r="J5" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="175"/>
-      <c r="L5" s="174" t="s">
+      <c r="K5" s="187"/>
+      <c r="L5" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="175"/>
-      <c r="N5" s="174" t="s">
+      <c r="M5" s="187"/>
+      <c r="N5" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="175"/>
-      <c r="P5" s="176" t="s">
+      <c r="O5" s="187"/>
+      <c r="P5" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="177"/>
-      <c r="R5" s="176" t="s">
+      <c r="Q5" s="189"/>
+      <c r="R5" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="S5" s="177"/>
-      <c r="T5" s="176" t="s">
+      <c r="S5" s="189"/>
+      <c r="T5" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="177"/>
-      <c r="V5" s="176" t="s">
+      <c r="U5" s="189"/>
+      <c r="V5" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="W5" s="177"/>
-      <c r="X5" s="176" t="s">
+      <c r="W5" s="189"/>
+      <c r="X5" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="Y5" s="177"/>
-      <c r="Z5" s="174" t="s">
+      <c r="Y5" s="189"/>
+      <c r="Z5" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="AA5" s="175"/>
-      <c r="AB5" s="174" t="s">
+      <c r="AA5" s="187"/>
+      <c r="AB5" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="AC5" s="175"/>
-      <c r="AD5" s="176" t="s">
+      <c r="AC5" s="187"/>
+      <c r="AD5" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="AE5" s="177"/>
-      <c r="AF5" s="176" t="s">
+      <c r="AE5" s="189"/>
+      <c r="AF5" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="AG5" s="177"/>
-      <c r="AH5" s="176" t="s">
+      <c r="AG5" s="189"/>
+      <c r="AH5" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="AI5" s="177"/>
-      <c r="AJ5" s="176" t="s">
+      <c r="AI5" s="189"/>
+      <c r="AJ5" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="AK5" s="177"/>
-      <c r="AL5" s="176" t="s">
+      <c r="AK5" s="189"/>
+      <c r="AL5" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="AM5" s="177"/>
+      <c r="AM5" s="189"/>
     </row>
-    <row r="6" spans="2:77" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="3" t="s">
-        <v>13</v>
+    <row r="6" spans="2:107" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:77" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:107" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="150" t="s">
+      <c r="D8" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="152"/>
-      <c r="F8" s="148" t="s">
-        <v>114</v>
-      </c>
-      <c r="G8" s="147"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="147"/>
-      <c r="J8" s="147"/>
-      <c r="K8" s="149"/>
-      <c r="L8" s="147" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="147"/>
-      <c r="N8" s="147"/>
-      <c r="O8" s="147"/>
-      <c r="P8" s="147"/>
-      <c r="Q8" s="147"/>
-      <c r="R8" s="148" t="s">
+      <c r="E8" s="104"/>
+      <c r="F8" s="105" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="106"/>
+      <c r="R8" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="106"/>
+      <c r="T8" s="106"/>
+      <c r="U8" s="106"/>
+      <c r="V8" s="106"/>
+      <c r="W8" s="107"/>
+      <c r="X8" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="147"/>
-      <c r="T8" s="147"/>
-      <c r="U8" s="147"/>
-      <c r="V8" s="147"/>
-      <c r="W8" s="149"/>
-      <c r="X8" s="147" t="s">
+      <c r="Y8" s="106"/>
+      <c r="Z8" s="106"/>
+      <c r="AA8" s="106"/>
+      <c r="AB8" s="106"/>
+      <c r="AC8" s="106"/>
+      <c r="AD8" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="Y8" s="147"/>
-      <c r="Z8" s="147"/>
-      <c r="AA8" s="147"/>
-      <c r="AB8" s="147"/>
-      <c r="AC8" s="147"/>
-      <c r="AD8" s="150" t="s">
+      <c r="AE8" s="103"/>
+      <c r="AF8" s="103"/>
+      <c r="AG8" s="103"/>
+      <c r="AH8" s="103"/>
+      <c r="AI8" s="104"/>
+      <c r="AJ8" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="AE8" s="151"/>
-      <c r="AF8" s="151"/>
-      <c r="AG8" s="151"/>
-      <c r="AH8" s="151"/>
-      <c r="AI8" s="152"/>
-      <c r="AJ8" s="148" t="s">
+      <c r="AK8" s="106"/>
+      <c r="AL8" s="106"/>
+      <c r="AM8" s="106"/>
+      <c r="AN8" s="106"/>
+      <c r="AO8" s="107"/>
+      <c r="AP8" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="AK8" s="147"/>
-      <c r="AL8" s="147"/>
-      <c r="AM8" s="147"/>
-      <c r="AN8" s="147"/>
-      <c r="AO8" s="149"/>
-      <c r="AP8" s="147" t="s">
-        <v>24</v>
-      </c>
-      <c r="AQ8" s="147"/>
-      <c r="AR8" s="147"/>
-      <c r="AS8" s="147"/>
-      <c r="AT8" s="147"/>
-      <c r="AU8" s="147"/>
-      <c r="AV8" s="147" t="s">
+      <c r="AQ8" s="106"/>
+      <c r="AR8" s="106"/>
+      <c r="AS8" s="106"/>
+      <c r="AT8" s="106"/>
+      <c r="AU8" s="106"/>
+      <c r="AV8" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="AW8" s="106"/>
+      <c r="AX8" s="106"/>
+      <c r="AY8" s="106"/>
+      <c r="AZ8" s="106"/>
+      <c r="BA8" s="106"/>
+      <c r="BB8" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="AW8" s="147"/>
-      <c r="AX8" s="147"/>
-      <c r="AY8" s="147"/>
-      <c r="AZ8" s="147"/>
-      <c r="BA8" s="147"/>
-      <c r="BB8" s="148" t="s">
+      <c r="BC8" s="106"/>
+      <c r="BD8" s="106"/>
+      <c r="BE8" s="106"/>
+      <c r="BF8" s="106"/>
+      <c r="BG8" s="107"/>
+      <c r="BH8" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="BC8" s="147"/>
-      <c r="BD8" s="147"/>
-      <c r="BE8" s="147"/>
-      <c r="BF8" s="147"/>
-      <c r="BG8" s="149"/>
-      <c r="BH8" s="147" t="s">
+      <c r="BI8" s="106"/>
+      <c r="BJ8" s="106"/>
+      <c r="BK8" s="106"/>
+      <c r="BL8" s="106"/>
+      <c r="BM8" s="106"/>
+      <c r="BN8" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="BI8" s="147"/>
-      <c r="BJ8" s="147"/>
-      <c r="BK8" s="147"/>
-      <c r="BL8" s="147"/>
-      <c r="BM8" s="147"/>
-      <c r="BN8" s="148" t="s">
+      <c r="BO8" s="106"/>
+      <c r="BP8" s="106"/>
+      <c r="BQ8" s="106"/>
+      <c r="BR8" s="106"/>
+      <c r="BS8" s="107"/>
+      <c r="BT8" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="BO8" s="147"/>
-      <c r="BP8" s="147"/>
-      <c r="BQ8" s="147"/>
-      <c r="BR8" s="147"/>
-      <c r="BS8" s="149"/>
-      <c r="BT8" s="148" t="s">
-        <v>31</v>
-      </c>
-      <c r="BU8" s="147"/>
-      <c r="BV8" s="147"/>
-      <c r="BW8" s="147"/>
-      <c r="BX8" s="147"/>
-      <c r="BY8" s="149"/>
+      <c r="BU8" s="106"/>
+      <c r="BV8" s="106"/>
+      <c r="BW8" s="106"/>
+      <c r="BX8" s="106"/>
+      <c r="BY8" s="107"/>
+      <c r="BZ8" s="102" t="s">
+        <v>125</v>
+      </c>
+      <c r="CA8" s="103"/>
+      <c r="CB8" s="103"/>
+      <c r="CC8" s="103"/>
+      <c r="CD8" s="103"/>
+      <c r="CE8" s="104"/>
+      <c r="CF8" s="102" t="s">
+        <v>126</v>
+      </c>
+      <c r="CG8" s="103"/>
+      <c r="CH8" s="103"/>
+      <c r="CI8" s="103"/>
+      <c r="CJ8" s="103"/>
+      <c r="CK8" s="104"/>
+      <c r="CL8" s="102" t="s">
+        <v>127</v>
+      </c>
+      <c r="CM8" s="103"/>
+      <c r="CN8" s="103"/>
+      <c r="CO8" s="103"/>
+      <c r="CP8" s="103"/>
+      <c r="CQ8" s="104"/>
+      <c r="CR8" s="105" t="s">
+        <v>128</v>
+      </c>
+      <c r="CS8" s="106"/>
+      <c r="CT8" s="106"/>
+      <c r="CU8" s="106"/>
+      <c r="CV8" s="106"/>
+      <c r="CW8" s="107"/>
+      <c r="CX8" s="105" t="s">
+        <v>129</v>
+      </c>
+      <c r="CY8" s="106"/>
+      <c r="CZ8" s="106"/>
+      <c r="DA8" s="106"/>
+      <c r="DB8" s="106"/>
+      <c r="DC8" s="107"/>
     </row>
-    <row r="9" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="117" t="s">
+    <row r="9" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="120" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="134">
+      <c r="C9" s="138" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="152">
         <v>1</v>
       </c>
-      <c r="E9" s="135"/>
-      <c r="F9" s="99" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="169" t="s">
+      <c r="E9" s="153"/>
+      <c r="F9" s="117" t="s">
         <v>94</v>
       </c>
-      <c r="M9" s="170"/>
-      <c r="N9" s="170"/>
-      <c r="O9" s="170"/>
-      <c r="P9" s="170"/>
-      <c r="Q9" s="171"/>
-      <c r="R9" s="169" t="s">
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="181" t="s">
         <v>93</v>
       </c>
-      <c r="S9" s="170"/>
-      <c r="T9" s="170"/>
-      <c r="U9" s="170"/>
-      <c r="V9" s="170"/>
-      <c r="W9" s="171"/>
-      <c r="X9" s="169" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y9" s="170"/>
-      <c r="Z9" s="170"/>
-      <c r="AA9" s="170"/>
-      <c r="AB9" s="170"/>
-      <c r="AC9" s="171"/>
-      <c r="AD9" s="169" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE9" s="170"/>
-      <c r="AF9" s="170"/>
-      <c r="AG9" s="170"/>
-      <c r="AH9" s="170"/>
-      <c r="AI9" s="171"/>
+      <c r="M9" s="182"/>
+      <c r="N9" s="182"/>
+      <c r="O9" s="182"/>
+      <c r="P9" s="182"/>
+      <c r="Q9" s="183"/>
+      <c r="R9" s="181" t="s">
+        <v>92</v>
+      </c>
+      <c r="S9" s="182"/>
+      <c r="T9" s="182"/>
+      <c r="U9" s="182"/>
+      <c r="V9" s="182"/>
+      <c r="W9" s="183"/>
+      <c r="X9" s="181" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y9" s="182"/>
+      <c r="Z9" s="182"/>
+      <c r="AA9" s="182"/>
+      <c r="AB9" s="182"/>
+      <c r="AC9" s="183"/>
+      <c r="AD9" s="181" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE9" s="182"/>
+      <c r="AF9" s="182"/>
+      <c r="AG9" s="182"/>
+      <c r="AH9" s="182"/>
+      <c r="AI9" s="183"/>
       <c r="AJ9" s="62"/>
       <c r="AK9" s="63"/>
       <c r="AL9" s="63"/>
@@ -2730,70 +2847,100 @@
       <c r="AY9" s="63"/>
       <c r="AZ9" s="63"/>
       <c r="BA9" s="63"/>
-      <c r="BB9" s="99" t="s">
-        <v>125</v>
-      </c>
-      <c r="BC9" s="100"/>
-      <c r="BD9" s="100"/>
-      <c r="BE9" s="100"/>
-      <c r="BF9" s="100"/>
-      <c r="BG9" s="100"/>
-      <c r="BH9" s="100"/>
-      <c r="BI9" s="100"/>
-      <c r="BJ9" s="100"/>
-      <c r="BK9" s="100"/>
-      <c r="BL9" s="100"/>
-      <c r="BM9" s="101"/>
-      <c r="BN9" s="105" t="s">
-        <v>42</v>
-      </c>
-      <c r="BO9" s="106"/>
-      <c r="BP9" s="106"/>
-      <c r="BQ9" s="106"/>
-      <c r="BR9" s="106"/>
-      <c r="BS9" s="107"/>
-      <c r="BT9" s="178"/>
+      <c r="BB9" s="117" t="s">
+        <v>124</v>
+      </c>
+      <c r="BC9" s="118"/>
+      <c r="BD9" s="118"/>
+      <c r="BE9" s="118"/>
+      <c r="BF9" s="118"/>
+      <c r="BG9" s="118"/>
+      <c r="BH9" s="118"/>
+      <c r="BI9" s="118"/>
+      <c r="BJ9" s="118"/>
+      <c r="BK9" s="118"/>
+      <c r="BL9" s="118"/>
+      <c r="BM9" s="119"/>
+      <c r="BN9" s="123" t="s">
+        <v>41</v>
+      </c>
+      <c r="BO9" s="124"/>
+      <c r="BP9" s="124"/>
+      <c r="BQ9" s="124"/>
+      <c r="BR9" s="124"/>
+      <c r="BS9" s="125"/>
+      <c r="BT9" s="93"/>
       <c r="BU9" s="27"/>
       <c r="BV9" s="27"/>
       <c r="BW9" s="27"/>
       <c r="BX9" s="27"/>
       <c r="BY9" s="28"/>
+      <c r="BZ9" s="100"/>
+      <c r="CA9" s="27"/>
+      <c r="CB9" s="27"/>
+      <c r="CC9" s="27"/>
+      <c r="CD9" s="27"/>
+      <c r="CE9" s="28"/>
+      <c r="CF9" s="100"/>
+      <c r="CG9" s="27"/>
+      <c r="CH9" s="27"/>
+      <c r="CI9" s="27"/>
+      <c r="CJ9" s="27"/>
+      <c r="CK9" s="28"/>
+      <c r="CL9" s="100"/>
+      <c r="CM9" s="27"/>
+      <c r="CN9" s="27"/>
+      <c r="CO9" s="27"/>
+      <c r="CP9" s="27"/>
+      <c r="CQ9" s="28"/>
+      <c r="CR9" s="100"/>
+      <c r="CS9" s="27"/>
+      <c r="CT9" s="27"/>
+      <c r="CU9" s="27"/>
+      <c r="CV9" s="27"/>
+      <c r="CW9" s="28"/>
+      <c r="CX9" s="100"/>
+      <c r="CY9" s="27"/>
+      <c r="CZ9" s="27"/>
+      <c r="DA9" s="27"/>
+      <c r="DB9" s="27"/>
+      <c r="DC9" s="28"/>
     </row>
-    <row r="10" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="118"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="97"/>
-      <c r="N10" s="97"/>
-      <c r="O10" s="97"/>
-      <c r="P10" s="97"/>
-      <c r="Q10" s="98"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="97"/>
-      <c r="T10" s="97"/>
-      <c r="U10" s="97"/>
-      <c r="V10" s="97"/>
-      <c r="W10" s="98"/>
-      <c r="X10" s="96"/>
-      <c r="Y10" s="97"/>
-      <c r="Z10" s="97"/>
-      <c r="AA10" s="97"/>
-      <c r="AB10" s="97"/>
-      <c r="AC10" s="98"/>
-      <c r="AD10" s="96"/>
-      <c r="AE10" s="97"/>
-      <c r="AF10" s="97"/>
-      <c r="AG10" s="97"/>
-      <c r="AH10" s="97"/>
-      <c r="AI10" s="98"/>
+    <row r="10" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="136"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="143"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="115"/>
+      <c r="N10" s="115"/>
+      <c r="O10" s="115"/>
+      <c r="P10" s="115"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="114"/>
+      <c r="S10" s="115"/>
+      <c r="T10" s="115"/>
+      <c r="U10" s="115"/>
+      <c r="V10" s="115"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="114"/>
+      <c r="Y10" s="115"/>
+      <c r="Z10" s="115"/>
+      <c r="AA10" s="115"/>
+      <c r="AB10" s="115"/>
+      <c r="AC10" s="116"/>
+      <c r="AD10" s="114"/>
+      <c r="AE10" s="115"/>
+      <c r="AF10" s="115"/>
+      <c r="AG10" s="115"/>
+      <c r="AH10" s="115"/>
+      <c r="AI10" s="116"/>
       <c r="AJ10" s="67"/>
       <c r="AK10" s="59"/>
       <c r="AL10" s="59"/>
@@ -2812,42 +2959,72 @@
       <c r="AY10" s="59"/>
       <c r="AZ10" s="59"/>
       <c r="BA10" s="59"/>
-      <c r="BB10" s="102"/>
-      <c r="BC10" s="103"/>
-      <c r="BD10" s="103"/>
-      <c r="BE10" s="103"/>
-      <c r="BF10" s="103"/>
-      <c r="BG10" s="103"/>
-      <c r="BH10" s="103"/>
-      <c r="BI10" s="103"/>
-      <c r="BJ10" s="103"/>
-      <c r="BK10" s="103"/>
-      <c r="BL10" s="103"/>
-      <c r="BM10" s="104"/>
-      <c r="BN10" s="108"/>
-      <c r="BO10" s="109"/>
-      <c r="BP10" s="109"/>
-      <c r="BQ10" s="109"/>
-      <c r="BR10" s="109"/>
-      <c r="BS10" s="110"/>
-      <c r="BT10" s="179"/>
+      <c r="BB10" s="120"/>
+      <c r="BC10" s="121"/>
+      <c r="BD10" s="121"/>
+      <c r="BE10" s="121"/>
+      <c r="BF10" s="121"/>
+      <c r="BG10" s="121"/>
+      <c r="BH10" s="121"/>
+      <c r="BI10" s="121"/>
+      <c r="BJ10" s="121"/>
+      <c r="BK10" s="121"/>
+      <c r="BL10" s="121"/>
+      <c r="BM10" s="122"/>
+      <c r="BN10" s="126"/>
+      <c r="BO10" s="127"/>
+      <c r="BP10" s="127"/>
+      <c r="BQ10" s="127"/>
+      <c r="BR10" s="127"/>
+      <c r="BS10" s="128"/>
+      <c r="BT10" s="94"/>
       <c r="BU10" s="6"/>
       <c r="BV10" s="6"/>
       <c r="BW10" s="6"/>
       <c r="BX10" s="6"/>
       <c r="BY10" s="30"/>
+      <c r="BZ10" s="101"/>
+      <c r="CA10" s="6"/>
+      <c r="CB10" s="6"/>
+      <c r="CC10" s="6"/>
+      <c r="CD10" s="6"/>
+      <c r="CE10" s="30"/>
+      <c r="CF10" s="101"/>
+      <c r="CG10" s="6"/>
+      <c r="CH10" s="6"/>
+      <c r="CI10" s="6"/>
+      <c r="CJ10" s="6"/>
+      <c r="CK10" s="30"/>
+      <c r="CL10" s="101"/>
+      <c r="CM10" s="6"/>
+      <c r="CN10" s="6"/>
+      <c r="CO10" s="6"/>
+      <c r="CP10" s="6"/>
+      <c r="CQ10" s="30"/>
+      <c r="CR10" s="101"/>
+      <c r="CS10" s="6"/>
+      <c r="CT10" s="6"/>
+      <c r="CU10" s="6"/>
+      <c r="CV10" s="6"/>
+      <c r="CW10" s="30"/>
+      <c r="CX10" s="101"/>
+      <c r="CY10" s="6"/>
+      <c r="CZ10" s="6"/>
+      <c r="DA10" s="6"/>
+      <c r="DB10" s="6"/>
+      <c r="DC10" s="30"/>
     </row>
-    <row r="11" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="119" t="s">
+    <row r="11" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="122" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="134">
+      <c r="C11" s="140" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="152">
         <v>1</v>
       </c>
-      <c r="E11" s="135"/>
+      <c r="E11" s="153"/>
       <c r="F11" s="90"/>
       <c r="G11" s="78"/>
       <c r="H11" s="78"/>
@@ -2866,7 +3043,7 @@
       <c r="U11" s="78"/>
       <c r="V11" s="78"/>
       <c r="W11" s="79"/>
-      <c r="X11" s="180"/>
+      <c r="X11" s="95"/>
       <c r="Y11" s="34"/>
       <c r="Z11" s="34"/>
       <c r="AA11" s="34"/>
@@ -2920,12 +3097,42 @@
       <c r="BW11" s="34"/>
       <c r="BX11" s="34"/>
       <c r="BY11" s="35"/>
+      <c r="BZ11" s="33"/>
+      <c r="CA11" s="34"/>
+      <c r="CB11" s="34"/>
+      <c r="CC11" s="34"/>
+      <c r="CD11" s="34"/>
+      <c r="CE11" s="35"/>
+      <c r="CF11" s="33"/>
+      <c r="CG11" s="34"/>
+      <c r="CH11" s="34"/>
+      <c r="CI11" s="34"/>
+      <c r="CJ11" s="34"/>
+      <c r="CK11" s="35"/>
+      <c r="CL11" s="33"/>
+      <c r="CM11" s="34"/>
+      <c r="CN11" s="34"/>
+      <c r="CO11" s="34"/>
+      <c r="CP11" s="34"/>
+      <c r="CQ11" s="35"/>
+      <c r="CR11" s="33"/>
+      <c r="CS11" s="34"/>
+      <c r="CT11" s="34"/>
+      <c r="CU11" s="34"/>
+      <c r="CV11" s="34"/>
+      <c r="CW11" s="35"/>
+      <c r="CX11" s="33"/>
+      <c r="CY11" s="34"/>
+      <c r="CZ11" s="34"/>
+      <c r="DA11" s="34"/>
+      <c r="DB11" s="34"/>
+      <c r="DC11" s="35"/>
     </row>
-    <row r="12" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="118"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="128"/>
+    <row r="12" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="136"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="143"/>
+      <c r="E12" s="146"/>
       <c r="F12" s="82"/>
       <c r="G12" s="80"/>
       <c r="H12" s="80"/>
@@ -2944,7 +3151,7 @@
       <c r="U12" s="80"/>
       <c r="V12" s="80"/>
       <c r="W12" s="81"/>
-      <c r="X12" s="181"/>
+      <c r="X12" s="96"/>
       <c r="Y12" s="39"/>
       <c r="Z12" s="39"/>
       <c r="AA12" s="39"/>
@@ -2998,26 +3205,56 @@
       <c r="BW12" s="39"/>
       <c r="BX12" s="39"/>
       <c r="BY12" s="40"/>
+      <c r="BZ12" s="38"/>
+      <c r="CA12" s="39"/>
+      <c r="CB12" s="39"/>
+      <c r="CC12" s="39"/>
+      <c r="CD12" s="39"/>
+      <c r="CE12" s="40"/>
+      <c r="CF12" s="38"/>
+      <c r="CG12" s="39"/>
+      <c r="CH12" s="39"/>
+      <c r="CI12" s="39"/>
+      <c r="CJ12" s="39"/>
+      <c r="CK12" s="40"/>
+      <c r="CL12" s="38"/>
+      <c r="CM12" s="39"/>
+      <c r="CN12" s="39"/>
+      <c r="CO12" s="39"/>
+      <c r="CP12" s="39"/>
+      <c r="CQ12" s="40"/>
+      <c r="CR12" s="38"/>
+      <c r="CS12" s="39"/>
+      <c r="CT12" s="39"/>
+      <c r="CU12" s="39"/>
+      <c r="CV12" s="39"/>
+      <c r="CW12" s="40"/>
+      <c r="CX12" s="38"/>
+      <c r="CY12" s="39"/>
+      <c r="CZ12" s="39"/>
+      <c r="DA12" s="39"/>
+      <c r="DB12" s="39"/>
+      <c r="DC12" s="40"/>
     </row>
-    <row r="13" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="119" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="120" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="134">
+    <row r="13" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="137" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="138" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="152">
         <v>1</v>
       </c>
-      <c r="E13" s="135"/>
-      <c r="F13" s="93" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="95"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="111" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="113"/>
       <c r="L13" s="76"/>
       <c r="M13" s="77"/>
       <c r="N13" s="77"/>
@@ -3030,14 +3267,14 @@
       <c r="U13" s="59"/>
       <c r="V13" s="59"/>
       <c r="W13" s="68"/>
-      <c r="X13" s="93" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y13" s="94"/>
-      <c r="Z13" s="94"/>
-      <c r="AA13" s="94"/>
-      <c r="AB13" s="94"/>
-      <c r="AC13" s="95"/>
+      <c r="X13" s="111" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y13" s="112"/>
+      <c r="Z13" s="112"/>
+      <c r="AA13" s="112"/>
+      <c r="AB13" s="112"/>
+      <c r="AC13" s="113"/>
       <c r="AD13" s="76"/>
       <c r="AE13" s="77"/>
       <c r="AF13" s="77"/>
@@ -3062,15 +3299,15 @@
       <c r="AY13" s="78"/>
       <c r="AZ13" s="78"/>
       <c r="BA13" s="79"/>
-      <c r="BB13" s="111" t="s">
-        <v>118</v>
-      </c>
-      <c r="BC13" s="112"/>
-      <c r="BD13" s="112"/>
-      <c r="BE13" s="112"/>
-      <c r="BF13" s="112"/>
-      <c r="BG13" s="113"/>
-      <c r="BH13" s="182"/>
+      <c r="BB13" s="129" t="s">
+        <v>117</v>
+      </c>
+      <c r="BC13" s="130"/>
+      <c r="BD13" s="130"/>
+      <c r="BE13" s="130"/>
+      <c r="BF13" s="130"/>
+      <c r="BG13" s="131"/>
+      <c r="BH13" s="97"/>
       <c r="BI13" s="37"/>
       <c r="BJ13" s="37"/>
       <c r="BK13" s="34"/>
@@ -3088,18 +3325,48 @@
       <c r="BW13" s="6"/>
       <c r="BX13" s="6"/>
       <c r="BY13" s="30"/>
+      <c r="BZ13" s="29"/>
+      <c r="CA13" s="6"/>
+      <c r="CB13" s="6"/>
+      <c r="CC13" s="6"/>
+      <c r="CD13" s="6"/>
+      <c r="CE13" s="30"/>
+      <c r="CF13" s="29"/>
+      <c r="CG13" s="6"/>
+      <c r="CH13" s="6"/>
+      <c r="CI13" s="6"/>
+      <c r="CJ13" s="6"/>
+      <c r="CK13" s="30"/>
+      <c r="CL13" s="29"/>
+      <c r="CM13" s="6"/>
+      <c r="CN13" s="6"/>
+      <c r="CO13" s="6"/>
+      <c r="CP13" s="6"/>
+      <c r="CQ13" s="30"/>
+      <c r="CR13" s="29"/>
+      <c r="CS13" s="6"/>
+      <c r="CT13" s="6"/>
+      <c r="CU13" s="6"/>
+      <c r="CV13" s="6"/>
+      <c r="CW13" s="30"/>
+      <c r="CX13" s="29"/>
+      <c r="CY13" s="6"/>
+      <c r="CZ13" s="6"/>
+      <c r="DA13" s="6"/>
+      <c r="DB13" s="6"/>
+      <c r="DC13" s="30"/>
     </row>
-    <row r="14" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="118"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="98"/>
+    <row r="14" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="136"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="116"/>
       <c r="L14" s="65"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
@@ -3112,12 +3379,12 @@
       <c r="U14" s="80"/>
       <c r="V14" s="80"/>
       <c r="W14" s="81"/>
-      <c r="X14" s="96"/>
-      <c r="Y14" s="97"/>
-      <c r="Z14" s="97"/>
-      <c r="AA14" s="97"/>
-      <c r="AB14" s="97"/>
-      <c r="AC14" s="98"/>
+      <c r="X14" s="114"/>
+      <c r="Y14" s="115"/>
+      <c r="Z14" s="115"/>
+      <c r="AA14" s="115"/>
+      <c r="AB14" s="115"/>
+      <c r="AC14" s="116"/>
       <c r="AD14" s="65"/>
       <c r="AE14" s="66"/>
       <c r="AF14" s="66"/>
@@ -3142,13 +3409,13 @@
       <c r="AY14" s="80"/>
       <c r="AZ14" s="80"/>
       <c r="BA14" s="81"/>
-      <c r="BB14" s="102"/>
-      <c r="BC14" s="103"/>
-      <c r="BD14" s="103"/>
-      <c r="BE14" s="103"/>
-      <c r="BF14" s="103"/>
-      <c r="BG14" s="104"/>
-      <c r="BH14" s="183"/>
+      <c r="BB14" s="120"/>
+      <c r="BC14" s="121"/>
+      <c r="BD14" s="121"/>
+      <c r="BE14" s="121"/>
+      <c r="BF14" s="121"/>
+      <c r="BG14" s="122"/>
+      <c r="BH14" s="98"/>
       <c r="BI14" s="25"/>
       <c r="BJ14" s="25"/>
       <c r="BK14" s="39"/>
@@ -3166,26 +3433,56 @@
       <c r="BW14" s="39"/>
       <c r="BX14" s="39"/>
       <c r="BY14" s="40"/>
+      <c r="BZ14" s="38"/>
+      <c r="CA14" s="39"/>
+      <c r="CB14" s="39"/>
+      <c r="CC14" s="39"/>
+      <c r="CD14" s="39"/>
+      <c r="CE14" s="40"/>
+      <c r="CF14" s="38"/>
+      <c r="CG14" s="39"/>
+      <c r="CH14" s="39"/>
+      <c r="CI14" s="39"/>
+      <c r="CJ14" s="39"/>
+      <c r="CK14" s="40"/>
+      <c r="CL14" s="38"/>
+      <c r="CM14" s="39"/>
+      <c r="CN14" s="39"/>
+      <c r="CO14" s="39"/>
+      <c r="CP14" s="39"/>
+      <c r="CQ14" s="40"/>
+      <c r="CR14" s="38"/>
+      <c r="CS14" s="39"/>
+      <c r="CT14" s="39"/>
+      <c r="CU14" s="39"/>
+      <c r="CV14" s="39"/>
+      <c r="CW14" s="40"/>
+      <c r="CX14" s="38"/>
+      <c r="CY14" s="39"/>
+      <c r="CZ14" s="39"/>
+      <c r="DA14" s="39"/>
+      <c r="DB14" s="39"/>
+      <c r="DC14" s="40"/>
     </row>
-    <row r="15" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="119" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="122" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="123">
+    <row r="15" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="137" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="140" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="141">
         <v>1</v>
       </c>
-      <c r="E15" s="127"/>
-      <c r="F15" s="93" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="95"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="111" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="112"/>
+      <c r="K15" s="113"/>
       <c r="L15" s="83"/>
       <c r="M15" s="32"/>
       <c r="N15" s="32"/>
@@ -3252,18 +3549,48 @@
       <c r="BW15" s="6"/>
       <c r="BX15" s="6"/>
       <c r="BY15" s="30"/>
+      <c r="BZ15" s="29"/>
+      <c r="CA15" s="6"/>
+      <c r="CB15" s="6"/>
+      <c r="CC15" s="6"/>
+      <c r="CD15" s="6"/>
+      <c r="CE15" s="30"/>
+      <c r="CF15" s="29"/>
+      <c r="CG15" s="6"/>
+      <c r="CH15" s="6"/>
+      <c r="CI15" s="6"/>
+      <c r="CJ15" s="6"/>
+      <c r="CK15" s="30"/>
+      <c r="CL15" s="29"/>
+      <c r="CM15" s="6"/>
+      <c r="CN15" s="6"/>
+      <c r="CO15" s="6"/>
+      <c r="CP15" s="6"/>
+      <c r="CQ15" s="30"/>
+      <c r="CR15" s="29"/>
+      <c r="CS15" s="6"/>
+      <c r="CT15" s="6"/>
+      <c r="CU15" s="6"/>
+      <c r="CV15" s="6"/>
+      <c r="CW15" s="30"/>
+      <c r="CX15" s="29"/>
+      <c r="CY15" s="6"/>
+      <c r="CZ15" s="6"/>
+      <c r="DA15" s="6"/>
+      <c r="DB15" s="6"/>
+      <c r="DC15" s="30"/>
     </row>
-    <row r="16" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="118"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="98"/>
+    <row r="16" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="136"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="116"/>
       <c r="L16" s="83"/>
       <c r="M16" s="32"/>
       <c r="N16" s="32"/>
@@ -3330,18 +3657,48 @@
       <c r="BW16" s="39"/>
       <c r="BX16" s="39"/>
       <c r="BY16" s="40"/>
+      <c r="BZ16" s="38"/>
+      <c r="CA16" s="39"/>
+      <c r="CB16" s="39"/>
+      <c r="CC16" s="39"/>
+      <c r="CD16" s="39"/>
+      <c r="CE16" s="40"/>
+      <c r="CF16" s="38"/>
+      <c r="CG16" s="39"/>
+      <c r="CH16" s="39"/>
+      <c r="CI16" s="39"/>
+      <c r="CJ16" s="39"/>
+      <c r="CK16" s="40"/>
+      <c r="CL16" s="38"/>
+      <c r="CM16" s="39"/>
+      <c r="CN16" s="39"/>
+      <c r="CO16" s="39"/>
+      <c r="CP16" s="39"/>
+      <c r="CQ16" s="40"/>
+      <c r="CR16" s="38"/>
+      <c r="CS16" s="39"/>
+      <c r="CT16" s="39"/>
+      <c r="CU16" s="39"/>
+      <c r="CV16" s="39"/>
+      <c r="CW16" s="40"/>
+      <c r="CX16" s="38"/>
+      <c r="CY16" s="39"/>
+      <c r="CZ16" s="39"/>
+      <c r="DA16" s="39"/>
+      <c r="DB16" s="39"/>
+      <c r="DC16" s="40"/>
     </row>
-    <row r="17" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="119" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="129" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="123">
+    <row r="17" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="137" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="147" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="141">
         <v>1</v>
       </c>
-      <c r="E17" s="127"/>
+      <c r="E17" s="145"/>
       <c r="F17" s="29"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -3384,13 +3741,13 @@
       <c r="AS17" s="6"/>
       <c r="AT17" s="6"/>
       <c r="AU17" s="30"/>
-      <c r="AV17" s="111" t="s">
-        <v>32</v>
-      </c>
-      <c r="AW17" s="112"/>
-      <c r="AX17" s="112"/>
-      <c r="AY17" s="112"/>
-      <c r="AZ17" s="112"/>
+      <c r="AV17" s="129" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW17" s="130"/>
+      <c r="AX17" s="130"/>
+      <c r="AY17" s="130"/>
+      <c r="AZ17" s="130"/>
       <c r="BA17" s="91"/>
       <c r="BB17" s="29"/>
       <c r="BC17" s="6"/>
@@ -3416,12 +3773,42 @@
       <c r="BW17" s="6"/>
       <c r="BX17" s="6"/>
       <c r="BY17" s="30"/>
+      <c r="BZ17" s="29"/>
+      <c r="CA17" s="6"/>
+      <c r="CB17" s="6"/>
+      <c r="CC17" s="6"/>
+      <c r="CD17" s="6"/>
+      <c r="CE17" s="30"/>
+      <c r="CF17" s="29"/>
+      <c r="CG17" s="6"/>
+      <c r="CH17" s="6"/>
+      <c r="CI17" s="6"/>
+      <c r="CJ17" s="6"/>
+      <c r="CK17" s="30"/>
+      <c r="CL17" s="29"/>
+      <c r="CM17" s="6"/>
+      <c r="CN17" s="6"/>
+      <c r="CO17" s="6"/>
+      <c r="CP17" s="6"/>
+      <c r="CQ17" s="30"/>
+      <c r="CR17" s="29"/>
+      <c r="CS17" s="6"/>
+      <c r="CT17" s="6"/>
+      <c r="CU17" s="6"/>
+      <c r="CV17" s="6"/>
+      <c r="CW17" s="30"/>
+      <c r="CX17" s="29"/>
+      <c r="CY17" s="6"/>
+      <c r="CZ17" s="6"/>
+      <c r="DA17" s="6"/>
+      <c r="DB17" s="6"/>
+      <c r="DC17" s="30"/>
     </row>
-    <row r="18" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="118"/>
-      <c r="C18" s="130"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="128"/>
+    <row r="18" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="136"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="146"/>
       <c r="F18" s="38"/>
       <c r="G18" s="39"/>
       <c r="H18" s="39"/>
@@ -3464,11 +3851,11 @@
       <c r="AS18" s="39"/>
       <c r="AT18" s="39"/>
       <c r="AU18" s="40"/>
-      <c r="AV18" s="102"/>
-      <c r="AW18" s="103"/>
-      <c r="AX18" s="103"/>
-      <c r="AY18" s="103"/>
-      <c r="AZ18" s="103"/>
+      <c r="AV18" s="120"/>
+      <c r="AW18" s="121"/>
+      <c r="AX18" s="121"/>
+      <c r="AY18" s="121"/>
+      <c r="AZ18" s="121"/>
       <c r="BA18" s="92"/>
       <c r="BB18" s="38"/>
       <c r="BC18" s="39"/>
@@ -3494,77 +3881,107 @@
       <c r="BW18" s="39"/>
       <c r="BX18" s="39"/>
       <c r="BY18" s="40"/>
+      <c r="BZ18" s="38"/>
+      <c r="CA18" s="39"/>
+      <c r="CB18" s="39"/>
+      <c r="CC18" s="39"/>
+      <c r="CD18" s="39"/>
+      <c r="CE18" s="40"/>
+      <c r="CF18" s="38"/>
+      <c r="CG18" s="39"/>
+      <c r="CH18" s="39"/>
+      <c r="CI18" s="39"/>
+      <c r="CJ18" s="39"/>
+      <c r="CK18" s="40"/>
+      <c r="CL18" s="38"/>
+      <c r="CM18" s="39"/>
+      <c r="CN18" s="39"/>
+      <c r="CO18" s="39"/>
+      <c r="CP18" s="39"/>
+      <c r="CQ18" s="40"/>
+      <c r="CR18" s="38"/>
+      <c r="CS18" s="39"/>
+      <c r="CT18" s="39"/>
+      <c r="CU18" s="39"/>
+      <c r="CV18" s="39"/>
+      <c r="CW18" s="40"/>
+      <c r="CX18" s="38"/>
+      <c r="CY18" s="39"/>
+      <c r="CZ18" s="39"/>
+      <c r="DA18" s="39"/>
+      <c r="DB18" s="39"/>
+      <c r="DC18" s="40"/>
     </row>
-    <row r="19" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="119" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="129" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="123">
+    <row r="19" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="137" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="147" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="141">
         <v>0.5</v>
       </c>
-      <c r="E19" s="127"/>
+      <c r="E19" s="145"/>
       <c r="F19" s="67"/>
       <c r="G19" s="59"/>
       <c r="H19" s="59"/>
       <c r="I19" s="59"/>
       <c r="J19" s="59"/>
       <c r="K19" s="68"/>
-      <c r="L19" s="93" t="s">
-        <v>96</v>
-      </c>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="95"/>
+      <c r="L19" s="111" t="s">
+        <v>95</v>
+      </c>
+      <c r="M19" s="112"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="112"/>
+      <c r="Q19" s="113"/>
       <c r="R19" s="67"/>
       <c r="S19" s="59"/>
       <c r="T19" s="59"/>
       <c r="U19" s="59"/>
       <c r="V19" s="59"/>
       <c r="W19" s="68"/>
-      <c r="X19" s="93" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y19" s="94"/>
-      <c r="Z19" s="94"/>
-      <c r="AA19" s="94"/>
-      <c r="AB19" s="94"/>
-      <c r="AC19" s="95"/>
-      <c r="AD19" s="93" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE19" s="94"/>
-      <c r="AF19" s="94"/>
-      <c r="AG19" s="94"/>
-      <c r="AH19" s="94"/>
-      <c r="AI19" s="95"/>
+      <c r="X19" s="111" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y19" s="112"/>
+      <c r="Z19" s="112"/>
+      <c r="AA19" s="112"/>
+      <c r="AB19" s="112"/>
+      <c r="AC19" s="113"/>
+      <c r="AD19" s="111" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE19" s="112"/>
+      <c r="AF19" s="112"/>
+      <c r="AG19" s="112"/>
+      <c r="AH19" s="112"/>
+      <c r="AI19" s="113"/>
       <c r="AJ19" s="67"/>
       <c r="AK19" s="59"/>
       <c r="AL19" s="59"/>
       <c r="AM19" s="59"/>
       <c r="AN19" s="59"/>
       <c r="AO19" s="68"/>
-      <c r="AP19" s="93" t="s">
-        <v>92</v>
-      </c>
-      <c r="AQ19" s="94"/>
-      <c r="AR19" s="94"/>
-      <c r="AS19" s="94"/>
-      <c r="AT19" s="94"/>
-      <c r="AU19" s="95"/>
-      <c r="AV19" s="111" t="s">
-        <v>92</v>
-      </c>
-      <c r="AW19" s="112"/>
-      <c r="AX19" s="112"/>
-      <c r="AY19" s="112"/>
-      <c r="AZ19" s="112"/>
-      <c r="BA19" s="113"/>
-      <c r="BB19" s="184"/>
+      <c r="AP19" s="111" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ19" s="112"/>
+      <c r="AR19" s="112"/>
+      <c r="AS19" s="112"/>
+      <c r="AT19" s="112"/>
+      <c r="AU19" s="113"/>
+      <c r="AV19" s="129" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW19" s="130"/>
+      <c r="AX19" s="130"/>
+      <c r="AY19" s="130"/>
+      <c r="AZ19" s="130"/>
+      <c r="BA19" s="131"/>
+      <c r="BB19" s="99"/>
       <c r="BC19" s="6"/>
       <c r="BD19" s="6"/>
       <c r="BE19" s="6"/>
@@ -3588,61 +4005,91 @@
       <c r="BW19" s="6"/>
       <c r="BX19" s="6"/>
       <c r="BY19" s="30"/>
+      <c r="BZ19" s="29"/>
+      <c r="CA19" s="6"/>
+      <c r="CB19" s="6"/>
+      <c r="CC19" s="6"/>
+      <c r="CD19" s="6"/>
+      <c r="CE19" s="30"/>
+      <c r="CF19" s="29"/>
+      <c r="CG19" s="6"/>
+      <c r="CH19" s="6"/>
+      <c r="CI19" s="6"/>
+      <c r="CJ19" s="6"/>
+      <c r="CK19" s="30"/>
+      <c r="CL19" s="29"/>
+      <c r="CM19" s="6"/>
+      <c r="CN19" s="6"/>
+      <c r="CO19" s="6"/>
+      <c r="CP19" s="6"/>
+      <c r="CQ19" s="30"/>
+      <c r="CR19" s="29"/>
+      <c r="CS19" s="6"/>
+      <c r="CT19" s="6"/>
+      <c r="CU19" s="6"/>
+      <c r="CV19" s="6"/>
+      <c r="CW19" s="30"/>
+      <c r="CX19" s="29"/>
+      <c r="CY19" s="6"/>
+      <c r="CZ19" s="6"/>
+      <c r="DA19" s="6"/>
+      <c r="DB19" s="6"/>
+      <c r="DC19" s="30"/>
     </row>
-    <row r="20" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="118"/>
-      <c r="C20" s="130"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="128"/>
+    <row r="20" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="136"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="146"/>
       <c r="F20" s="82"/>
       <c r="G20" s="80"/>
       <c r="H20" s="80"/>
       <c r="I20" s="80"/>
       <c r="J20" s="80"/>
       <c r="K20" s="81"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="97"/>
-      <c r="N20" s="97"/>
-      <c r="O20" s="97"/>
-      <c r="P20" s="97"/>
-      <c r="Q20" s="98"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="115"/>
+      <c r="O20" s="115"/>
+      <c r="P20" s="115"/>
+      <c r="Q20" s="116"/>
       <c r="R20" s="82"/>
       <c r="S20" s="80"/>
       <c r="T20" s="80"/>
       <c r="U20" s="80"/>
       <c r="V20" s="80"/>
       <c r="W20" s="81"/>
-      <c r="X20" s="96"/>
-      <c r="Y20" s="97"/>
-      <c r="Z20" s="97"/>
-      <c r="AA20" s="97"/>
-      <c r="AB20" s="97"/>
-      <c r="AC20" s="98"/>
-      <c r="AD20" s="96"/>
-      <c r="AE20" s="97"/>
-      <c r="AF20" s="97"/>
-      <c r="AG20" s="97"/>
-      <c r="AH20" s="97"/>
-      <c r="AI20" s="98"/>
+      <c r="X20" s="114"/>
+      <c r="Y20" s="115"/>
+      <c r="Z20" s="115"/>
+      <c r="AA20" s="115"/>
+      <c r="AB20" s="115"/>
+      <c r="AC20" s="116"/>
+      <c r="AD20" s="114"/>
+      <c r="AE20" s="115"/>
+      <c r="AF20" s="115"/>
+      <c r="AG20" s="115"/>
+      <c r="AH20" s="115"/>
+      <c r="AI20" s="116"/>
       <c r="AJ20" s="82"/>
       <c r="AK20" s="80"/>
       <c r="AL20" s="80"/>
       <c r="AM20" s="80"/>
       <c r="AN20" s="80"/>
       <c r="AO20" s="81"/>
-      <c r="AP20" s="96"/>
-      <c r="AQ20" s="97"/>
-      <c r="AR20" s="97"/>
-      <c r="AS20" s="97"/>
-      <c r="AT20" s="97"/>
-      <c r="AU20" s="98"/>
-      <c r="AV20" s="102"/>
-      <c r="AW20" s="103"/>
-      <c r="AX20" s="103"/>
-      <c r="AY20" s="103"/>
-      <c r="AZ20" s="103"/>
-      <c r="BA20" s="104"/>
-      <c r="BB20" s="181"/>
+      <c r="AP20" s="114"/>
+      <c r="AQ20" s="115"/>
+      <c r="AR20" s="115"/>
+      <c r="AS20" s="115"/>
+      <c r="AT20" s="115"/>
+      <c r="AU20" s="116"/>
+      <c r="AV20" s="120"/>
+      <c r="AW20" s="121"/>
+      <c r="AX20" s="121"/>
+      <c r="AY20" s="121"/>
+      <c r="AZ20" s="121"/>
+      <c r="BA20" s="122"/>
+      <c r="BB20" s="96"/>
       <c r="BC20" s="39"/>
       <c r="BD20" s="39"/>
       <c r="BE20" s="39"/>
@@ -3666,28 +4113,58 @@
       <c r="BW20" s="39"/>
       <c r="BX20" s="39"/>
       <c r="BY20" s="40"/>
+      <c r="BZ20" s="38"/>
+      <c r="CA20" s="39"/>
+      <c r="CB20" s="39"/>
+      <c r="CC20" s="39"/>
+      <c r="CD20" s="39"/>
+      <c r="CE20" s="40"/>
+      <c r="CF20" s="38"/>
+      <c r="CG20" s="39"/>
+      <c r="CH20" s="39"/>
+      <c r="CI20" s="39"/>
+      <c r="CJ20" s="39"/>
+      <c r="CK20" s="40"/>
+      <c r="CL20" s="38"/>
+      <c r="CM20" s="39"/>
+      <c r="CN20" s="39"/>
+      <c r="CO20" s="39"/>
+      <c r="CP20" s="39"/>
+      <c r="CQ20" s="40"/>
+      <c r="CR20" s="38"/>
+      <c r="CS20" s="39"/>
+      <c r="CT20" s="39"/>
+      <c r="CU20" s="39"/>
+      <c r="CV20" s="39"/>
+      <c r="CW20" s="40"/>
+      <c r="CX20" s="38"/>
+      <c r="CY20" s="39"/>
+      <c r="CZ20" s="39"/>
+      <c r="DA20" s="39"/>
+      <c r="DB20" s="39"/>
+      <c r="DC20" s="40"/>
     </row>
-    <row r="21" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="119" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="131"/>
-      <c r="D21" s="123">
+    <row r="21" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="137" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="149"/>
+      <c r="D21" s="141">
         <v>0.9</v>
       </c>
-      <c r="E21" s="124"/>
+      <c r="E21" s="142"/>
       <c r="F21" s="29"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="30"/>
-      <c r="L21" s="138"/>
-      <c r="M21" s="139"/>
-      <c r="N21" s="139"/>
-      <c r="O21" s="139"/>
-      <c r="P21" s="139"/>
-      <c r="Q21" s="140"/>
+      <c r="L21" s="156"/>
+      <c r="M21" s="157"/>
+      <c r="N21" s="157"/>
+      <c r="O21" s="157"/>
+      <c r="P21" s="157"/>
+      <c r="Q21" s="158"/>
       <c r="R21" s="29"/>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
@@ -3724,23 +4201,23 @@
       <c r="AY21" s="34"/>
       <c r="AZ21" s="34"/>
       <c r="BA21" s="35"/>
-      <c r="BB21" s="93" t="s">
-        <v>115</v>
-      </c>
-      <c r="BC21" s="94"/>
-      <c r="BD21" s="94"/>
-      <c r="BE21" s="94"/>
-      <c r="BF21" s="94"/>
-      <c r="BG21" s="95"/>
-      <c r="BH21" s="93" t="s">
-        <v>115</v>
-      </c>
-      <c r="BI21" s="94"/>
-      <c r="BJ21" s="94"/>
-      <c r="BK21" s="94"/>
-      <c r="BL21" s="94"/>
-      <c r="BM21" s="95"/>
-      <c r="BN21" s="184"/>
+      <c r="BB21" s="111" t="s">
+        <v>114</v>
+      </c>
+      <c r="BC21" s="112"/>
+      <c r="BD21" s="112"/>
+      <c r="BE21" s="112"/>
+      <c r="BF21" s="112"/>
+      <c r="BG21" s="113"/>
+      <c r="BH21" s="111" t="s">
+        <v>114</v>
+      </c>
+      <c r="BI21" s="112"/>
+      <c r="BJ21" s="112"/>
+      <c r="BK21" s="112"/>
+      <c r="BL21" s="112"/>
+      <c r="BM21" s="113"/>
+      <c r="BN21" s="99"/>
       <c r="BO21" s="6"/>
       <c r="BP21" s="6"/>
       <c r="BQ21" s="6"/>
@@ -3752,24 +4229,54 @@
       <c r="BW21" s="6"/>
       <c r="BX21" s="6"/>
       <c r="BY21" s="30"/>
+      <c r="BZ21" s="29"/>
+      <c r="CA21" s="6"/>
+      <c r="CB21" s="6"/>
+      <c r="CC21" s="6"/>
+      <c r="CD21" s="6"/>
+      <c r="CE21" s="30"/>
+      <c r="CF21" s="29"/>
+      <c r="CG21" s="6"/>
+      <c r="CH21" s="6"/>
+      <c r="CI21" s="6"/>
+      <c r="CJ21" s="6"/>
+      <c r="CK21" s="30"/>
+      <c r="CL21" s="29"/>
+      <c r="CM21" s="6"/>
+      <c r="CN21" s="6"/>
+      <c r="CO21" s="6"/>
+      <c r="CP21" s="6"/>
+      <c r="CQ21" s="30"/>
+      <c r="CR21" s="29"/>
+      <c r="CS21" s="6"/>
+      <c r="CT21" s="6"/>
+      <c r="CU21" s="6"/>
+      <c r="CV21" s="6"/>
+      <c r="CW21" s="30"/>
+      <c r="CX21" s="29"/>
+      <c r="CY21" s="6"/>
+      <c r="CZ21" s="6"/>
+      <c r="DA21" s="6"/>
+      <c r="DB21" s="6"/>
+      <c r="DC21" s="30"/>
     </row>
-    <row r="22" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="118"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="126"/>
+    <row r="22" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="136"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="144"/>
       <c r="F22" s="38"/>
       <c r="G22" s="39"/>
       <c r="H22" s="39"/>
       <c r="I22" s="39"/>
       <c r="J22" s="39"/>
       <c r="K22" s="40"/>
-      <c r="L22" s="141"/>
-      <c r="M22" s="142"/>
-      <c r="N22" s="142"/>
-      <c r="O22" s="142"/>
-      <c r="P22" s="142"/>
-      <c r="Q22" s="143"/>
+      <c r="L22" s="159"/>
+      <c r="M22" s="160"/>
+      <c r="N22" s="160"/>
+      <c r="O22" s="160"/>
+      <c r="P22" s="160"/>
+      <c r="Q22" s="161"/>
       <c r="R22" s="38"/>
       <c r="S22" s="39"/>
       <c r="T22" s="39"/>
@@ -3806,19 +4313,19 @@
       <c r="AY22" s="39"/>
       <c r="AZ22" s="39"/>
       <c r="BA22" s="40"/>
-      <c r="BB22" s="96"/>
-      <c r="BC22" s="97"/>
-      <c r="BD22" s="97"/>
-      <c r="BE22" s="97"/>
-      <c r="BF22" s="97"/>
-      <c r="BG22" s="98"/>
-      <c r="BH22" s="96"/>
-      <c r="BI22" s="97"/>
-      <c r="BJ22" s="97"/>
-      <c r="BK22" s="97"/>
-      <c r="BL22" s="97"/>
-      <c r="BM22" s="98"/>
-      <c r="BN22" s="181"/>
+      <c r="BB22" s="114"/>
+      <c r="BC22" s="115"/>
+      <c r="BD22" s="115"/>
+      <c r="BE22" s="115"/>
+      <c r="BF22" s="115"/>
+      <c r="BG22" s="116"/>
+      <c r="BH22" s="114"/>
+      <c r="BI22" s="115"/>
+      <c r="BJ22" s="115"/>
+      <c r="BK22" s="115"/>
+      <c r="BL22" s="115"/>
+      <c r="BM22" s="116"/>
+      <c r="BN22" s="96"/>
       <c r="BO22" s="39"/>
       <c r="BP22" s="39"/>
       <c r="BQ22" s="39"/>
@@ -3830,16 +4337,46 @@
       <c r="BW22" s="39"/>
       <c r="BX22" s="39"/>
       <c r="BY22" s="40"/>
+      <c r="BZ22" s="38"/>
+      <c r="CA22" s="39"/>
+      <c r="CB22" s="39"/>
+      <c r="CC22" s="39"/>
+      <c r="CD22" s="39"/>
+      <c r="CE22" s="40"/>
+      <c r="CF22" s="38"/>
+      <c r="CG22" s="39"/>
+      <c r="CH22" s="39"/>
+      <c r="CI22" s="39"/>
+      <c r="CJ22" s="39"/>
+      <c r="CK22" s="40"/>
+      <c r="CL22" s="38"/>
+      <c r="CM22" s="39"/>
+      <c r="CN22" s="39"/>
+      <c r="CO22" s="39"/>
+      <c r="CP22" s="39"/>
+      <c r="CQ22" s="40"/>
+      <c r="CR22" s="38"/>
+      <c r="CS22" s="39"/>
+      <c r="CT22" s="39"/>
+      <c r="CU22" s="39"/>
+      <c r="CV22" s="39"/>
+      <c r="CW22" s="40"/>
+      <c r="CX22" s="38"/>
+      <c r="CY22" s="39"/>
+      <c r="CZ22" s="39"/>
+      <c r="DA22" s="39"/>
+      <c r="DB22" s="39"/>
+      <c r="DC22" s="40"/>
     </row>
-    <row r="23" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="119" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="122"/>
-      <c r="D23" s="123">
+    <row r="23" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="137" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="140"/>
+      <c r="D23" s="141">
         <v>0.9</v>
       </c>
-      <c r="E23" s="127"/>
+      <c r="E23" s="145"/>
       <c r="F23" s="29"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -3870,12 +4407,12 @@
       <c r="AG23" s="34"/>
       <c r="AH23" s="34"/>
       <c r="AI23" s="35"/>
-      <c r="AJ23" s="138"/>
-      <c r="AK23" s="139"/>
-      <c r="AL23" s="139"/>
-      <c r="AM23" s="139"/>
-      <c r="AN23" s="139"/>
-      <c r="AO23" s="140"/>
+      <c r="AJ23" s="156"/>
+      <c r="AK23" s="157"/>
+      <c r="AL23" s="157"/>
+      <c r="AM23" s="157"/>
+      <c r="AN23" s="157"/>
+      <c r="AO23" s="158"/>
       <c r="AP23" s="29"/>
       <c r="AQ23" s="6"/>
       <c r="AR23" s="6"/>
@@ -3900,26 +4437,56 @@
       <c r="BK23" s="78"/>
       <c r="BL23" s="78"/>
       <c r="BM23" s="79"/>
-      <c r="BN23" s="111" t="s">
-        <v>121</v>
-      </c>
-      <c r="BO23" s="112"/>
-      <c r="BP23" s="112"/>
-      <c r="BQ23" s="112"/>
-      <c r="BR23" s="112"/>
-      <c r="BS23" s="113"/>
-      <c r="BT23" s="184"/>
+      <c r="BN23" s="129" t="s">
+        <v>120</v>
+      </c>
+      <c r="BO23" s="130"/>
+      <c r="BP23" s="130"/>
+      <c r="BQ23" s="130"/>
+      <c r="BR23" s="130"/>
+      <c r="BS23" s="131"/>
+      <c r="BT23" s="99"/>
       <c r="BU23" s="6"/>
       <c r="BV23" s="6"/>
       <c r="BW23" s="6"/>
       <c r="BX23" s="6"/>
       <c r="BY23" s="30"/>
+      <c r="BZ23" s="29"/>
+      <c r="CA23" s="6"/>
+      <c r="CB23" s="6"/>
+      <c r="CC23" s="6"/>
+      <c r="CD23" s="6"/>
+      <c r="CE23" s="30"/>
+      <c r="CF23" s="29"/>
+      <c r="CG23" s="6"/>
+      <c r="CH23" s="6"/>
+      <c r="CI23" s="6"/>
+      <c r="CJ23" s="6"/>
+      <c r="CK23" s="30"/>
+      <c r="CL23" s="29"/>
+      <c r="CM23" s="6"/>
+      <c r="CN23" s="6"/>
+      <c r="CO23" s="6"/>
+      <c r="CP23" s="6"/>
+      <c r="CQ23" s="30"/>
+      <c r="CR23" s="29"/>
+      <c r="CS23" s="6"/>
+      <c r="CT23" s="6"/>
+      <c r="CU23" s="6"/>
+      <c r="CV23" s="6"/>
+      <c r="CW23" s="30"/>
+      <c r="CX23" s="29"/>
+      <c r="CY23" s="6"/>
+      <c r="CZ23" s="6"/>
+      <c r="DA23" s="6"/>
+      <c r="DB23" s="6"/>
+      <c r="DC23" s="30"/>
     </row>
-    <row r="24" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="118"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="128"/>
+    <row r="24" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="136"/>
+      <c r="C24" s="139"/>
+      <c r="D24" s="143"/>
+      <c r="E24" s="146"/>
       <c r="F24" s="38"/>
       <c r="G24" s="39"/>
       <c r="H24" s="39"/>
@@ -3950,12 +4517,12 @@
       <c r="AG24" s="39"/>
       <c r="AH24" s="39"/>
       <c r="AI24" s="40"/>
-      <c r="AJ24" s="141"/>
-      <c r="AK24" s="142"/>
-      <c r="AL24" s="142"/>
-      <c r="AM24" s="142"/>
-      <c r="AN24" s="142"/>
-      <c r="AO24" s="143"/>
+      <c r="AJ24" s="159"/>
+      <c r="AK24" s="160"/>
+      <c r="AL24" s="160"/>
+      <c r="AM24" s="160"/>
+      <c r="AN24" s="160"/>
+      <c r="AO24" s="161"/>
       <c r="AP24" s="38"/>
       <c r="AQ24" s="39"/>
       <c r="AR24" s="39"/>
@@ -3980,28 +4547,58 @@
       <c r="BK24" s="80"/>
       <c r="BL24" s="80"/>
       <c r="BM24" s="81"/>
-      <c r="BN24" s="102"/>
-      <c r="BO24" s="103"/>
-      <c r="BP24" s="103"/>
-      <c r="BQ24" s="103"/>
-      <c r="BR24" s="103"/>
-      <c r="BS24" s="104"/>
-      <c r="BT24" s="181"/>
+      <c r="BN24" s="120"/>
+      <c r="BO24" s="121"/>
+      <c r="BP24" s="121"/>
+      <c r="BQ24" s="121"/>
+      <c r="BR24" s="121"/>
+      <c r="BS24" s="122"/>
+      <c r="BT24" s="96"/>
       <c r="BU24" s="39"/>
       <c r="BV24" s="39"/>
       <c r="BW24" s="39"/>
       <c r="BX24" s="39"/>
       <c r="BY24" s="40"/>
+      <c r="BZ24" s="38"/>
+      <c r="CA24" s="39"/>
+      <c r="CB24" s="39"/>
+      <c r="CC24" s="39"/>
+      <c r="CD24" s="39"/>
+      <c r="CE24" s="40"/>
+      <c r="CF24" s="38"/>
+      <c r="CG24" s="39"/>
+      <c r="CH24" s="39"/>
+      <c r="CI24" s="39"/>
+      <c r="CJ24" s="39"/>
+      <c r="CK24" s="40"/>
+      <c r="CL24" s="38"/>
+      <c r="CM24" s="39"/>
+      <c r="CN24" s="39"/>
+      <c r="CO24" s="39"/>
+      <c r="CP24" s="39"/>
+      <c r="CQ24" s="40"/>
+      <c r="CR24" s="38"/>
+      <c r="CS24" s="39"/>
+      <c r="CT24" s="39"/>
+      <c r="CU24" s="39"/>
+      <c r="CV24" s="39"/>
+      <c r="CW24" s="40"/>
+      <c r="CX24" s="38"/>
+      <c r="CY24" s="39"/>
+      <c r="CZ24" s="39"/>
+      <c r="DA24" s="39"/>
+      <c r="DB24" s="39"/>
+      <c r="DC24" s="40"/>
     </row>
-    <row r="25" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="119" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="131"/>
-      <c r="D25" s="123">
+    <row r="25" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="137" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="149"/>
+      <c r="D25" s="141">
         <v>0.8</v>
       </c>
-      <c r="E25" s="124"/>
+      <c r="E25" s="142"/>
       <c r="F25" s="29"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -4032,66 +4629,96 @@
       <c r="AG25" s="78"/>
       <c r="AH25" s="78"/>
       <c r="AI25" s="79"/>
-      <c r="AJ25" s="111" t="s">
+      <c r="AJ25" s="129" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK25" s="130"/>
+      <c r="AL25" s="130"/>
+      <c r="AM25" s="130"/>
+      <c r="AN25" s="130"/>
+      <c r="AO25" s="131"/>
+      <c r="AP25" s="111" t="s">
         <v>116</v>
       </c>
-      <c r="AK25" s="112"/>
-      <c r="AL25" s="112"/>
-      <c r="AM25" s="112"/>
-      <c r="AN25" s="112"/>
-      <c r="AO25" s="113"/>
-      <c r="AP25" s="93" t="s">
+      <c r="AQ25" s="112"/>
+      <c r="AR25" s="112"/>
+      <c r="AS25" s="112"/>
+      <c r="AT25" s="112"/>
+      <c r="AU25" s="113"/>
+      <c r="AV25" s="129" t="s">
         <v>117</v>
       </c>
-      <c r="AQ25" s="94"/>
-      <c r="AR25" s="94"/>
-      <c r="AS25" s="94"/>
-      <c r="AT25" s="94"/>
-      <c r="AU25" s="95"/>
-      <c r="AV25" s="111" t="s">
+      <c r="AW25" s="130"/>
+      <c r="AX25" s="130"/>
+      <c r="AY25" s="130"/>
+      <c r="AZ25" s="130"/>
+      <c r="BA25" s="131"/>
+      <c r="BB25" s="129" t="s">
         <v>118</v>
       </c>
-      <c r="AW25" s="112"/>
-      <c r="AX25" s="112"/>
-      <c r="AY25" s="112"/>
-      <c r="AZ25" s="112"/>
-      <c r="BA25" s="113"/>
-      <c r="BB25" s="111" t="s">
-        <v>119</v>
-      </c>
-      <c r="BC25" s="112"/>
-      <c r="BD25" s="112"/>
-      <c r="BE25" s="112"/>
-      <c r="BF25" s="112"/>
-      <c r="BG25" s="113"/>
-      <c r="BH25" s="111" t="s">
-        <v>119</v>
-      </c>
-      <c r="BI25" s="112"/>
-      <c r="BJ25" s="112"/>
-      <c r="BK25" s="112"/>
-      <c r="BL25" s="112"/>
-      <c r="BM25" s="113"/>
-      <c r="BN25" s="111" t="s">
-        <v>92</v>
-      </c>
-      <c r="BO25" s="112"/>
-      <c r="BP25" s="112"/>
-      <c r="BQ25" s="112"/>
-      <c r="BR25" s="112"/>
-      <c r="BS25" s="113"/>
+      <c r="BC25" s="130"/>
+      <c r="BD25" s="130"/>
+      <c r="BE25" s="130"/>
+      <c r="BF25" s="130"/>
+      <c r="BG25" s="131"/>
+      <c r="BH25" s="129" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI25" s="130"/>
+      <c r="BJ25" s="130"/>
+      <c r="BK25" s="130"/>
+      <c r="BL25" s="130"/>
+      <c r="BM25" s="131"/>
+      <c r="BN25" s="129" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO25" s="130"/>
+      <c r="BP25" s="130"/>
+      <c r="BQ25" s="130"/>
+      <c r="BR25" s="130"/>
+      <c r="BS25" s="131"/>
       <c r="BT25" s="29"/>
       <c r="BU25" s="6"/>
       <c r="BV25" s="6"/>
       <c r="BW25" s="6"/>
       <c r="BX25" s="6"/>
       <c r="BY25" s="30"/>
+      <c r="BZ25" s="29"/>
+      <c r="CA25" s="6"/>
+      <c r="CB25" s="6"/>
+      <c r="CC25" s="6"/>
+      <c r="CD25" s="6"/>
+      <c r="CE25" s="30"/>
+      <c r="CF25" s="29"/>
+      <c r="CG25" s="6"/>
+      <c r="CH25" s="6"/>
+      <c r="CI25" s="6"/>
+      <c r="CJ25" s="6"/>
+      <c r="CK25" s="30"/>
+      <c r="CL25" s="29"/>
+      <c r="CM25" s="6"/>
+      <c r="CN25" s="6"/>
+      <c r="CO25" s="6"/>
+      <c r="CP25" s="6"/>
+      <c r="CQ25" s="30"/>
+      <c r="CR25" s="29"/>
+      <c r="CS25" s="6"/>
+      <c r="CT25" s="6"/>
+      <c r="CU25" s="6"/>
+      <c r="CV25" s="6"/>
+      <c r="CW25" s="30"/>
+      <c r="CX25" s="29"/>
+      <c r="CY25" s="6"/>
+      <c r="CZ25" s="6"/>
+      <c r="DA25" s="6"/>
+      <c r="DB25" s="6"/>
+      <c r="DC25" s="30"/>
     </row>
-    <row r="26" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="118"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="126"/>
+    <row r="26" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="136"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="144"/>
       <c r="F26" s="38"/>
       <c r="G26" s="39"/>
       <c r="H26" s="39"/>
@@ -4122,58 +4749,88 @@
       <c r="AG26" s="80"/>
       <c r="AH26" s="80"/>
       <c r="AI26" s="81"/>
-      <c r="AJ26" s="102"/>
-      <c r="AK26" s="103"/>
-      <c r="AL26" s="103"/>
-      <c r="AM26" s="103"/>
-      <c r="AN26" s="103"/>
-      <c r="AO26" s="104"/>
-      <c r="AP26" s="96"/>
-      <c r="AQ26" s="97"/>
-      <c r="AR26" s="97"/>
-      <c r="AS26" s="97"/>
-      <c r="AT26" s="97"/>
-      <c r="AU26" s="98"/>
-      <c r="AV26" s="102"/>
-      <c r="AW26" s="103"/>
-      <c r="AX26" s="103"/>
-      <c r="AY26" s="103"/>
-      <c r="AZ26" s="103"/>
-      <c r="BA26" s="104"/>
-      <c r="BB26" s="102"/>
-      <c r="BC26" s="103"/>
-      <c r="BD26" s="103"/>
-      <c r="BE26" s="103"/>
-      <c r="BF26" s="103"/>
-      <c r="BG26" s="104"/>
-      <c r="BH26" s="102"/>
-      <c r="BI26" s="103"/>
-      <c r="BJ26" s="103"/>
-      <c r="BK26" s="103"/>
-      <c r="BL26" s="103"/>
-      <c r="BM26" s="104"/>
-      <c r="BN26" s="102"/>
-      <c r="BO26" s="103"/>
-      <c r="BP26" s="103"/>
-      <c r="BQ26" s="103"/>
-      <c r="BR26" s="103"/>
-      <c r="BS26" s="104"/>
+      <c r="AJ26" s="120"/>
+      <c r="AK26" s="121"/>
+      <c r="AL26" s="121"/>
+      <c r="AM26" s="121"/>
+      <c r="AN26" s="121"/>
+      <c r="AO26" s="122"/>
+      <c r="AP26" s="114"/>
+      <c r="AQ26" s="115"/>
+      <c r="AR26" s="115"/>
+      <c r="AS26" s="115"/>
+      <c r="AT26" s="115"/>
+      <c r="AU26" s="116"/>
+      <c r="AV26" s="120"/>
+      <c r="AW26" s="121"/>
+      <c r="AX26" s="121"/>
+      <c r="AY26" s="121"/>
+      <c r="AZ26" s="121"/>
+      <c r="BA26" s="122"/>
+      <c r="BB26" s="120"/>
+      <c r="BC26" s="121"/>
+      <c r="BD26" s="121"/>
+      <c r="BE26" s="121"/>
+      <c r="BF26" s="121"/>
+      <c r="BG26" s="122"/>
+      <c r="BH26" s="120"/>
+      <c r="BI26" s="121"/>
+      <c r="BJ26" s="121"/>
+      <c r="BK26" s="121"/>
+      <c r="BL26" s="121"/>
+      <c r="BM26" s="122"/>
+      <c r="BN26" s="120"/>
+      <c r="BO26" s="121"/>
+      <c r="BP26" s="121"/>
+      <c r="BQ26" s="121"/>
+      <c r="BR26" s="121"/>
+      <c r="BS26" s="122"/>
       <c r="BT26" s="38"/>
       <c r="BU26" s="39"/>
       <c r="BV26" s="39"/>
       <c r="BW26" s="39"/>
       <c r="BX26" s="39"/>
       <c r="BY26" s="40"/>
+      <c r="BZ26" s="38"/>
+      <c r="CA26" s="39"/>
+      <c r="CB26" s="39"/>
+      <c r="CC26" s="39"/>
+      <c r="CD26" s="39"/>
+      <c r="CE26" s="40"/>
+      <c r="CF26" s="38"/>
+      <c r="CG26" s="39"/>
+      <c r="CH26" s="39"/>
+      <c r="CI26" s="39"/>
+      <c r="CJ26" s="39"/>
+      <c r="CK26" s="40"/>
+      <c r="CL26" s="38"/>
+      <c r="CM26" s="39"/>
+      <c r="CN26" s="39"/>
+      <c r="CO26" s="39"/>
+      <c r="CP26" s="39"/>
+      <c r="CQ26" s="40"/>
+      <c r="CR26" s="38"/>
+      <c r="CS26" s="39"/>
+      <c r="CT26" s="39"/>
+      <c r="CU26" s="39"/>
+      <c r="CV26" s="39"/>
+      <c r="CW26" s="40"/>
+      <c r="CX26" s="38"/>
+      <c r="CY26" s="39"/>
+      <c r="CZ26" s="39"/>
+      <c r="DA26" s="39"/>
+      <c r="DB26" s="39"/>
+      <c r="DC26" s="40"/>
     </row>
-    <row r="27" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="119" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="122"/>
-      <c r="D27" s="123">
+    <row r="27" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="137" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="140"/>
+      <c r="D27" s="141">
         <v>0.8</v>
       </c>
-      <c r="E27" s="127"/>
+      <c r="E27" s="145"/>
       <c r="F27" s="29"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -4204,22 +4861,22 @@
       <c r="AG27" s="34"/>
       <c r="AH27" s="34"/>
       <c r="AI27" s="35"/>
-      <c r="AJ27" s="93" t="s">
+      <c r="AJ27" s="111" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK27" s="112"/>
+      <c r="AL27" s="112"/>
+      <c r="AM27" s="112"/>
+      <c r="AN27" s="112"/>
+      <c r="AO27" s="113"/>
+      <c r="AP27" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="AK27" s="94"/>
-      <c r="AL27" s="94"/>
-      <c r="AM27" s="94"/>
-      <c r="AN27" s="94"/>
-      <c r="AO27" s="95"/>
-      <c r="AP27" s="93" t="s">
-        <v>121</v>
-      </c>
-      <c r="AQ27" s="94"/>
-      <c r="AR27" s="94"/>
-      <c r="AS27" s="94"/>
-      <c r="AT27" s="94"/>
-      <c r="AU27" s="95"/>
+      <c r="AQ27" s="112"/>
+      <c r="AR27" s="112"/>
+      <c r="AS27" s="112"/>
+      <c r="AT27" s="112"/>
+      <c r="AU27" s="113"/>
       <c r="AV27" s="76"/>
       <c r="AW27" s="77"/>
       <c r="AX27" s="77"/>
@@ -4238,7 +4895,7 @@
       <c r="BK27" s="78"/>
       <c r="BL27" s="78"/>
       <c r="BM27" s="79"/>
-      <c r="BN27" s="29"/>
+      <c r="BN27" s="191"/>
       <c r="BO27" s="6"/>
       <c r="BP27" s="6"/>
       <c r="BQ27" s="6"/>
@@ -4250,12 +4907,42 @@
       <c r="BW27" s="6"/>
       <c r="BX27" s="6"/>
       <c r="BY27" s="30"/>
+      <c r="BZ27" s="29"/>
+      <c r="CA27" s="6"/>
+      <c r="CB27" s="6"/>
+      <c r="CC27" s="6"/>
+      <c r="CD27" s="6"/>
+      <c r="CE27" s="30"/>
+      <c r="CF27" s="29"/>
+      <c r="CG27" s="6"/>
+      <c r="CH27" s="6"/>
+      <c r="CI27" s="6"/>
+      <c r="CJ27" s="6"/>
+      <c r="CK27" s="30"/>
+      <c r="CL27" s="29"/>
+      <c r="CM27" s="6"/>
+      <c r="CN27" s="6"/>
+      <c r="CO27" s="6"/>
+      <c r="CP27" s="6"/>
+      <c r="CQ27" s="30"/>
+      <c r="CR27" s="29"/>
+      <c r="CS27" s="6"/>
+      <c r="CT27" s="6"/>
+      <c r="CU27" s="6"/>
+      <c r="CV27" s="6"/>
+      <c r="CW27" s="30"/>
+      <c r="CX27" s="29"/>
+      <c r="CY27" s="6"/>
+      <c r="CZ27" s="6"/>
+      <c r="DA27" s="6"/>
+      <c r="DB27" s="6"/>
+      <c r="DC27" s="30"/>
     </row>
-    <row r="28" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="118"/>
-      <c r="C28" s="121"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="128"/>
+    <row r="28" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="136"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="146"/>
       <c r="F28" s="38"/>
       <c r="G28" s="39"/>
       <c r="H28" s="39"/>
@@ -4286,18 +4973,18 @@
       <c r="AG28" s="39"/>
       <c r="AH28" s="39"/>
       <c r="AI28" s="40"/>
-      <c r="AJ28" s="96"/>
-      <c r="AK28" s="97"/>
-      <c r="AL28" s="97"/>
-      <c r="AM28" s="97"/>
-      <c r="AN28" s="97"/>
-      <c r="AO28" s="98"/>
-      <c r="AP28" s="96"/>
-      <c r="AQ28" s="97"/>
-      <c r="AR28" s="97"/>
-      <c r="AS28" s="97"/>
-      <c r="AT28" s="97"/>
-      <c r="AU28" s="98"/>
+      <c r="AJ28" s="114"/>
+      <c r="AK28" s="115"/>
+      <c r="AL28" s="115"/>
+      <c r="AM28" s="115"/>
+      <c r="AN28" s="115"/>
+      <c r="AO28" s="116"/>
+      <c r="AP28" s="114"/>
+      <c r="AQ28" s="115"/>
+      <c r="AR28" s="115"/>
+      <c r="AS28" s="115"/>
+      <c r="AT28" s="115"/>
+      <c r="AU28" s="116"/>
       <c r="AV28" s="65"/>
       <c r="AW28" s="66"/>
       <c r="AX28" s="66"/>
@@ -4316,7 +5003,7 @@
       <c r="BK28" s="80"/>
       <c r="BL28" s="80"/>
       <c r="BM28" s="81"/>
-      <c r="BN28" s="38"/>
+      <c r="BN28" s="192"/>
       <c r="BO28" s="39"/>
       <c r="BP28" s="39"/>
       <c r="BQ28" s="39"/>
@@ -4328,16 +5015,46 @@
       <c r="BW28" s="39"/>
       <c r="BX28" s="39"/>
       <c r="BY28" s="40"/>
+      <c r="BZ28" s="38"/>
+      <c r="CA28" s="39"/>
+      <c r="CB28" s="39"/>
+      <c r="CC28" s="39"/>
+      <c r="CD28" s="39"/>
+      <c r="CE28" s="40"/>
+      <c r="CF28" s="38"/>
+      <c r="CG28" s="39"/>
+      <c r="CH28" s="39"/>
+      <c r="CI28" s="39"/>
+      <c r="CJ28" s="39"/>
+      <c r="CK28" s="40"/>
+      <c r="CL28" s="38"/>
+      <c r="CM28" s="39"/>
+      <c r="CN28" s="39"/>
+      <c r="CO28" s="39"/>
+      <c r="CP28" s="39"/>
+      <c r="CQ28" s="40"/>
+      <c r="CR28" s="38"/>
+      <c r="CS28" s="39"/>
+      <c r="CT28" s="39"/>
+      <c r="CU28" s="39"/>
+      <c r="CV28" s="39"/>
+      <c r="CW28" s="40"/>
+      <c r="CX28" s="38"/>
+      <c r="CY28" s="39"/>
+      <c r="CZ28" s="39"/>
+      <c r="DA28" s="39"/>
+      <c r="DB28" s="39"/>
+      <c r="DC28" s="40"/>
     </row>
-    <row r="29" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="23"/>
-      <c r="D29" s="136">
+      <c r="D29" s="154">
         <v>0.8</v>
       </c>
-      <c r="E29" s="168"/>
+      <c r="E29" s="180"/>
       <c r="F29" s="38"/>
       <c r="G29" s="39"/>
       <c r="H29" s="39"/>
@@ -4404,22 +5121,52 @@
       <c r="BQ29" s="80"/>
       <c r="BR29" s="80"/>
       <c r="BS29" s="81"/>
-      <c r="BT29" s="38"/>
+      <c r="BT29" s="192"/>
       <c r="BU29" s="39"/>
       <c r="BV29" s="39"/>
       <c r="BW29" s="39"/>
       <c r="BX29" s="39"/>
       <c r="BY29" s="40"/>
+      <c r="BZ29" s="38"/>
+      <c r="CA29" s="39"/>
+      <c r="CB29" s="39"/>
+      <c r="CC29" s="39"/>
+      <c r="CD29" s="39"/>
+      <c r="CE29" s="40"/>
+      <c r="CF29" s="38"/>
+      <c r="CG29" s="39"/>
+      <c r="CH29" s="39"/>
+      <c r="CI29" s="39"/>
+      <c r="CJ29" s="39"/>
+      <c r="CK29" s="40"/>
+      <c r="CL29" s="38"/>
+      <c r="CM29" s="39"/>
+      <c r="CN29" s="39"/>
+      <c r="CO29" s="39"/>
+      <c r="CP29" s="39"/>
+      <c r="CQ29" s="40"/>
+      <c r="CR29" s="38"/>
+      <c r="CS29" s="39"/>
+      <c r="CT29" s="39"/>
+      <c r="CU29" s="39"/>
+      <c r="CV29" s="39"/>
+      <c r="CW29" s="40"/>
+      <c r="CX29" s="38"/>
+      <c r="CY29" s="39"/>
+      <c r="CZ29" s="39"/>
+      <c r="DA29" s="39"/>
+      <c r="DB29" s="39"/>
+      <c r="DC29" s="40"/>
     </row>
-    <row r="30" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="56" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="41"/>
-      <c r="D30" s="136">
+      <c r="D30" s="154">
         <v>0.5</v>
       </c>
-      <c r="E30" s="137"/>
+      <c r="E30" s="155"/>
       <c r="F30" s="42"/>
       <c r="G30" s="43"/>
       <c r="H30" s="43"/>
@@ -4480,30 +5227,62 @@
       <c r="BK30" s="72"/>
       <c r="BL30" s="72"/>
       <c r="BM30" s="72"/>
-      <c r="BN30" s="114" t="s">
-        <v>32</v>
-      </c>
-      <c r="BO30" s="115"/>
-      <c r="BP30" s="115"/>
-      <c r="BQ30" s="115"/>
-      <c r="BR30" s="115"/>
-      <c r="BS30" s="116"/>
+      <c r="BN30" s="132" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO30" s="133"/>
+      <c r="BP30" s="133"/>
+      <c r="BQ30" s="133"/>
+      <c r="BR30" s="133"/>
+      <c r="BS30" s="134"/>
       <c r="BT30" s="71"/>
       <c r="BU30" s="72"/>
       <c r="BV30" s="72"/>
       <c r="BW30" s="72"/>
       <c r="BX30" s="72"/>
       <c r="BY30" s="73"/>
+      <c r="BZ30" s="193"/>
+      <c r="CA30" s="43"/>
+      <c r="CB30" s="43"/>
+      <c r="CC30" s="43"/>
+      <c r="CD30" s="43"/>
+      <c r="CE30" s="44"/>
+      <c r="CF30" s="42"/>
+      <c r="CG30" s="43"/>
+      <c r="CH30" s="43"/>
+      <c r="CI30" s="43"/>
+      <c r="CJ30" s="43"/>
+      <c r="CK30" s="44"/>
+      <c r="CL30" s="42"/>
+      <c r="CM30" s="43"/>
+      <c r="CN30" s="43"/>
+      <c r="CO30" s="43"/>
+      <c r="CP30" s="43"/>
+      <c r="CQ30" s="44"/>
+      <c r="CR30" s="108" t="s">
+        <v>132</v>
+      </c>
+      <c r="CS30" s="109"/>
+      <c r="CT30" s="109"/>
+      <c r="CU30" s="109"/>
+      <c r="CV30" s="109"/>
+      <c r="CW30" s="110"/>
+      <c r="CX30" s="42"/>
+      <c r="CY30" s="43"/>
+      <c r="CZ30" s="43"/>
+      <c r="DA30" s="43"/>
+      <c r="DB30" s="43"/>
+      <c r="DC30" s="44"/>
     </row>
-    <row r="31" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="57" t="s">
         <v>1</v>
       </c>
       <c r="C31" s="47"/>
-      <c r="D31" s="123">
+      <c r="D31" s="141">
         <v>0</v>
       </c>
-      <c r="E31" s="124"/>
+      <c r="E31" s="142"/>
       <c r="F31" s="29"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -4576,16 +5355,50 @@
       <c r="BW31" s="6"/>
       <c r="BX31" s="6"/>
       <c r="BY31" s="30"/>
+      <c r="BZ31" s="29"/>
+      <c r="CA31" s="6"/>
+      <c r="CB31" s="6"/>
+      <c r="CC31" s="6"/>
+      <c r="CD31" s="6"/>
+      <c r="CE31" s="30"/>
+      <c r="CF31" s="29"/>
+      <c r="CG31" s="6"/>
+      <c r="CH31" s="6"/>
+      <c r="CI31" s="6"/>
+      <c r="CJ31" s="6"/>
+      <c r="CK31" s="30"/>
+      <c r="CL31" s="108" t="s">
+        <v>131</v>
+      </c>
+      <c r="CM31" s="109"/>
+      <c r="CN31" s="109"/>
+      <c r="CO31" s="109"/>
+      <c r="CP31" s="109"/>
+      <c r="CQ31" s="110"/>
+      <c r="CR31" s="29"/>
+      <c r="CS31" s="6"/>
+      <c r="CT31" s="6"/>
+      <c r="CU31" s="6"/>
+      <c r="CV31" s="6"/>
+      <c r="CW31" s="30"/>
+      <c r="CX31" s="108" t="s">
+        <v>130</v>
+      </c>
+      <c r="CY31" s="109"/>
+      <c r="CZ31" s="109"/>
+      <c r="DA31" s="109"/>
+      <c r="DB31" s="109"/>
+      <c r="DC31" s="110"/>
     </row>
-    <row r="32" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C32" s="48"/>
-      <c r="D32" s="132">
+      <c r="D32" s="150">
         <v>0.8</v>
       </c>
-      <c r="E32" s="133"/>
+      <c r="E32" s="151"/>
       <c r="F32" s="49"/>
       <c r="G32" s="50"/>
       <c r="H32" s="50"/>
@@ -4598,62 +5411,62 @@
       <c r="O32" s="54"/>
       <c r="P32" s="50"/>
       <c r="Q32" s="50"/>
-      <c r="R32" s="144" t="s">
-        <v>99</v>
-      </c>
-      <c r="S32" s="145"/>
-      <c r="T32" s="145"/>
-      <c r="U32" s="145"/>
-      <c r="V32" s="145"/>
-      <c r="W32" s="146"/>
-      <c r="X32" s="144" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y32" s="145"/>
-      <c r="Z32" s="145"/>
-      <c r="AA32" s="145"/>
-      <c r="AB32" s="145"/>
-      <c r="AC32" s="146"/>
-      <c r="AD32" s="153" t="s">
-        <v>113</v>
-      </c>
-      <c r="AE32" s="154"/>
-      <c r="AF32" s="154"/>
-      <c r="AG32" s="154"/>
-      <c r="AH32" s="154"/>
-      <c r="AI32" s="155"/>
-      <c r="AJ32" s="153" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK32" s="154"/>
-      <c r="AL32" s="154"/>
-      <c r="AM32" s="154"/>
-      <c r="AN32" s="154"/>
-      <c r="AO32" s="155"/>
-      <c r="AP32" s="144" t="s">
+      <c r="R32" s="162" t="s">
+        <v>98</v>
+      </c>
+      <c r="S32" s="163"/>
+      <c r="T32" s="163"/>
+      <c r="U32" s="163"/>
+      <c r="V32" s="163"/>
+      <c r="W32" s="164"/>
+      <c r="X32" s="162" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y32" s="163"/>
+      <c r="Z32" s="163"/>
+      <c r="AA32" s="163"/>
+      <c r="AB32" s="163"/>
+      <c r="AC32" s="164"/>
+      <c r="AD32" s="165" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE32" s="166"/>
+      <c r="AF32" s="166"/>
+      <c r="AG32" s="166"/>
+      <c r="AH32" s="166"/>
+      <c r="AI32" s="167"/>
+      <c r="AJ32" s="165" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK32" s="166"/>
+      <c r="AL32" s="166"/>
+      <c r="AM32" s="166"/>
+      <c r="AN32" s="166"/>
+      <c r="AO32" s="167"/>
+      <c r="AP32" s="162" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ32" s="163"/>
+      <c r="AR32" s="163"/>
+      <c r="AS32" s="163"/>
+      <c r="AT32" s="163"/>
+      <c r="AU32" s="164"/>
+      <c r="AV32" s="165" t="s">
         <v>123</v>
       </c>
-      <c r="AQ32" s="145"/>
-      <c r="AR32" s="145"/>
-      <c r="AS32" s="145"/>
-      <c r="AT32" s="145"/>
-      <c r="AU32" s="146"/>
-      <c r="AV32" s="153" t="s">
-        <v>124</v>
-      </c>
-      <c r="AW32" s="154"/>
-      <c r="AX32" s="154"/>
-      <c r="AY32" s="154"/>
-      <c r="AZ32" s="154"/>
-      <c r="BA32" s="155"/>
-      <c r="BB32" s="153" t="s">
-        <v>32</v>
-      </c>
-      <c r="BC32" s="154"/>
-      <c r="BD32" s="154"/>
-      <c r="BE32" s="154"/>
-      <c r="BF32" s="154"/>
-      <c r="BG32" s="155"/>
+      <c r="AW32" s="166"/>
+      <c r="AX32" s="166"/>
+      <c r="AY32" s="166"/>
+      <c r="AZ32" s="166"/>
+      <c r="BA32" s="167"/>
+      <c r="BB32" s="165" t="s">
+        <v>31</v>
+      </c>
+      <c r="BC32" s="166"/>
+      <c r="BD32" s="166"/>
+      <c r="BE32" s="166"/>
+      <c r="BF32" s="166"/>
+      <c r="BG32" s="167"/>
       <c r="BH32" s="87"/>
       <c r="BI32" s="88"/>
       <c r="BJ32" s="88"/>
@@ -4666,12 +5479,42 @@
       <c r="BQ32" s="85"/>
       <c r="BR32" s="85"/>
       <c r="BS32" s="86"/>
-      <c r="BT32" s="49"/>
+      <c r="BT32" s="190"/>
       <c r="BU32" s="50"/>
       <c r="BV32" s="50"/>
       <c r="BW32" s="50"/>
       <c r="BX32" s="50"/>
       <c r="BY32" s="51"/>
+      <c r="BZ32" s="49"/>
+      <c r="CA32" s="50"/>
+      <c r="CB32" s="50"/>
+      <c r="CC32" s="50"/>
+      <c r="CD32" s="50"/>
+      <c r="CE32" s="51"/>
+      <c r="CF32" s="49"/>
+      <c r="CG32" s="50"/>
+      <c r="CH32" s="50"/>
+      <c r="CI32" s="50"/>
+      <c r="CJ32" s="50"/>
+      <c r="CK32" s="51"/>
+      <c r="CL32" s="49"/>
+      <c r="CM32" s="50"/>
+      <c r="CN32" s="50"/>
+      <c r="CO32" s="50"/>
+      <c r="CP32" s="50"/>
+      <c r="CQ32" s="51"/>
+      <c r="CR32" s="49"/>
+      <c r="CS32" s="50"/>
+      <c r="CT32" s="50"/>
+      <c r="CU32" s="50"/>
+      <c r="CV32" s="50"/>
+      <c r="CW32" s="51"/>
+      <c r="CX32" s="49"/>
+      <c r="CY32" s="50"/>
+      <c r="CZ32" s="50"/>
+      <c r="DA32" s="50"/>
+      <c r="DB32" s="50"/>
+      <c r="DC32" s="51"/>
     </row>
     <row r="33" spans="2:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="6"/>
@@ -4713,116 +5556,116 @@
       <c r="C34" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="167" t="s">
+      <c r="D34" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="167"/>
-      <c r="F34" s="148" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="147"/>
-      <c r="H34" s="147"/>
-      <c r="I34" s="147"/>
-      <c r="J34" s="147"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="147" t="s">
+      <c r="E34" s="179"/>
+      <c r="F34" s="105" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="106"/>
+      <c r="J34" s="106"/>
+      <c r="K34" s="107"/>
+      <c r="L34" s="106" t="s">
+        <v>85</v>
+      </c>
+      <c r="M34" s="106"/>
+      <c r="N34" s="106"/>
+      <c r="O34" s="106"/>
+      <c r="P34" s="106"/>
+      <c r="Q34" s="106"/>
+      <c r="R34" s="105" t="s">
         <v>86</v>
       </c>
-      <c r="M34" s="147"/>
-      <c r="N34" s="147"/>
-      <c r="O34" s="147"/>
-      <c r="P34" s="147"/>
-      <c r="Q34" s="147"/>
-      <c r="R34" s="148" t="s">
+      <c r="S34" s="106"/>
+      <c r="T34" s="106"/>
+      <c r="U34" s="106"/>
+      <c r="V34" s="106"/>
+      <c r="W34" s="107"/>
+      <c r="X34" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="S34" s="147"/>
-      <c r="T34" s="147"/>
-      <c r="U34" s="147"/>
-      <c r="V34" s="147"/>
-      <c r="W34" s="149"/>
-      <c r="X34" s="147" t="s">
+      <c r="Y34" s="106"/>
+      <c r="Z34" s="106"/>
+      <c r="AA34" s="106"/>
+      <c r="AB34" s="106"/>
+      <c r="AC34" s="106"/>
+      <c r="AD34" s="102" t="s">
         <v>88</v>
       </c>
-      <c r="Y34" s="147"/>
-      <c r="Z34" s="147"/>
-      <c r="AA34" s="147"/>
-      <c r="AB34" s="147"/>
-      <c r="AC34" s="147"/>
-      <c r="AD34" s="150" t="s">
+      <c r="AE34" s="103"/>
+      <c r="AF34" s="103"/>
+      <c r="AG34" s="103"/>
+      <c r="AH34" s="103"/>
+      <c r="AI34" s="104"/>
+      <c r="AJ34" s="105" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK34" s="106"/>
+      <c r="AL34" s="106"/>
+      <c r="AM34" s="106"/>
+      <c r="AN34" s="106"/>
+      <c r="AO34" s="107"/>
+      <c r="AP34" s="106" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ34" s="106"/>
+      <c r="AR34" s="106"/>
+      <c r="AS34" s="106"/>
+      <c r="AT34" s="106"/>
+      <c r="AU34" s="106"/>
+      <c r="AV34" s="106" t="s">
         <v>89</v>
       </c>
-      <c r="AE34" s="151"/>
-      <c r="AF34" s="151"/>
-      <c r="AG34" s="151"/>
-      <c r="AH34" s="151"/>
-      <c r="AI34" s="152"/>
-      <c r="AJ34" s="148" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK34" s="147"/>
-      <c r="AL34" s="147"/>
-      <c r="AM34" s="147"/>
-      <c r="AN34" s="147"/>
-      <c r="AO34" s="149"/>
-      <c r="AP34" s="147" t="s">
-        <v>24</v>
-      </c>
-      <c r="AQ34" s="147"/>
-      <c r="AR34" s="147"/>
-      <c r="AS34" s="147"/>
-      <c r="AT34" s="147"/>
-      <c r="AU34" s="147"/>
-      <c r="AV34" s="147" t="s">
+      <c r="AW34" s="106"/>
+      <c r="AX34" s="106"/>
+      <c r="AY34" s="106"/>
+      <c r="AZ34" s="106"/>
+      <c r="BA34" s="106"/>
+      <c r="BB34" s="105" t="s">
         <v>90</v>
       </c>
-      <c r="AW34" s="147"/>
-      <c r="AX34" s="147"/>
-      <c r="AY34" s="147"/>
-      <c r="AZ34" s="147"/>
-      <c r="BA34" s="147"/>
-      <c r="BB34" s="148" t="s">
-        <v>91</v>
-      </c>
-      <c r="BC34" s="147"/>
-      <c r="BD34" s="147"/>
-      <c r="BE34" s="147"/>
-      <c r="BF34" s="147"/>
-      <c r="BG34" s="149"/>
-      <c r="BH34" s="147" t="s">
+      <c r="BC34" s="106"/>
+      <c r="BD34" s="106"/>
+      <c r="BE34" s="106"/>
+      <c r="BF34" s="106"/>
+      <c r="BG34" s="107"/>
+      <c r="BH34" s="106" t="s">
+        <v>28</v>
+      </c>
+      <c r="BI34" s="106"/>
+      <c r="BJ34" s="106"/>
+      <c r="BK34" s="106"/>
+      <c r="BL34" s="106"/>
+      <c r="BM34" s="106"/>
+      <c r="BN34" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="BI34" s="147"/>
-      <c r="BJ34" s="147"/>
-      <c r="BK34" s="147"/>
-      <c r="BL34" s="147"/>
-      <c r="BM34" s="147"/>
-      <c r="BN34" s="148" t="s">
+      <c r="BO34" s="106"/>
+      <c r="BP34" s="106"/>
+      <c r="BQ34" s="106"/>
+      <c r="BR34" s="106"/>
+      <c r="BS34" s="107"/>
+      <c r="BT34" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="BO34" s="147"/>
-      <c r="BP34" s="147"/>
-      <c r="BQ34" s="147"/>
-      <c r="BR34" s="147"/>
-      <c r="BS34" s="149"/>
-      <c r="BT34" s="148" t="s">
-        <v>31</v>
-      </c>
-      <c r="BU34" s="147"/>
-      <c r="BV34" s="147"/>
-      <c r="BW34" s="147"/>
-      <c r="BX34" s="147"/>
-      <c r="BY34" s="149"/>
+      <c r="BU34" s="106"/>
+      <c r="BV34" s="106"/>
+      <c r="BW34" s="106"/>
+      <c r="BX34" s="106"/>
+      <c r="BY34" s="107"/>
     </row>
     <row r="35" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" s="12"/>
-      <c r="D35" s="165">
+      <c r="D35" s="177">
         <v>1</v>
       </c>
-      <c r="E35" s="166"/>
+      <c r="E35" s="178"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
@@ -4898,13 +5741,13 @@
     </row>
     <row r="36" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" s="12"/>
-      <c r="D36" s="165">
+      <c r="D36" s="177">
         <v>1</v>
       </c>
-      <c r="E36" s="166"/>
+      <c r="E36" s="178"/>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
@@ -4980,13 +5823,13 @@
     </row>
     <row r="37" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="12"/>
-      <c r="D37" s="165">
+      <c r="D37" s="177">
         <v>1</v>
       </c>
-      <c r="E37" s="166"/>
+      <c r="E37" s="178"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
@@ -5062,13 +5905,13 @@
     </row>
     <row r="38" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38" s="12"/>
-      <c r="D38" s="165">
+      <c r="D38" s="177">
         <v>1</v>
       </c>
-      <c r="E38" s="166"/>
+      <c r="E38" s="178"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
@@ -5144,13 +5987,13 @@
     </row>
     <row r="39" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" s="12"/>
-      <c r="D39" s="165">
+      <c r="D39" s="177">
         <v>1</v>
       </c>
-      <c r="E39" s="166"/>
+      <c r="E39" s="178"/>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
@@ -5226,13 +6069,13 @@
     </row>
     <row r="40" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" s="12"/>
-      <c r="D40" s="165">
+      <c r="D40" s="177">
         <v>1</v>
       </c>
-      <c r="E40" s="166"/>
+      <c r="E40" s="178"/>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
@@ -5308,13 +6151,13 @@
     </row>
     <row r="41" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" s="12"/>
-      <c r="D41" s="165">
+      <c r="D41" s="177">
         <v>1</v>
       </c>
-      <c r="E41" s="166"/>
+      <c r="E41" s="178"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
@@ -5390,13 +6233,13 @@
     </row>
     <row r="42" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" s="12"/>
-      <c r="D42" s="165">
+      <c r="D42" s="177">
         <v>1</v>
       </c>
-      <c r="E42" s="166"/>
+      <c r="E42" s="178"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
@@ -5472,13 +6315,13 @@
     </row>
     <row r="43" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" s="12"/>
-      <c r="D43" s="165">
+      <c r="D43" s="177">
         <v>1</v>
       </c>
-      <c r="E43" s="166"/>
+      <c r="E43" s="178"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
@@ -5554,13 +6397,13 @@
     </row>
     <row r="44" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" s="12"/>
-      <c r="D44" s="165">
+      <c r="D44" s="177">
         <v>1</v>
       </c>
-      <c r="E44" s="166"/>
+      <c r="E44" s="178"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
@@ -5636,13 +6479,13 @@
     </row>
     <row r="45" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C45" s="12"/>
-      <c r="D45" s="165">
+      <c r="D45" s="177">
         <v>1</v>
       </c>
-      <c r="E45" s="166"/>
+      <c r="E45" s="178"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
@@ -5718,13 +6561,13 @@
     </row>
     <row r="46" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" s="12"/>
-      <c r="D46" s="165">
+      <c r="D46" s="177">
         <v>1</v>
       </c>
-      <c r="E46" s="166"/>
+      <c r="E46" s="178"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
@@ -5800,13 +6643,13 @@
     </row>
     <row r="47" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47" s="12"/>
-      <c r="D47" s="165">
+      <c r="D47" s="177">
         <v>1</v>
       </c>
-      <c r="E47" s="166"/>
+      <c r="E47" s="178"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
@@ -5882,13 +6725,13 @@
     </row>
     <row r="48" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48" s="12"/>
-      <c r="D48" s="165">
+      <c r="D48" s="177">
         <v>1</v>
       </c>
-      <c r="E48" s="166"/>
+      <c r="E48" s="178"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
@@ -5964,13 +6807,13 @@
     </row>
     <row r="49" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C49" s="12"/>
-      <c r="D49" s="165">
+      <c r="D49" s="177">
         <v>1</v>
       </c>
-      <c r="E49" s="166"/>
+      <c r="E49" s="178"/>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
@@ -6046,13 +6889,13 @@
     </row>
     <row r="50" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C50" s="12"/>
-      <c r="D50" s="165">
+      <c r="D50" s="177">
         <v>1</v>
       </c>
-      <c r="E50" s="166"/>
+      <c r="E50" s="178"/>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
@@ -6128,13 +6971,13 @@
     </row>
     <row r="51" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C51" s="12"/>
-      <c r="D51" s="165">
+      <c r="D51" s="177">
         <v>1</v>
       </c>
-      <c r="E51" s="166"/>
+      <c r="E51" s="178"/>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
@@ -6210,13 +7053,13 @@
     </row>
     <row r="52" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C52" s="12"/>
-      <c r="D52" s="165">
+      <c r="D52" s="177">
         <v>1</v>
       </c>
-      <c r="E52" s="166"/>
+      <c r="E52" s="178"/>
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
@@ -6292,13 +7135,13 @@
     </row>
     <row r="53" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C53" s="12"/>
-      <c r="D53" s="165">
+      <c r="D53" s="177">
         <v>1</v>
       </c>
-      <c r="E53" s="166"/>
+      <c r="E53" s="178"/>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
@@ -6374,13 +7217,13 @@
     </row>
     <row r="54" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C54" s="12"/>
-      <c r="D54" s="165">
+      <c r="D54" s="177">
         <v>1</v>
       </c>
-      <c r="E54" s="166"/>
+      <c r="E54" s="178"/>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
@@ -6456,13 +7299,13 @@
     </row>
     <row r="55" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C55" s="17"/>
-      <c r="D55" s="165">
+      <c r="D55" s="177">
         <v>1</v>
       </c>
-      <c r="E55" s="166"/>
+      <c r="E55" s="178"/>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
@@ -6538,13 +7381,13 @@
     </row>
     <row r="56" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C56" s="12"/>
-      <c r="D56" s="165">
+      <c r="D56" s="177">
         <v>1</v>
       </c>
-      <c r="E56" s="166"/>
+      <c r="E56" s="178"/>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
@@ -6620,13 +7463,13 @@
     </row>
     <row r="57" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C57" s="12"/>
-      <c r="D57" s="165">
+      <c r="D57" s="177">
         <v>1</v>
       </c>
-      <c r="E57" s="166"/>
+      <c r="E57" s="178"/>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
@@ -6702,13 +7545,13 @@
     </row>
     <row r="58" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C58" s="12"/>
-      <c r="D58" s="165">
+      <c r="D58" s="177">
         <v>1</v>
       </c>
-      <c r="E58" s="166"/>
+      <c r="E58" s="178"/>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
@@ -6784,13 +7627,13 @@
     </row>
     <row r="59" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C59" s="12"/>
-      <c r="D59" s="165">
+      <c r="D59" s="177">
         <v>1</v>
       </c>
-      <c r="E59" s="166"/>
+      <c r="E59" s="178"/>
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
@@ -6866,13 +7709,13 @@
     </row>
     <row r="60" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C60" s="12"/>
-      <c r="D60" s="165">
+      <c r="D60" s="177">
         <v>1</v>
       </c>
-      <c r="E60" s="166"/>
+      <c r="E60" s="178"/>
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
@@ -6948,13 +7791,13 @@
     </row>
     <row r="61" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C61" s="12"/>
-      <c r="D61" s="165">
+      <c r="D61" s="177">
         <v>1</v>
       </c>
-      <c r="E61" s="166"/>
+      <c r="E61" s="178"/>
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
@@ -7030,13 +7873,13 @@
     </row>
     <row r="62" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C62" s="12"/>
-      <c r="D62" s="165">
+      <c r="D62" s="177">
         <v>1</v>
       </c>
-      <c r="E62" s="166"/>
+      <c r="E62" s="178"/>
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
@@ -7113,8 +7956,8 @@
     <row r="63" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="16"/>
       <c r="C63" s="18"/>
-      <c r="D63" s="165"/>
-      <c r="E63" s="166"/>
+      <c r="D63" s="177"/>
+      <c r="E63" s="178"/>
       <c r="F63" s="18"/>
       <c r="G63" s="18"/>
       <c r="H63" s="18"/>
@@ -7190,13 +8033,13 @@
     </row>
     <row r="64" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C64" s="18"/>
-      <c r="D64" s="165">
+      <c r="D64" s="177">
         <v>1</v>
       </c>
-      <c r="E64" s="166"/>
+      <c r="E64" s="178"/>
       <c r="F64" s="18"/>
       <c r="G64" s="18"/>
       <c r="H64" s="18"/>
@@ -7272,13 +8115,13 @@
     </row>
     <row r="65" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C65" s="18"/>
-      <c r="D65" s="165">
+      <c r="D65" s="177">
         <v>1</v>
       </c>
-      <c r="E65" s="166"/>
+      <c r="E65" s="178"/>
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
       <c r="H65" s="18"/>
@@ -7355,8 +8198,8 @@
     <row r="66" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="16"/>
       <c r="C66" s="18"/>
-      <c r="D66" s="165"/>
-      <c r="E66" s="166"/>
+      <c r="D66" s="177"/>
+      <c r="E66" s="178"/>
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
       <c r="H66" s="18"/>
@@ -7432,13 +8275,13 @@
     </row>
     <row r="67" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C67" s="18"/>
-      <c r="D67" s="165">
+      <c r="D67" s="177">
         <v>1</v>
       </c>
-      <c r="E67" s="166"/>
+      <c r="E67" s="178"/>
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
       <c r="H67" s="18"/>
@@ -7514,13 +8357,13 @@
     </row>
     <row r="68" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C68" s="18"/>
-      <c r="D68" s="165">
+      <c r="D68" s="177">
         <v>1</v>
       </c>
-      <c r="E68" s="166"/>
+      <c r="E68" s="178"/>
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
       <c r="H68" s="18"/>
@@ -7596,13 +8439,13 @@
     </row>
     <row r="69" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C69" s="18"/>
-      <c r="D69" s="165">
+      <c r="D69" s="177">
         <v>1</v>
       </c>
-      <c r="E69" s="166"/>
+      <c r="E69" s="178"/>
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
       <c r="H69" s="18"/>
@@ -7678,13 +8521,13 @@
     </row>
     <row r="70" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C70" s="18"/>
-      <c r="D70" s="165">
+      <c r="D70" s="177">
         <v>1</v>
       </c>
-      <c r="E70" s="166"/>
+      <c r="E70" s="178"/>
       <c r="F70" s="18"/>
       <c r="G70" s="18"/>
       <c r="H70" s="18"/>
@@ -7760,13 +8603,13 @@
     </row>
     <row r="71" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C71" s="18"/>
-      <c r="D71" s="165">
+      <c r="D71" s="177">
         <v>1</v>
       </c>
-      <c r="E71" s="166"/>
+      <c r="E71" s="178"/>
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
       <c r="H71" s="18"/>
@@ -7842,13 +8685,13 @@
     </row>
     <row r="72" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C72" s="18"/>
-      <c r="D72" s="165">
+      <c r="D72" s="177">
         <v>1</v>
       </c>
-      <c r="E72" s="166"/>
+      <c r="E72" s="178"/>
       <c r="F72" s="18"/>
       <c r="G72" s="18"/>
       <c r="H72" s="18"/>
@@ -7924,13 +8767,13 @@
     </row>
     <row r="73" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C73" s="18"/>
-      <c r="D73" s="165">
+      <c r="D73" s="177">
         <v>1</v>
       </c>
-      <c r="E73" s="166"/>
+      <c r="E73" s="178"/>
       <c r="F73" s="18"/>
       <c r="G73" s="18"/>
       <c r="H73" s="18"/>
@@ -8006,13 +8849,13 @@
     </row>
     <row r="74" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C74" s="18"/>
-      <c r="D74" s="165">
+      <c r="D74" s="177">
         <v>1</v>
       </c>
-      <c r="E74" s="166"/>
+      <c r="E74" s="178"/>
       <c r="F74" s="18"/>
       <c r="G74" s="18"/>
       <c r="H74" s="18"/>
@@ -8088,13 +8931,13 @@
     </row>
     <row r="75" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C75" s="18"/>
-      <c r="D75" s="165">
+      <c r="D75" s="177">
         <v>1</v>
       </c>
-      <c r="E75" s="166"/>
+      <c r="E75" s="178"/>
       <c r="F75" s="18"/>
       <c r="G75" s="18"/>
       <c r="H75" s="18"/>
@@ -8170,13 +9013,13 @@
     </row>
     <row r="76" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C76" s="18"/>
-      <c r="D76" s="165">
+      <c r="D76" s="177">
         <v>1</v>
       </c>
-      <c r="E76" s="166"/>
+      <c r="E76" s="178"/>
       <c r="F76" s="18"/>
       <c r="G76" s="18"/>
       <c r="H76" s="18"/>
@@ -8252,13 +9095,13 @@
     </row>
     <row r="77" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C77" s="21"/>
-      <c r="D77" s="165">
+      <c r="D77" s="177">
         <v>1</v>
       </c>
-      <c r="E77" s="166"/>
+      <c r="E77" s="178"/>
       <c r="F77" s="21"/>
       <c r="G77" s="21"/>
       <c r="H77" s="21"/>
@@ -8334,13 +9177,13 @@
     </row>
     <row r="78" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D78" s="165"/>
-      <c r="E78" s="166"/>
+        <v>40</v>
+      </c>
+      <c r="D78" s="177"/>
+      <c r="E78" s="178"/>
       <c r="F78" s="18"/>
       <c r="G78" s="18"/>
       <c r="H78" s="18"/>
@@ -8353,22 +9196,22 @@
       <c r="O78" s="18"/>
       <c r="P78" s="18"/>
       <c r="Q78" s="18"/>
-      <c r="R78" s="156" t="s">
+      <c r="R78" s="168" t="s">
+        <v>105</v>
+      </c>
+      <c r="S78" s="169"/>
+      <c r="T78" s="169"/>
+      <c r="U78" s="169"/>
+      <c r="V78" s="169"/>
+      <c r="W78" s="170"/>
+      <c r="X78" s="168" t="s">
         <v>106</v>
       </c>
-      <c r="S78" s="157"/>
-      <c r="T78" s="157"/>
-      <c r="U78" s="157"/>
-      <c r="V78" s="157"/>
-      <c r="W78" s="158"/>
-      <c r="X78" s="156" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y78" s="157"/>
-      <c r="Z78" s="157"/>
-      <c r="AA78" s="157"/>
-      <c r="AB78" s="157"/>
-      <c r="AC78" s="158"/>
+      <c r="Y78" s="169"/>
+      <c r="Z78" s="169"/>
+      <c r="AA78" s="169"/>
+      <c r="AB78" s="169"/>
+      <c r="AC78" s="170"/>
       <c r="AD78" s="18"/>
       <c r="AE78" s="18"/>
       <c r="AF78" s="18"/>
@@ -8420,13 +9263,13 @@
     </row>
     <row r="79" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D79" s="165"/>
-      <c r="E79" s="166"/>
+        <v>40</v>
+      </c>
+      <c r="D79" s="177"/>
+      <c r="E79" s="178"/>
       <c r="F79" s="18"/>
       <c r="G79" s="18"/>
       <c r="H79" s="18"/>
@@ -8439,18 +9282,18 @@
       <c r="O79" s="18"/>
       <c r="P79" s="18"/>
       <c r="Q79" s="18"/>
-      <c r="R79" s="159"/>
-      <c r="S79" s="160"/>
-      <c r="T79" s="160"/>
-      <c r="U79" s="160"/>
-      <c r="V79" s="160"/>
-      <c r="W79" s="161"/>
-      <c r="X79" s="159"/>
-      <c r="Y79" s="160"/>
-      <c r="Z79" s="160"/>
-      <c r="AA79" s="160"/>
-      <c r="AB79" s="160"/>
-      <c r="AC79" s="161"/>
+      <c r="R79" s="171"/>
+      <c r="S79" s="172"/>
+      <c r="T79" s="172"/>
+      <c r="U79" s="172"/>
+      <c r="V79" s="172"/>
+      <c r="W79" s="173"/>
+      <c r="X79" s="171"/>
+      <c r="Y79" s="172"/>
+      <c r="Z79" s="172"/>
+      <c r="AA79" s="172"/>
+      <c r="AB79" s="172"/>
+      <c r="AC79" s="173"/>
       <c r="AD79" s="18"/>
       <c r="AE79" s="18"/>
       <c r="AF79" s="18"/>
@@ -8502,13 +9345,13 @@
     </row>
     <row r="80" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D80" s="165"/>
-      <c r="E80" s="166"/>
+        <v>40</v>
+      </c>
+      <c r="D80" s="177"/>
+      <c r="E80" s="178"/>
       <c r="F80" s="18"/>
       <c r="G80" s="18"/>
       <c r="H80" s="18"/>
@@ -8521,18 +9364,18 @@
       <c r="O80" s="18"/>
       <c r="P80" s="18"/>
       <c r="Q80" s="18"/>
-      <c r="R80" s="159"/>
-      <c r="S80" s="160"/>
-      <c r="T80" s="160"/>
-      <c r="U80" s="160"/>
-      <c r="V80" s="160"/>
-      <c r="W80" s="161"/>
-      <c r="X80" s="159"/>
-      <c r="Y80" s="160"/>
-      <c r="Z80" s="160"/>
-      <c r="AA80" s="160"/>
-      <c r="AB80" s="160"/>
-      <c r="AC80" s="161"/>
+      <c r="R80" s="171"/>
+      <c r="S80" s="172"/>
+      <c r="T80" s="172"/>
+      <c r="U80" s="172"/>
+      <c r="V80" s="172"/>
+      <c r="W80" s="173"/>
+      <c r="X80" s="171"/>
+      <c r="Y80" s="172"/>
+      <c r="Z80" s="172"/>
+      <c r="AA80" s="172"/>
+      <c r="AB80" s="172"/>
+      <c r="AC80" s="173"/>
       <c r="AD80" s="18"/>
       <c r="AE80" s="18"/>
       <c r="AF80" s="18"/>
@@ -8584,13 +9427,13 @@
     </row>
     <row r="81" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D81" s="165"/>
-      <c r="E81" s="166"/>
+        <v>40</v>
+      </c>
+      <c r="D81" s="177"/>
+      <c r="E81" s="178"/>
       <c r="F81" s="18"/>
       <c r="G81" s="18"/>
       <c r="H81" s="18"/>
@@ -8603,18 +9446,18 @@
       <c r="O81" s="18"/>
       <c r="P81" s="18"/>
       <c r="Q81" s="18"/>
-      <c r="R81" s="159"/>
-      <c r="S81" s="160"/>
-      <c r="T81" s="160"/>
-      <c r="U81" s="160"/>
-      <c r="V81" s="160"/>
-      <c r="W81" s="161"/>
-      <c r="X81" s="159"/>
-      <c r="Y81" s="160"/>
-      <c r="Z81" s="160"/>
-      <c r="AA81" s="160"/>
-      <c r="AB81" s="160"/>
-      <c r="AC81" s="161"/>
+      <c r="R81" s="171"/>
+      <c r="S81" s="172"/>
+      <c r="T81" s="172"/>
+      <c r="U81" s="172"/>
+      <c r="V81" s="172"/>
+      <c r="W81" s="173"/>
+      <c r="X81" s="171"/>
+      <c r="Y81" s="172"/>
+      <c r="Z81" s="172"/>
+      <c r="AA81" s="172"/>
+      <c r="AB81" s="172"/>
+      <c r="AC81" s="173"/>
       <c r="AD81" s="18"/>
       <c r="AE81" s="18"/>
       <c r="AF81" s="18"/>
@@ -8666,13 +9509,13 @@
     </row>
     <row r="82" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D82" s="165"/>
-      <c r="E82" s="166"/>
+        <v>40</v>
+      </c>
+      <c r="D82" s="177"/>
+      <c r="E82" s="178"/>
       <c r="F82" s="18"/>
       <c r="G82" s="18"/>
       <c r="H82" s="18"/>
@@ -8685,18 +9528,18 @@
       <c r="O82" s="18"/>
       <c r="P82" s="18"/>
       <c r="Q82" s="18"/>
-      <c r="R82" s="159"/>
-      <c r="S82" s="160"/>
-      <c r="T82" s="160"/>
-      <c r="U82" s="160"/>
-      <c r="V82" s="160"/>
-      <c r="W82" s="161"/>
-      <c r="X82" s="159"/>
-      <c r="Y82" s="160"/>
-      <c r="Z82" s="160"/>
-      <c r="AA82" s="160"/>
-      <c r="AB82" s="160"/>
-      <c r="AC82" s="161"/>
+      <c r="R82" s="171"/>
+      <c r="S82" s="172"/>
+      <c r="T82" s="172"/>
+      <c r="U82" s="172"/>
+      <c r="V82" s="172"/>
+      <c r="W82" s="173"/>
+      <c r="X82" s="171"/>
+      <c r="Y82" s="172"/>
+      <c r="Z82" s="172"/>
+      <c r="AA82" s="172"/>
+      <c r="AB82" s="172"/>
+      <c r="AC82" s="173"/>
       <c r="AD82" s="18"/>
       <c r="AE82" s="18"/>
       <c r="AF82" s="18"/>
@@ -8748,13 +9591,13 @@
     </row>
     <row r="83" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D83" s="165"/>
-      <c r="E83" s="166"/>
+        <v>40</v>
+      </c>
+      <c r="D83" s="177"/>
+      <c r="E83" s="178"/>
       <c r="F83" s="18"/>
       <c r="G83" s="18"/>
       <c r="H83" s="18"/>
@@ -8767,18 +9610,18 @@
       <c r="O83" s="18"/>
       <c r="P83" s="18"/>
       <c r="Q83" s="18"/>
-      <c r="R83" s="162"/>
-      <c r="S83" s="163"/>
-      <c r="T83" s="163"/>
-      <c r="U83" s="163"/>
-      <c r="V83" s="163"/>
-      <c r="W83" s="164"/>
-      <c r="X83" s="162"/>
-      <c r="Y83" s="163"/>
-      <c r="Z83" s="163"/>
-      <c r="AA83" s="163"/>
-      <c r="AB83" s="163"/>
-      <c r="AC83" s="164"/>
+      <c r="R83" s="174"/>
+      <c r="S83" s="175"/>
+      <c r="T83" s="175"/>
+      <c r="U83" s="175"/>
+      <c r="V83" s="175"/>
+      <c r="W83" s="176"/>
+      <c r="X83" s="174"/>
+      <c r="Y83" s="175"/>
+      <c r="Z83" s="175"/>
+      <c r="AA83" s="175"/>
+      <c r="AB83" s="175"/>
+      <c r="AC83" s="176"/>
       <c r="AD83" s="18"/>
       <c r="AE83" s="18"/>
       <c r="AF83" s="18"/>
@@ -8831,8 +9674,8 @@
     <row r="84" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="20"/>
       <c r="C84" s="21"/>
-      <c r="D84" s="165"/>
-      <c r="E84" s="166"/>
+      <c r="D84" s="177"/>
+      <c r="E84" s="178"/>
       <c r="F84" s="21"/>
       <c r="G84" s="21"/>
       <c r="H84" s="21"/>
@@ -8914,7 +9757,7 @@
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="186">
+  <mergeCells count="194">
     <mergeCell ref="D84:E84"/>
     <mergeCell ref="AH5:AI5"/>
     <mergeCell ref="N5:O5"/>
@@ -8932,32 +9775,35 @@
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="AD9:AI10"/>
+    <mergeCell ref="X13:AC14"/>
+    <mergeCell ref="X9:AC10"/>
+    <mergeCell ref="F9:K10"/>
+    <mergeCell ref="X19:AC20"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="AD19:AI20"/>
+    <mergeCell ref="AD32:AI32"/>
+    <mergeCell ref="AP32:AU32"/>
+    <mergeCell ref="AP27:AU28"/>
+    <mergeCell ref="AP19:AU20"/>
     <mergeCell ref="AV19:BA20"/>
     <mergeCell ref="AV32:BA32"/>
     <mergeCell ref="AV25:BA26"/>
     <mergeCell ref="BB32:BG32"/>
     <mergeCell ref="BB25:BG26"/>
-    <mergeCell ref="R78:W83"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="AD9:AI10"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="AD34:AI34"/>
-    <mergeCell ref="AJ34:AO34"/>
-    <mergeCell ref="AP34:AU34"/>
-    <mergeCell ref="AD19:AI20"/>
-    <mergeCell ref="AD32:AI32"/>
-    <mergeCell ref="AP32:AU32"/>
-    <mergeCell ref="AP27:AU28"/>
-    <mergeCell ref="AP19:AU20"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="R4:S4"/>
@@ -8975,10 +9821,6 @@
     <mergeCell ref="AB5:AC5"/>
     <mergeCell ref="AD5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="X19:AC20"/>
-    <mergeCell ref="X13:AC14"/>
-    <mergeCell ref="X9:AC10"/>
-    <mergeCell ref="F9:K10"/>
     <mergeCell ref="R9:W10"/>
     <mergeCell ref="AH4:AI4"/>
     <mergeCell ref="AJ4:AK4"/>
@@ -8996,6 +9838,8 @@
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="L9:Q10"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="AL5:AM5"/>
     <mergeCell ref="BH34:BM34"/>
     <mergeCell ref="BN34:BS34"/>
     <mergeCell ref="BT34:BY34"/>
@@ -9008,17 +9852,9 @@
     <mergeCell ref="X32:AC32"/>
     <mergeCell ref="AV34:BA34"/>
     <mergeCell ref="BB34:BG34"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="AD34:AI34"/>
+    <mergeCell ref="AJ34:AO34"/>
+    <mergeCell ref="AP34:AU34"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>
@@ -9038,6 +9874,13 @@
     <mergeCell ref="D72:E72"/>
     <mergeCell ref="D73:E73"/>
     <mergeCell ref="D74:E74"/>
+    <mergeCell ref="R78:W83"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
     <mergeCell ref="L19:Q20"/>
     <mergeCell ref="F15:K16"/>
     <mergeCell ref="F13:K14"/>
@@ -9062,12 +9905,6 @@
     <mergeCell ref="AV8:BA8"/>
     <mergeCell ref="BB8:BG8"/>
     <mergeCell ref="AP8:AU8"/>
-    <mergeCell ref="D19:E20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C25:C26"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D15:E16"/>
     <mergeCell ref="D13:E14"/>
@@ -9077,14 +9914,16 @@
     <mergeCell ref="D21:E22"/>
     <mergeCell ref="D27:E28"/>
     <mergeCell ref="D23:E24"/>
-    <mergeCell ref="BH21:BM22"/>
-    <mergeCell ref="BB9:BM10"/>
-    <mergeCell ref="BN9:BS10"/>
-    <mergeCell ref="BB13:BG14"/>
-    <mergeCell ref="BN23:BS24"/>
-    <mergeCell ref="BN30:BS30"/>
-    <mergeCell ref="BH25:BM26"/>
-    <mergeCell ref="BN25:BS26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C25:C26"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B15:B16"/>
@@ -9097,10 +9936,22 @@
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="BZ8:CE8"/>
+    <mergeCell ref="CF8:CK8"/>
+    <mergeCell ref="CL8:CQ8"/>
+    <mergeCell ref="CR8:CW8"/>
+    <mergeCell ref="CX8:DC8"/>
+    <mergeCell ref="CX31:DC31"/>
+    <mergeCell ref="CL31:CQ31"/>
+    <mergeCell ref="BH21:BM22"/>
+    <mergeCell ref="BB9:BM10"/>
+    <mergeCell ref="BN9:BS10"/>
+    <mergeCell ref="BB13:BG14"/>
+    <mergeCell ref="BN23:BS24"/>
+    <mergeCell ref="BN30:BS30"/>
+    <mergeCell ref="BH25:BM26"/>
+    <mergeCell ref="BN25:BS26"/>
+    <mergeCell ref="CR30:CW30"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
